--- a/other/graphs.xlsx
+++ b/other/graphs.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B52A312-4A63-1C4B-9DC7-2B1E6C4FFF7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D39F3C7-BCFC-704E-85CE-30CE6589280E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="460" windowWidth="27800" windowHeight="16500" xr2:uid="{50568A54-C490-204A-AE24-4B69BA545E02}"/>
+    <workbookView xWindow="1320" yWindow="460" windowWidth="27800" windowHeight="16500" xr2:uid="{50568A54-C490-204A-AE24-4B69BA545E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -17029,8 +17029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA38D56-529F-6943-948B-8ED18F113542}">
   <dimension ref="A1:AU209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="34" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView tabSelected="1" topLeftCell="BC2" zoomScale="31" zoomScaleNormal="34" workbookViewId="0">
+      <selection activeCell="V112" sqref="V112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17211,138 +17211,138 @@
         <v>43923</v>
       </c>
       <c r="C3" s="3">
-        <f>SUM(A156-A155)</f>
+        <f t="shared" ref="C3:C19" si="0">SUM(A156-A155)</f>
         <v>1602</v>
       </c>
       <c r="D3" s="3">
-        <f>SUM(B149-B148)</f>
+        <f t="shared" ref="D3:D19" si="1">SUM(B149-B148)</f>
         <v>116</v>
       </c>
       <c r="E3" s="3">
-        <f>SUM(C144-C143)</f>
+        <f t="shared" ref="E3:E11" si="2">SUM(C144-C143)</f>
         <v>1011</v>
       </c>
       <c r="F3" s="3">
-        <f>SUM(D146-D145)</f>
+        <f t="shared" ref="F3:F41" si="3">SUM(D146-D145)</f>
         <v>736</v>
       </c>
       <c r="G3" s="3">
-        <f>SUM(E142-E141)</f>
+        <f t="shared" ref="G3:G34" si="4">SUM(E142-E141)</f>
         <v>1141</v>
       </c>
       <c r="J3" s="1">
         <v>43923</v>
       </c>
       <c r="K3" s="3">
-        <f>SUM(F137-F136)</f>
+        <f t="shared" ref="K3:K44" si="5">SUM(F137-F136)</f>
         <v>605</v>
       </c>
       <c r="L3" s="3">
-        <f>SUM(G135-G134)</f>
+        <f t="shared" ref="L3:L48" si="6">SUM(G135-G134)</f>
         <v>360</v>
       </c>
       <c r="M3" s="3">
-        <f>SUM(H131-H130)</f>
+        <f t="shared" ref="M3:M16" si="7">SUM(H131-H130)</f>
         <v>355</v>
       </c>
       <c r="N3" s="3">
-        <f>SUM(I136-I135)</f>
+        <f t="shared" ref="N3:N39" si="8">SUM(I136-I135)</f>
         <v>349</v>
       </c>
       <c r="O3" s="3">
-        <f>SUM(J137-J136)</f>
+        <f t="shared" ref="O3:O34" si="9">SUM(J137-J136)</f>
         <v>256</v>
       </c>
       <c r="R3" s="1">
         <v>43923</v>
       </c>
       <c r="S3" s="3">
-        <f>SUM(K135-K134)</f>
+        <f t="shared" ref="S3:S34" si="10">SUM(K135-K134)</f>
         <v>272</v>
       </c>
       <c r="T3" s="3">
-        <f>SUM(L149-L148)</f>
+        <f t="shared" ref="T3:T50" si="11">SUM(L149-L148)</f>
         <v>288</v>
       </c>
       <c r="U3" s="3">
-        <f>SUM(M149-M148)</f>
+        <f t="shared" ref="U3:U50" si="12">SUM(M149-M148)</f>
         <v>154</v>
       </c>
       <c r="V3" s="3">
-        <f>SUM(N150-N149)</f>
+        <f t="shared" ref="V3:V38" si="13">SUM(N150-N149)</f>
         <v>109</v>
       </c>
       <c r="W3" s="3">
-        <f>SUM(O138-O137)</f>
+        <f t="shared" ref="W3:W40" si="14">SUM(O138-O137)</f>
         <v>104</v>
       </c>
       <c r="Z3" s="1">
         <v>43923</v>
       </c>
       <c r="AA3" s="3">
-        <f>SUM(P144-P143)</f>
+        <f t="shared" ref="AA3:AA22" si="15">SUM(P144-P143)</f>
         <v>599</v>
       </c>
       <c r="AB3" s="3">
-        <f>SUM(Q144-Q143)</f>
+        <f t="shared" ref="AB3:AB22" si="16">SUM(Q144-Q143)</f>
         <v>592</v>
       </c>
       <c r="AC3" s="3">
-        <f>SUM(R144-R143)</f>
+        <f t="shared" ref="AC3:AC22" si="17">SUM(R144-R143)</f>
         <v>479</v>
       </c>
       <c r="AD3" s="3">
-        <f>SUM(S144-S143)</f>
+        <f t="shared" ref="AD3:AD22" si="18">SUM(S144-S143)</f>
         <v>100</v>
       </c>
       <c r="AE3" s="3">
-        <f>SUM(T144-T143)</f>
+        <f t="shared" ref="AE3:AE22" si="19">SUM(T144-T143)</f>
         <v>37</v>
       </c>
       <c r="AH3" s="1">
         <v>43923</v>
       </c>
       <c r="AI3" s="3">
-        <f>SUM(U156-U155)</f>
+        <f t="shared" ref="AI3:AI18" si="20">SUM(U156-U155)</f>
         <v>374</v>
       </c>
       <c r="AJ3" s="3">
-        <f>SUM(V156-V155)</f>
+        <f t="shared" ref="AJ3:AJ18" si="21">SUM(V156-V155)</f>
         <v>86</v>
       </c>
       <c r="AK3" s="3">
-        <f>SUM(W156-W155)</f>
+        <f t="shared" ref="AK3:AK18" si="22">SUM(W156-W155)</f>
         <v>80</v>
       </c>
       <c r="AL3" s="3">
-        <f>SUM(X156-X155)</f>
+        <f t="shared" ref="AL3:AL18" si="23">SUM(X156-X155)</f>
         <v>105</v>
       </c>
       <c r="AM3" s="3">
-        <f>SUM(Y156-Y155)</f>
+        <f t="shared" ref="AM3:AM18" si="24">SUM(Y156-Y155)</f>
         <v>17</v>
       </c>
       <c r="AP3" s="1">
         <v>43923</v>
       </c>
       <c r="AQ3" s="3">
-        <f>SUM(Z153-Z152)</f>
+        <f t="shared" ref="AQ3:AQ18" si="25">SUM(Z153-Z152)</f>
         <v>538</v>
       </c>
       <c r="AR3" s="3">
-        <f>SUM(AA153-AA152)</f>
+        <f t="shared" ref="AR3:AR18" si="26">SUM(AA153-AA152)</f>
         <v>117</v>
       </c>
       <c r="AS3" s="3">
-        <f>SUM(AB153-AB152)</f>
+        <f t="shared" ref="AS3:AS18" si="27">SUM(AB153-AB152)</f>
         <v>132</v>
       </c>
       <c r="AT3" s="3">
-        <f>SUM(AC153-AC152)</f>
+        <f t="shared" ref="AT3:AT18" si="28">SUM(AC153-AC152)</f>
         <v>63</v>
       </c>
       <c r="AU3" s="3">
-        <f>SUM(AD153-AD152)</f>
+        <f t="shared" ref="AU3:AU18" si="29">SUM(AD153-AD152)</f>
         <v>50</v>
       </c>
     </row>
@@ -17351,138 +17351,138 @@
         <v>43924</v>
       </c>
       <c r="C4" s="3">
-        <f>SUM(A157-A156)</f>
+        <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(B150-B149)</f>
+        <f t="shared" si="1"/>
         <v>2937</v>
       </c>
       <c r="E4" s="3">
-        <f>SUM(C145-C144)</f>
+        <f t="shared" si="2"/>
         <v>1032</v>
       </c>
       <c r="F4" s="3">
-        <f>SUM(D147-D146)</f>
+        <f t="shared" si="3"/>
         <v>1422</v>
       </c>
       <c r="G4" s="3">
-        <f>SUM(E143-E142)</f>
+        <f t="shared" si="4"/>
         <v>1408</v>
       </c>
       <c r="J4" s="1">
         <v>43924</v>
       </c>
       <c r="K4" s="3">
-        <f>SUM(F138-F137)</f>
+        <f t="shared" si="5"/>
         <v>767</v>
       </c>
       <c r="L4" s="3">
-        <f>SUM(G136-G135)</f>
+        <f t="shared" si="6"/>
         <v>565</v>
       </c>
       <c r="M4" s="3">
-        <f>SUM(H132-H131)</f>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="N4" s="3">
-        <f>SUM(I137-I136)</f>
+        <f t="shared" si="8"/>
         <v>477</v>
       </c>
       <c r="O4" s="3">
-        <f>SUM(J138-J137)</f>
+        <f t="shared" si="9"/>
         <v>466</v>
       </c>
       <c r="R4" s="1">
         <v>43924</v>
       </c>
       <c r="S4" s="3">
-        <f>SUM(K136-K135)</f>
+        <f t="shared" si="10"/>
         <v>287</v>
       </c>
       <c r="T4" s="3">
-        <f>SUM(L150-L149)</f>
+        <f t="shared" si="11"/>
         <v>332</v>
       </c>
       <c r="U4" s="3">
-        <f>SUM(M150-M149)</f>
+        <f t="shared" si="12"/>
         <v>199</v>
       </c>
       <c r="V4" s="3">
-        <f>SUM(N151-N150)</f>
+        <f t="shared" si="13"/>
         <v>107</v>
       </c>
       <c r="W4" s="3">
-        <f>SUM(O139-O138)</f>
+        <f t="shared" si="14"/>
         <v>158</v>
       </c>
       <c r="Z4" s="1">
         <v>43924</v>
       </c>
       <c r="AA4" s="3">
-        <f>SUM(P145-P144)</f>
+        <f t="shared" si="15"/>
         <v>1027</v>
       </c>
       <c r="AB4" s="3">
-        <f>SUM(Q145-Q144)</f>
+        <f t="shared" si="16"/>
         <v>357</v>
       </c>
       <c r="AC4" s="3">
-        <f>SUM(R145-R144)</f>
+        <f t="shared" si="17"/>
         <v>228</v>
       </c>
       <c r="AD4" s="3">
-        <f>SUM(S145-S144)</f>
+        <f t="shared" si="18"/>
         <v>73</v>
       </c>
       <c r="AE4" s="3">
-        <f>SUM(T145-T144)</f>
+        <f t="shared" si="19"/>
         <v>39</v>
       </c>
       <c r="AH4" s="1">
         <v>43924</v>
       </c>
       <c r="AI4" s="3">
-        <f>SUM(U157-U156)</f>
+        <f t="shared" si="20"/>
         <v>432</v>
       </c>
       <c r="AJ4" s="3">
-        <f>SUM(V157-V156)</f>
+        <f t="shared" si="21"/>
         <v>140</v>
       </c>
       <c r="AK4" s="3">
-        <f>SUM(W157-W156)</f>
+        <f t="shared" si="22"/>
         <v>72</v>
       </c>
       <c r="AL4" s="3">
-        <f>SUM(X157-X156)</f>
+        <f t="shared" si="23"/>
         <v>105</v>
       </c>
       <c r="AM4" s="3">
-        <f>SUM(Y157-Y156)</f>
+        <f t="shared" si="24"/>
         <v>33</v>
       </c>
       <c r="AP4" s="1">
         <v>43924</v>
       </c>
       <c r="AQ4" s="3">
-        <f>SUM(Z154-Z153)</f>
+        <f t="shared" si="25"/>
         <v>526</v>
       </c>
       <c r="AR4" s="3">
-        <f>SUM(AA154-AA153)</f>
+        <f t="shared" si="26"/>
         <v>146</v>
       </c>
       <c r="AS4" s="3">
-        <f>SUM(AB154-AB153)</f>
+        <f t="shared" si="27"/>
         <v>102</v>
       </c>
       <c r="AT4" s="3">
-        <f>SUM(AC154-AC153)</f>
+        <f t="shared" si="28"/>
         <v>75</v>
       </c>
       <c r="AU4" s="3">
-        <f>SUM(AD154-AD153)</f>
+        <f t="shared" si="29"/>
         <v>55</v>
       </c>
     </row>
@@ -17491,138 +17491,138 @@
         <v>43925</v>
       </c>
       <c r="C5" s="3">
-        <f>SUM(A158-A157)</f>
+        <f t="shared" si="0"/>
         <v>1548</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(B151-B150)</f>
+        <f t="shared" si="1"/>
         <v>1161</v>
       </c>
       <c r="E5" s="3">
-        <f>SUM(C146-C145)</f>
+        <f t="shared" si="2"/>
         <v>2759</v>
       </c>
       <c r="F5" s="3">
-        <f>SUM(D148-D147)</f>
+        <f t="shared" si="3"/>
         <v>1055</v>
       </c>
       <c r="G5" s="3">
-        <f>SUM(E144-E143)</f>
+        <f t="shared" si="4"/>
         <v>2174</v>
       </c>
       <c r="J5" s="1">
         <v>43925</v>
       </c>
       <c r="K5" s="3">
-        <f>SUM(F139-F138)</f>
+        <f t="shared" si="5"/>
         <v>894</v>
       </c>
       <c r="L5" s="3">
-        <f>SUM(G137-G136)</f>
+        <f t="shared" si="6"/>
         <v>656</v>
       </c>
       <c r="M5" s="3">
-        <f>SUM(H133-H132)</f>
+        <f t="shared" si="7"/>
         <v>517</v>
       </c>
       <c r="N5" s="3">
-        <f>SUM(I138-I137)</f>
+        <f t="shared" si="8"/>
         <v>429</v>
       </c>
       <c r="O5" s="3">
-        <f>SUM(J139-J138)</f>
+        <f t="shared" si="9"/>
         <v>640</v>
       </c>
       <c r="R5" s="1">
         <v>43925</v>
       </c>
       <c r="S5" s="3">
-        <f>SUM(K137-K136)</f>
+        <f t="shared" si="10"/>
         <v>246</v>
       </c>
       <c r="T5" s="3">
-        <f>SUM(L151-L150)</f>
+        <f t="shared" si="11"/>
         <v>266</v>
       </c>
       <c r="U5" s="3">
-        <f>SUM(M151-M150)</f>
+        <f t="shared" si="12"/>
         <v>162</v>
       </c>
       <c r="V5" s="3">
-        <f>SUM(N152-N151)</f>
+        <f t="shared" si="13"/>
         <v>154</v>
       </c>
       <c r="W5" s="3">
-        <f>SUM(O140-O139)</f>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
       <c r="Z5" s="1">
         <v>43925</v>
       </c>
       <c r="AA5" s="3">
-        <f>SUM(P146-P145)</f>
+        <f t="shared" si="15"/>
         <v>666</v>
       </c>
       <c r="AB5" s="3">
-        <f>SUM(Q146-Q145)</f>
+        <f t="shared" si="16"/>
         <v>495</v>
       </c>
       <c r="AC5" s="3">
-        <f>SUM(R146-R145)</f>
+        <f t="shared" si="17"/>
         <v>443</v>
       </c>
       <c r="AD5" s="3">
-        <f>SUM(S146-S145)</f>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
       <c r="AE5" s="3">
-        <f>SUM(T146-T145)</f>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="AH5" s="1">
         <v>43925</v>
       </c>
       <c r="AI5" s="3">
-        <f>SUM(U158-U157)</f>
+        <f t="shared" si="20"/>
         <v>326</v>
       </c>
       <c r="AJ5" s="3">
-        <f>SUM(V158-V157)</f>
+        <f t="shared" si="21"/>
         <v>107</v>
       </c>
       <c r="AK5" s="3">
-        <f>SUM(W158-W157)</f>
+        <f t="shared" si="22"/>
         <v>74</v>
       </c>
       <c r="AL5" s="3">
-        <f>SUM(X158-X157)</f>
+        <f t="shared" si="23"/>
         <v>220</v>
       </c>
       <c r="AM5" s="3">
-        <f>SUM(Y158-Y157)</f>
+        <f t="shared" si="24"/>
         <v>34</v>
       </c>
       <c r="AP5" s="1">
         <v>43925</v>
       </c>
       <c r="AQ5" s="3">
-        <f>SUM(Z155-Z154)</f>
+        <f t="shared" si="25"/>
         <v>709</v>
       </c>
       <c r="AR5" s="3">
-        <f>SUM(AA155-AA154)</f>
+        <f t="shared" si="26"/>
         <v>97</v>
       </c>
       <c r="AS5" s="3">
-        <f>SUM(AB155-AB154)</f>
+        <f t="shared" si="27"/>
         <v>112</v>
       </c>
       <c r="AT5" s="3">
-        <f>SUM(AC155-AC154)</f>
+        <f t="shared" si="28"/>
         <v>54</v>
       </c>
       <c r="AU5" s="3">
-        <f>SUM(AD155-AD154)</f>
+        <f t="shared" si="29"/>
         <v>75</v>
       </c>
     </row>
@@ -17631,138 +17631,138 @@
         <v>43926</v>
       </c>
       <c r="C6" s="3">
-        <f>SUM(A159-A158)</f>
+        <f t="shared" si="0"/>
         <v>1410</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(B152-B151)</f>
+        <f t="shared" si="1"/>
         <v>1032</v>
       </c>
       <c r="E6" s="3">
-        <f>SUM(C147-C146)</f>
+        <f t="shared" si="2"/>
         <v>1052</v>
       </c>
       <c r="F6" s="3">
-        <f>SUM(D149-D148)</f>
+        <f t="shared" si="3"/>
         <v>918</v>
       </c>
       <c r="G6" s="3">
-        <f>SUM(E145-E144)</f>
+        <f t="shared" si="4"/>
         <v>605</v>
       </c>
       <c r="J6" s="1">
         <v>43926</v>
       </c>
       <c r="K6" s="3">
-        <f>SUM(F140-F139)</f>
+        <f t="shared" si="5"/>
         <v>427</v>
       </c>
       <c r="L6" s="3">
-        <f>SUM(G138-G137)</f>
+        <f t="shared" si="6"/>
         <v>433</v>
       </c>
       <c r="M6" s="3">
-        <f>SUM(H134-H133)</f>
+        <f t="shared" si="7"/>
         <v>498</v>
       </c>
       <c r="N6" s="3">
-        <f>SUM(I139-I138)</f>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="O6" s="3">
-        <f>SUM(J140-J139)</f>
+        <f t="shared" si="9"/>
         <v>371</v>
       </c>
       <c r="R6" s="1">
         <v>43926</v>
       </c>
       <c r="S6" s="3">
-        <f>SUM(K138-K137)</f>
+        <f t="shared" si="10"/>
         <v>229</v>
       </c>
       <c r="T6" s="3">
-        <f>SUM(L152-L151)</f>
+        <f t="shared" si="11"/>
         <v>164</v>
       </c>
       <c r="U6" s="3">
-        <f>SUM(M152-M151)</f>
+        <f t="shared" si="12"/>
         <v>106</v>
       </c>
       <c r="V6" s="3">
-        <f>SUM(N153-N152)</f>
+        <f t="shared" si="13"/>
         <v>72</v>
       </c>
       <c r="W6" s="3">
-        <f>SUM(O141-O140)</f>
+        <f t="shared" si="14"/>
         <v>63</v>
       </c>
       <c r="Z6" s="1">
         <v>43926</v>
       </c>
       <c r="AA6" s="3">
-        <f>SUM(P147-P146)</f>
+        <f t="shared" si="15"/>
         <v>756</v>
       </c>
       <c r="AB6" s="3">
-        <f>SUM(Q147-Q146)</f>
+        <f t="shared" si="16"/>
         <v>39</v>
       </c>
       <c r="AC6" s="3">
-        <f>SUM(R147-R146)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD6" s="3">
-        <f>SUM(S147-S146)</f>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="AE6" s="3">
-        <f>SUM(T147-T146)</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="AH6" s="1">
         <v>43926</v>
       </c>
       <c r="AI6" s="3">
-        <f>SUM(U159-U158)</f>
+        <f t="shared" si="20"/>
         <v>525</v>
       </c>
       <c r="AJ6" s="3">
-        <f>SUM(V159-V158)</f>
+        <f t="shared" si="21"/>
         <v>129</v>
       </c>
       <c r="AK6" s="3">
-        <f>SUM(W159-W158)</f>
+        <f t="shared" si="22"/>
         <v>92</v>
       </c>
       <c r="AL6" s="3">
-        <f>SUM(X159-X158)</f>
+        <f t="shared" si="23"/>
         <v>73</v>
       </c>
       <c r="AM6" s="3">
-        <f>SUM(Y159-Y158)</f>
+        <f t="shared" si="24"/>
         <v>41</v>
       </c>
       <c r="AP6" s="1">
         <v>43926</v>
       </c>
       <c r="AQ6" s="3">
-        <f>SUM(Z156-Z155)</f>
+        <f t="shared" si="25"/>
         <v>617</v>
       </c>
       <c r="AR6" s="3">
-        <f>SUM(AA156-AA155)</f>
+        <f t="shared" si="26"/>
         <v>117</v>
       </c>
       <c r="AS6" s="3">
-        <f>SUM(AB156-AB155)</f>
+        <f t="shared" si="27"/>
         <v>17</v>
       </c>
       <c r="AT6" s="3">
-        <f>SUM(AC156-AC155)</f>
+        <f t="shared" si="28"/>
         <v>59</v>
       </c>
       <c r="AU6" s="3">
-        <f>SUM(AD156-AD155)</f>
+        <f t="shared" si="29"/>
         <v>48</v>
       </c>
     </row>
@@ -17771,138 +17771,138 @@
         <v>43927</v>
       </c>
       <c r="C7" s="3">
-        <f>SUM(A160-A159)</f>
+        <f t="shared" si="0"/>
         <v>1302</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(B153-B152)</f>
+        <f t="shared" si="1"/>
         <v>914</v>
       </c>
       <c r="E7" s="3">
-        <f>SUM(C148-C147)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <f>SUM(D150-D149)</f>
+        <f t="shared" si="3"/>
         <v>942</v>
       </c>
       <c r="G7" s="3">
-        <f>SUM(E146-E145)</f>
+        <f t="shared" si="4"/>
         <v>1540</v>
       </c>
       <c r="J7" s="1">
         <v>43927</v>
       </c>
       <c r="K7" s="3">
-        <f>SUM(F141-F140)</f>
+        <f t="shared" si="5"/>
         <v>675</v>
       </c>
       <c r="L7" s="3">
-        <f>SUM(G139-G138)</f>
+        <f t="shared" si="6"/>
         <v>471</v>
       </c>
       <c r="M7" s="3">
-        <f>SUM(H135-H134)</f>
+        <f t="shared" si="7"/>
         <v>411</v>
       </c>
       <c r="N7" s="3">
-        <f>SUM(I140-I139)</f>
+        <f t="shared" si="8"/>
         <v>469</v>
       </c>
       <c r="O7" s="3">
-        <f>SUM(J141-J140)</f>
+        <f t="shared" si="9"/>
         <v>529</v>
       </c>
       <c r="R7" s="1">
         <v>43927</v>
       </c>
       <c r="S7" s="3">
-        <f>SUM(K139-K138)</f>
+        <f t="shared" si="10"/>
         <v>271</v>
       </c>
       <c r="T7" s="3">
-        <f>SUM(L153-L152)</f>
+        <f t="shared" si="11"/>
         <v>318</v>
       </c>
       <c r="U7" s="3">
-        <f>SUM(M153-M152)</f>
+        <f t="shared" si="12"/>
         <v>147</v>
       </c>
       <c r="V7" s="3">
-        <f>SUM(N154-N153)</f>
+        <f t="shared" si="13"/>
         <v>111</v>
       </c>
       <c r="W7" s="3">
-        <f>SUM(O142-O141)</f>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="Z7" s="1">
         <v>43927</v>
       </c>
       <c r="AA7" s="3">
-        <f>SUM(P148-P147)</f>
+        <f t="shared" si="15"/>
         <v>752</v>
       </c>
       <c r="AB7" s="3">
-        <f>SUM(Q148-Q147)</f>
+        <f t="shared" si="16"/>
         <v>306</v>
       </c>
       <c r="AC7" s="3">
-        <f>SUM(R148-R147)</f>
+        <f t="shared" si="17"/>
         <v>156</v>
       </c>
       <c r="AD7" s="3">
-        <f>SUM(S148-S147)</f>
+        <f t="shared" si="18"/>
         <v>64</v>
       </c>
       <c r="AE7" s="3">
-        <f>SUM(T148-T147)</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="AH7" s="1">
         <v>43927</v>
       </c>
       <c r="AI7" s="3">
-        <f>SUM(U160-U159)</f>
+        <f t="shared" si="20"/>
         <v>476</v>
       </c>
       <c r="AJ7" s="3">
-        <f>SUM(V160-V159)</f>
+        <f t="shared" si="21"/>
         <v>119</v>
       </c>
       <c r="AK7" s="3">
-        <f>SUM(W160-W159)</f>
+        <f t="shared" si="22"/>
         <v>114</v>
       </c>
       <c r="AL7" s="3">
-        <f>SUM(X160-X159)</f>
+        <f t="shared" si="23"/>
         <v>129</v>
       </c>
       <c r="AM7" s="3">
-        <f>SUM(Y160-Y159)</f>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="AP7" s="1">
         <v>43927</v>
       </c>
       <c r="AQ7" s="3">
-        <f>SUM(Z157-Z156)</f>
+        <f t="shared" si="25"/>
         <v>454</v>
       </c>
       <c r="AR7" s="3">
-        <f>SUM(AA157-AA156)</f>
+        <f t="shared" si="26"/>
         <v>78</v>
       </c>
       <c r="AS7" s="3">
-        <f>SUM(AB157-AB156)</f>
+        <f t="shared" si="27"/>
         <v>185</v>
       </c>
       <c r="AT7" s="3">
-        <f>SUM(AC157-AC156)</f>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="AU7" s="3">
-        <f>SUM(AD157-AD156)</f>
+        <f t="shared" si="29"/>
         <v>48</v>
       </c>
     </row>
@@ -17911,138 +17911,138 @@
         <v>43928</v>
       </c>
       <c r="C8" s="3">
-        <f>SUM(A161-A160)</f>
+        <f t="shared" si="0"/>
         <v>1726</v>
       </c>
       <c r="D8" s="3">
-        <f>SUM(B154-B153)</f>
+        <f t="shared" si="1"/>
         <v>1801</v>
       </c>
       <c r="E8" s="3">
-        <f>SUM(C149-C148)</f>
+        <f t="shared" si="2"/>
         <v>2212</v>
       </c>
       <c r="F8" s="3">
-        <f>SUM(D151-D150)</f>
+        <f t="shared" si="3"/>
         <v>1261</v>
       </c>
       <c r="G8" s="3">
-        <f>SUM(E147-E146)</f>
+        <f t="shared" si="4"/>
         <v>1088</v>
       </c>
       <c r="J8" s="1">
         <v>43928</v>
       </c>
       <c r="K8" s="3">
-        <f>SUM(F142-F141)</f>
+        <f t="shared" si="5"/>
         <v>671</v>
       </c>
       <c r="L8" s="3">
-        <f>SUM(G140-G139)</f>
+        <f t="shared" si="6"/>
         <v>554</v>
       </c>
       <c r="M8" s="3">
-        <f>SUM(H136-H135)</f>
+        <f t="shared" si="7"/>
         <v>585</v>
       </c>
       <c r="N8" s="3">
-        <f>SUM(I141-I140)</f>
+        <f t="shared" si="8"/>
         <v>673</v>
       </c>
       <c r="O8" s="3">
-        <f>SUM(J142-J141)</f>
+        <f t="shared" si="9"/>
         <v>345</v>
       </c>
       <c r="R8" s="1">
         <v>43928</v>
       </c>
       <c r="S8" s="3">
-        <f>SUM(K140-K139)</f>
+        <f t="shared" si="10"/>
         <v>316</v>
       </c>
       <c r="T8" s="3">
-        <f>SUM(L154-L153)</f>
+        <f t="shared" si="11"/>
         <v>237</v>
       </c>
       <c r="U8" s="3">
-        <f>SUM(M154-M153)</f>
+        <f t="shared" si="12"/>
         <v>188</v>
       </c>
       <c r="V8" s="3">
-        <f>SUM(N155-N154)</f>
+        <f t="shared" si="13"/>
         <v>210</v>
       </c>
       <c r="W8" s="3">
-        <f>SUM(O143-O142)</f>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
       <c r="Z8" s="1">
         <v>43928</v>
       </c>
       <c r="AA8" s="3">
-        <f>SUM(P149-P148)</f>
+        <f t="shared" si="15"/>
         <v>775</v>
       </c>
       <c r="AB8" s="3">
-        <f>SUM(Q149-Q148)</f>
+        <f t="shared" si="16"/>
         <v>356</v>
       </c>
       <c r="AC8" s="3">
-        <f>SUM(R149-R148)</f>
+        <f t="shared" si="17"/>
         <v>255</v>
       </c>
       <c r="AD8" s="3">
-        <f>SUM(S149-S148)</f>
+        <f t="shared" si="18"/>
         <v>70</v>
       </c>
       <c r="AE8" s="3">
-        <f>SUM(T149-T148)</f>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="AH8" s="1">
         <v>43928</v>
       </c>
       <c r="AI8" s="3">
-        <f>SUM(U161-U160)</f>
+        <f t="shared" si="20"/>
         <v>401</v>
       </c>
       <c r="AJ8" s="3">
-        <f>SUM(V161-V160)</f>
+        <f t="shared" si="21"/>
         <v>129</v>
       </c>
       <c r="AK8" s="3">
-        <f>SUM(W161-W160)</f>
+        <f t="shared" si="22"/>
         <v>76</v>
       </c>
       <c r="AL8" s="3">
-        <f>SUM(X161-X160)</f>
+        <f t="shared" si="23"/>
         <v>140</v>
       </c>
       <c r="AM8" s="3">
-        <f>SUM(Y161-Y160)</f>
+        <f t="shared" si="24"/>
         <v>43</v>
       </c>
       <c r="AP8" s="1">
         <v>43928</v>
       </c>
       <c r="AQ8" s="3">
-        <f>SUM(Z158-Z157)</f>
+        <f t="shared" si="25"/>
         <v>539</v>
       </c>
       <c r="AR8" s="3">
-        <f>SUM(AA158-AA157)</f>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="AS8" s="3">
-        <f>SUM(AB158-AB157)</f>
+        <f t="shared" si="27"/>
         <v>51</v>
       </c>
       <c r="AT8" s="3">
-        <f>SUM(AC158-AC157)</f>
+        <f t="shared" si="28"/>
         <v>61</v>
       </c>
       <c r="AU8" s="3">
-        <f>SUM(AD158-AD157)</f>
+        <f t="shared" si="29"/>
         <v>49</v>
       </c>
     </row>
@@ -18051,138 +18051,138 @@
         <v>43929</v>
       </c>
       <c r="C9" s="3">
-        <f>SUM(A162-A161)</f>
+        <f t="shared" si="0"/>
         <v>1395</v>
       </c>
       <c r="D9" s="3">
-        <f>SUM(B155-B154)</f>
+        <f t="shared" si="1"/>
         <v>1345</v>
       </c>
       <c r="E9" s="3">
-        <f>SUM(C150-C149)</f>
+        <f t="shared" si="2"/>
         <v>1938</v>
       </c>
       <c r="F9" s="3">
-        <f>SUM(D152-D151)</f>
+        <f t="shared" si="3"/>
         <v>1478</v>
       </c>
       <c r="G9" s="3">
-        <f>SUM(E148-E147)</f>
+        <f t="shared" si="4"/>
         <v>283</v>
       </c>
       <c r="J9" s="1">
         <v>43929</v>
       </c>
       <c r="K9" s="3">
-        <f>SUM(F143-F142)</f>
+        <f t="shared" si="5"/>
         <v>341</v>
       </c>
       <c r="L9" s="3">
-        <f>SUM(G141-G140)</f>
+        <f t="shared" si="6"/>
         <v>488</v>
       </c>
       <c r="M9" s="3">
-        <f>SUM(H137-H136)</f>
+        <f t="shared" si="7"/>
         <v>520</v>
       </c>
       <c r="N9" s="3">
-        <f>SUM(I142-I141)</f>
+        <f t="shared" si="8"/>
         <v>473</v>
       </c>
       <c r="O9" s="3">
-        <f>SUM(J143-J142)</f>
+        <f t="shared" si="9"/>
         <v>271</v>
       </c>
       <c r="R9" s="1">
         <v>43929</v>
       </c>
       <c r="S9" s="3">
-        <f>SUM(K141-K140)</f>
+        <f t="shared" si="10"/>
         <v>355</v>
       </c>
       <c r="T9" s="3">
-        <f>SUM(L155-L154)</f>
+        <f t="shared" si="11"/>
         <v>358</v>
       </c>
       <c r="U9" s="3">
-        <f>SUM(M155-M154)</f>
+        <f t="shared" si="12"/>
         <v>262</v>
       </c>
       <c r="V9" s="3">
-        <f>SUM(N156-N155)</f>
+        <f t="shared" si="13"/>
         <v>186</v>
       </c>
       <c r="W9" s="3">
-        <f>SUM(O144-O143)</f>
+        <f t="shared" si="14"/>
         <v>124</v>
       </c>
       <c r="Z9" s="1">
         <v>43929</v>
       </c>
       <c r="AA9" s="3">
-        <f>SUM(P150-P149)</f>
+        <f t="shared" si="15"/>
         <v>581</v>
       </c>
       <c r="AB9" s="3">
-        <f>SUM(Q150-Q149)</f>
+        <f t="shared" si="16"/>
         <v>271</v>
       </c>
       <c r="AC9" s="3">
-        <f>SUM(R150-R149)</f>
+        <f t="shared" si="17"/>
         <v>212</v>
       </c>
       <c r="AD9" s="3">
-        <f>SUM(S150-S149)</f>
+        <f t="shared" si="18"/>
         <v>75</v>
       </c>
       <c r="AE9" s="3">
-        <f>SUM(T150-T149)</f>
+        <f t="shared" si="19"/>
         <v>49</v>
       </c>
       <c r="AH9" s="1">
         <v>43929</v>
       </c>
       <c r="AI9" s="3">
-        <f>SUM(U162-U161)</f>
+        <f t="shared" si="20"/>
         <v>444</v>
       </c>
       <c r="AJ9" s="3">
-        <f>SUM(V162-V161)</f>
+        <f t="shared" si="21"/>
         <v>162</v>
       </c>
       <c r="AK9" s="3">
-        <f>SUM(W162-W161)</f>
+        <f t="shared" si="22"/>
         <v>136</v>
       </c>
       <c r="AL9" s="3">
-        <f>SUM(X162-X161)</f>
+        <f t="shared" si="23"/>
         <v>173</v>
       </c>
       <c r="AM9" s="3">
-        <f>SUM(Y162-Y161)</f>
+        <f t="shared" si="24"/>
         <v>47</v>
       </c>
       <c r="AP9" s="1">
         <v>43929</v>
       </c>
       <c r="AQ9" s="3">
-        <f>SUM(Z159-Z158)</f>
+        <f t="shared" si="25"/>
         <v>620</v>
       </c>
       <c r="AR9" s="3">
-        <f>SUM(AA159-AA158)</f>
+        <f t="shared" si="26"/>
         <v>76</v>
       </c>
       <c r="AS9" s="3">
-        <f>SUM(AB159-AB158)</f>
+        <f t="shared" si="27"/>
         <v>69</v>
       </c>
       <c r="AT9" s="3">
-        <f>SUM(AC159-AC158)</f>
+        <f t="shared" si="28"/>
         <v>95</v>
       </c>
       <c r="AU9" s="3">
-        <f>SUM(AD159-AD158)</f>
+        <f t="shared" si="29"/>
         <v>85</v>
       </c>
     </row>
@@ -18191,138 +18191,138 @@
         <v>43930</v>
       </c>
       <c r="C10" s="3">
-        <f>SUM(A163-A162)</f>
+        <f t="shared" si="0"/>
         <v>1555</v>
       </c>
       <c r="D10" s="3">
-        <f>SUM(B156-B155)</f>
+        <f t="shared" si="1"/>
         <v>1828</v>
       </c>
       <c r="E10" s="3">
-        <f>SUM(C151-C150)</f>
+        <f t="shared" si="2"/>
         <v>1592</v>
       </c>
       <c r="F10" s="3">
-        <f>SUM(D153-D152)</f>
+        <f t="shared" si="3"/>
         <v>2317</v>
       </c>
       <c r="G10" s="3">
-        <f>SUM(E149-E148)</f>
+        <f t="shared" si="4"/>
         <v>1569</v>
       </c>
       <c r="J10" s="1">
         <v>43930</v>
       </c>
       <c r="K10" s="3">
-        <f>SUM(F144-F143)</f>
+        <f t="shared" si="5"/>
         <v>469</v>
       </c>
       <c r="L10" s="3">
-        <f>SUM(G142-G141)</f>
+        <f t="shared" si="6"/>
         <v>442</v>
       </c>
       <c r="M10" s="3">
-        <f>SUM(H138-H137)</f>
+        <f t="shared" si="7"/>
         <v>471</v>
       </c>
       <c r="N10" s="3">
-        <f>SUM(I143-I142)</f>
+        <f t="shared" si="8"/>
         <v>372</v>
       </c>
       <c r="O10" s="3">
-        <f>SUM(J144-J143)</f>
+        <f t="shared" si="9"/>
         <v>318</v>
       </c>
       <c r="R10" s="1">
         <v>43930</v>
       </c>
       <c r="S10" s="3">
-        <f>SUM(K142-K141)</f>
+        <f t="shared" si="10"/>
         <v>441</v>
       </c>
       <c r="T10" s="3">
-        <f>SUM(L156-L155)</f>
+        <f t="shared" si="11"/>
         <v>500</v>
       </c>
       <c r="U10" s="3">
-        <f>SUM(M156-M155)</f>
+        <f t="shared" si="12"/>
         <v>233</v>
       </c>
       <c r="V10" s="3">
-        <f>SUM(N157-N156)</f>
+        <f t="shared" si="13"/>
         <v>229</v>
       </c>
       <c r="W10" s="3">
-        <f>SUM(O145-O144)</f>
+        <f t="shared" si="14"/>
         <v>165</v>
       </c>
       <c r="Z10" s="1">
         <v>43930</v>
       </c>
       <c r="AA10" s="3">
-        <f>SUM(P151-P150)</f>
+        <f t="shared" si="15"/>
         <v>467</v>
       </c>
       <c r="AB10" s="3">
-        <f>SUM(Q151-Q150)</f>
+        <f t="shared" si="16"/>
         <v>240</v>
       </c>
       <c r="AC10" s="3">
-        <f>SUM(R151-R150)</f>
+        <f t="shared" si="17"/>
         <v>157</v>
       </c>
       <c r="AD10" s="3">
-        <f>SUM(S151-S150)</f>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
       <c r="AE10" s="3">
-        <f>SUM(T151-T150)</f>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="AH10" s="1">
         <v>43930</v>
       </c>
       <c r="AI10" s="3">
-        <f>SUM(U163-U162)</f>
+        <f t="shared" si="20"/>
         <v>573</v>
       </c>
       <c r="AJ10" s="3">
-        <f>SUM(V163-V162)</f>
+        <f t="shared" si="21"/>
         <v>172</v>
       </c>
       <c r="AK10" s="3">
-        <f>SUM(W163-W162)</f>
+        <f t="shared" si="22"/>
         <v>188</v>
       </c>
       <c r="AL10" s="3">
-        <f>SUM(X163-X162)</f>
+        <f t="shared" si="23"/>
         <v>147</v>
       </c>
       <c r="AM10" s="3">
-        <f>SUM(Y163-Y162)</f>
+        <f t="shared" si="24"/>
         <v>200</v>
       </c>
       <c r="AP10" s="1">
         <v>43930</v>
       </c>
       <c r="AQ10" s="3">
-        <f>SUM(Z160-Z159)</f>
+        <f t="shared" si="25"/>
         <v>414</v>
       </c>
       <c r="AR10" s="3">
-        <f>SUM(AA160-AA159)</f>
+        <f t="shared" si="26"/>
         <v>98</v>
       </c>
       <c r="AS10" s="3">
-        <f>SUM(AB160-AB159)</f>
+        <f t="shared" si="27"/>
         <v>109</v>
       </c>
       <c r="AT10" s="3">
-        <f>SUM(AC160-AC159)</f>
+        <f t="shared" si="28"/>
         <v>62</v>
       </c>
       <c r="AU10" s="3">
-        <f>SUM(AD160-AD159)</f>
+        <f t="shared" si="29"/>
         <v>63</v>
       </c>
     </row>
@@ -18331,138 +18331,138 @@
         <v>43931</v>
       </c>
       <c r="C11" s="3">
-        <f>SUM(A164-A163)</f>
+        <f t="shared" si="0"/>
         <v>1995</v>
       </c>
       <c r="D11" s="3">
-        <f>SUM(B157-B156)</f>
+        <f t="shared" si="1"/>
         <v>1438</v>
       </c>
       <c r="E11" s="3">
-        <f>SUM(C152-C151)</f>
+        <f t="shared" si="2"/>
         <v>1372</v>
       </c>
       <c r="F11" s="3">
-        <f>SUM(D154-D153)</f>
+        <f t="shared" si="3"/>
         <v>1807</v>
       </c>
       <c r="G11" s="3">
-        <f>SUM(E150-E149)</f>
+        <f t="shared" si="4"/>
         <v>1279</v>
       </c>
       <c r="J11" s="1">
         <v>43931</v>
       </c>
       <c r="K11" s="3">
-        <f>SUM(F145-F144)</f>
+        <f t="shared" si="5"/>
         <v>585</v>
       </c>
       <c r="L11" s="3">
-        <f>SUM(G143-G142)</f>
+        <f t="shared" si="6"/>
         <v>532</v>
       </c>
       <c r="M11" s="3">
-        <f>SUM(H139-H138)</f>
+        <f t="shared" si="7"/>
         <v>511</v>
       </c>
       <c r="N11" s="3">
-        <f>SUM(I144-I143)</f>
+        <f t="shared" si="8"/>
         <v>372</v>
       </c>
       <c r="O11" s="3">
-        <f>SUM(J145-J144)</f>
+        <f t="shared" si="9"/>
         <v>327</v>
       </c>
       <c r="R11" s="1">
         <v>43931</v>
       </c>
       <c r="S11" s="3">
-        <f>SUM(K143-K142)</f>
+        <f t="shared" si="10"/>
         <v>493</v>
       </c>
       <c r="T11" s="3">
-        <f>SUM(L157-L156)</f>
+        <f t="shared" si="11"/>
         <v>402</v>
       </c>
       <c r="U11" s="3">
-        <f>SUM(M157-M156)</f>
+        <f t="shared" si="12"/>
         <v>334</v>
       </c>
       <c r="V11" s="3">
-        <f>SUM(N158-N157)</f>
+        <f t="shared" si="13"/>
         <v>209</v>
       </c>
       <c r="W11" s="3">
-        <f>SUM(O146-O145)</f>
+        <f t="shared" si="14"/>
         <v>217</v>
       </c>
       <c r="Z11" s="1">
         <v>43931</v>
       </c>
       <c r="AA11" s="3">
-        <f>SUM(P152-P151)</f>
+        <f t="shared" si="15"/>
         <v>446</v>
       </c>
       <c r="AB11" s="3">
-        <f>SUM(Q152-Q151)</f>
+        <f t="shared" si="16"/>
         <v>264</v>
       </c>
       <c r="AC11" s="3">
-        <f>SUM(R152-R151)</f>
+        <f t="shared" si="17"/>
         <v>190</v>
       </c>
       <c r="AD11" s="3">
-        <f>SUM(S152-S151)</f>
+        <f t="shared" si="18"/>
         <v>73</v>
       </c>
       <c r="AE11" s="3">
-        <f>SUM(T152-T151)</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="AH11" s="1">
         <v>43931</v>
       </c>
       <c r="AI11" s="3">
-        <f>SUM(U164-U163)</f>
+        <f t="shared" si="20"/>
         <v>492</v>
       </c>
       <c r="AJ11" s="3">
-        <f>SUM(V164-V163)</f>
+        <f t="shared" si="21"/>
         <v>196</v>
       </c>
       <c r="AK11" s="3">
-        <f>SUM(W164-W163)</f>
+        <f t="shared" si="22"/>
         <v>155</v>
       </c>
       <c r="AL11" s="3">
-        <f>SUM(X164-X163)</f>
+        <f t="shared" si="23"/>
         <v>96</v>
       </c>
       <c r="AM11" s="3">
-        <f>SUM(Y164-Y163)</f>
+        <f t="shared" si="24"/>
         <v>104</v>
       </c>
       <c r="AP11" s="1">
         <v>43931</v>
       </c>
       <c r="AQ11" s="3">
-        <f>SUM(Z161-Z160)</f>
+        <f t="shared" si="25"/>
         <v>465</v>
       </c>
       <c r="AR11" s="3">
-        <f>SUM(AA161-AA160)</f>
+        <f t="shared" si="26"/>
         <v>65</v>
       </c>
       <c r="AS11" s="3">
-        <f>SUM(AB161-AB160)</f>
+        <f t="shared" si="27"/>
         <v>79</v>
       </c>
       <c r="AT11" s="3">
-        <f>SUM(AC161-AC160)</f>
+        <f t="shared" si="28"/>
         <v>42</v>
       </c>
       <c r="AU11" s="3">
-        <f>SUM(AD161-AD160)</f>
+        <f t="shared" si="29"/>
         <v>59</v>
       </c>
     </row>
@@ -18471,135 +18471,135 @@
         <v>43932</v>
       </c>
       <c r="C12" s="3">
-        <f>SUM(A165-A164)</f>
+        <f t="shared" si="0"/>
         <v>1290</v>
       </c>
       <c r="D12" s="3">
-        <f>SUM(B158-B157)</f>
+        <f t="shared" si="1"/>
         <v>1196</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <f>SUM(D155-D154)</f>
+        <f t="shared" si="3"/>
         <v>980</v>
       </c>
       <c r="G12" s="3">
-        <f>SUM(E151-E150)</f>
+        <f t="shared" si="4"/>
         <v>1191</v>
       </c>
       <c r="J12" s="1">
         <v>43932</v>
       </c>
       <c r="K12" s="3">
-        <f>SUM(F146-F145)</f>
+        <f t="shared" si="5"/>
         <v>434</v>
       </c>
       <c r="L12" s="3">
-        <f>SUM(G144-G143)</f>
+        <f t="shared" si="6"/>
         <v>596</v>
       </c>
       <c r="M12" s="3">
-        <f>SUM(H140-H139)</f>
+        <f t="shared" si="7"/>
         <v>271</v>
       </c>
       <c r="N12" s="3">
-        <f>SUM(I145-I144)</f>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="O12" s="3">
-        <f>SUM(J146-J145)</f>
+        <f t="shared" si="9"/>
         <v>278</v>
       </c>
       <c r="R12" s="1">
         <v>43932</v>
       </c>
       <c r="S12" s="3">
-        <f>SUM(K144-K143)</f>
+        <f t="shared" si="10"/>
         <v>392</v>
       </c>
       <c r="T12" s="3">
-        <f>SUM(L158-L157)</f>
+        <f t="shared" si="11"/>
         <v>425</v>
       </c>
       <c r="U12" s="3">
-        <f>SUM(M158-M157)</f>
+        <f t="shared" si="12"/>
         <v>226</v>
       </c>
       <c r="V12" s="3">
-        <f>SUM(N159-N158)</f>
+        <f t="shared" si="13"/>
         <v>179</v>
       </c>
       <c r="W12" s="3">
-        <f>SUM(O147-O146)</f>
+        <f t="shared" si="14"/>
         <v>144</v>
       </c>
       <c r="Z12" s="1">
         <v>43932</v>
       </c>
       <c r="AA12" s="3">
-        <f>SUM(P153-P152)</f>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="AB12" s="3">
-        <f>SUM(Q153-Q152)</f>
+        <f t="shared" si="16"/>
         <v>291</v>
       </c>
       <c r="AC12" s="3">
-        <f>SUM(R153-R152)</f>
+        <f t="shared" si="17"/>
         <v>191</v>
       </c>
       <c r="AD12" s="3">
-        <f>SUM(S153-S152)</f>
+        <f t="shared" si="18"/>
         <v>91</v>
       </c>
       <c r="AE12" s="3">
-        <f>SUM(T153-T152)</f>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
       <c r="AH12" s="1">
         <v>43932</v>
       </c>
       <c r="AI12" s="3">
-        <f>SUM(U165-U164)</f>
+        <f t="shared" si="20"/>
         <v>501</v>
       </c>
       <c r="AJ12" s="3">
-        <f>SUM(V165-V164)</f>
+        <f t="shared" si="21"/>
         <v>164</v>
       </c>
       <c r="AK12" s="3">
-        <f>SUM(W165-W164)</f>
+        <f t="shared" si="22"/>
         <v>133</v>
       </c>
       <c r="AL12" s="3">
-        <f>SUM(X165-X164)</f>
+        <f t="shared" si="23"/>
         <v>58</v>
       </c>
       <c r="AM12" s="3">
-        <f>SUM(Y165-Y164)</f>
+        <f t="shared" si="24"/>
         <v>210</v>
       </c>
       <c r="AP12" s="1">
         <v>43932</v>
       </c>
       <c r="AQ12" s="3">
-        <f>SUM(Z162-Z161)</f>
+        <f t="shared" si="25"/>
         <v>439</v>
       </c>
       <c r="AR12" s="3">
-        <f>SUM(AA162-AA161)</f>
+        <f t="shared" si="26"/>
         <v>68</v>
       </c>
       <c r="AS12" s="3">
-        <f>SUM(AB162-AB161)</f>
+        <f t="shared" si="27"/>
         <v>98</v>
       </c>
       <c r="AT12" s="3">
-        <f>SUM(AC162-AC161)</f>
+        <f t="shared" si="28"/>
         <v>82</v>
       </c>
       <c r="AU12" s="3">
-        <f>SUM(AD162-AD161)</f>
+        <f t="shared" si="29"/>
         <v>83</v>
       </c>
     </row>
@@ -18608,135 +18608,135 @@
         <v>43933</v>
       </c>
       <c r="C13" s="3">
-        <f>SUM(A166-A165)</f>
+        <f t="shared" si="0"/>
         <v>1705</v>
       </c>
       <c r="D13" s="3">
-        <f>SUM(B159-B158)</f>
+        <f t="shared" si="1"/>
         <v>1420</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <f>SUM(D156-D155)</f>
+        <f t="shared" si="3"/>
         <v>1186</v>
       </c>
       <c r="G13" s="3">
-        <f>SUM(E152-E151)</f>
+        <f t="shared" si="4"/>
         <v>933</v>
       </c>
       <c r="J13" s="1">
         <v>43933</v>
       </c>
       <c r="K13" s="3">
-        <f>SUM(F147-F146)</f>
+        <f t="shared" si="5"/>
         <v>422</v>
       </c>
       <c r="L13" s="3">
-        <f>SUM(G145-G144)</f>
+        <f t="shared" si="6"/>
         <v>462</v>
       </c>
       <c r="M13" s="3">
-        <f>SUM(H141-H140)</f>
+        <f t="shared" si="7"/>
         <v>559</v>
       </c>
       <c r="N13" s="3">
-        <f>SUM(I146-I145)</f>
+        <f t="shared" si="8"/>
         <v>315</v>
       </c>
       <c r="O13" s="3">
-        <f>SUM(J147-J146)</f>
+        <f t="shared" si="9"/>
         <v>295</v>
       </c>
       <c r="R13" s="1">
         <v>43933</v>
       </c>
       <c r="S13" s="3">
-        <f>SUM(K145-K144)</f>
+        <f t="shared" si="10"/>
         <v>433</v>
       </c>
       <c r="T13" s="3">
-        <f>SUM(L159-L158)</f>
+        <f t="shared" si="11"/>
         <v>788</v>
       </c>
       <c r="U13" s="3">
-        <f>SUM(M159-M158)</f>
+        <f t="shared" si="12"/>
         <v>274</v>
       </c>
       <c r="V13" s="3">
-        <f>SUM(N160-N159)</f>
+        <f t="shared" si="13"/>
         <v>254</v>
       </c>
       <c r="W13" s="3">
-        <f>SUM(O148-O147)</f>
+        <f t="shared" si="14"/>
         <v>210</v>
       </c>
       <c r="Z13" s="1">
         <v>43933</v>
       </c>
       <c r="AA13" s="3">
-        <f>SUM(P154-P153)</f>
+        <f t="shared" si="15"/>
         <v>213</v>
       </c>
       <c r="AB13" s="3">
-        <f>SUM(Q154-Q153)</f>
+        <f t="shared" si="16"/>
         <v>113</v>
       </c>
       <c r="AC13" s="3">
-        <f>SUM(R154-R153)</f>
+        <f t="shared" si="17"/>
         <v>90</v>
       </c>
       <c r="AD13" s="3">
-        <f>SUM(S154-S153)</f>
+        <f t="shared" si="18"/>
         <v>36</v>
       </c>
       <c r="AE13" s="3">
-        <f>SUM(T154-T153)</f>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="AH13" s="1">
         <v>43933</v>
       </c>
       <c r="AI13" s="3">
-        <f>SUM(U166-U165)</f>
+        <f t="shared" si="20"/>
         <v>330</v>
       </c>
       <c r="AJ13" s="3">
-        <f>SUM(V166-V165)</f>
+        <f t="shared" si="21"/>
         <v>111</v>
       </c>
       <c r="AK13" s="3">
-        <f>SUM(W166-W165)</f>
+        <f t="shared" si="22"/>
         <v>84</v>
       </c>
       <c r="AL13" s="3">
-        <f>SUM(X166-X165)</f>
+        <f t="shared" si="23"/>
         <v>64</v>
       </c>
       <c r="AM13" s="3">
-        <f>SUM(Y166-Y165)</f>
+        <f t="shared" si="24"/>
         <v>105</v>
       </c>
       <c r="AP13" s="1">
         <v>43933</v>
       </c>
       <c r="AQ13" s="3">
-        <f>SUM(Z163-Z162)</f>
+        <f t="shared" si="25"/>
         <v>310</v>
       </c>
       <c r="AR13" s="3">
-        <f>SUM(AA163-AA162)</f>
+        <f t="shared" si="26"/>
         <v>43</v>
       </c>
       <c r="AS13" s="3">
-        <f>SUM(AB163-AB162)</f>
+        <f t="shared" si="27"/>
         <v>70</v>
       </c>
       <c r="AT13" s="3">
-        <f>SUM(AC163-AC162)</f>
+        <f t="shared" si="28"/>
         <v>55</v>
       </c>
       <c r="AU13" s="3">
-        <f>SUM(AD163-AD162)</f>
+        <f t="shared" si="29"/>
         <v>56</v>
       </c>
     </row>
@@ -18745,138 +18745,138 @@
         <v>43934</v>
       </c>
       <c r="C14" s="3">
-        <f>SUM(A167-A166)</f>
+        <f t="shared" si="0"/>
         <v>719</v>
       </c>
       <c r="D14" s="3">
-        <f>SUM(B160-B159)</f>
+        <f t="shared" si="1"/>
         <v>573</v>
       </c>
       <c r="E14" s="3">
-        <f>SUM(C155-C154)</f>
+        <f t="shared" ref="E14:E56" si="30">SUM(C155-C154)</f>
         <v>1774</v>
       </c>
       <c r="F14" s="3">
-        <f>SUM(D157-D156)</f>
+        <f t="shared" si="3"/>
         <v>643</v>
       </c>
       <c r="G14" s="3">
-        <f>SUM(E153-E152)</f>
+        <f t="shared" si="4"/>
         <v>827</v>
       </c>
       <c r="J14" s="1">
         <v>43934</v>
       </c>
       <c r="K14" s="3">
-        <f>SUM(F148-F147)</f>
+        <f t="shared" si="5"/>
         <v>308</v>
       </c>
       <c r="L14" s="3">
-        <f>SUM(G146-G145)</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
       <c r="M14" s="3">
-        <f>SUM(H142-H141)</f>
+        <f t="shared" si="7"/>
         <v>224</v>
       </c>
       <c r="N14" s="3">
-        <f>SUM(I147-I146)</f>
+        <f t="shared" si="8"/>
         <v>456</v>
       </c>
       <c r="O14" s="3">
-        <f>SUM(J148-J147)</f>
+        <f t="shared" si="9"/>
         <v>360</v>
       </c>
       <c r="R14" s="1">
         <v>43934</v>
       </c>
       <c r="S14" s="3">
-        <f>SUM(K146-K145)</f>
+        <f t="shared" si="10"/>
         <v>220</v>
       </c>
       <c r="T14" s="3">
-        <f>SUM(L160-L159)</f>
+        <f t="shared" si="11"/>
         <v>323</v>
       </c>
       <c r="U14" s="3">
-        <f>SUM(M160-M159)</f>
+        <f t="shared" si="12"/>
         <v>243</v>
       </c>
       <c r="V14" s="3">
-        <f>SUM(N161-N160)</f>
+        <f t="shared" si="13"/>
         <v>189</v>
       </c>
       <c r="W14" s="3">
-        <f>SUM(O149-O148)</f>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
       <c r="Z14" s="1">
         <v>43934</v>
       </c>
       <c r="AA14" s="3">
-        <f>SUM(P155-P154)</f>
+        <f t="shared" si="15"/>
         <v>484</v>
       </c>
       <c r="AB14" s="3">
-        <f>SUM(Q155-Q154)</f>
+        <f t="shared" si="16"/>
         <v>158</v>
       </c>
       <c r="AC14" s="3">
-        <f>SUM(R155-R154)</f>
+        <f t="shared" si="17"/>
         <v>164</v>
       </c>
       <c r="AD14" s="3">
-        <f>SUM(S155-S154)</f>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
       <c r="AE14" s="3">
-        <f>SUM(T155-T154)</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="AH14" s="1">
         <v>43934</v>
       </c>
       <c r="AI14" s="3">
-        <f>SUM(U167-U166)</f>
+        <f t="shared" si="20"/>
         <v>458</v>
       </c>
       <c r="AJ14" s="3">
-        <f>SUM(V167-V166)</f>
+        <f t="shared" si="21"/>
         <v>121</v>
       </c>
       <c r="AK14" s="3">
-        <f>SUM(W167-W166)</f>
+        <f t="shared" si="22"/>
         <v>118</v>
       </c>
       <c r="AL14" s="3">
-        <f>SUM(X167-X166)</f>
+        <f t="shared" si="23"/>
         <v>63</v>
       </c>
       <c r="AM14" s="3">
-        <f>SUM(Y167-Y166)</f>
+        <f t="shared" si="24"/>
         <v>115</v>
       </c>
       <c r="AP14" s="1">
         <v>43934</v>
       </c>
       <c r="AQ14" s="3">
-        <f>SUM(Z164-Z163)</f>
+        <f t="shared" si="25"/>
         <v>234</v>
       </c>
       <c r="AR14" s="3">
-        <f>SUM(AA164-AA163)</f>
+        <f t="shared" si="26"/>
         <v>43</v>
       </c>
       <c r="AS14" s="3">
-        <f>SUM(AB164-AB163)</f>
+        <f t="shared" si="27"/>
         <v>130</v>
       </c>
       <c r="AT14" s="3">
-        <f>SUM(AC164-AC163)</f>
+        <f t="shared" si="28"/>
         <v>45</v>
       </c>
       <c r="AU14" s="3">
-        <f>SUM(AD164-AD163)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
     </row>
@@ -18885,138 +18885,138 @@
         <v>43935</v>
       </c>
       <c r="C15" s="3">
-        <f>SUM(A168-A167)</f>
+        <f t="shared" si="0"/>
         <v>148</v>
       </c>
       <c r="D15" s="3">
-        <f>SUM(B161-B160)</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="E15" s="3">
-        <f>SUM(C156-C155)</f>
+        <f t="shared" si="30"/>
         <v>892</v>
       </c>
       <c r="F15" s="3">
-        <f>SUM(D158-D157)</f>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="G15" s="3">
-        <f>SUM(E154-E153)</f>
+        <f t="shared" si="4"/>
         <v>819</v>
       </c>
       <c r="J15" s="1">
         <v>43935</v>
       </c>
       <c r="K15" s="3">
-        <f>SUM(F149-F148)</f>
+        <f t="shared" si="5"/>
         <v>334</v>
       </c>
       <c r="L15" s="3">
-        <f>SUM(G147-G146)</f>
+        <f t="shared" si="6"/>
         <v>363</v>
       </c>
       <c r="M15" s="3">
-        <f>SUM(H143-H142)</f>
+        <f t="shared" si="7"/>
         <v>578</v>
       </c>
       <c r="N15" s="3">
-        <f>SUM(I148-I147)</f>
+        <f t="shared" si="8"/>
         <v>629</v>
       </c>
       <c r="O15" s="3">
-        <f>SUM(J149-J148)</f>
+        <f t="shared" si="9"/>
         <v>488</v>
       </c>
       <c r="R15" s="1">
         <v>43935</v>
       </c>
       <c r="S15" s="3">
-        <f>SUM(K147-K146)</f>
+        <f t="shared" si="10"/>
         <v>293</v>
       </c>
       <c r="T15" s="3">
-        <f>SUM(L161-L160)</f>
+        <f t="shared" si="11"/>
         <v>271</v>
       </c>
       <c r="U15" s="3">
-        <f>SUM(M161-M160)</f>
+        <f t="shared" si="12"/>
         <v>181</v>
       </c>
       <c r="V15" s="3">
-        <f>SUM(N162-N161)</f>
+        <f t="shared" si="13"/>
         <v>131</v>
       </c>
       <c r="W15" s="3">
-        <f>SUM(O150-O149)</f>
+        <f t="shared" si="14"/>
         <v>118</v>
       </c>
       <c r="Z15" s="1">
         <v>43935</v>
       </c>
       <c r="AA15" s="3">
-        <f>SUM(P156-P155)</f>
+        <f t="shared" si="15"/>
         <v>561</v>
       </c>
       <c r="AB15" s="3">
-        <f>SUM(Q156-Q155)</f>
+        <f t="shared" si="16"/>
         <v>291</v>
       </c>
       <c r="AC15" s="3">
-        <f>SUM(R156-R155)</f>
+        <f t="shared" si="17"/>
         <v>202</v>
       </c>
       <c r="AD15" s="3">
-        <f>SUM(S156-S155)</f>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
       <c r="AE15" s="3">
-        <f>SUM(T156-T155)</f>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
       <c r="AH15" s="1">
         <v>43935</v>
       </c>
       <c r="AI15" s="3">
-        <f>SUM(U168-U167)</f>
+        <f t="shared" si="20"/>
         <v>311</v>
       </c>
       <c r="AJ15" s="3">
-        <f>SUM(V168-V167)</f>
+        <f t="shared" si="21"/>
         <v>69</v>
       </c>
       <c r="AK15" s="3">
-        <f>SUM(W168-W167)</f>
+        <f t="shared" si="22"/>
         <v>94</v>
       </c>
       <c r="AL15" s="3">
-        <f>SUM(X168-X167)</f>
+        <f t="shared" si="23"/>
         <v>56</v>
       </c>
       <c r="AM15" s="3">
-        <f>SUM(Y168-Y167)</f>
+        <f t="shared" si="24"/>
         <v>97</v>
       </c>
       <c r="AP15" s="1">
         <v>43935</v>
       </c>
       <c r="AQ15" s="3">
-        <f>SUM(Z165-Z164)</f>
+        <f t="shared" si="25"/>
         <v>581</v>
       </c>
       <c r="AR15" s="3">
-        <f>SUM(AA165-AA164)</f>
+        <f t="shared" si="26"/>
         <v>83</v>
       </c>
       <c r="AS15" s="3">
-        <f>SUM(AB165-AB164)</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="AT15" s="3">
-        <f>SUM(AC165-AC164)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AU15" s="3">
-        <f>SUM(AD165-AD164)</f>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
     </row>
@@ -19025,138 +19025,138 @@
         <v>43936</v>
       </c>
       <c r="C16" s="3">
-        <f>SUM(A169-A168)</f>
+        <f t="shared" si="0"/>
         <v>3149</v>
       </c>
       <c r="D16" s="3">
-        <f>SUM(B162-B161)</f>
+        <f t="shared" si="1"/>
         <v>3831</v>
       </c>
       <c r="E16" s="3">
-        <f>SUM(C157-C156)</f>
+        <f t="shared" si="30"/>
         <v>1465</v>
       </c>
       <c r="F16" s="3">
-        <f>SUM(D159-D158)</f>
+        <f t="shared" si="3"/>
         <v>1161</v>
       </c>
       <c r="G16" s="3">
-        <f>SUM(E155-E154)</f>
+        <f t="shared" si="4"/>
         <v>816</v>
       </c>
       <c r="J16" s="1">
         <v>43936</v>
       </c>
       <c r="K16" s="3">
-        <f>SUM(F150-F149)</f>
+        <f t="shared" si="5"/>
         <v>422</v>
       </c>
       <c r="L16" s="3">
-        <f>SUM(G148-G147)</f>
+        <f t="shared" si="6"/>
         <v>269</v>
       </c>
       <c r="M16" s="3">
-        <f>SUM(H144-H143)</f>
+        <f t="shared" si="7"/>
         <v>367</v>
       </c>
       <c r="N16" s="3">
-        <f>SUM(I149-I148)</f>
+        <f t="shared" si="8"/>
         <v>173</v>
       </c>
       <c r="O16" s="3">
-        <f>SUM(J150-J149)</f>
+        <f t="shared" si="9"/>
         <v>312</v>
       </c>
       <c r="R16" s="1">
         <v>43936</v>
       </c>
       <c r="S16" s="3">
-        <f>SUM(K148-K147)</f>
+        <f t="shared" si="10"/>
         <v>407</v>
       </c>
       <c r="T16" s="3">
-        <f>SUM(L162-L161)</f>
+        <f t="shared" si="11"/>
         <v>427</v>
       </c>
       <c r="U16" s="3">
-        <f>SUM(M162-M161)</f>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="V16" s="3">
-        <f>SUM(N163-N162)</f>
+        <f t="shared" si="13"/>
         <v>153</v>
       </c>
       <c r="W16" s="3">
-        <f>SUM(O151-O150)</f>
+        <f t="shared" si="14"/>
         <v>104</v>
       </c>
       <c r="Z16" s="1">
         <v>43936</v>
       </c>
       <c r="AA16" s="3">
-        <f>SUM(P157-P156)</f>
+        <f t="shared" si="15"/>
         <v>335</v>
       </c>
       <c r="AB16" s="3">
-        <f>SUM(Q157-Q156)</f>
+        <f t="shared" si="16"/>
         <v>212</v>
       </c>
       <c r="AC16" s="3">
-        <f>SUM(R157-R156)</f>
+        <f t="shared" si="17"/>
         <v>172</v>
       </c>
       <c r="AD16" s="3">
-        <f>SUM(S157-S156)</f>
+        <f t="shared" si="18"/>
         <v>54</v>
       </c>
       <c r="AE16" s="3">
-        <f>SUM(T157-T156)</f>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
       <c r="AH16" s="1">
         <v>43936</v>
       </c>
       <c r="AI16" s="3">
-        <f>SUM(U169-U168)</f>
+        <f t="shared" si="20"/>
         <v>320</v>
       </c>
       <c r="AJ16" s="3">
-        <f>SUM(V169-V168)</f>
+        <f t="shared" si="21"/>
         <v>121</v>
       </c>
       <c r="AK16" s="3">
-        <f>SUM(W169-W168)</f>
+        <f t="shared" si="22"/>
         <v>129</v>
       </c>
       <c r="AL16" s="3">
-        <f>SUM(X169-X168)</f>
+        <f t="shared" si="23"/>
         <v>119</v>
       </c>
       <c r="AM16" s="3">
-        <f>SUM(Y169-Y168)</f>
+        <f t="shared" si="24"/>
         <v>88</v>
       </c>
       <c r="AP16" s="1">
         <v>43936</v>
       </c>
       <c r="AQ16" s="3">
-        <f>SUM(Z166-Z165)</f>
+        <f t="shared" si="25"/>
         <v>468</v>
       </c>
       <c r="AR16" s="3">
-        <f>SUM(AA166-AA165)</f>
+        <f t="shared" si="26"/>
         <v>82</v>
       </c>
       <c r="AS16" s="3">
-        <f>SUM(AB166-AB165)</f>
+        <f t="shared" si="27"/>
         <v>256</v>
       </c>
       <c r="AT16" s="3">
-        <f>SUM(AC166-AC165)</f>
+        <f t="shared" si="28"/>
         <v>127</v>
       </c>
       <c r="AU16" s="3">
-        <f>SUM(AD166-AD165)</f>
+        <f t="shared" si="29"/>
         <v>77</v>
       </c>
     </row>
@@ -19165,135 +19165,135 @@
         <v>43937</v>
       </c>
       <c r="C17" s="3">
-        <f>SUM(A170-A169)</f>
+        <f t="shared" si="0"/>
         <v>1153</v>
       </c>
       <c r="D17" s="3">
-        <f>SUM(B163-B162)</f>
+        <f t="shared" si="1"/>
         <v>1552</v>
       </c>
       <c r="E17" s="3">
-        <f>SUM(C158-C157)</f>
+        <f t="shared" si="30"/>
         <v>1057</v>
       </c>
       <c r="F17" s="3">
-        <f>SUM(D160-D159)</f>
+        <f t="shared" si="3"/>
         <v>1051</v>
       </c>
       <c r="G17" s="3">
-        <f>SUM(E156-E155)</f>
+        <f t="shared" si="4"/>
         <v>904</v>
       </c>
       <c r="J17" s="2">
         <v>43937</v>
       </c>
       <c r="K17" s="3">
-        <f>SUM(F151-F150)</f>
+        <f t="shared" si="5"/>
         <v>561</v>
       </c>
       <c r="L17" s="3">
-        <f>SUM(G149-G148)</f>
+        <f t="shared" si="6"/>
         <v>654</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3">
-        <f>SUM(I150-I149)</f>
+        <f t="shared" si="8"/>
         <v>466</v>
       </c>
       <c r="O17" s="3">
-        <f>SUM(J151-J150)</f>
+        <f t="shared" si="9"/>
         <v>567</v>
       </c>
       <c r="R17" s="2">
         <v>43937</v>
       </c>
       <c r="S17" s="3">
-        <f>SUM(K149-K148)</f>
+        <f t="shared" si="10"/>
         <v>541</v>
       </c>
       <c r="T17" s="3">
-        <f>SUM(L163-L162)</f>
+        <f t="shared" si="11"/>
         <v>525</v>
       </c>
       <c r="U17" s="3">
-        <f>SUM(M163-M162)</f>
+        <f t="shared" si="12"/>
         <v>351</v>
       </c>
       <c r="V17" s="3">
-        <f>SUM(N164-N163)</f>
+        <f t="shared" si="13"/>
         <v>220</v>
       </c>
       <c r="W17" s="3">
-        <f>SUM(O152-O151)</f>
+        <f t="shared" si="14"/>
         <v>153</v>
       </c>
       <c r="Z17" s="2">
         <v>43937</v>
       </c>
       <c r="AA17" s="3">
-        <f>SUM(P158-P157)</f>
+        <f t="shared" si="15"/>
         <v>458</v>
       </c>
       <c r="AB17" s="3">
-        <f>SUM(Q158-Q157)</f>
+        <f t="shared" si="16"/>
         <v>202</v>
       </c>
       <c r="AC17" s="3">
-        <f>SUM(R158-R157)</f>
+        <f t="shared" si="17"/>
         <v>200</v>
       </c>
       <c r="AD17" s="3">
-        <f>SUM(S158-S157)</f>
+        <f t="shared" si="18"/>
         <v>63</v>
       </c>
       <c r="AE17" s="3">
-        <f>SUM(T158-T157)</f>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
       <c r="AH17" s="2">
         <v>43937</v>
       </c>
       <c r="AI17" s="3">
-        <f>SUM(U170-U169)</f>
+        <f t="shared" si="20"/>
         <v>243</v>
       </c>
       <c r="AJ17" s="3">
-        <f>SUM(V170-V169)</f>
+        <f t="shared" si="21"/>
         <v>69</v>
       </c>
       <c r="AK17" s="3">
-        <f>SUM(W170-W169)</f>
+        <f t="shared" si="22"/>
         <v>64</v>
       </c>
       <c r="AL17" s="3">
-        <f>SUM(X170-X169)</f>
+        <f t="shared" si="23"/>
         <v>77</v>
       </c>
       <c r="AM17" s="3">
-        <f>SUM(Y170-Y169)</f>
+        <f t="shared" si="24"/>
         <v>84</v>
       </c>
       <c r="AP17" s="2">
         <v>43937</v>
       </c>
       <c r="AQ17" s="3">
-        <f>SUM(Z167-Z166)</f>
+        <f t="shared" si="25"/>
         <v>370</v>
       </c>
       <c r="AR17" s="3">
-        <f>SUM(AA167-AA166)</f>
+        <f t="shared" si="26"/>
         <v>75</v>
       </c>
       <c r="AS17" s="3">
-        <f>SUM(AB167-AB166)</f>
+        <f t="shared" si="27"/>
         <v>190</v>
       </c>
       <c r="AT17" s="3">
-        <f>SUM(AC167-AC166)</f>
+        <f t="shared" si="28"/>
         <v>40</v>
       </c>
       <c r="AU17" s="3">
-        <f>SUM(AD167-AD166)</f>
+        <f t="shared" si="29"/>
         <v>49</v>
       </c>
     </row>
@@ -19302,135 +19302,135 @@
         <v>43938</v>
       </c>
       <c r="C18" s="3">
-        <f>SUM(A171-A170)</f>
+        <f t="shared" si="0"/>
         <v>1173</v>
       </c>
       <c r="D18" s="3">
-        <f>SUM(B164-B163)</f>
+        <f t="shared" si="1"/>
         <v>1184</v>
       </c>
       <c r="E18" s="3">
-        <f>SUM(C159-C158)</f>
+        <f t="shared" si="30"/>
         <v>767</v>
       </c>
       <c r="F18" s="3">
-        <f>SUM(D161-D160)</f>
+        <f t="shared" si="3"/>
         <v>1376</v>
       </c>
       <c r="G18" s="3">
-        <f>SUM(E157-E156)</f>
+        <f t="shared" si="4"/>
         <v>853</v>
       </c>
       <c r="J18" s="1">
         <v>43938</v>
       </c>
       <c r="K18" s="3">
-        <f>SUM(F152-F151)</f>
+        <f t="shared" si="5"/>
         <v>454</v>
       </c>
       <c r="L18" s="3">
-        <f>SUM(G150-G149)</f>
+        <f t="shared" si="6"/>
         <v>471</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3">
-        <f>SUM(I151-I150)</f>
+        <f t="shared" si="8"/>
         <v>525</v>
       </c>
       <c r="O18" s="3">
-        <f>SUM(J152-J151)</f>
+        <f t="shared" si="9"/>
         <v>287</v>
       </c>
       <c r="R18" s="1">
         <v>43938</v>
       </c>
       <c r="S18" s="3">
-        <f>SUM(K150-K149)</f>
+        <f t="shared" si="10"/>
         <v>452</v>
       </c>
       <c r="T18" s="3">
-        <f>SUM(L164-L163)</f>
+        <f t="shared" si="11"/>
         <v>538</v>
       </c>
       <c r="U18" s="3">
-        <f>SUM(M164-M163)</f>
+        <f t="shared" si="12"/>
         <v>339</v>
       </c>
       <c r="V18" s="3">
-        <f>SUM(N165-N164)</f>
+        <f t="shared" si="13"/>
         <v>157</v>
       </c>
       <c r="W18" s="3">
-        <f>SUM(O153-O152)</f>
+        <f t="shared" si="14"/>
         <v>262</v>
       </c>
       <c r="Z18" s="1">
         <v>43938</v>
       </c>
       <c r="AA18" s="3">
-        <f>SUM(P159-P158)</f>
+        <f t="shared" si="15"/>
         <v>231</v>
       </c>
       <c r="AB18" s="3">
-        <f>SUM(Q159-Q158)</f>
+        <f t="shared" si="16"/>
         <v>123</v>
       </c>
       <c r="AC18" s="3">
-        <f>SUM(R159-R158)</f>
+        <f t="shared" si="17"/>
         <v>153</v>
       </c>
       <c r="AD18" s="3">
-        <f>SUM(S159-S158)</f>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="AE18" s="3">
-        <f>SUM(T159-T158)</f>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
       <c r="AH18" s="1">
         <v>43938</v>
       </c>
       <c r="AI18" s="3">
-        <f>SUM(U171-U170)</f>
+        <f t="shared" si="20"/>
         <v>879</v>
       </c>
       <c r="AJ18" s="3">
-        <f>SUM(V171-V170)</f>
+        <f t="shared" si="21"/>
         <v>140</v>
       </c>
       <c r="AK18" s="3">
-        <f>SUM(W171-W170)</f>
+        <f t="shared" si="22"/>
         <v>282</v>
       </c>
       <c r="AL18" s="3">
-        <f>SUM(X171-X170)</f>
+        <f t="shared" si="23"/>
         <v>93</v>
       </c>
       <c r="AM18" s="3">
-        <f>SUM(Y171-Y170)</f>
+        <f t="shared" si="24"/>
         <v>118</v>
       </c>
       <c r="AP18" s="1">
         <v>43938</v>
       </c>
       <c r="AQ18" s="3">
-        <f>SUM(Z168-Z167)</f>
+        <f t="shared" si="25"/>
         <v>568</v>
       </c>
       <c r="AR18" s="3">
-        <f>SUM(AA168-AA167)</f>
+        <f t="shared" si="26"/>
         <v>71</v>
       </c>
       <c r="AS18" s="3">
-        <f>SUM(AB168-AB167)</f>
+        <f t="shared" si="27"/>
         <v>167</v>
       </c>
       <c r="AT18" s="3">
-        <f>SUM(AC168-AC167)</f>
+        <f t="shared" si="28"/>
         <v>37</v>
       </c>
       <c r="AU18" s="3">
-        <f>SUM(AD168-AD167)</f>
+        <f t="shared" si="29"/>
         <v>76</v>
       </c>
     </row>
@@ -19439,34 +19439,34 @@
         <v>43939</v>
       </c>
       <c r="C19" s="3">
-        <f>SUM(A172-A171)</f>
+        <f t="shared" si="0"/>
         <v>1125</v>
       </c>
       <c r="D19" s="3">
-        <f>SUM(B165-B164)</f>
+        <f t="shared" si="1"/>
         <v>1058</v>
       </c>
       <c r="E19" s="3">
-        <f>SUM(C160-C159)</f>
+        <f t="shared" si="30"/>
         <v>641</v>
       </c>
       <c r="F19" s="3">
-        <f>SUM(D162-D161)</f>
+        <f t="shared" si="3"/>
         <v>1002</v>
       </c>
       <c r="G19" s="3">
-        <f>SUM(E158-E157)</f>
+        <f t="shared" si="4"/>
         <v>1108</v>
       </c>
       <c r="J19" s="1">
         <v>43939</v>
       </c>
       <c r="K19" s="3">
-        <f>SUM(F153-F152)</f>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="L19" s="3">
-        <f>SUM(G151-G150)</f>
+        <f t="shared" si="6"/>
         <v>320</v>
       </c>
       <c r="M19" s="3">
@@ -19474,57 +19474,57 @@
         <v>340</v>
       </c>
       <c r="N19" s="3">
-        <f>SUM(I152-I151)</f>
+        <f t="shared" si="8"/>
         <v>530</v>
       </c>
       <c r="O19" s="3">
-        <f>SUM(J153-J152)</f>
+        <f t="shared" si="9"/>
         <v>332</v>
       </c>
       <c r="R19" s="1">
         <v>43939</v>
       </c>
       <c r="S19" s="3">
-        <f>SUM(K151-K150)</f>
+        <f t="shared" si="10"/>
         <v>424</v>
       </c>
       <c r="T19" s="3">
-        <f>SUM(L165-L164)</f>
+        <f t="shared" si="11"/>
         <v>553</v>
       </c>
       <c r="U19" s="3">
-        <f>SUM(M165-M164)</f>
+        <f t="shared" si="12"/>
         <v>330</v>
       </c>
       <c r="V19" s="3">
-        <f>SUM(N166-N165)</f>
+        <f t="shared" si="13"/>
         <v>160</v>
       </c>
       <c r="W19" s="3">
-        <f>SUM(O154-O153)</f>
+        <f t="shared" si="14"/>
         <v>187</v>
       </c>
       <c r="Z19" s="1">
         <v>43939</v>
       </c>
       <c r="AA19" s="3">
-        <f>SUM(P160-P159)</f>
+        <f t="shared" si="15"/>
         <v>238</v>
       </c>
       <c r="AB19" s="3">
-        <f>SUM(Q160-Q159)</f>
+        <f t="shared" si="16"/>
         <v>120</v>
       </c>
       <c r="AC19" s="3">
-        <f>SUM(R160-R159)</f>
+        <f t="shared" si="17"/>
         <v>106</v>
       </c>
       <c r="AD19" s="3">
-        <f>SUM(S160-S159)</f>
+        <f t="shared" si="18"/>
         <v>31</v>
       </c>
       <c r="AE19" s="3">
-        <f>SUM(T160-T159)</f>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="AH19" s="1">
@@ -19532,34 +19532,34 @@
       </c>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3">
-        <f>SUM(V172-V171)</f>
+        <f t="shared" ref="AJ19:AJ56" si="31">SUM(V172-V171)</f>
         <v>97</v>
       </c>
       <c r="AK19" s="3">
-        <f>SUM(W172-W171)</f>
+        <f t="shared" ref="AK19:AK56" si="32">SUM(W172-W171)</f>
         <v>91</v>
       </c>
       <c r="AL19" s="3">
-        <f>SUM(X172-X171)</f>
+        <f t="shared" ref="AL19:AL56" si="33">SUM(X172-X171)</f>
         <v>49</v>
       </c>
       <c r="AM19" s="3">
-        <f>SUM(Y172-Y171)</f>
+        <f t="shared" ref="AM19:AM56" si="34">SUM(Y172-Y171)</f>
         <v>211</v>
       </c>
       <c r="AP19" s="1">
         <v>43939</v>
       </c>
       <c r="AQ19" s="3">
-        <f>SUM(Z169-Z168)</f>
+        <f t="shared" ref="AQ19:AS25" si="35">SUM(Z169-Z168)</f>
         <v>630</v>
       </c>
       <c r="AR19" s="3">
-        <f>SUM(AA169-AA168)</f>
+        <f t="shared" si="35"/>
         <v>55</v>
       </c>
       <c r="AS19" s="3">
-        <f>SUM(AB169-AB168)</f>
+        <f t="shared" si="35"/>
         <v>177</v>
       </c>
       <c r="AT19" s="3"/>
@@ -19575,26 +19575,26 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3">
-        <f>SUM(C161-C160)</f>
+        <f t="shared" si="30"/>
         <v>833</v>
       </c>
       <c r="F20" s="3">
-        <f>SUM(D163-D162)</f>
+        <f t="shared" si="3"/>
         <v>859</v>
       </c>
       <c r="G20" s="3">
-        <f>SUM(E159-E158)</f>
+        <f t="shared" si="4"/>
         <v>745</v>
       </c>
       <c r="J20" s="2">
         <v>43940</v>
       </c>
       <c r="K20" s="3">
-        <f>SUM(F154-F153)</f>
+        <f t="shared" si="5"/>
         <v>476</v>
       </c>
       <c r="L20" s="3">
-        <f>SUM(G152-G151)</f>
+        <f t="shared" si="6"/>
         <v>530</v>
       </c>
       <c r="M20" s="3">
@@ -19602,57 +19602,57 @@
         <v>584</v>
       </c>
       <c r="N20" s="3">
-        <f>SUM(I153-I152)</f>
+        <f t="shared" si="8"/>
         <v>650</v>
       </c>
       <c r="O20" s="3">
-        <f>SUM(J154-J153)</f>
+        <f t="shared" si="9"/>
         <v>352</v>
       </c>
       <c r="R20" s="2">
         <v>43940</v>
       </c>
       <c r="S20" s="3">
-        <f>SUM(K152-K151)</f>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="T20" s="3">
-        <f>SUM(L166-L165)</f>
+        <f t="shared" si="11"/>
         <v>440</v>
       </c>
       <c r="U20" s="3">
-        <f>SUM(M166-M165)</f>
+        <f t="shared" si="12"/>
         <v>239</v>
       </c>
       <c r="V20" s="3">
-        <f>SUM(N167-N166)</f>
+        <f t="shared" si="13"/>
         <v>130</v>
       </c>
       <c r="W20" s="3">
-        <f>SUM(O155-O154)</f>
+        <f t="shared" si="14"/>
         <v>117</v>
       </c>
       <c r="Z20" s="2">
         <v>43940</v>
       </c>
       <c r="AA20" s="3">
-        <f>SUM(P161-P160)</f>
+        <f t="shared" si="15"/>
         <v>221</v>
       </c>
       <c r="AB20" s="3">
-        <f>SUM(Q161-Q160)</f>
+        <f t="shared" si="16"/>
         <v>88</v>
       </c>
       <c r="AC20" s="3">
-        <f>SUM(R161-R160)</f>
+        <f t="shared" si="17"/>
         <v>109</v>
       </c>
       <c r="AD20" s="3">
-        <f>SUM(S161-S160)</f>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="AE20" s="3">
-        <f>SUM(T161-T160)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AH20" s="2">
@@ -19660,34 +19660,34 @@
       </c>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3">
-        <f>SUM(V173-V172)</f>
+        <f t="shared" si="31"/>
         <v>132</v>
       </c>
       <c r="AK20" s="3">
-        <f>SUM(W173-W172)</f>
+        <f t="shared" si="32"/>
         <v>88</v>
       </c>
       <c r="AL20" s="3">
-        <f>SUM(X173-X172)</f>
+        <f t="shared" si="33"/>
         <v>62</v>
       </c>
       <c r="AM20" s="3">
-        <f>SUM(Y173-Y172)</f>
+        <f t="shared" si="34"/>
         <v>150</v>
       </c>
       <c r="AP20" s="2">
         <v>43940</v>
       </c>
       <c r="AQ20" s="3">
-        <f>SUM(Z170-Z169)</f>
+        <f t="shared" si="35"/>
         <v>315</v>
       </c>
       <c r="AR20" s="3">
-        <f>SUM(AA170-AA169)</f>
+        <f t="shared" si="35"/>
         <v>55</v>
       </c>
       <c r="AS20" s="3">
-        <f>SUM(AB170-AB169)</f>
+        <f t="shared" si="35"/>
         <v>59</v>
       </c>
       <c r="AT20" s="3"/>
@@ -19700,81 +19700,81 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3">
-        <f>SUM(C162-C161)</f>
+        <f t="shared" si="30"/>
         <v>664</v>
       </c>
       <c r="F21" s="3">
-        <f>SUM(D164-D163)</f>
+        <f t="shared" si="3"/>
         <v>497</v>
       </c>
       <c r="G21" s="3">
-        <f>SUM(E160-E159)</f>
+        <f t="shared" si="4"/>
         <v>774</v>
       </c>
       <c r="J21" s="1">
         <v>43941</v>
       </c>
       <c r="K21" s="3">
-        <f>SUM(F155-F154)</f>
+        <f t="shared" si="5"/>
         <v>372</v>
       </c>
       <c r="L21" s="3">
-        <f>SUM(G153-G152)</f>
+        <f t="shared" si="6"/>
         <v>664</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3">
-        <f>SUM(I154-I153)</f>
+        <f t="shared" si="8"/>
         <v>363</v>
       </c>
       <c r="O21" s="3">
-        <f>SUM(J155-J154)</f>
+        <f t="shared" si="9"/>
         <v>191</v>
       </c>
       <c r="R21" s="1">
         <v>43941</v>
       </c>
       <c r="S21" s="3">
-        <f>SUM(K153-K152)</f>
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
       <c r="T21" s="3">
-        <f>SUM(L167-L166)</f>
+        <f t="shared" si="11"/>
         <v>516</v>
       </c>
       <c r="U21" s="3">
-        <f>SUM(M167-M166)</f>
+        <f t="shared" si="12"/>
         <v>143</v>
       </c>
       <c r="V21" s="3">
-        <f>SUM(N168-N167)</f>
+        <f t="shared" si="13"/>
         <v>171</v>
       </c>
       <c r="W21" s="3">
-        <f>SUM(O156-O155)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="Z21" s="1">
         <v>43941</v>
       </c>
       <c r="AA21" s="3">
-        <f>SUM(P162-P161)</f>
+        <f t="shared" si="15"/>
         <v>220</v>
       </c>
       <c r="AB21" s="3">
-        <f>SUM(Q162-Q161)</f>
+        <f t="shared" si="16"/>
         <v>69</v>
       </c>
       <c r="AC21" s="3">
-        <f>SUM(R162-R161)</f>
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="AD21" s="3">
-        <f>SUM(S162-S161)</f>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="AE21" s="3">
-        <f>SUM(T162-T161)</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="AH21" s="1">
@@ -19782,38 +19782,38 @@
       </c>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3">
-        <f>SUM(V174-V173)</f>
+        <f t="shared" si="31"/>
         <v>127</v>
       </c>
       <c r="AK21" s="3">
-        <f>SUM(W174-W173)</f>
+        <f t="shared" si="32"/>
         <v>24</v>
       </c>
       <c r="AL21" s="3">
-        <f>SUM(X174-X173)</f>
+        <f t="shared" si="33"/>
         <v>42</v>
       </c>
       <c r="AM21" s="3">
-        <f>SUM(Y174-Y173)</f>
+        <f t="shared" si="34"/>
         <v>47</v>
       </c>
       <c r="AP21" s="1">
         <v>43941</v>
       </c>
       <c r="AQ21" s="3">
-        <f>SUM(Z171-Z170)</f>
+        <f t="shared" si="35"/>
         <v>1488</v>
       </c>
       <c r="AR21" s="3">
-        <f>SUM(AA171-AA170)</f>
+        <f t="shared" si="35"/>
         <v>57</v>
       </c>
       <c r="AS21" s="3">
-        <f>SUM(AB171-AB170)</f>
+        <f t="shared" si="35"/>
         <v>161</v>
       </c>
       <c r="AT21" s="3">
-        <f>SUM(AC171-AC170)</f>
+        <f t="shared" ref="AT21:AT56" si="36">SUM(AC171-AC170)</f>
         <v>42</v>
       </c>
       <c r="AU21" s="3"/>
@@ -19823,92 +19823,92 @@
         <v>43942</v>
       </c>
       <c r="C22" s="3">
-        <f>SUM(A175-A174)</f>
+        <f t="shared" ref="C22:C36" si="37">SUM(A175-A174)</f>
         <v>799</v>
       </c>
       <c r="D22" s="3">
-        <f>SUM(B168-B167)</f>
+        <f t="shared" ref="D22:D36" si="38">SUM(B168-B167)</f>
         <v>664</v>
       </c>
       <c r="E22" s="3">
-        <f>SUM(C163-C162)</f>
+        <f t="shared" si="30"/>
         <v>402</v>
       </c>
       <c r="F22" s="3">
-        <f>SUM(D165-D164)</f>
+        <f t="shared" si="3"/>
         <v>617</v>
       </c>
       <c r="G22" s="3">
-        <f>SUM(E161-E160)</f>
+        <f t="shared" si="4"/>
         <v>492</v>
       </c>
       <c r="J22" s="1">
         <v>43942</v>
       </c>
       <c r="K22" s="3">
-        <f>SUM(F156-F155)</f>
+        <f t="shared" si="5"/>
         <v>345</v>
       </c>
       <c r="L22" s="3">
-        <f>SUM(G154-G153)</f>
+        <f t="shared" si="6"/>
         <v>486</v>
       </c>
       <c r="M22" s="3">
-        <f>SUM(H150-H149)</f>
+        <f t="shared" ref="M22:M56" si="39">SUM(H150-H149)</f>
         <v>399</v>
       </c>
       <c r="N22" s="3">
-        <f>SUM(I155-I154)</f>
+        <f t="shared" si="8"/>
         <v>317</v>
       </c>
       <c r="O22" s="3">
-        <f>SUM(J156-J155)</f>
+        <f t="shared" si="9"/>
         <v>462</v>
       </c>
       <c r="R22" s="1">
         <v>43942</v>
       </c>
       <c r="S22" s="3">
-        <f>SUM(K154-K153)</f>
+        <f t="shared" si="10"/>
         <v>355</v>
       </c>
       <c r="T22" s="3">
-        <f>SUM(L168-L167)</f>
+        <f t="shared" si="11"/>
         <v>368</v>
       </c>
       <c r="U22" s="3">
-        <f>SUM(M168-M167)</f>
+        <f t="shared" si="12"/>
         <v>225</v>
       </c>
       <c r="V22" s="3">
-        <f>SUM(N169-N168)</f>
+        <f t="shared" si="13"/>
         <v>102</v>
       </c>
       <c r="W22" s="3">
-        <f>SUM(O157-O156)</f>
+        <f t="shared" si="14"/>
         <v>162</v>
       </c>
       <c r="Z22" s="1">
         <v>43942</v>
       </c>
       <c r="AA22" s="3">
-        <f>SUM(P163-P162)</f>
+        <f t="shared" si="15"/>
         <v>343</v>
       </c>
       <c r="AB22" s="3">
-        <f>SUM(Q163-Q162)</f>
+        <f t="shared" si="16"/>
         <v>128</v>
       </c>
       <c r="AC22" s="3">
-        <f>SUM(R163-R162)</f>
+        <f t="shared" si="17"/>
         <v>119</v>
       </c>
       <c r="AD22" s="3">
-        <f>SUM(S163-S162)</f>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
       <c r="AE22" s="3">
-        <f>SUM(T163-T162)</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="AH22" s="1">
@@ -19916,42 +19916,42 @@
       </c>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3">
-        <f>SUM(V175-V174)</f>
+        <f t="shared" si="31"/>
         <v>114</v>
       </c>
       <c r="AK22" s="3">
-        <f>SUM(W175-W174)</f>
+        <f t="shared" si="32"/>
         <v>170</v>
       </c>
       <c r="AL22" s="3">
-        <f>SUM(X175-X174)</f>
+        <f t="shared" si="33"/>
         <v>50</v>
       </c>
       <c r="AM22" s="3">
-        <f>SUM(Y175-Y174)</f>
+        <f t="shared" si="34"/>
         <v>43</v>
       </c>
       <c r="AP22" s="1">
         <v>43942</v>
       </c>
       <c r="AQ22" s="3">
-        <f>SUM(Z172-Z171)</f>
+        <f t="shared" si="35"/>
         <v>1309</v>
       </c>
       <c r="AR22" s="3">
-        <f>SUM(AA172-AA171)</f>
+        <f t="shared" si="35"/>
         <v>109</v>
       </c>
       <c r="AS22" s="3">
-        <f>SUM(AB172-AB171)</f>
+        <f t="shared" si="35"/>
         <v>154</v>
       </c>
       <c r="AT22" s="3">
-        <f>SUM(AC172-AC171)</f>
+        <f t="shared" si="36"/>
         <v>23</v>
       </c>
       <c r="AU22" s="3">
-        <f>SUM(AD172-AD171)</f>
+        <f t="shared" ref="AU22:AU56" si="40">SUM(AD172-AD171)</f>
         <v>38</v>
       </c>
     </row>
@@ -19960,69 +19960,69 @@
         <v>43943</v>
       </c>
       <c r="C23" s="3">
-        <f>SUM(A176-A175)</f>
+        <f t="shared" si="37"/>
         <v>891</v>
       </c>
       <c r="D23" s="3">
-        <f>SUM(B169-B168)</f>
+        <f t="shared" si="38"/>
         <v>787</v>
       </c>
       <c r="E23" s="3">
-        <f>SUM(C164-C163)</f>
+        <f t="shared" si="30"/>
         <v>476</v>
       </c>
       <c r="F23" s="3">
-        <f>SUM(D166-D165)</f>
+        <f t="shared" si="3"/>
         <v>879</v>
       </c>
       <c r="G23" s="3">
-        <f>SUM(E162-E161)</f>
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
       <c r="J23" s="1">
         <v>43943</v>
       </c>
       <c r="K23" s="3">
-        <f>SUM(F157-F156)</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="L23" s="3">
-        <f>SUM(G155-G154)</f>
+        <f t="shared" si="6"/>
         <v>403</v>
       </c>
       <c r="M23" s="3">
-        <f>SUM(H151-H150)</f>
+        <f t="shared" si="39"/>
         <v>259</v>
       </c>
       <c r="N23" s="3">
-        <f>SUM(I156-I155)</f>
+        <f t="shared" si="8"/>
         <v>195</v>
       </c>
       <c r="O23" s="3">
-        <f>SUM(J157-J156)</f>
+        <f t="shared" si="9"/>
         <v>451</v>
       </c>
       <c r="R23" s="1">
         <v>43943</v>
       </c>
       <c r="S23" s="3">
-        <f>SUM(K155-K154)</f>
+        <f t="shared" si="10"/>
         <v>391</v>
       </c>
       <c r="T23" s="3">
-        <f>SUM(L169-L168)</f>
+        <f t="shared" si="11"/>
         <v>473</v>
       </c>
       <c r="U23" s="3">
-        <f>SUM(M169-M168)</f>
+        <f t="shared" si="12"/>
         <v>262</v>
       </c>
       <c r="V23" s="3">
-        <f>SUM(N170-N169)</f>
+        <f t="shared" si="13"/>
         <v>150</v>
       </c>
       <c r="W23" s="3">
-        <f>SUM(O158-O157)</f>
+        <f t="shared" si="14"/>
         <v>115</v>
       </c>
       <c r="Z23" s="1">
@@ -20030,65 +20030,65 @@
       </c>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3">
-        <f>SUM(Q164-Q163)</f>
+        <f t="shared" ref="AB23:AE26" si="41">SUM(Q164-Q163)</f>
         <v>157</v>
       </c>
       <c r="AC23" s="3">
-        <f>SUM(R164-R163)</f>
+        <f t="shared" si="41"/>
         <v>84</v>
       </c>
       <c r="AD23" s="3">
-        <f>SUM(S164-S163)</f>
+        <f t="shared" si="41"/>
         <v>64</v>
       </c>
       <c r="AE23" s="3">
-        <f>SUM(T164-T163)</f>
+        <f t="shared" si="41"/>
         <v>12</v>
       </c>
       <c r="AH23" s="1">
         <v>43943</v>
       </c>
       <c r="AI23" s="3">
-        <f>SUM(U176-U175)</f>
+        <f t="shared" ref="AI23:AI34" si="42">SUM(U176-U175)</f>
         <v>305</v>
       </c>
       <c r="AJ23" s="3">
-        <f>SUM(V176-V175)</f>
+        <f t="shared" si="31"/>
         <v>140</v>
       </c>
       <c r="AK23" s="3">
-        <f>SUM(W176-W175)</f>
+        <f t="shared" si="32"/>
         <v>103</v>
       </c>
       <c r="AL23" s="3">
-        <f>SUM(X176-X175)</f>
+        <f t="shared" si="33"/>
         <v>79</v>
       </c>
       <c r="AM23" s="3">
-        <f>SUM(Y176-Y175)</f>
+        <f t="shared" si="34"/>
         <v>81</v>
       </c>
       <c r="AP23" s="1">
         <v>43943</v>
       </c>
       <c r="AQ23" s="3">
-        <f>SUM(Z173-Z172)</f>
+        <f t="shared" si="35"/>
         <v>1304</v>
       </c>
       <c r="AR23" s="3">
-        <f>SUM(AA173-AA172)</f>
+        <f t="shared" si="35"/>
         <v>57</v>
       </c>
       <c r="AS23" s="3">
-        <f>SUM(AB173-AB172)</f>
+        <f t="shared" si="35"/>
         <v>191</v>
       </c>
       <c r="AT23" s="3">
-        <f>SUM(AC173-AC172)</f>
+        <f t="shared" si="36"/>
         <v>26</v>
       </c>
       <c r="AU23" s="3">
-        <f>SUM(AD173-AD172)</f>
+        <f t="shared" si="40"/>
         <v>68</v>
       </c>
     </row>
@@ -20097,69 +20097,69 @@
         <v>43944</v>
       </c>
       <c r="C24" s="3">
-        <f>SUM(A177-A176)</f>
+        <f t="shared" si="37"/>
         <v>1191</v>
       </c>
       <c r="D24" s="3">
-        <f>SUM(B170-B169)</f>
+        <f t="shared" si="38"/>
         <v>873</v>
       </c>
       <c r="E24" s="3">
-        <f>SUM(C165-C164)</f>
+        <f t="shared" si="30"/>
         <v>569</v>
       </c>
       <c r="F24" s="3">
-        <f>SUM(D167-D166)</f>
+        <f t="shared" si="3"/>
         <v>791</v>
       </c>
       <c r="G24" s="3">
-        <f>SUM(E163-E162)</f>
+        <f t="shared" si="4"/>
         <v>713</v>
       </c>
       <c r="J24" s="1">
         <v>43944</v>
       </c>
       <c r="K24" s="3">
-        <f>SUM(F158-F157)</f>
+        <f t="shared" si="5"/>
         <v>363</v>
       </c>
       <c r="L24" s="3">
-        <f>SUM(G156-G155)</f>
+        <f t="shared" si="6"/>
         <v>606</v>
       </c>
       <c r="M24" s="3">
-        <f>SUM(H152-H151)</f>
+        <f t="shared" si="39"/>
         <v>424</v>
       </c>
       <c r="N24" s="3">
-        <f>SUM(I157-I156)</f>
+        <f t="shared" si="8"/>
         <v>451</v>
       </c>
       <c r="O24" s="3">
-        <f>SUM(J158-J157)</f>
+        <f t="shared" si="9"/>
         <v>482</v>
       </c>
       <c r="R24" s="1">
         <v>43944</v>
       </c>
       <c r="S24" s="3">
-        <f>SUM(K156-K155)</f>
+        <f t="shared" si="10"/>
         <v>679</v>
       </c>
       <c r="T24" s="3">
-        <f>SUM(L170-L169)</f>
+        <f t="shared" si="11"/>
         <v>630</v>
       </c>
       <c r="U24" s="3">
-        <f>SUM(M170-M169)</f>
+        <f t="shared" si="12"/>
         <v>436</v>
       </c>
       <c r="V24" s="3">
-        <f>SUM(N171-N170)</f>
+        <f t="shared" si="13"/>
         <v>329</v>
       </c>
       <c r="W24" s="3">
-        <f>SUM(O159-O158)</f>
+        <f t="shared" si="14"/>
         <v>342</v>
       </c>
       <c r="Z24" s="1">
@@ -20167,65 +20167,65 @@
       </c>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3">
-        <f>SUM(Q165-Q164)</f>
+        <f t="shared" si="41"/>
         <v>171</v>
       </c>
       <c r="AC24" s="3">
-        <f>SUM(R165-R164)</f>
+        <f t="shared" si="41"/>
         <v>234</v>
       </c>
       <c r="AD24" s="3">
-        <f>SUM(S165-S164)</f>
+        <f t="shared" si="41"/>
         <v>25</v>
       </c>
       <c r="AE24" s="3">
-        <f>SUM(T165-T164)</f>
+        <f t="shared" si="41"/>
         <v>48</v>
       </c>
       <c r="AH24" s="1">
         <v>43944</v>
       </c>
       <c r="AI24" s="3">
-        <f>SUM(U177-U176)</f>
+        <f t="shared" si="42"/>
         <v>394</v>
       </c>
       <c r="AJ24" s="3">
-        <f>SUM(V177-V176)</f>
+        <f t="shared" si="31"/>
         <v>101</v>
       </c>
       <c r="AK24" s="3">
-        <f>SUM(W177-W176)</f>
+        <f t="shared" si="32"/>
         <v>145</v>
       </c>
       <c r="AL24" s="3">
-        <f>SUM(X177-X176)</f>
+        <f t="shared" si="33"/>
         <v>44</v>
       </c>
       <c r="AM24" s="3">
-        <f>SUM(Y177-Y176)</f>
+        <f t="shared" si="34"/>
         <v>143</v>
       </c>
       <c r="AP24" s="1">
         <v>43944</v>
       </c>
       <c r="AQ24" s="3">
-        <f>SUM(Z174-Z173)</f>
+        <f t="shared" si="35"/>
         <v>1148</v>
       </c>
       <c r="AR24" s="3">
-        <f>SUM(AA174-AA173)</f>
+        <f t="shared" si="35"/>
         <v>152</v>
       </c>
       <c r="AS24" s="3">
-        <f>SUM(AB174-AB173)</f>
+        <f t="shared" si="35"/>
         <v>113</v>
       </c>
       <c r="AT24" s="3">
-        <f>SUM(AC174-AC173)</f>
+        <f t="shared" si="36"/>
         <v>27</v>
       </c>
       <c r="AU24" s="3">
-        <f>SUM(AD174-AD173)</f>
+        <f t="shared" si="40"/>
         <v>56</v>
       </c>
     </row>
@@ -20234,138 +20234,138 @@
         <v>43945</v>
       </c>
       <c r="C25" s="3">
-        <f>SUM(A178-A177)</f>
+        <f t="shared" si="37"/>
         <v>1483</v>
       </c>
       <c r="D25" s="3">
-        <f>SUM(B171-B170)</f>
+        <f t="shared" si="38"/>
         <v>1294</v>
       </c>
       <c r="E25" s="3">
-        <f>SUM(C166-C165)</f>
+        <f t="shared" si="30"/>
         <v>641</v>
       </c>
       <c r="F25" s="3">
-        <f>SUM(D168-D167)</f>
+        <f t="shared" si="3"/>
         <v>1042</v>
       </c>
       <c r="G25" s="3">
-        <f>SUM(E164-E163)</f>
+        <f t="shared" si="4"/>
         <v>1039</v>
       </c>
       <c r="J25" s="1">
         <v>43945</v>
       </c>
       <c r="K25" s="3">
-        <f>SUM(F159-F158)</f>
+        <f t="shared" si="5"/>
         <v>314</v>
       </c>
       <c r="L25" s="3">
-        <f>SUM(G157-G156)</f>
+        <f t="shared" si="6"/>
         <v>366</v>
       </c>
       <c r="M25" s="3">
-        <f>SUM(H153-H152)</f>
+        <f t="shared" si="39"/>
         <v>299</v>
       </c>
       <c r="N25" s="3">
-        <f>SUM(I158-I157)</f>
+        <f t="shared" si="8"/>
         <v>273</v>
       </c>
       <c r="O25" s="3">
-        <f>SUM(J159-J158)</f>
+        <f t="shared" si="9"/>
         <v>417</v>
       </c>
       <c r="R25" s="1">
         <v>43945</v>
       </c>
       <c r="S25" s="3">
-        <f>SUM(K157-K156)</f>
+        <f t="shared" si="10"/>
         <v>985</v>
       </c>
       <c r="T25" s="3">
-        <f>SUM(L171-L170)</f>
+        <f t="shared" si="11"/>
         <v>957</v>
       </c>
       <c r="U25" s="3">
-        <f>SUM(M171-M170)</f>
+        <f t="shared" si="12"/>
         <v>622</v>
       </c>
       <c r="V25" s="3">
-        <f>SUM(N172-N171)</f>
+        <f t="shared" si="13"/>
         <v>438</v>
       </c>
       <c r="W25" s="3">
-        <f>SUM(O160-O159)</f>
+        <f t="shared" si="14"/>
         <v>429</v>
       </c>
       <c r="Z25" s="1">
         <v>43945</v>
       </c>
       <c r="AA25" s="3">
-        <f>SUM(P166-P165)</f>
+        <f t="shared" ref="AA25:AA46" si="43">SUM(P166-P165)</f>
         <v>846</v>
       </c>
       <c r="AB25" s="3">
-        <f>SUM(Q166-Q165)</f>
+        <f t="shared" si="41"/>
         <v>170</v>
       </c>
       <c r="AC25" s="3">
-        <f>SUM(R166-R165)</f>
+        <f t="shared" si="41"/>
         <v>160</v>
       </c>
       <c r="AD25" s="3">
-        <f>SUM(S166-S165)</f>
+        <f t="shared" si="41"/>
         <v>47</v>
       </c>
       <c r="AE25" s="3">
-        <f>SUM(T166-T165)</f>
+        <f t="shared" si="41"/>
         <v>14</v>
       </c>
       <c r="AH25" s="1">
         <v>43945</v>
       </c>
       <c r="AI25" s="3">
-        <f>SUM(U178-U177)</f>
+        <f t="shared" si="42"/>
         <v>417</v>
       </c>
       <c r="AJ25" s="3">
-        <f>SUM(V178-V177)</f>
+        <f t="shared" si="31"/>
         <v>130</v>
       </c>
       <c r="AK25" s="3">
-        <f>SUM(W178-W177)</f>
+        <f t="shared" si="32"/>
         <v>153</v>
       </c>
       <c r="AL25" s="3">
-        <f>SUM(X178-X177)</f>
+        <f t="shared" si="33"/>
         <v>60</v>
       </c>
       <c r="AM25" s="3">
-        <f>SUM(Y178-Y177)</f>
+        <f t="shared" si="34"/>
         <v>127</v>
       </c>
       <c r="AP25" s="1">
         <v>43945</v>
       </c>
       <c r="AQ25" s="3">
-        <f>SUM(Z175-Z174)</f>
+        <f t="shared" si="35"/>
         <v>1005</v>
       </c>
       <c r="AR25" s="3">
-        <f>SUM(AA175-AA174)</f>
+        <f t="shared" si="35"/>
         <v>183</v>
       </c>
       <c r="AS25" s="3">
-        <f>SUM(AB175-AB174)</f>
+        <f t="shared" si="35"/>
         <v>109</v>
       </c>
       <c r="AT25" s="3">
-        <f>SUM(AC175-AC174)</f>
+        <f t="shared" si="36"/>
         <v>30</v>
       </c>
       <c r="AU25" s="3">
-        <f>SUM(AD175-AD174)</f>
+        <f t="shared" si="40"/>
         <v>104</v>
       </c>
     </row>
@@ -20374,135 +20374,135 @@
         <v>43946</v>
       </c>
       <c r="C26" s="3">
-        <f>SUM(A179-A178)</f>
+        <f t="shared" si="37"/>
         <v>1474</v>
       </c>
       <c r="D26" s="3">
-        <f>SUM(B172-B171)</f>
+        <f t="shared" si="38"/>
         <v>1012</v>
       </c>
       <c r="E26" s="3">
-        <f>SUM(C167-C166)</f>
+        <f t="shared" si="30"/>
         <v>1033</v>
       </c>
       <c r="F26" s="3">
-        <f>SUM(D169-D168)</f>
+        <f t="shared" si="3"/>
         <v>1482</v>
       </c>
       <c r="G26" s="3">
-        <f>SUM(E165-E164)</f>
+        <f t="shared" si="4"/>
         <v>762</v>
       </c>
       <c r="J26" s="1">
         <v>43946</v>
       </c>
       <c r="K26" s="3">
-        <f>SUM(F160-F159)</f>
+        <f t="shared" si="5"/>
         <v>375</v>
       </c>
       <c r="L26" s="3">
-        <f>SUM(G158-G157)</f>
+        <f t="shared" si="6"/>
         <v>356</v>
       </c>
       <c r="M26" s="3">
-        <f>SUM(H154-H153)</f>
+        <f t="shared" si="39"/>
         <v>410</v>
       </c>
       <c r="N26" s="3">
-        <f>SUM(I159-I158)</f>
+        <f t="shared" si="8"/>
         <v>315</v>
       </c>
       <c r="O26" s="3">
-        <f>SUM(J160-J159)</f>
+        <f t="shared" si="9"/>
         <v>447</v>
       </c>
       <c r="R26" s="1">
         <v>43946</v>
       </c>
       <c r="S26" s="3">
-        <f>SUM(K158-K157)</f>
+        <f t="shared" si="10"/>
         <v>494</v>
       </c>
       <c r="T26" s="3">
-        <f>SUM(L172-L171)</f>
+        <f t="shared" si="11"/>
         <v>572</v>
       </c>
       <c r="U26" s="3">
-        <f>SUM(M172-M171)</f>
+        <f t="shared" si="12"/>
         <v>371</v>
       </c>
       <c r="V26" s="3">
-        <f>SUM(N173-N172)</f>
+        <f t="shared" si="13"/>
         <v>193</v>
       </c>
       <c r="W26" s="3">
-        <f>SUM(O161-O160)</f>
+        <f t="shared" si="14"/>
         <v>233</v>
       </c>
       <c r="Z26" s="1">
         <v>43946</v>
       </c>
       <c r="AA26" s="3">
-        <f>SUM(P167-P166)</f>
+        <f t="shared" si="43"/>
         <v>141</v>
       </c>
       <c r="AB26" s="3">
-        <f>SUM(Q167-Q166)</f>
+        <f t="shared" si="41"/>
         <v>77</v>
       </c>
       <c r="AC26" s="3">
-        <f>SUM(R167-R166)</f>
+        <f t="shared" si="41"/>
         <v>117</v>
       </c>
       <c r="AD26" s="3">
-        <f>SUM(S167-S166)</f>
+        <f t="shared" si="41"/>
         <v>18</v>
       </c>
       <c r="AE26" s="3">
-        <f>SUM(T167-T166)</f>
+        <f t="shared" si="41"/>
         <v>28</v>
       </c>
       <c r="AH26" s="1">
         <v>43946</v>
       </c>
       <c r="AI26" s="3">
-        <f>SUM(U179-U178)</f>
+        <f t="shared" si="42"/>
         <v>386</v>
       </c>
       <c r="AJ26" s="3">
-        <f>SUM(V179-V178)</f>
+        <f t="shared" si="31"/>
         <v>102</v>
       </c>
       <c r="AK26" s="3">
-        <f>SUM(W179-W178)</f>
+        <f t="shared" si="32"/>
         <v>106</v>
       </c>
       <c r="AL26" s="3">
-        <f>SUM(X179-X178)</f>
+        <f t="shared" si="33"/>
         <v>73</v>
       </c>
       <c r="AM26" s="3">
-        <f>SUM(Y179-Y178)</f>
+        <f t="shared" si="34"/>
         <v>67</v>
       </c>
       <c r="AP26" s="1">
         <v>43946</v>
       </c>
       <c r="AQ26" s="3">
-        <f>SUM(Z176-Z175)</f>
+        <f t="shared" ref="AQ26:AQ56" si="44">SUM(Z176-Z175)</f>
         <v>591</v>
       </c>
       <c r="AR26" s="3">
-        <f>SUM(AA176-AA175)</f>
+        <f t="shared" ref="AR26:AR56" si="45">SUM(AA176-AA175)</f>
         <v>117</v>
       </c>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3">
-        <f>SUM(AC176-AC175)</f>
+        <f t="shared" si="36"/>
         <v>19</v>
       </c>
       <c r="AU26" s="3">
-        <f>SUM(AD176-AD175)</f>
+        <f t="shared" si="40"/>
         <v>102</v>
       </c>
     </row>
@@ -20511,76 +20511,76 @@
         <v>43947</v>
       </c>
       <c r="C27" s="3">
-        <f>SUM(A180-A179)</f>
+        <f t="shared" si="37"/>
         <v>884</v>
       </c>
       <c r="D27" s="3">
-        <f>SUM(B173-B172)</f>
+        <f t="shared" si="38"/>
         <v>827</v>
       </c>
       <c r="E27" s="3">
-        <f>SUM(C168-C167)</f>
+        <f t="shared" si="30"/>
         <v>724</v>
       </c>
       <c r="F27" s="3">
-        <f>SUM(D170-D169)</f>
+        <f t="shared" si="3"/>
         <v>787</v>
       </c>
       <c r="G27" s="3">
-        <f>SUM(E166-E165)</f>
+        <f t="shared" si="4"/>
         <v>691</v>
       </c>
       <c r="J27" s="1">
         <v>43947</v>
       </c>
       <c r="K27" s="3">
-        <f>SUM(F161-F160)</f>
+        <f t="shared" si="5"/>
         <v>227</v>
       </c>
       <c r="L27" s="3">
-        <f>SUM(G159-G158)</f>
+        <f t="shared" si="6"/>
         <v>341</v>
       </c>
       <c r="M27" s="3">
-        <f>SUM(H155-H154)</f>
+        <f t="shared" si="39"/>
         <v>343</v>
       </c>
       <c r="N27" s="3">
-        <f>SUM(I160-I159)</f>
+        <f t="shared" si="8"/>
         <v>330</v>
       </c>
       <c r="O27" s="3">
-        <f>SUM(J161-J160)</f>
+        <f t="shared" si="9"/>
         <v>399</v>
       </c>
       <c r="R27" s="1">
         <v>43947</v>
       </c>
       <c r="S27" s="3">
-        <f>SUM(K159-K158)</f>
+        <f t="shared" si="10"/>
         <v>325</v>
       </c>
       <c r="T27" s="3">
-        <f>SUM(L173-L172)</f>
+        <f t="shared" si="11"/>
         <v>395</v>
       </c>
       <c r="U27" s="3">
-        <f>SUM(M173-M172)</f>
+        <f t="shared" si="12"/>
         <v>277</v>
       </c>
       <c r="V27" s="3">
-        <f>SUM(N174-N173)</f>
+        <f t="shared" si="13"/>
         <v>116</v>
       </c>
       <c r="W27" s="3">
-        <f>SUM(O162-O161)</f>
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
       <c r="Z27" s="1">
         <v>43947</v>
       </c>
       <c r="AA27" s="3">
-        <f>SUM(P168-P167)</f>
+        <f t="shared" si="43"/>
         <v>200</v>
       </c>
       <c r="AB27" s="3">
@@ -20600,43 +20600,43 @@
         <v>43947</v>
       </c>
       <c r="AI27" s="3">
-        <f>SUM(U180-U179)</f>
+        <f t="shared" si="42"/>
         <v>259</v>
       </c>
       <c r="AJ27" s="3">
-        <f>SUM(V180-V179)</f>
+        <f t="shared" si="31"/>
         <v>106</v>
       </c>
       <c r="AK27" s="3">
-        <f>SUM(W180-W179)</f>
+        <f t="shared" si="32"/>
         <v>120</v>
       </c>
       <c r="AL27" s="3">
-        <f>SUM(X180-X179)</f>
+        <f t="shared" si="33"/>
         <v>50</v>
       </c>
       <c r="AM27" s="3">
-        <f>SUM(Y180-Y179)</f>
+        <f t="shared" si="34"/>
         <v>85</v>
       </c>
       <c r="AP27" s="1">
         <v>43947</v>
       </c>
       <c r="AQ27" s="3">
-        <f>SUM(Z177-Z176)</f>
+        <f t="shared" si="44"/>
         <v>426</v>
       </c>
       <c r="AR27" s="3">
-        <f>SUM(AA177-AA176)</f>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3">
-        <f>SUM(AC177-AC176)</f>
+        <f t="shared" si="36"/>
         <v>52</v>
       </c>
       <c r="AU27" s="3">
-        <f>SUM(AD177-AD176)</f>
+        <f t="shared" si="40"/>
         <v>77</v>
       </c>
     </row>
@@ -20645,85 +20645,85 @@
         <v>43948</v>
       </c>
       <c r="C28" s="3">
-        <f>SUM(A181-A180)</f>
+        <f t="shared" si="37"/>
         <v>654</v>
       </c>
       <c r="D28" s="3">
-        <f>SUM(B174-B173)</f>
+        <f t="shared" si="38"/>
         <v>527</v>
       </c>
       <c r="E28" s="3">
-        <f>SUM(C169-C168)</f>
+        <f t="shared" si="30"/>
         <v>343</v>
       </c>
       <c r="F28" s="3">
-        <f>SUM(D171-D170)</f>
+        <f t="shared" si="3"/>
         <v>586</v>
       </c>
       <c r="G28" s="3">
-        <f>SUM(E167-E166)</f>
+        <f t="shared" si="4"/>
         <v>411</v>
       </c>
       <c r="J28" s="1">
         <v>43948</v>
       </c>
       <c r="K28" s="3">
-        <f>SUM(F162-F161)</f>
+        <f t="shared" si="5"/>
         <v>139</v>
       </c>
       <c r="L28" s="3">
-        <f>SUM(G160-G159)</f>
+        <f t="shared" si="6"/>
         <v>217</v>
       </c>
       <c r="M28" s="3">
-        <f>SUM(H156-H155)</f>
+        <f t="shared" si="39"/>
         <v>184</v>
       </c>
       <c r="N28" s="3">
-        <f>SUM(I161-I160)</f>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="O28" s="3">
-        <f>SUM(J162-J161)</f>
+        <f t="shared" si="9"/>
         <v>212</v>
       </c>
       <c r="R28" s="1">
         <v>43948</v>
       </c>
       <c r="S28" s="3">
-        <f>SUM(K160-K159)</f>
+        <f t="shared" si="10"/>
         <v>340</v>
       </c>
       <c r="T28" s="3">
-        <f>SUM(L174-L173)</f>
+        <f t="shared" si="11"/>
         <v>305</v>
       </c>
       <c r="U28" s="3">
-        <f>SUM(M174-M173)</f>
+        <f t="shared" si="12"/>
         <v>219</v>
       </c>
       <c r="V28" s="3">
-        <f>SUM(N175-N174)</f>
+        <f t="shared" si="13"/>
         <v>110</v>
       </c>
       <c r="W28" s="3">
-        <f>SUM(O163-O162)</f>
+        <f t="shared" si="14"/>
         <v>172</v>
       </c>
       <c r="Z28" s="1">
         <v>43948</v>
       </c>
       <c r="AA28" s="3">
-        <f>SUM(P169-P168)</f>
+        <f t="shared" si="43"/>
         <v>124</v>
       </c>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3">
-        <f>SUM(R169-R168)</f>
+        <f t="shared" ref="AC28:AD34" si="46">SUM(R169-R168)</f>
         <v>42</v>
       </c>
       <c r="AD28" s="3">
-        <f>SUM(S169-S168)</f>
+        <f t="shared" si="46"/>
         <v>16</v>
       </c>
       <c r="AE28" s="3"/>
@@ -20731,46 +20731,46 @@
         <v>43948</v>
       </c>
       <c r="AI28" s="3">
-        <f>SUM(U181-U180)</f>
+        <f t="shared" si="42"/>
         <v>209</v>
       </c>
       <c r="AJ28" s="3">
-        <f>SUM(V181-V180)</f>
+        <f t="shared" si="31"/>
         <v>84</v>
       </c>
       <c r="AK28" s="3">
-        <f>SUM(W181-W180)</f>
+        <f t="shared" si="32"/>
         <v>80</v>
       </c>
       <c r="AL28" s="3">
-        <f>SUM(X181-X180)</f>
+        <f t="shared" si="33"/>
         <v>35</v>
       </c>
       <c r="AM28" s="3">
-        <f>SUM(Y181-Y180)</f>
+        <f t="shared" si="34"/>
         <v>35</v>
       </c>
       <c r="AP28" s="1">
         <v>43948</v>
       </c>
       <c r="AQ28" s="3">
-        <f>SUM(Z178-Z177)</f>
+        <f t="shared" si="44"/>
         <v>886</v>
       </c>
       <c r="AR28" s="3">
-        <f>SUM(AA178-AA177)</f>
+        <f t="shared" si="45"/>
         <v>98</v>
       </c>
       <c r="AS28" s="3">
-        <f>SUM(AB178-AB177)</f>
+        <f t="shared" ref="AS28:AS56" si="47">SUM(AB178-AB177)</f>
         <v>80</v>
       </c>
       <c r="AT28" s="3">
-        <f>SUM(AC178-AC177)</f>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="AU28" s="3">
-        <f>SUM(AD178-AD177)</f>
+        <f t="shared" si="40"/>
         <v>74</v>
       </c>
     </row>
@@ -20779,135 +20779,135 @@
         <v>43949</v>
       </c>
       <c r="C29" s="3">
-        <f>SUM(A182-A181)</f>
+        <f t="shared" si="37"/>
         <v>530</v>
       </c>
       <c r="D29" s="3">
-        <f>SUM(B175-B174)</f>
+        <f t="shared" si="38"/>
         <v>573</v>
       </c>
       <c r="E29" s="3">
-        <f>SUM(C170-C169)</f>
+        <f t="shared" si="30"/>
         <v>220</v>
       </c>
       <c r="F29" s="3">
-        <f>SUM(D172-D171)</f>
+        <f t="shared" si="3"/>
         <v>438</v>
       </c>
       <c r="G29" s="3">
-        <f>SUM(E168-E167)</f>
+        <f t="shared" si="4"/>
         <v>254</v>
       </c>
       <c r="J29" s="1">
         <v>43949</v>
       </c>
       <c r="K29" s="3">
-        <f>SUM(F163-F162)</f>
+        <f t="shared" si="5"/>
         <v>147</v>
       </c>
       <c r="L29" s="3">
-        <f>SUM(G161-G160)</f>
+        <f t="shared" si="6"/>
         <v>384</v>
       </c>
       <c r="M29" s="3">
-        <f>SUM(H157-H156)</f>
+        <f t="shared" si="39"/>
         <v>143</v>
       </c>
       <c r="N29" s="3">
-        <f>SUM(I162-I161)</f>
+        <f t="shared" si="8"/>
         <v>177</v>
       </c>
       <c r="O29" s="3">
-        <f>SUM(J163-J162)</f>
+        <f t="shared" si="9"/>
         <v>406</v>
       </c>
       <c r="R29" s="1">
         <v>43949</v>
       </c>
       <c r="S29" s="3">
-        <f>SUM(K161-K160)</f>
+        <f t="shared" si="10"/>
         <v>257</v>
       </c>
       <c r="T29" s="3">
-        <f>SUM(L175-L174)</f>
+        <f t="shared" si="11"/>
         <v>464</v>
       </c>
       <c r="U29" s="3">
-        <f>SUM(M175-M174)</f>
+        <f t="shared" si="12"/>
         <v>264</v>
       </c>
       <c r="V29" s="3">
-        <f>SUM(N176-N175)</f>
+        <f t="shared" si="13"/>
         <v>169</v>
       </c>
       <c r="W29" s="3">
-        <f>SUM(O164-O163)</f>
+        <f t="shared" si="14"/>
         <v>255</v>
       </c>
       <c r="Z29" s="1">
         <v>43949</v>
       </c>
       <c r="AA29" s="3">
-        <f>SUM(P170-P169)</f>
+        <f t="shared" si="43"/>
         <v>301</v>
       </c>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3">
-        <f>SUM(R170-R169)</f>
+        <f t="shared" si="46"/>
         <v>94</v>
       </c>
       <c r="AD29" s="3">
-        <f>SUM(S170-S169)</f>
+        <f t="shared" si="46"/>
         <v>50</v>
       </c>
       <c r="AE29" s="3">
-        <f>SUM(T170-T169)</f>
+        <f t="shared" ref="AE29:AE56" si="48">SUM(T170-T169)</f>
         <v>29</v>
       </c>
       <c r="AH29" s="1">
         <v>43949</v>
       </c>
       <c r="AI29" s="3">
-        <f>SUM(U182-U181)</f>
+        <f t="shared" si="42"/>
         <v>243</v>
       </c>
       <c r="AJ29" s="3">
-        <f>SUM(V182-V181)</f>
+        <f t="shared" si="31"/>
         <v>226</v>
       </c>
       <c r="AK29" s="3">
-        <f>SUM(W182-W181)</f>
+        <f t="shared" si="32"/>
         <v>102</v>
       </c>
       <c r="AL29" s="3">
-        <f>SUM(X182-X181)</f>
+        <f t="shared" si="33"/>
         <v>49</v>
       </c>
       <c r="AM29" s="3">
-        <f>SUM(Y182-Y181)</f>
+        <f t="shared" si="34"/>
         <v>79</v>
       </c>
       <c r="AP29" s="1">
         <v>43949</v>
       </c>
       <c r="AQ29" s="3">
-        <f>SUM(Z179-Z178)</f>
+        <f t="shared" si="44"/>
         <v>573</v>
       </c>
       <c r="AR29" s="3">
-        <f>SUM(AA179-AA178)</f>
+        <f t="shared" si="45"/>
         <v>173</v>
       </c>
       <c r="AS29" s="3">
-        <f>SUM(AB179-AB178)</f>
+        <f t="shared" si="47"/>
         <v>123</v>
       </c>
       <c r="AT29" s="3">
-        <f>SUM(AC179-AC178)</f>
+        <f t="shared" si="36"/>
         <v>26</v>
       </c>
       <c r="AU29" s="3">
-        <f>SUM(AD179-AD178)</f>
+        <f t="shared" si="40"/>
         <v>126</v>
       </c>
     </row>
@@ -20916,76 +20916,76 @@
         <v>43950</v>
       </c>
       <c r="C30" s="3">
-        <f>SUM(A183-A182)</f>
+        <f t="shared" si="37"/>
         <v>812</v>
       </c>
       <c r="D30" s="3">
-        <f>SUM(B176-B175)</f>
+        <f t="shared" si="38"/>
         <v>649</v>
       </c>
       <c r="E30" s="3">
-        <f>SUM(C171-C170)</f>
+        <f t="shared" si="30"/>
         <v>420</v>
       </c>
       <c r="F30" s="3">
-        <f>SUM(D173-D172)</f>
+        <f t="shared" si="3"/>
         <v>606</v>
       </c>
       <c r="G30" s="3">
-        <f>SUM(E169-E168)</f>
+        <f t="shared" si="4"/>
         <v>541</v>
       </c>
       <c r="J30" s="1">
         <v>43950</v>
       </c>
       <c r="K30" s="3">
-        <f>SUM(F164-F163)</f>
+        <f t="shared" si="5"/>
         <v>195</v>
       </c>
       <c r="L30" s="3">
-        <f>SUM(G162-G161)</f>
+        <f t="shared" si="6"/>
         <v>287</v>
       </c>
       <c r="M30" s="3">
-        <f>SUM(H158-H157)</f>
+        <f t="shared" si="39"/>
         <v>255</v>
       </c>
       <c r="N30" s="3">
-        <f>SUM(I163-I162)</f>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="O30" s="3">
-        <f>SUM(J164-J163)</f>
+        <f t="shared" si="9"/>
         <v>430</v>
       </c>
       <c r="R30" s="1">
         <v>43950</v>
       </c>
       <c r="S30" s="3">
-        <f>SUM(K162-K161)</f>
+        <f t="shared" si="10"/>
         <v>399</v>
       </c>
       <c r="T30" s="3">
-        <f>SUM(L176-L175)</f>
+        <f t="shared" si="11"/>
         <v>382</v>
       </c>
       <c r="U30" s="3">
-        <f>SUM(M176-M175)</f>
+        <f t="shared" si="12"/>
         <v>408</v>
       </c>
       <c r="V30" s="3">
-        <f>SUM(N177-N176)</f>
+        <f t="shared" si="13"/>
         <v>133</v>
       </c>
       <c r="W30" s="3">
-        <f>SUM(O165-O164)</f>
+        <f t="shared" si="14"/>
         <v>301</v>
       </c>
       <c r="Z30" s="1">
         <v>43950</v>
       </c>
       <c r="AA30" s="3">
-        <f>SUM(P171-P170)</f>
+        <f t="shared" si="43"/>
         <v>321</v>
       </c>
       <c r="AB30" s="3">
@@ -20993,61 +20993,61 @@
         <v>147</v>
       </c>
       <c r="AC30" s="3">
-        <f>SUM(R171-R170)</f>
+        <f t="shared" si="46"/>
         <v>91</v>
       </c>
       <c r="AD30" s="3">
-        <f>SUM(S171-S170)</f>
+        <f t="shared" si="46"/>
         <v>31</v>
       </c>
       <c r="AE30" s="3">
-        <f>SUM(T171-T170)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="AH30" s="1">
         <v>43950</v>
       </c>
       <c r="AI30" s="3">
-        <f>SUM(U183-U182)</f>
+        <f t="shared" si="42"/>
         <v>281</v>
       </c>
       <c r="AJ30" s="3">
-        <f>SUM(V183-V182)</f>
+        <f t="shared" si="31"/>
         <v>134</v>
       </c>
       <c r="AK30" s="3">
-        <f>SUM(W183-W182)</f>
+        <f t="shared" si="32"/>
         <v>156</v>
       </c>
       <c r="AL30" s="3">
-        <f>SUM(X183-X182)</f>
+        <f t="shared" si="33"/>
         <v>34</v>
       </c>
       <c r="AM30" s="3">
-        <f>SUM(Y183-Y182)</f>
+        <f t="shared" si="34"/>
         <v>32</v>
       </c>
       <c r="AP30" s="1">
         <v>43950</v>
       </c>
       <c r="AQ30" s="3">
-        <f>SUM(Z180-Z179)</f>
+        <f t="shared" si="44"/>
         <v>1531</v>
       </c>
       <c r="AR30" s="3">
-        <f>SUM(AA180-AA179)</f>
+        <f t="shared" si="45"/>
         <v>118</v>
       </c>
       <c r="AS30" s="3">
-        <f>SUM(AB180-AB179)</f>
+        <f t="shared" si="47"/>
         <v>196</v>
       </c>
       <c r="AT30" s="3">
-        <f>SUM(AC180-AC179)</f>
+        <f t="shared" si="36"/>
         <v>16</v>
       </c>
       <c r="AU30" s="3">
-        <f>SUM(AD180-AD179)</f>
+        <f t="shared" si="40"/>
         <v>97</v>
       </c>
     </row>
@@ -21056,76 +21056,76 @@
         <v>43951</v>
       </c>
       <c r="C31" s="3">
-        <f>SUM(A184-A183)</f>
+        <f t="shared" si="37"/>
         <v>890</v>
       </c>
       <c r="D31" s="3">
-        <f>SUM(B177-B176)</f>
+        <f t="shared" si="38"/>
         <v>636</v>
       </c>
       <c r="E31" s="3">
-        <f>SUM(C172-C171)</f>
+        <f t="shared" si="30"/>
         <v>349</v>
       </c>
       <c r="F31" s="3">
-        <f>SUM(D174-D173)</f>
+        <f t="shared" si="3"/>
         <v>644</v>
       </c>
       <c r="G31" s="3">
-        <f>SUM(E170-E169)</f>
+        <f t="shared" si="4"/>
         <v>399</v>
       </c>
       <c r="J31" s="1">
         <v>43951</v>
       </c>
       <c r="K31" s="3">
-        <f>SUM(F165-F164)</f>
+        <f t="shared" si="5"/>
         <v>164</v>
       </c>
       <c r="L31" s="3">
-        <f>SUM(G163-G162)</f>
+        <f t="shared" si="6"/>
         <v>320</v>
       </c>
       <c r="M31" s="3">
-        <f>SUM(H159-H158)</f>
+        <f t="shared" si="39"/>
         <v>237</v>
       </c>
       <c r="N31" s="3">
-        <f>SUM(I164-I163)</f>
+        <f t="shared" si="8"/>
         <v>198</v>
       </c>
       <c r="O31" s="3">
-        <f>SUM(J165-J164)</f>
+        <f t="shared" si="9"/>
         <v>264</v>
       </c>
       <c r="R31" s="1">
         <v>43951</v>
       </c>
       <c r="S31" s="3">
-        <f>SUM(K163-K162)</f>
+        <f t="shared" si="10"/>
         <v>351</v>
       </c>
       <c r="T31" s="3">
-        <f>SUM(L177-L176)</f>
+        <f t="shared" si="11"/>
         <v>409</v>
       </c>
       <c r="U31" s="3">
-        <f>SUM(M177-M176)</f>
+        <f t="shared" si="12"/>
         <v>293</v>
       </c>
       <c r="V31" s="3">
-        <f>SUM(N178-N177)</f>
+        <f t="shared" si="13"/>
         <v>196</v>
       </c>
       <c r="W31" s="3">
-        <f>SUM(O166-O165)</f>
+        <f t="shared" si="14"/>
         <v>250</v>
       </c>
       <c r="Z31" s="1">
         <v>43951</v>
       </c>
       <c r="AA31" s="3">
-        <f>SUM(P172-P171)</f>
+        <f t="shared" si="43"/>
         <v>235</v>
       </c>
       <c r="AB31" s="3">
@@ -21133,61 +21133,61 @@
         <v>108</v>
       </c>
       <c r="AC31" s="3">
-        <f>SUM(R172-R171)</f>
+        <f t="shared" si="46"/>
         <v>83</v>
       </c>
       <c r="AD31" s="3">
-        <f>SUM(S172-S171)</f>
+        <f t="shared" si="46"/>
         <v>17</v>
       </c>
       <c r="AE31" s="3">
-        <f>SUM(T172-T171)</f>
+        <f t="shared" si="48"/>
         <v>26</v>
       </c>
       <c r="AH31" s="1">
         <v>43951</v>
       </c>
       <c r="AI31" s="3">
-        <f>SUM(U184-U183)</f>
+        <f t="shared" si="42"/>
         <v>412</v>
       </c>
       <c r="AJ31" s="3">
-        <f>SUM(V184-V183)</f>
+        <f t="shared" si="31"/>
         <v>130</v>
       </c>
       <c r="AK31" s="3">
-        <f>SUM(W184-W183)</f>
+        <f t="shared" si="32"/>
         <v>77</v>
       </c>
       <c r="AL31" s="3">
-        <f>SUM(X184-X183)</f>
+        <f t="shared" si="33"/>
         <v>77</v>
       </c>
       <c r="AM31" s="3">
-        <f>SUM(Y184-Y183)</f>
+        <f t="shared" si="34"/>
         <v>61</v>
       </c>
       <c r="AP31" s="1">
         <v>43951</v>
       </c>
       <c r="AQ31" s="3">
-        <f>SUM(Z181-Z180)</f>
+        <f t="shared" si="44"/>
         <v>724</v>
       </c>
       <c r="AR31" s="3">
-        <f>SUM(AA181-AA180)</f>
+        <f t="shared" si="45"/>
         <v>132</v>
       </c>
       <c r="AS31" s="3">
-        <f>SUM(AB181-AB180)</f>
+        <f t="shared" si="47"/>
         <v>120</v>
       </c>
       <c r="AT31" s="3">
-        <f>SUM(AC181-AC180)</f>
+        <f t="shared" si="36"/>
         <v>26</v>
       </c>
       <c r="AU31" s="3">
-        <f>SUM(AD181-AD180)</f>
+        <f t="shared" si="40"/>
         <v>170</v>
       </c>
     </row>
@@ -21196,76 +21196,76 @@
         <v>43952</v>
       </c>
       <c r="C32" s="3">
-        <f>SUM(A185-A184)</f>
+        <f t="shared" si="37"/>
         <v>643</v>
       </c>
       <c r="D32" s="3">
-        <f>SUM(B178-B177)</f>
+        <f t="shared" si="38"/>
         <v>647</v>
       </c>
       <c r="E32" s="3">
-        <f>SUM(C173-C172)</f>
+        <f t="shared" si="30"/>
         <v>307</v>
       </c>
       <c r="F32" s="3">
-        <f>SUM(D175-D174)</f>
+        <f t="shared" si="3"/>
         <v>541</v>
       </c>
       <c r="G32" s="3">
-        <f>SUM(E171-E170)</f>
+        <f t="shared" si="4"/>
         <v>373</v>
       </c>
       <c r="J32" s="1">
         <v>43952</v>
       </c>
       <c r="K32" s="3">
-        <f>SUM(F166-F165)</f>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="L32" s="3">
-        <f>SUM(G164-G163)</f>
+        <f t="shared" si="6"/>
         <v>232</v>
       </c>
       <c r="M32" s="3">
-        <f>SUM(H160-H159)</f>
+        <f t="shared" si="39"/>
         <v>312</v>
       </c>
       <c r="N32" s="3">
-        <f>SUM(I165-I164)</f>
+        <f t="shared" si="8"/>
         <v>201</v>
       </c>
       <c r="O32" s="3">
-        <f>SUM(J166-J165)</f>
+        <f t="shared" si="9"/>
         <v>365</v>
       </c>
       <c r="R32" s="1">
         <v>43952</v>
       </c>
       <c r="S32" s="3">
-        <f>SUM(K164-K163)</f>
+        <f t="shared" si="10"/>
         <v>405</v>
       </c>
       <c r="T32" s="3">
-        <f>SUM(L178-L177)</f>
+        <f t="shared" si="11"/>
         <v>399</v>
       </c>
       <c r="U32" s="3">
-        <f>SUM(M178-M177)</f>
+        <f t="shared" si="12"/>
         <v>355</v>
       </c>
       <c r="V32" s="3">
-        <f>SUM(N179-N178)</f>
+        <f t="shared" si="13"/>
         <v>169</v>
       </c>
       <c r="W32" s="3">
-        <f>SUM(O167-O166)</f>
+        <f t="shared" si="14"/>
         <v>237</v>
       </c>
       <c r="Z32" s="1">
         <v>43952</v>
       </c>
       <c r="AA32" s="3">
-        <f>SUM(P173-P172)</f>
+        <f t="shared" si="43"/>
         <v>241</v>
       </c>
       <c r="AB32" s="3">
@@ -21273,61 +21273,61 @@
         <v>156</v>
       </c>
       <c r="AC32" s="3">
-        <f>SUM(R173-R172)</f>
+        <f t="shared" si="46"/>
         <v>110</v>
       </c>
       <c r="AD32" s="3">
-        <f>SUM(S173-S172)</f>
+        <f t="shared" si="46"/>
         <v>19</v>
       </c>
       <c r="AE32" s="3">
-        <f>SUM(T173-T172)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="AH32" s="1">
         <v>43952</v>
       </c>
       <c r="AI32" s="3">
-        <f>SUM(U185-U184)</f>
+        <f t="shared" si="42"/>
         <v>247</v>
       </c>
       <c r="AJ32" s="3">
-        <f>SUM(V185-V184)</f>
+        <f t="shared" si="31"/>
         <v>99</v>
       </c>
       <c r="AK32" s="3">
-        <f>SUM(W185-W184)</f>
+        <f t="shared" si="32"/>
         <v>152</v>
       </c>
       <c r="AL32" s="3">
-        <f>SUM(X185-X184)</f>
+        <f t="shared" si="33"/>
         <v>54</v>
       </c>
       <c r="AM32" s="3">
-        <f>SUM(Y185-Y184)</f>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="AP32" s="1">
         <v>43952</v>
       </c>
       <c r="AQ32" s="3">
-        <f>SUM(Z182-Z181)</f>
+        <f t="shared" si="44"/>
         <v>1022</v>
       </c>
       <c r="AR32" s="3">
-        <f>SUM(AA182-AA181)</f>
+        <f t="shared" si="45"/>
         <v>147</v>
       </c>
       <c r="AS32" s="3">
-        <f>SUM(AB182-AB181)</f>
+        <f t="shared" si="47"/>
         <v>73</v>
       </c>
       <c r="AT32" s="3">
-        <f>SUM(AC182-AC181)</f>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="AU32" s="3">
-        <f>SUM(AD182-AD181)</f>
+        <f t="shared" si="40"/>
         <v>69</v>
       </c>
     </row>
@@ -21336,76 +21336,76 @@
         <v>43953</v>
       </c>
       <c r="C33" s="3">
-        <f>SUM(A186-A185)</f>
+        <f t="shared" si="37"/>
         <v>765</v>
       </c>
       <c r="D33" s="3">
-        <f>SUM(B179-B178)</f>
+        <f t="shared" si="38"/>
         <v>756</v>
       </c>
       <c r="E33" s="3">
-        <f>SUM(C174-C173)</f>
+        <f t="shared" si="30"/>
         <v>358</v>
       </c>
       <c r="F33" s="3">
-        <f>SUM(D176-D175)</f>
+        <f t="shared" si="3"/>
         <v>665</v>
       </c>
       <c r="G33" s="3">
-        <f>SUM(E172-E171)</f>
+        <f t="shared" si="4"/>
         <v>441</v>
       </c>
       <c r="J33" s="1">
         <v>43953</v>
       </c>
       <c r="K33" s="3">
-        <f>SUM(F167-F166)</f>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
       <c r="L33" s="3">
-        <f>SUM(G165-G164)</f>
+        <f t="shared" si="6"/>
         <v>253</v>
       </c>
       <c r="M33" s="3">
-        <f>SUM(H161-H160)</f>
+        <f t="shared" si="39"/>
         <v>254</v>
       </c>
       <c r="N33" s="3">
-        <f>SUM(I166-I165)</f>
+        <f t="shared" si="8"/>
         <v>217</v>
       </c>
       <c r="O33" s="3">
-        <f>SUM(J167-J166)</f>
+        <f t="shared" si="9"/>
         <v>268</v>
       </c>
       <c r="R33" s="1">
         <v>43953</v>
       </c>
       <c r="S33" s="3">
-        <f>SUM(K165-K164)</f>
+        <f t="shared" si="10"/>
         <v>311</v>
       </c>
       <c r="T33" s="3">
-        <f>SUM(L179-L178)</f>
+        <f t="shared" si="11"/>
         <v>441</v>
       </c>
       <c r="U33" s="3">
-        <f>SUM(M179-M178)</f>
+        <f t="shared" si="12"/>
         <v>334</v>
       </c>
       <c r="V33" s="3">
-        <f>SUM(N180-N179)</f>
+        <f t="shared" si="13"/>
         <v>122</v>
       </c>
       <c r="W33" s="3">
-        <f>SUM(O168-O167)</f>
+        <f t="shared" si="14"/>
         <v>342</v>
       </c>
       <c r="Z33" s="1">
         <v>43953</v>
       </c>
       <c r="AA33" s="3">
-        <f>SUM(P174-P173)</f>
+        <f t="shared" si="43"/>
         <v>136</v>
       </c>
       <c r="AB33" s="3">
@@ -21413,61 +21413,61 @@
         <v>52</v>
       </c>
       <c r="AC33" s="3">
-        <f>SUM(R174-R173)</f>
+        <f t="shared" si="46"/>
         <v>43</v>
       </c>
       <c r="AD33" s="3">
-        <f>SUM(S174-S173)</f>
+        <f t="shared" si="46"/>
         <v>20</v>
       </c>
       <c r="AE33" s="3">
-        <f>SUM(T174-T173)</f>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="AH33" s="1">
         <v>43953</v>
       </c>
       <c r="AI33" s="3">
-        <f>SUM(U186-U185)</f>
+        <f t="shared" si="42"/>
         <v>404</v>
       </c>
       <c r="AJ33" s="3">
-        <f>SUM(V186-V185)</f>
+        <f t="shared" si="31"/>
         <v>81</v>
       </c>
       <c r="AK33" s="3">
-        <f>SUM(W186-W185)</f>
+        <f t="shared" si="32"/>
         <v>151</v>
       </c>
       <c r="AL33" s="3">
-        <f>SUM(X186-X185)</f>
+        <f t="shared" si="33"/>
         <v>46</v>
       </c>
       <c r="AM33" s="3">
-        <f>SUM(Y186-Y185)</f>
+        <f t="shared" si="34"/>
         <v>62</v>
       </c>
       <c r="AP33" s="1">
         <v>43953</v>
       </c>
       <c r="AQ33" s="3">
-        <f>SUM(Z183-Z182)</f>
+        <f t="shared" si="44"/>
         <v>649</v>
       </c>
       <c r="AR33" s="3">
-        <f>SUM(AA183-AA182)</f>
+        <f t="shared" si="45"/>
         <v>131</v>
       </c>
       <c r="AS33" s="3">
-        <f>SUM(AB183-AB182)</f>
+        <f t="shared" si="47"/>
         <v>104</v>
       </c>
       <c r="AT33" s="3">
-        <f>SUM(AC183-AC182)</f>
+        <f t="shared" si="36"/>
         <v>27</v>
       </c>
       <c r="AU33" s="3">
-        <f>SUM(AD183-AD182)</f>
+        <f t="shared" si="40"/>
         <v>114</v>
       </c>
     </row>
@@ -21476,76 +21476,76 @@
         <v>43954</v>
       </c>
       <c r="C34" s="3">
-        <f>SUM(A187-A186)</f>
+        <f t="shared" si="37"/>
         <v>601</v>
       </c>
       <c r="D34" s="3">
-        <f>SUM(B180-B179)</f>
+        <f t="shared" si="38"/>
         <v>564</v>
       </c>
       <c r="E34" s="3">
-        <f>SUM(C175-C174)</f>
+        <f t="shared" si="30"/>
         <v>261</v>
       </c>
       <c r="F34" s="3">
-        <f>SUM(D177-D176)</f>
+        <f t="shared" si="3"/>
         <v>466</v>
       </c>
       <c r="G34" s="3">
-        <f>SUM(E173-E172)</f>
+        <f t="shared" si="4"/>
         <v>377</v>
       </c>
       <c r="J34" s="1">
         <v>43954</v>
       </c>
       <c r="K34" s="3">
-        <f>SUM(F168-F167)</f>
+        <f t="shared" si="5"/>
         <v>211</v>
       </c>
       <c r="L34" s="3">
-        <f>SUM(G166-G165)</f>
+        <f t="shared" si="6"/>
         <v>368</v>
       </c>
       <c r="M34" s="3">
-        <f>SUM(H162-H161)</f>
+        <f t="shared" si="39"/>
         <v>273</v>
       </c>
       <c r="N34" s="3">
-        <f>SUM(I167-I166)</f>
+        <f t="shared" si="8"/>
         <v>229</v>
       </c>
       <c r="O34" s="3">
-        <f>SUM(J168-J167)</f>
+        <f t="shared" si="9"/>
         <v>282</v>
       </c>
       <c r="R34" s="1">
         <v>43954</v>
       </c>
       <c r="S34" s="3">
-        <f>SUM(K166-K165)</f>
+        <f t="shared" si="10"/>
         <v>171</v>
       </c>
       <c r="T34" s="3">
-        <f>SUM(L180-L179)</f>
+        <f t="shared" si="11"/>
         <v>322</v>
       </c>
       <c r="U34" s="3">
-        <f>SUM(M180-M179)</f>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="V34" s="3">
-        <f>SUM(N181-N180)</f>
+        <f t="shared" si="13"/>
         <v>93</v>
       </c>
       <c r="W34" s="3">
-        <f>SUM(O169-O168)</f>
+        <f t="shared" si="14"/>
         <v>159</v>
       </c>
       <c r="Z34" s="1">
         <v>43954</v>
       </c>
       <c r="AA34" s="3">
-        <f>SUM(P175-P174)</f>
+        <f t="shared" si="43"/>
         <v>192</v>
       </c>
       <c r="AB34" s="3">
@@ -21553,61 +21553,61 @@
         <v>43</v>
       </c>
       <c r="AC34" s="3">
-        <f>SUM(R175-R174)</f>
+        <f t="shared" si="46"/>
         <v>90</v>
       </c>
       <c r="AD34" s="3">
-        <f>SUM(S175-S174)</f>
+        <f t="shared" si="46"/>
         <v>14</v>
       </c>
       <c r="AE34" s="3">
-        <f>SUM(T175-T174)</f>
+        <f t="shared" si="48"/>
         <v>12</v>
       </c>
       <c r="AH34" s="1">
         <v>43954</v>
       </c>
       <c r="AI34" s="3">
-        <f>SUM(U187-U186)</f>
+        <f t="shared" si="42"/>
         <v>231</v>
       </c>
       <c r="AJ34" s="3">
-        <f>SUM(V187-V186)</f>
+        <f t="shared" si="31"/>
         <v>65</v>
       </c>
       <c r="AK34" s="3">
-        <f>SUM(W187-W186)</f>
+        <f t="shared" si="32"/>
         <v>114</v>
       </c>
       <c r="AL34" s="3">
-        <f>SUM(X187-X186)</f>
+        <f t="shared" si="33"/>
         <v>28</v>
       </c>
       <c r="AM34" s="3">
-        <f>SUM(Y187-Y186)</f>
+        <f t="shared" si="34"/>
         <v>76</v>
       </c>
       <c r="AP34" s="1">
         <v>43954</v>
       </c>
       <c r="AQ34" s="3">
-        <f>SUM(Z184-Z183)</f>
+        <f t="shared" si="44"/>
         <v>753</v>
       </c>
       <c r="AR34" s="3">
-        <f>SUM(AA184-AA183)</f>
+        <f t="shared" si="45"/>
         <v>85</v>
       </c>
       <c r="AS34" s="3">
-        <f>SUM(AB184-AB183)</f>
+        <f t="shared" si="47"/>
         <v>37</v>
       </c>
       <c r="AT34" s="3">
-        <f>SUM(AC184-AC183)</f>
+        <f t="shared" si="36"/>
         <v>32</v>
       </c>
       <c r="AU34" s="3">
-        <f>SUM(AD184-AD183)</f>
+        <f t="shared" si="40"/>
         <v>85</v>
       </c>
     </row>
@@ -21616,86 +21616,86 @@
         <v>43955</v>
       </c>
       <c r="C35" s="3">
-        <f>SUM(A188-A187)</f>
+        <f t="shared" si="37"/>
         <v>450</v>
       </c>
       <c r="D35" s="3">
-        <f>SUM(B181-B180)</f>
+        <f t="shared" si="38"/>
         <v>344</v>
       </c>
       <c r="E35" s="3">
-        <f>SUM(C176-C175)</f>
+        <f t="shared" si="30"/>
         <v>185</v>
       </c>
       <c r="F35" s="3">
-        <f>SUM(D178-D177)</f>
+        <f t="shared" si="3"/>
         <v>307</v>
       </c>
       <c r="G35" s="3">
-        <f>SUM(E174-E173)</f>
+        <f t="shared" ref="G35:G66" si="49">SUM(E174-E173)</f>
         <v>222</v>
       </c>
       <c r="J35" s="1">
         <v>43955</v>
       </c>
       <c r="K35" s="3">
-        <f>SUM(F169-F168)</f>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="L35" s="3">
-        <f>SUM(G167-G166)</f>
+        <f t="shared" si="6"/>
         <v>112</v>
       </c>
       <c r="M35" s="3">
-        <f>SUM(H163-H162)</f>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="N35" s="3">
-        <f>SUM(I168-I167)</f>
+        <f t="shared" si="8"/>
         <v>132</v>
       </c>
       <c r="O35" s="3">
-        <f>SUM(J169-J168)</f>
+        <f t="shared" ref="O35:O66" si="50">SUM(J169-J168)</f>
         <v>132</v>
       </c>
       <c r="R35" s="1">
         <v>43955</v>
       </c>
       <c r="S35" s="3">
-        <f>SUM(K167-K166)</f>
+        <f t="shared" ref="S35:S66" si="51">SUM(K167-K166)</f>
         <v>164</v>
       </c>
       <c r="T35" s="3">
-        <f>SUM(L181-L180)</f>
+        <f t="shared" si="11"/>
         <v>387</v>
       </c>
       <c r="U35" s="3">
-        <f>SUM(M181-M180)</f>
+        <f t="shared" si="12"/>
         <v>231</v>
       </c>
       <c r="V35" s="3">
-        <f>SUM(N182-N181)</f>
+        <f t="shared" si="13"/>
         <v>102</v>
       </c>
       <c r="W35" s="3">
-        <f>SUM(O170-O169)</f>
+        <f t="shared" si="14"/>
         <v>183</v>
       </c>
       <c r="Z35" s="1">
         <v>43955</v>
       </c>
       <c r="AA35" s="3">
-        <f>SUM(P176-P175)</f>
+        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3">
-        <f>SUM(S176-S175)</f>
+        <f t="shared" ref="AD35:AD56" si="52">SUM(S176-S175)</f>
         <v>13</v>
       </c>
       <c r="AE35" s="3">
-        <f>SUM(T176-T175)</f>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="AH35" s="1">
@@ -21703,42 +21703,42 @@
       </c>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3">
-        <f>SUM(V188-V187)</f>
+        <f t="shared" si="31"/>
         <v>93</v>
       </c>
       <c r="AK35" s="3">
-        <f>SUM(W188-W187)</f>
+        <f t="shared" si="32"/>
         <v>143</v>
       </c>
       <c r="AL35" s="3">
-        <f>SUM(X188-X187)</f>
+        <f t="shared" si="33"/>
         <v>39</v>
       </c>
       <c r="AM35" s="3">
-        <f>SUM(Y188-Y187)</f>
+        <f t="shared" si="34"/>
         <v>62</v>
       </c>
       <c r="AP35" s="1">
         <v>43955</v>
       </c>
       <c r="AQ35" s="3">
-        <f>SUM(Z185-Z184)</f>
+        <f t="shared" si="44"/>
         <v>535</v>
       </c>
       <c r="AR35" s="3">
-        <f>SUM(AA185-AA184)</f>
+        <f t="shared" si="45"/>
         <v>93</v>
       </c>
       <c r="AS35" s="3">
-        <f>SUM(AB185-AB184)</f>
+        <f t="shared" si="47"/>
         <v>187</v>
       </c>
       <c r="AT35" s="3">
-        <f>SUM(AC185-AC184)</f>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="AU35" s="3">
-        <f>SUM(AD185-AD184)</f>
+        <f t="shared" si="40"/>
         <v>72</v>
       </c>
     </row>
@@ -21747,86 +21747,86 @@
         <v>43956</v>
       </c>
       <c r="C36" s="3">
-        <f>SUM(A189-A188)</f>
+        <f t="shared" si="37"/>
         <v>358</v>
       </c>
       <c r="D36" s="3">
-        <f>SUM(B182-B181)</f>
+        <f t="shared" si="38"/>
         <v>396</v>
       </c>
       <c r="E36" s="3">
-        <f>SUM(C177-C176)</f>
+        <f t="shared" si="30"/>
         <v>187</v>
       </c>
       <c r="F36" s="3">
-        <f>SUM(D179-D178)</f>
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
       <c r="G36" s="3">
-        <f>SUM(E175-E174)</f>
+        <f t="shared" si="49"/>
         <v>198</v>
       </c>
       <c r="J36" s="1">
         <v>43956</v>
       </c>
       <c r="K36" s="3">
-        <f>SUM(F170-F169)</f>
+        <f t="shared" si="5"/>
         <v>178</v>
       </c>
       <c r="L36" s="3">
-        <f>SUM(G168-G167)</f>
+        <f t="shared" si="6"/>
         <v>218</v>
       </c>
       <c r="M36" s="3">
-        <f>SUM(H164-H163)</f>
+        <f t="shared" si="39"/>
         <v>219</v>
       </c>
       <c r="N36" s="3">
-        <f>SUM(I169-I168)</f>
+        <f t="shared" si="8"/>
         <v>146</v>
       </c>
       <c r="O36" s="3">
-        <f>SUM(J170-J169)</f>
+        <f t="shared" si="50"/>
         <v>301</v>
       </c>
       <c r="R36" s="1">
         <v>43956</v>
       </c>
       <c r="S36" s="3">
-        <f>SUM(K168-K167)</f>
+        <f t="shared" si="51"/>
         <v>232</v>
       </c>
       <c r="T36" s="3">
-        <f>SUM(L182-L181)</f>
+        <f t="shared" si="11"/>
         <v>223</v>
       </c>
       <c r="U36" s="3">
-        <f>SUM(M182-M181)</f>
+        <f t="shared" si="12"/>
         <v>206</v>
       </c>
       <c r="V36" s="3">
-        <f>SUM(N183-N182)</f>
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
       <c r="W36" s="3">
-        <f>SUM(O171-O170)</f>
+        <f t="shared" si="14"/>
         <v>126</v>
       </c>
       <c r="Z36" s="1">
         <v>43956</v>
       </c>
       <c r="AA36" s="3">
-        <f>SUM(P177-P176)</f>
+        <f t="shared" si="43"/>
         <v>77</v>
       </c>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3">
-        <f>SUM(S177-S176)</f>
+        <f t="shared" si="52"/>
         <v>21</v>
       </c>
       <c r="AE36" s="3">
-        <f>SUM(T177-T176)</f>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="AH36" s="1">
@@ -21837,42 +21837,42 @@
         <v>370</v>
       </c>
       <c r="AJ36" s="3">
-        <f>SUM(V189-V188)</f>
+        <f t="shared" si="31"/>
         <v>42</v>
       </c>
       <c r="AK36" s="3">
-        <f>SUM(W189-W188)</f>
+        <f t="shared" si="32"/>
         <v>70</v>
       </c>
       <c r="AL36" s="3">
-        <f>SUM(X189-X188)</f>
+        <f t="shared" si="33"/>
         <v>36</v>
       </c>
       <c r="AM36" s="3">
-        <f>SUM(Y189-Y188)</f>
+        <f t="shared" si="34"/>
         <v>56</v>
       </c>
       <c r="AP36" s="1">
         <v>43956</v>
       </c>
       <c r="AQ36" s="3">
-        <f>SUM(Z186-Z185)</f>
+        <f t="shared" si="44"/>
         <v>1572</v>
       </c>
       <c r="AR36" s="3">
-        <f>SUM(AA186-AA185)</f>
+        <f t="shared" si="45"/>
         <v>61</v>
       </c>
       <c r="AS36" s="3">
-        <f>SUM(AB186-AB185)</f>
+        <f t="shared" si="47"/>
         <v>133</v>
       </c>
       <c r="AT36" s="3">
-        <f>SUM(AC186-AC185)</f>
+        <f t="shared" si="36"/>
         <v>17</v>
       </c>
       <c r="AU36" s="3">
-        <f>SUM(AD186-AD185)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -21883,112 +21883,112 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3">
-        <f>SUM(C178-C177)</f>
+        <f t="shared" si="30"/>
         <v>198</v>
       </c>
       <c r="F37" s="3">
-        <f>SUM(D180-D179)</f>
+        <f t="shared" si="3"/>
         <v>402</v>
       </c>
       <c r="G37" s="3">
-        <f>SUM(E176-E175)</f>
+        <f t="shared" si="49"/>
         <v>268</v>
       </c>
       <c r="K37" s="3">
-        <f>SUM(F171-F170)</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="L37" s="3">
-        <f>SUM(G169-G168)</f>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="M37" s="3">
-        <f>SUM(H165-H164)</f>
+        <f t="shared" si="39"/>
         <v>111</v>
       </c>
       <c r="N37" s="3">
-        <f>SUM(I170-I169)</f>
+        <f t="shared" si="8"/>
         <v>101</v>
       </c>
       <c r="O37" s="3">
-        <f>SUM(J171-J170)</f>
+        <f t="shared" si="50"/>
         <v>174</v>
       </c>
       <c r="S37" s="3">
-        <f>SUM(K169-K168)</f>
+        <f t="shared" si="51"/>
         <v>303</v>
       </c>
       <c r="T37" s="3">
-        <f>SUM(L183-L182)</f>
+        <f t="shared" si="11"/>
         <v>347</v>
       </c>
       <c r="U37" s="3">
-        <f>SUM(M183-M182)</f>
+        <f t="shared" si="12"/>
         <v>365</v>
       </c>
       <c r="V37" s="3">
-        <f>SUM(N184-N183)</f>
+        <f t="shared" si="13"/>
         <v>144</v>
       </c>
       <c r="W37" s="3">
-        <f>SUM(O172-O171)</f>
+        <f t="shared" si="14"/>
         <v>395</v>
       </c>
       <c r="AA37" s="3">
-        <f>SUM(P178-P177)</f>
+        <f t="shared" si="43"/>
         <v>180</v>
       </c>
       <c r="AB37" s="3">
-        <f>SUM(Q178-Q177)</f>
+        <f t="shared" ref="AB37:AB56" si="53">SUM(Q178-Q177)</f>
         <v>51</v>
       </c>
       <c r="AC37" s="3">
-        <f>SUM(R178-R177)</f>
+        <f t="shared" ref="AC37:AC56" si="54">SUM(R178-R177)</f>
         <v>43</v>
       </c>
       <c r="AD37" s="3">
-        <f>SUM(S178-S177)</f>
+        <f t="shared" si="52"/>
         <v>42</v>
       </c>
       <c r="AE37" s="3">
-        <f>SUM(T178-T177)</f>
+        <f t="shared" si="48"/>
         <v>6</v>
       </c>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3">
-        <f>SUM(V190-V189)</f>
+        <f t="shared" si="31"/>
         <v>140</v>
       </c>
       <c r="AK37" s="3">
-        <f>SUM(W190-W189)</f>
+        <f t="shared" si="32"/>
         <v>104</v>
       </c>
       <c r="AL37" s="3">
-        <f>SUM(X190-X189)</f>
+        <f t="shared" si="33"/>
         <v>64</v>
       </c>
       <c r="AM37" s="3">
-        <f>SUM(Y190-Y189)</f>
+        <f t="shared" si="34"/>
         <v>44</v>
       </c>
       <c r="AQ37" s="3">
-        <f>SUM(Z187-Z186)</f>
+        <f t="shared" si="44"/>
         <v>872</v>
       </c>
       <c r="AR37" s="3">
-        <f>SUM(AA187-AA186)</f>
+        <f t="shared" si="45"/>
         <v>238</v>
       </c>
       <c r="AS37" s="3">
-        <f>SUM(AB187-AB186)</f>
+        <f t="shared" si="47"/>
         <v>181</v>
       </c>
       <c r="AT37" s="3">
-        <f>SUM(AC187-AC186)</f>
+        <f t="shared" si="36"/>
         <v>15</v>
       </c>
       <c r="AU37" s="3">
-        <f>SUM(AD187-AD186)</f>
+        <f t="shared" si="40"/>
         <v>225</v>
       </c>
     </row>
@@ -21999,84 +21999,84 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3">
-        <f>SUM(C179-C178)</f>
+        <f t="shared" si="30"/>
         <v>243</v>
       </c>
       <c r="F38" s="3">
-        <f>SUM(D181-D180)</f>
+        <f t="shared" si="3"/>
         <v>303</v>
       </c>
       <c r="G38" s="3">
-        <f>SUM(E177-E176)</f>
+        <f t="shared" si="49"/>
         <v>349</v>
       </c>
       <c r="J38" s="1">
         <v>43958</v>
       </c>
       <c r="K38" s="3">
-        <f>SUM(F172-F171)</f>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="L38" s="3">
-        <f>SUM(G170-G169)</f>
+        <f t="shared" si="6"/>
         <v>157</v>
       </c>
       <c r="M38" s="3">
-        <f>SUM(H166-H165)</f>
+        <f t="shared" si="39"/>
         <v>144</v>
       </c>
       <c r="N38" s="3">
-        <f>SUM(I171-I170)</f>
+        <f t="shared" si="8"/>
         <v>177</v>
       </c>
       <c r="O38" s="3">
-        <f>SUM(J172-J171)</f>
+        <f t="shared" si="50"/>
         <v>162</v>
       </c>
       <c r="R38" s="1">
         <v>43958</v>
       </c>
       <c r="S38" s="3">
-        <f>SUM(K170-K169)</f>
+        <f t="shared" si="51"/>
         <v>256</v>
       </c>
       <c r="T38" s="3">
-        <f>SUM(L184-L183)</f>
+        <f t="shared" si="11"/>
         <v>349</v>
       </c>
       <c r="U38" s="3">
-        <f>SUM(M184-M183)</f>
+        <f t="shared" si="12"/>
         <v>266</v>
       </c>
       <c r="V38" s="3">
-        <f>SUM(N185-N184)</f>
+        <f t="shared" si="13"/>
         <v>119</v>
       </c>
       <c r="W38" s="3">
-        <f>SUM(O173-O172)</f>
+        <f t="shared" si="14"/>
         <v>205</v>
       </c>
       <c r="Z38" s="1">
         <v>43958</v>
       </c>
       <c r="AA38" s="3">
-        <f>SUM(P179-P178)</f>
+        <f t="shared" si="43"/>
         <v>96</v>
       </c>
       <c r="AB38" s="3">
-        <f>SUM(Q179-Q178)</f>
+        <f t="shared" si="53"/>
         <v>51</v>
       </c>
       <c r="AC38" s="3">
-        <f>SUM(R179-R178)</f>
+        <f t="shared" si="54"/>
         <v>44</v>
       </c>
       <c r="AD38" s="3">
-        <f>SUM(S179-S178)</f>
+        <f t="shared" si="52"/>
         <v>21</v>
       </c>
       <c r="AE38" s="3">
-        <f>SUM(T179-T178)</f>
+        <f t="shared" si="48"/>
         <v>11</v>
       </c>
       <c r="AH38" s="1">
@@ -22084,42 +22084,42 @@
       </c>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3">
-        <f>SUM(V191-V190)</f>
+        <f t="shared" si="31"/>
         <v>88</v>
       </c>
       <c r="AK38" s="3">
-        <f>SUM(W191-W190)</f>
+        <f t="shared" si="32"/>
         <v>67</v>
       </c>
       <c r="AL38" s="3">
-        <f>SUM(X191-X190)</f>
+        <f t="shared" si="33"/>
         <v>39</v>
       </c>
       <c r="AM38" s="3">
-        <f>SUM(Y191-Y190)</f>
+        <f t="shared" si="34"/>
         <v>47</v>
       </c>
       <c r="AP38" s="1">
         <v>43958</v>
       </c>
       <c r="AQ38" s="3">
-        <f>SUM(Z188-Z187)</f>
+        <f t="shared" si="44"/>
         <v>857</v>
       </c>
       <c r="AR38" s="3">
-        <f>SUM(AA188-AA187)</f>
+        <f t="shared" si="45"/>
         <v>110</v>
       </c>
       <c r="AS38" s="3">
-        <f>SUM(AB188-AB187)</f>
+        <f t="shared" si="47"/>
         <v>73</v>
       </c>
       <c r="AT38" s="3">
-        <f>SUM(AC188-AC187)</f>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="AU38" s="3">
-        <f>SUM(AD188-AD187)</f>
+        <f t="shared" si="40"/>
         <v>127</v>
       </c>
     </row>
@@ -22128,89 +22128,89 @@
         <v>43959</v>
       </c>
       <c r="C39" s="3">
-        <f>SUM(A192-A191)</f>
+        <f t="shared" ref="C39:C54" si="55">SUM(A192-A191)</f>
         <v>494</v>
       </c>
       <c r="D39" s="3">
-        <f>SUM(B185-B184)</f>
+        <f t="shared" ref="D39:D52" si="56">SUM(B185-B184)</f>
         <v>448</v>
       </c>
       <c r="E39" s="3">
-        <f>SUM(C180-C179)</f>
+        <f t="shared" si="30"/>
         <v>219</v>
       </c>
       <c r="F39" s="3">
-        <f>SUM(D182-D181)</f>
+        <f t="shared" si="3"/>
         <v>352</v>
       </c>
       <c r="G39" s="3">
-        <f>SUM(E178-E177)</f>
+        <f t="shared" si="49"/>
         <v>331</v>
       </c>
       <c r="J39" s="1">
         <v>43959</v>
       </c>
       <c r="K39" s="3">
-        <f>SUM(F173-F172)</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="L39" s="3">
-        <f>SUM(G171-G170)</f>
+        <f t="shared" si="6"/>
         <v>166</v>
       </c>
       <c r="M39" s="3">
-        <f>SUM(H167-H166)</f>
+        <f t="shared" si="39"/>
         <v>161</v>
       </c>
       <c r="N39" s="3">
-        <f>SUM(I172-I171)</f>
+        <f t="shared" si="8"/>
         <v>136</v>
       </c>
       <c r="O39" s="3">
-        <f>SUM(J173-J172)</f>
+        <f t="shared" si="50"/>
         <v>147</v>
       </c>
       <c r="R39" s="1">
         <v>43959</v>
       </c>
       <c r="S39" s="3">
-        <f>SUM(K171-K170)</f>
+        <f t="shared" si="51"/>
         <v>212</v>
       </c>
       <c r="T39" s="3">
-        <f>SUM(L185-L184)</f>
+        <f t="shared" si="11"/>
         <v>338</v>
       </c>
       <c r="U39" s="3">
-        <f>SUM(M185-M184)</f>
+        <f t="shared" si="12"/>
         <v>385</v>
       </c>
       <c r="V39" s="3"/>
       <c r="W39" s="3">
-        <f>SUM(O174-O173)</f>
+        <f t="shared" si="14"/>
         <v>213</v>
       </c>
       <c r="Z39" s="1">
         <v>43959</v>
       </c>
       <c r="AA39" s="3">
-        <f>SUM(P180-P179)</f>
+        <f t="shared" si="43"/>
         <v>157</v>
       </c>
       <c r="AB39" s="3">
-        <f>SUM(Q180-Q179)</f>
+        <f t="shared" si="53"/>
         <v>40</v>
       </c>
       <c r="AC39" s="3">
-        <f>SUM(R180-R179)</f>
+        <f t="shared" si="54"/>
         <v>87</v>
       </c>
       <c r="AD39" s="3">
-        <f>SUM(S180-S179)</f>
+        <f t="shared" si="52"/>
         <v>8</v>
       </c>
       <c r="AE39" s="3">
-        <f>SUM(T180-T179)</f>
+        <f t="shared" si="48"/>
         <v>20</v>
       </c>
       <c r="AH39" s="1">
@@ -22218,42 +22218,42 @@
       </c>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3">
-        <f>SUM(V192-V191)</f>
+        <f t="shared" si="31"/>
         <v>122</v>
       </c>
       <c r="AK39" s="3">
-        <f>SUM(W192-W191)</f>
+        <f t="shared" si="32"/>
         <v>183</v>
       </c>
       <c r="AL39" s="3">
-        <f>SUM(X192-X191)</f>
+        <f t="shared" si="33"/>
         <v>38</v>
       </c>
       <c r="AM39" s="3">
-        <f>SUM(Y192-Y191)</f>
+        <f t="shared" si="34"/>
         <v>95</v>
       </c>
       <c r="AP39" s="1">
         <v>43959</v>
       </c>
       <c r="AQ39" s="3">
-        <f>SUM(Z189-Z188)</f>
+        <f t="shared" si="44"/>
         <v>813</v>
       </c>
       <c r="AR39" s="3">
-        <f>SUM(AA189-AA188)</f>
+        <f t="shared" si="45"/>
         <v>233</v>
       </c>
       <c r="AS39" s="3">
-        <f>SUM(AB189-AB188)</f>
+        <f t="shared" si="47"/>
         <v>64</v>
       </c>
       <c r="AT39" s="3">
-        <f>SUM(AC189-AC188)</f>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="AU39" s="3">
-        <f>SUM(AD189-AD188)</f>
+        <f t="shared" si="40"/>
         <v>112</v>
       </c>
     </row>
@@ -22262,132 +22262,132 @@
         <v>43960</v>
       </c>
       <c r="C40" s="3">
-        <f>SUM(A193-A192)</f>
+        <f t="shared" si="55"/>
         <v>549</v>
       </c>
       <c r="D40" s="3">
-        <f>SUM(B186-B185)</f>
+        <f t="shared" si="56"/>
         <v>463</v>
       </c>
       <c r="E40" s="3">
-        <f>SUM(C181-C180)</f>
+        <f t="shared" si="30"/>
         <v>216</v>
       </c>
       <c r="F40" s="3">
-        <f>SUM(D183-D182)</f>
+        <f t="shared" si="3"/>
         <v>271</v>
       </c>
       <c r="G40" s="3">
-        <f>SUM(E179-E178)</f>
+        <f t="shared" si="49"/>
         <v>238</v>
       </c>
       <c r="J40" s="1">
         <v>43960</v>
       </c>
       <c r="K40" s="3">
-        <f>SUM(F174-F173)</f>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="L40" s="3">
-        <f>SUM(G172-G171)</f>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="M40" s="3">
-        <f>SUM(H168-H167)</f>
+        <f t="shared" si="39"/>
         <v>109</v>
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3">
-        <f>SUM(J174-J173)</f>
+        <f t="shared" si="50"/>
         <v>148</v>
       </c>
       <c r="R40" s="1">
         <v>43960</v>
       </c>
       <c r="S40" s="3">
-        <f>SUM(K172-K171)</f>
+        <f t="shared" si="51"/>
         <v>175</v>
       </c>
       <c r="T40" s="3">
-        <f>SUM(L186-L185)</f>
+        <f t="shared" si="11"/>
         <v>293</v>
       </c>
       <c r="U40" s="3">
-        <f>SUM(M186-M185)</f>
+        <f t="shared" si="12"/>
         <v>216</v>
       </c>
       <c r="V40" s="3"/>
       <c r="W40" s="3">
-        <f>SUM(O175-O174)</f>
+        <f t="shared" si="14"/>
         <v>201</v>
       </c>
       <c r="Z40" s="1">
         <v>43960</v>
       </c>
       <c r="AA40" s="3">
-        <f>SUM(P181-P180)</f>
+        <f t="shared" si="43"/>
         <v>136</v>
       </c>
       <c r="AB40" s="3">
-        <f>SUM(Q181-Q180)</f>
+        <f t="shared" si="53"/>
         <v>28</v>
       </c>
       <c r="AC40" s="3">
-        <f>SUM(R181-R180)</f>
+        <f t="shared" si="54"/>
         <v>56</v>
       </c>
       <c r="AD40" s="3">
-        <f>SUM(S181-S180)</f>
+        <f t="shared" si="52"/>
         <v>11</v>
       </c>
       <c r="AE40" s="3">
-        <f>SUM(T181-T180)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="AH40" s="1">
         <v>43960</v>
       </c>
       <c r="AI40" s="3">
-        <f>SUM(U193-U192)</f>
+        <f t="shared" ref="AI40:AI56" si="57">SUM(U193-U192)</f>
         <v>253</v>
       </c>
       <c r="AJ40" s="3">
-        <f>SUM(V193-V192)</f>
+        <f t="shared" si="31"/>
         <v>79</v>
       </c>
       <c r="AK40" s="3">
-        <f>SUM(W193-W192)</f>
+        <f t="shared" si="32"/>
         <v>156</v>
       </c>
       <c r="AL40" s="3">
-        <f>SUM(X193-X192)</f>
+        <f t="shared" si="33"/>
         <v>29</v>
       </c>
       <c r="AM40" s="3">
-        <f>SUM(Y193-Y192)</f>
+        <f t="shared" si="34"/>
         <v>67</v>
       </c>
       <c r="AP40" s="1">
         <v>43960</v>
       </c>
       <c r="AQ40" s="3">
-        <f>SUM(Z190-Z189)</f>
+        <f t="shared" si="44"/>
         <v>911</v>
       </c>
       <c r="AR40" s="3">
-        <f>SUM(AA190-AA189)</f>
+        <f t="shared" si="45"/>
         <v>114</v>
       </c>
       <c r="AS40" s="3">
-        <f>SUM(AB190-AB189)</f>
+        <f t="shared" si="47"/>
         <v>199</v>
       </c>
       <c r="AT40" s="3">
-        <f>SUM(AC190-AC189)</f>
+        <f t="shared" si="36"/>
         <v>32</v>
       </c>
       <c r="AU40" s="3">
-        <f>SUM(AD190-AD189)</f>
+        <f t="shared" si="40"/>
         <v>111</v>
       </c>
     </row>
@@ -22396,62 +22396,62 @@
         <v>43961</v>
       </c>
       <c r="C41" s="3">
-        <f>SUM(A194-A193)</f>
+        <f t="shared" si="55"/>
         <v>369</v>
       </c>
       <c r="D41" s="3">
-        <f>SUM(B187-B186)</f>
+        <f t="shared" si="56"/>
         <v>356</v>
       </c>
       <c r="E41" s="3">
-        <f>SUM(C182-C181)</f>
+        <f t="shared" si="30"/>
         <v>189</v>
       </c>
       <c r="F41" s="3">
-        <f>SUM(D184-D183)</f>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="G41" s="3">
-        <f>SUM(E180-E179)</f>
+        <f t="shared" si="49"/>
         <v>241</v>
       </c>
       <c r="J41" s="1">
         <v>43961</v>
       </c>
       <c r="K41" s="3">
-        <f>SUM(F175-F174)</f>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="L41" s="3">
-        <f>SUM(G173-G172)</f>
+        <f t="shared" si="6"/>
         <v>147</v>
       </c>
       <c r="M41" s="3">
-        <f>SUM(H169-H168)</f>
+        <f t="shared" si="39"/>
         <v>159</v>
       </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3">
-        <f>SUM(J175-J174)</f>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="R41" s="1">
         <v>43961</v>
       </c>
       <c r="S41" s="3">
-        <f>SUM(K173-K172)</f>
+        <f t="shared" si="51"/>
         <v>160</v>
       </c>
       <c r="T41" s="3">
-        <f>SUM(L187-L186)</f>
+        <f t="shared" si="11"/>
         <v>282</v>
       </c>
       <c r="U41" s="3">
-        <f>SUM(M187-M186)</f>
+        <f t="shared" si="12"/>
         <v>142</v>
       </c>
       <c r="V41" s="3">
-        <f>SUM(N188-N187)</f>
+        <f t="shared" ref="V41:V55" si="58">SUM(N188-N187)</f>
         <v>65</v>
       </c>
       <c r="W41" s="3"/>
@@ -22459,69 +22459,69 @@
         <v>43961</v>
       </c>
       <c r="AA41" s="3">
-        <f>SUM(P182-P181)</f>
+        <f t="shared" si="43"/>
         <v>115</v>
       </c>
       <c r="AB41" s="3">
-        <f>SUM(Q182-Q181)</f>
+        <f t="shared" si="53"/>
         <v>44</v>
       </c>
       <c r="AC41" s="3">
-        <f>SUM(R182-R181)</f>
+        <f t="shared" si="54"/>
         <v>23</v>
       </c>
       <c r="AD41" s="3">
-        <f>SUM(S182-S181)</f>
+        <f t="shared" si="52"/>
         <v>8</v>
       </c>
       <c r="AE41" s="3">
-        <f>SUM(T182-T181)</f>
+        <f t="shared" si="48"/>
         <v>6</v>
       </c>
       <c r="AH41" s="1">
         <v>43961</v>
       </c>
       <c r="AI41" s="3">
-        <f>SUM(U194-U193)</f>
+        <f t="shared" si="57"/>
         <v>246</v>
       </c>
       <c r="AJ41" s="3">
-        <f>SUM(V194-V193)</f>
+        <f t="shared" si="31"/>
         <v>144</v>
       </c>
       <c r="AK41" s="3">
-        <f>SUM(W194-W193)</f>
+        <f t="shared" si="32"/>
         <v>140</v>
       </c>
       <c r="AL41" s="3">
-        <f>SUM(X194-X193)</f>
+        <f t="shared" si="33"/>
         <v>72</v>
       </c>
       <c r="AM41" s="3">
-        <f>SUM(Y194-Y193)</f>
+        <f t="shared" si="34"/>
         <v>114</v>
       </c>
       <c r="AP41" s="1">
         <v>43961</v>
       </c>
       <c r="AQ41" s="3">
-        <f>SUM(Z191-Z190)</f>
+        <f t="shared" si="44"/>
         <v>443</v>
       </c>
       <c r="AR41" s="3">
-        <f>SUM(AA191-AA190)</f>
+        <f t="shared" si="45"/>
         <v>150</v>
       </c>
       <c r="AS41" s="3">
-        <f>SUM(AB191-AB190)</f>
+        <f t="shared" si="47"/>
         <v>80</v>
       </c>
       <c r="AT41" s="3">
-        <f>SUM(AC191-AC190)</f>
+        <f t="shared" si="36"/>
         <v>14</v>
       </c>
       <c r="AU41" s="3">
-        <f>SUM(AD191-AD190)</f>
+        <f t="shared" si="40"/>
         <v>121</v>
       </c>
     </row>
@@ -22530,62 +22530,62 @@
         <v>43962</v>
       </c>
       <c r="C42" s="3">
-        <f>SUM(A195-A194)</f>
+        <f t="shared" si="55"/>
         <v>318</v>
       </c>
       <c r="D42" s="3">
-        <f>SUM(B188-B187)</f>
+        <f t="shared" si="56"/>
         <v>255</v>
       </c>
       <c r="E42" s="3">
-        <f>SUM(C183-C182)</f>
+        <f t="shared" si="30"/>
         <v>120</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3">
-        <f>SUM(E181-E180)</f>
+        <f t="shared" si="49"/>
         <v>209</v>
       </c>
       <c r="J42" s="1">
         <v>43962</v>
       </c>
       <c r="K42" s="3">
-        <f>SUM(F176-F175)</f>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="L42" s="3">
-        <f>SUM(G174-G173)</f>
+        <f t="shared" si="6"/>
         <v>114</v>
       </c>
       <c r="M42" s="3">
-        <f>SUM(H170-H169)</f>
+        <f t="shared" si="39"/>
         <v>78</v>
       </c>
       <c r="N42" s="3">
-        <f>SUM(I175-I174)</f>
+        <f t="shared" ref="N42:N53" si="59">SUM(I175-I174)</f>
         <v>107</v>
       </c>
       <c r="O42" s="3">
-        <f>SUM(J176-J175)</f>
+        <f t="shared" si="50"/>
         <v>102</v>
       </c>
       <c r="R42" s="1">
         <v>43962</v>
       </c>
       <c r="S42" s="3">
-        <f>SUM(K174-K173)</f>
+        <f t="shared" si="51"/>
         <v>77</v>
       </c>
       <c r="T42" s="3">
-        <f>SUM(L188-L187)</f>
+        <f t="shared" si="11"/>
         <v>185</v>
       </c>
       <c r="U42" s="3">
-        <f>SUM(M188-M187)</f>
+        <f t="shared" si="12"/>
         <v>79</v>
       </c>
       <c r="V42" s="3">
-        <f>SUM(N189-N188)</f>
+        <f t="shared" si="58"/>
         <v>52</v>
       </c>
       <c r="W42" s="3"/>
@@ -22593,69 +22593,69 @@
         <v>43962</v>
       </c>
       <c r="AA42" s="3">
-        <f>SUM(P183-P182)</f>
+        <f t="shared" si="43"/>
         <v>119</v>
       </c>
       <c r="AB42" s="3">
-        <f>SUM(Q183-Q182)</f>
+        <f t="shared" si="53"/>
         <v>16</v>
       </c>
       <c r="AC42" s="3">
-        <f>SUM(R183-R182)</f>
+        <f t="shared" si="54"/>
         <v>22</v>
       </c>
       <c r="AD42" s="3">
-        <f>SUM(S183-S182)</f>
+        <f t="shared" si="52"/>
         <v>7</v>
       </c>
       <c r="AE42" s="3">
-        <f>SUM(T183-T182)</f>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="AH42" s="1">
         <v>43962</v>
       </c>
       <c r="AI42" s="3">
-        <f>SUM(U195-U194)</f>
+        <f t="shared" si="57"/>
         <v>125</v>
       </c>
       <c r="AJ42" s="3">
-        <f>SUM(V195-V194)</f>
+        <f t="shared" si="31"/>
         <v>32</v>
       </c>
       <c r="AK42" s="3">
-        <f>SUM(W195-W194)</f>
+        <f t="shared" si="32"/>
         <v>70</v>
       </c>
       <c r="AL42" s="3">
-        <f>SUM(X195-X194)</f>
+        <f t="shared" si="33"/>
         <v>18</v>
       </c>
       <c r="AM42" s="3">
-        <f>SUM(Y195-Y194)</f>
+        <f t="shared" si="34"/>
         <v>46</v>
       </c>
       <c r="AP42" s="1">
         <v>43962</v>
       </c>
       <c r="AQ42" s="3">
-        <f>SUM(Z192-Z191)</f>
+        <f t="shared" si="44"/>
         <v>568</v>
       </c>
       <c r="AR42" s="3">
-        <f>SUM(AA192-AA191)</f>
+        <f t="shared" si="45"/>
         <v>139</v>
       </c>
       <c r="AS42" s="3">
-        <f>SUM(AB192-AB191)</f>
+        <f t="shared" si="47"/>
         <v>131</v>
       </c>
       <c r="AT42" s="3">
-        <f>SUM(AC192-AC191)</f>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="AU42" s="3">
-        <f>SUM(AD192-AD191)</f>
+        <f t="shared" si="40"/>
         <v>72</v>
       </c>
     </row>
@@ -22664,135 +22664,135 @@
         <v>43963</v>
       </c>
       <c r="C43" s="3">
-        <f>SUM(A196-A195)</f>
+        <f t="shared" si="55"/>
         <v>211</v>
       </c>
       <c r="D43" s="3">
-        <f>SUM(B189-B188)</f>
+        <f t="shared" si="56"/>
         <v>259</v>
       </c>
       <c r="E43" s="3">
-        <f>SUM(C184-C183)</f>
+        <f t="shared" si="30"/>
         <v>97</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3">
-        <f>SUM(E182-E181)</f>
+        <f t="shared" si="49"/>
         <v>151</v>
       </c>
       <c r="J43" s="1">
         <v>43963</v>
       </c>
       <c r="K43" s="3">
-        <f>SUM(F177-F176)</f>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="L43" s="3">
-        <f>SUM(G175-G174)</f>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="M43" s="3">
-        <f>SUM(H171-H170)</f>
+        <f t="shared" si="39"/>
         <v>83</v>
       </c>
       <c r="N43" s="3">
-        <f>SUM(I176-I175)</f>
+        <f t="shared" si="59"/>
         <v>39</v>
       </c>
       <c r="O43" s="3">
-        <f>SUM(J177-J176)</f>
+        <f t="shared" si="50"/>
         <v>71</v>
       </c>
       <c r="R43" s="1">
         <v>43963</v>
       </c>
       <c r="S43" s="3">
-        <f>SUM(K175-K174)</f>
+        <f t="shared" si="51"/>
         <v>98</v>
       </c>
       <c r="T43" s="3">
-        <f>SUM(L189-L188)</f>
+        <f t="shared" si="11"/>
         <v>179</v>
       </c>
       <c r="U43" s="3">
-        <f>SUM(M189-M188)</f>
+        <f t="shared" si="12"/>
         <v>140</v>
       </c>
       <c r="V43" s="3">
-        <f>SUM(N190-N189)</f>
+        <f t="shared" si="58"/>
         <v>42</v>
       </c>
       <c r="W43" s="3">
-        <f>SUM(O178-O177)</f>
+        <f t="shared" ref="W43:W51" si="60">SUM(O178-O177)</f>
         <v>141</v>
       </c>
       <c r="Z43" s="1">
         <v>43963</v>
       </c>
       <c r="AA43" s="3">
-        <f>SUM(P184-P183)</f>
+        <f t="shared" si="43"/>
         <v>80</v>
       </c>
       <c r="AB43" s="3">
-        <f>SUM(Q184-Q183)</f>
+        <f t="shared" si="53"/>
         <v>32</v>
       </c>
       <c r="AC43" s="3">
-        <f>SUM(R184-R183)</f>
+        <f t="shared" si="54"/>
         <v>33</v>
       </c>
       <c r="AD43" s="3">
-        <f>SUM(S184-S183)</f>
+        <f t="shared" si="52"/>
         <v>17</v>
       </c>
       <c r="AE43" s="3">
-        <f>SUM(T184-T183)</f>
+        <f t="shared" si="48"/>
         <v>14</v>
       </c>
       <c r="AH43" s="1">
         <v>43963</v>
       </c>
       <c r="AI43" s="3">
-        <f>SUM(U196-U195)</f>
+        <f t="shared" si="57"/>
         <v>210</v>
       </c>
       <c r="AJ43" s="3">
-        <f>SUM(V196-V195)</f>
+        <f t="shared" si="31"/>
         <v>150</v>
       </c>
       <c r="AK43" s="3">
-        <f>SUM(W196-W195)</f>
+        <f t="shared" si="32"/>
         <v>38</v>
       </c>
       <c r="AL43" s="3">
-        <f>SUM(X196-X195)</f>
+        <f t="shared" si="33"/>
         <v>27</v>
       </c>
       <c r="AM43" s="3">
-        <f>SUM(Y196-Y195)</f>
+        <f t="shared" si="34"/>
         <v>36</v>
       </c>
       <c r="AP43" s="1">
         <v>43963</v>
       </c>
       <c r="AQ43" s="3">
-        <f>SUM(Z193-Z192)</f>
+        <f t="shared" si="44"/>
         <v>1002</v>
       </c>
       <c r="AR43" s="3">
-        <f>SUM(AA193-AA192)</f>
+        <f t="shared" si="45"/>
         <v>96</v>
       </c>
       <c r="AS43" s="3">
-        <f>SUM(AB193-AB192)</f>
+        <f t="shared" si="47"/>
         <v>52</v>
       </c>
       <c r="AT43" s="3">
-        <f>SUM(AC193-AC192)</f>
+        <f t="shared" si="36"/>
         <v>22</v>
       </c>
       <c r="AU43" s="3">
-        <f>SUM(AD193-AD192)</f>
+        <f t="shared" si="40"/>
         <v>144</v>
       </c>
     </row>
@@ -22801,138 +22801,138 @@
         <v>43964</v>
       </c>
       <c r="C44" s="3">
-        <f>SUM(A197-A196)</f>
+        <f t="shared" si="55"/>
         <v>357</v>
       </c>
       <c r="D44" s="3">
-        <f>SUM(B190-B189)</f>
+        <f t="shared" si="56"/>
         <v>336</v>
       </c>
       <c r="E44" s="3">
-        <f>SUM(C185-C184)</f>
+        <f t="shared" si="30"/>
         <v>153</v>
       </c>
       <c r="F44" s="3">
-        <f>SUM(D187-D186)</f>
+        <f t="shared" ref="F44:F56" si="61">SUM(D187-D186)</f>
         <v>236</v>
       </c>
       <c r="G44" s="3">
-        <f>SUM(E183-E182)</f>
+        <f t="shared" si="49"/>
         <v>243</v>
       </c>
       <c r="J44" s="1">
         <v>43964</v>
       </c>
       <c r="K44" s="3">
-        <f>SUM(F178-F177)</f>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="L44" s="3">
-        <f>SUM(G176-G175)</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="M44" s="3">
-        <f>SUM(H172-H171)</f>
+        <f t="shared" si="39"/>
         <v>64</v>
       </c>
       <c r="N44" s="3">
-        <f>SUM(I177-I176)</f>
+        <f t="shared" si="59"/>
         <v>103</v>
       </c>
       <c r="O44" s="3">
-        <f>SUM(J178-J177)</f>
+        <f t="shared" si="50"/>
         <v>41</v>
       </c>
       <c r="R44" s="1">
         <v>43964</v>
       </c>
       <c r="S44" s="3">
-        <f>SUM(K176-K175)</f>
+        <f t="shared" si="51"/>
         <v>133</v>
       </c>
       <c r="T44" s="3">
-        <f>SUM(L190-L189)</f>
+        <f t="shared" si="11"/>
         <v>248</v>
       </c>
       <c r="U44" s="3">
-        <f>SUM(M190-M189)</f>
+        <f t="shared" si="12"/>
         <v>131</v>
       </c>
       <c r="V44" s="3">
-        <f>SUM(N191-N190)</f>
+        <f t="shared" si="58"/>
         <v>83</v>
       </c>
       <c r="W44" s="3">
-        <f>SUM(O179-O178)</f>
+        <f t="shared" si="60"/>
         <v>282</v>
       </c>
       <c r="Z44" s="1">
         <v>43964</v>
       </c>
       <c r="AA44" s="3">
-        <f>SUM(P185-P184)</f>
+        <f t="shared" si="43"/>
         <v>115</v>
       </c>
       <c r="AB44" s="3">
-        <f>SUM(Q185-Q184)</f>
+        <f t="shared" si="53"/>
         <v>46</v>
       </c>
       <c r="AC44" s="3">
-        <f>SUM(R185-R184)</f>
+        <f t="shared" si="54"/>
         <v>40</v>
       </c>
       <c r="AD44" s="3">
-        <f>SUM(S185-S184)</f>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="AE44" s="3">
-        <f>SUM(T185-T184)</f>
+        <f t="shared" si="48"/>
         <v>4</v>
       </c>
       <c r="AH44" s="1">
         <v>43964</v>
       </c>
       <c r="AI44" s="3">
-        <f>SUM(U197-U196)</f>
+        <f t="shared" si="57"/>
         <v>158</v>
       </c>
       <c r="AJ44" s="3">
-        <f>SUM(V197-V196)</f>
+        <f t="shared" si="31"/>
         <v>71</v>
       </c>
       <c r="AK44" s="3">
-        <f>SUM(W197-W196)</f>
+        <f t="shared" si="32"/>
         <v>73</v>
       </c>
       <c r="AL44" s="3">
-        <f>SUM(X197-X196)</f>
+        <f t="shared" si="33"/>
         <v>32</v>
       </c>
       <c r="AM44" s="3">
-        <f>SUM(Y197-Y196)</f>
+        <f t="shared" si="34"/>
         <v>32</v>
       </c>
       <c r="AP44" s="1">
         <v>43964</v>
       </c>
       <c r="AQ44" s="3">
-        <f>SUM(Z194-Z193)</f>
+        <f t="shared" si="44"/>
         <v>1293</v>
       </c>
       <c r="AR44" s="3">
-        <f>SUM(AA194-AA193)</f>
+        <f t="shared" si="45"/>
         <v>117</v>
       </c>
       <c r="AS44" s="3">
-        <f>SUM(AB194-AB193)</f>
+        <f t="shared" si="47"/>
         <v>70</v>
       </c>
       <c r="AT44" s="3">
-        <f>SUM(AC194-AC193)</f>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="AU44" s="3">
-        <f>SUM(AD194-AD193)</f>
+        <f t="shared" si="40"/>
         <v>182</v>
       </c>
     </row>
@@ -22941,23 +22941,23 @@
         <v>43965</v>
       </c>
       <c r="C45" s="3">
-        <f>SUM(A198-A197)</f>
+        <f t="shared" si="55"/>
         <v>336</v>
       </c>
       <c r="D45" s="3">
-        <f>SUM(B191-B190)</f>
+        <f t="shared" si="56"/>
         <v>428</v>
       </c>
       <c r="E45" s="3">
-        <f>SUM(C186-C185)</f>
+        <f t="shared" si="30"/>
         <v>156</v>
       </c>
       <c r="F45" s="3">
-        <f>SUM(D188-D187)</f>
+        <f t="shared" si="61"/>
         <v>303</v>
       </c>
       <c r="G45" s="3">
-        <f>SUM(E184-E183)</f>
+        <f t="shared" si="49"/>
         <v>239</v>
       </c>
       <c r="J45" s="1">
@@ -22965,111 +22965,111 @@
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3">
-        <f>SUM(G177-G176)</f>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="M45" s="3">
-        <f>SUM(H173-H172)</f>
+        <f t="shared" si="39"/>
         <v>75</v>
       </c>
       <c r="N45" s="3">
-        <f>SUM(I178-I177)</f>
+        <f t="shared" si="59"/>
         <v>79</v>
       </c>
       <c r="O45" s="3">
-        <f>SUM(J179-J178)</f>
+        <f t="shared" si="50"/>
         <v>130</v>
       </c>
       <c r="R45" s="1">
         <v>43965</v>
       </c>
       <c r="S45" s="3">
-        <f>SUM(K177-K176)</f>
+        <f t="shared" si="51"/>
         <v>294</v>
       </c>
       <c r="T45" s="3">
-        <f>SUM(L191-L190)</f>
+        <f t="shared" si="11"/>
         <v>180</v>
       </c>
       <c r="U45" s="3">
-        <f>SUM(M191-M190)</f>
+        <f t="shared" si="12"/>
         <v>247</v>
       </c>
       <c r="V45" s="3">
-        <f>SUM(N192-N191)</f>
+        <f t="shared" si="58"/>
         <v>129</v>
       </c>
       <c r="W45" s="3">
-        <f>SUM(O180-O179)</f>
+        <f t="shared" si="60"/>
         <v>314</v>
       </c>
       <c r="Z45" s="1">
         <v>43965</v>
       </c>
       <c r="AA45" s="3">
-        <f>SUM(P186-P185)</f>
+        <f t="shared" si="43"/>
         <v>381</v>
       </c>
       <c r="AB45" s="3">
-        <f>SUM(Q186-Q185)</f>
+        <f t="shared" si="53"/>
         <v>122</v>
       </c>
       <c r="AC45" s="3">
-        <f>SUM(R186-R185)</f>
+        <f t="shared" si="54"/>
         <v>95</v>
       </c>
       <c r="AD45" s="3">
-        <f>SUM(S186-S185)</f>
+        <f t="shared" si="52"/>
         <v>29</v>
       </c>
       <c r="AE45" s="3">
-        <f>SUM(T186-T185)</f>
+        <f t="shared" si="48"/>
         <v>21</v>
       </c>
       <c r="AH45" s="1">
         <v>43965</v>
       </c>
       <c r="AI45" s="3">
-        <f>SUM(U198-U197)</f>
+        <f t="shared" si="57"/>
         <v>248</v>
       </c>
       <c r="AJ45" s="3">
-        <f>SUM(V198-V197)</f>
+        <f t="shared" si="31"/>
         <v>70</v>
       </c>
       <c r="AK45" s="3">
-        <f>SUM(W198-W197)</f>
+        <f t="shared" si="32"/>
         <v>95</v>
       </c>
       <c r="AL45" s="3">
-        <f>SUM(X198-X197)</f>
+        <f t="shared" si="33"/>
         <v>60</v>
       </c>
       <c r="AM45" s="3">
-        <f>SUM(Y198-Y197)</f>
+        <f t="shared" si="34"/>
         <v>45</v>
       </c>
       <c r="AP45" s="1">
         <v>43965</v>
       </c>
       <c r="AQ45" s="3">
-        <f>SUM(Z195-Z194)</f>
+        <f t="shared" si="44"/>
         <v>853</v>
       </c>
       <c r="AR45" s="3">
-        <f>SUM(AA195-AA194)</f>
+        <f t="shared" si="45"/>
         <v>113</v>
       </c>
       <c r="AS45" s="3">
-        <f>SUM(AB195-AB194)</f>
+        <f t="shared" si="47"/>
         <v>135</v>
       </c>
       <c r="AT45" s="3">
-        <f>SUM(AC195-AC194)</f>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="AU45" s="3">
-        <f>SUM(AD195-AD194)</f>
+        <f t="shared" si="40"/>
         <v>138</v>
       </c>
     </row>
@@ -23078,23 +23078,23 @@
         <v>43966</v>
       </c>
       <c r="C46" s="3">
-        <f>SUM(A199-A198)</f>
+        <f t="shared" si="55"/>
         <v>432</v>
       </c>
       <c r="D46" s="3">
-        <f>SUM(B192-B191)</f>
+        <f t="shared" si="56"/>
         <v>486</v>
       </c>
       <c r="E46" s="3">
-        <f>SUM(C187-C186)</f>
+        <f t="shared" si="30"/>
         <v>121</v>
       </c>
       <c r="F46" s="3">
-        <f>SUM(D189-D188)</f>
+        <f t="shared" si="61"/>
         <v>539</v>
       </c>
       <c r="G46" s="3">
-        <f>SUM(E185-E184)</f>
+        <f t="shared" si="49"/>
         <v>175</v>
       </c>
       <c r="J46" s="1">
@@ -23102,111 +23102,111 @@
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3">
-        <f>SUM(G178-G177)</f>
+        <f t="shared" si="6"/>
         <v>103</v>
       </c>
       <c r="M46" s="3">
-        <f>SUM(H174-H173)</f>
+        <f t="shared" si="39"/>
         <v>129</v>
       </c>
       <c r="N46" s="3">
-        <f>SUM(I179-I178)</f>
+        <f t="shared" si="59"/>
         <v>107</v>
       </c>
       <c r="O46" s="3">
-        <f>SUM(J180-J179)</f>
+        <f t="shared" si="50"/>
         <v>43</v>
       </c>
       <c r="R46" s="1">
         <v>43966</v>
       </c>
       <c r="S46" s="3">
-        <f>SUM(K178-K177)</f>
+        <f t="shared" si="51"/>
         <v>115</v>
       </c>
       <c r="T46" s="3">
-        <f>SUM(L192-L191)</f>
+        <f t="shared" si="11"/>
         <v>302</v>
       </c>
       <c r="U46" s="3">
-        <f>SUM(M192-M191)</f>
+        <f t="shared" si="12"/>
         <v>181</v>
       </c>
       <c r="V46" s="3">
-        <f>SUM(N193-N192)</f>
+        <f t="shared" si="58"/>
         <v>73</v>
       </c>
       <c r="W46" s="3">
-        <f>SUM(O181-O180)</f>
+        <f t="shared" si="60"/>
         <v>231</v>
       </c>
       <c r="Z46" s="1">
         <v>43966</v>
       </c>
       <c r="AA46" s="3">
-        <f>SUM(P187-P186)</f>
+        <f t="shared" si="43"/>
         <v>112</v>
       </c>
       <c r="AB46" s="3">
-        <f>SUM(Q187-Q186)</f>
+        <f t="shared" si="53"/>
         <v>42</v>
       </c>
       <c r="AC46" s="3">
-        <f>SUM(R187-R186)</f>
+        <f t="shared" si="54"/>
         <v>42</v>
       </c>
       <c r="AD46" s="3">
-        <f>SUM(S187-S186)</f>
+        <f t="shared" si="52"/>
         <v>22</v>
       </c>
       <c r="AE46" s="3">
-        <f>SUM(T187-T186)</f>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="AH46" s="1">
         <v>43966</v>
       </c>
       <c r="AI46" s="3">
-        <f>SUM(U199-U198)</f>
+        <f t="shared" si="57"/>
         <v>211</v>
       </c>
       <c r="AJ46" s="3">
-        <f>SUM(V199-V198)</f>
+        <f t="shared" si="31"/>
         <v>114</v>
       </c>
       <c r="AK46" s="3">
-        <f>SUM(W199-W198)</f>
+        <f t="shared" si="32"/>
         <v>157</v>
       </c>
       <c r="AL46" s="3">
-        <f>SUM(X199-X198)</f>
+        <f t="shared" si="33"/>
         <v>18</v>
       </c>
       <c r="AM46" s="3">
-        <f>SUM(Y199-Y198)</f>
+        <f t="shared" si="34"/>
         <v>63</v>
       </c>
       <c r="AP46" s="1">
         <v>43966</v>
       </c>
       <c r="AQ46" s="3">
-        <f>SUM(Z196-Z195)</f>
+        <f t="shared" si="44"/>
         <v>890</v>
       </c>
       <c r="AR46" s="3">
-        <f>SUM(AA196-AA195)</f>
+        <f t="shared" si="45"/>
         <v>132</v>
       </c>
       <c r="AS46" s="3">
-        <f>SUM(AB196-AB195)</f>
+        <f t="shared" si="47"/>
         <v>157</v>
       </c>
       <c r="AT46" s="3">
-        <f>SUM(AC196-AC195)</f>
+        <f t="shared" si="36"/>
         <v>15</v>
       </c>
       <c r="AU46" s="3">
-        <f>SUM(AD196-AD195)</f>
+        <f t="shared" si="40"/>
         <v>118</v>
       </c>
     </row>
@@ -23215,69 +23215,69 @@
         <v>43967</v>
       </c>
       <c r="C47" s="3">
-        <f>SUM(A200-A199)</f>
+        <f t="shared" si="55"/>
         <v>325</v>
       </c>
       <c r="D47" s="3">
-        <f>SUM(B193-B192)</f>
+        <f t="shared" si="56"/>
         <v>410</v>
       </c>
       <c r="E47" s="3">
-        <f>SUM(C188-C187)</f>
+        <f t="shared" si="30"/>
         <v>169</v>
       </c>
       <c r="F47" s="3">
-        <f>SUM(D190-D189)</f>
+        <f t="shared" si="61"/>
         <v>293</v>
       </c>
       <c r="G47" s="3">
-        <f>SUM(E186-E185)</f>
+        <f t="shared" si="49"/>
         <v>223</v>
       </c>
       <c r="J47" s="1">
         <v>43967</v>
       </c>
       <c r="K47" s="3">
-        <f>SUM(F181-F180)</f>
+        <f t="shared" ref="K47:K56" si="62">SUM(F181-F180)</f>
         <v>51</v>
       </c>
       <c r="L47" s="3">
-        <f>SUM(G179-G178)</f>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="M47" s="3">
-        <f>SUM(H175-H174)</f>
+        <f t="shared" si="39"/>
         <v>79</v>
       </c>
       <c r="N47" s="3">
-        <f>SUM(I180-I179)</f>
+        <f t="shared" si="59"/>
         <v>77</v>
       </c>
       <c r="O47" s="3">
-        <f>SUM(J181-J180)</f>
+        <f t="shared" si="50"/>
         <v>101</v>
       </c>
       <c r="R47" s="1">
         <v>43967</v>
       </c>
       <c r="S47" s="3">
-        <f>SUM(K179-K178)</f>
+        <f t="shared" si="51"/>
         <v>350</v>
       </c>
       <c r="T47" s="3">
-        <f>SUM(L193-L192)</f>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="U47" s="3">
-        <f>SUM(M193-M192)</f>
+        <f t="shared" si="12"/>
         <v>183</v>
       </c>
       <c r="V47" s="3">
-        <f>SUM(N194-N193)</f>
+        <f t="shared" si="58"/>
         <v>81</v>
       </c>
       <c r="W47" s="3">
-        <f>SUM(O182-O181)</f>
+        <f t="shared" si="60"/>
         <v>281</v>
       </c>
       <c r="Z47" s="1">
@@ -23285,65 +23285,65 @@
       </c>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3">
-        <f>SUM(Q188-Q187)</f>
+        <f t="shared" si="53"/>
         <v>29</v>
       </c>
       <c r="AC47" s="3">
-        <f>SUM(R188-R187)</f>
+        <f t="shared" si="54"/>
         <v>30</v>
       </c>
       <c r="AD47" s="3">
-        <f>SUM(S188-S187)</f>
+        <f t="shared" si="52"/>
         <v>10</v>
       </c>
       <c r="AE47" s="3">
-        <f>SUM(T188-T187)</f>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="AH47" s="1">
         <v>43967</v>
       </c>
       <c r="AI47" s="3">
-        <f>SUM(U200-U199)</f>
+        <f t="shared" si="57"/>
         <v>197</v>
       </c>
       <c r="AJ47" s="3">
-        <f>SUM(V200-V199)</f>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="AK47" s="3">
-        <f>SUM(W200-W199)</f>
+        <f t="shared" si="32"/>
         <v>146</v>
       </c>
       <c r="AL47" s="3">
-        <f>SUM(X200-X199)</f>
+        <f t="shared" si="33"/>
         <v>44</v>
       </c>
       <c r="AM47" s="3">
-        <f>SUM(Y200-Y199)</f>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="AP47" s="1">
         <v>43967</v>
       </c>
       <c r="AQ47" s="3">
-        <f>SUM(Z197-Z196)</f>
+        <f t="shared" si="44"/>
         <v>1035</v>
       </c>
       <c r="AR47" s="3">
-        <f>SUM(AA197-AA196)</f>
+        <f t="shared" si="45"/>
         <v>139</v>
       </c>
       <c r="AS47" s="3">
-        <f>SUM(AB197-AB196)</f>
+        <f t="shared" si="47"/>
         <v>137</v>
       </c>
       <c r="AT47" s="3">
-        <f>SUM(AC197-AC196)</f>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
       <c r="AU47" s="3">
-        <f>SUM(AD197-AD196)</f>
+        <f t="shared" si="40"/>
         <v>115</v>
       </c>
     </row>
@@ -23352,69 +23352,69 @@
         <v>43968</v>
       </c>
       <c r="C48" s="3">
-        <f>SUM(A201-A200)</f>
+        <f t="shared" si="55"/>
         <v>291</v>
       </c>
       <c r="D48" s="3">
-        <f>SUM(B194-B193)</f>
+        <f t="shared" si="56"/>
         <v>307</v>
       </c>
       <c r="E48" s="3">
-        <f>SUM(C189-C188)</f>
+        <f t="shared" si="30"/>
         <v>103</v>
       </c>
       <c r="F48" s="3">
-        <f>SUM(D191-D190)</f>
+        <f t="shared" si="61"/>
         <v>210</v>
       </c>
       <c r="G48" s="3">
-        <f>SUM(E187-E186)</f>
+        <f t="shared" si="49"/>
         <v>175</v>
       </c>
       <c r="J48" s="1">
         <v>43968</v>
       </c>
       <c r="K48" s="3">
-        <f>SUM(F182-F181)</f>
+        <f t="shared" si="62"/>
         <v>115</v>
       </c>
       <c r="L48" s="3">
-        <f>SUM(G180-G179)</f>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="M48" s="3">
-        <f>SUM(H176-H175)</f>
+        <f t="shared" si="39"/>
         <v>108</v>
       </c>
       <c r="N48" s="3">
-        <f>SUM(I181-I180)</f>
+        <f t="shared" si="59"/>
         <v>133</v>
       </c>
       <c r="O48" s="3">
-        <f>SUM(J182-J181)</f>
+        <f t="shared" si="50"/>
         <v>174</v>
       </c>
       <c r="R48" s="1">
         <v>43968</v>
       </c>
       <c r="S48" s="3">
-        <f>SUM(K180-K179)</f>
+        <f t="shared" si="51"/>
         <v>133</v>
       </c>
       <c r="T48" s="3">
-        <f>SUM(L194-L193)</f>
+        <f t="shared" si="11"/>
         <v>246</v>
       </c>
       <c r="U48" s="3">
-        <f>SUM(M194-M193)</f>
+        <f t="shared" si="12"/>
         <v>148</v>
       </c>
       <c r="V48" s="3">
-        <f>SUM(N195-N194)</f>
+        <f t="shared" si="58"/>
         <v>62</v>
       </c>
       <c r="W48" s="3">
-        <f>SUM(O183-O182)</f>
+        <f t="shared" si="60"/>
         <v>185</v>
       </c>
       <c r="Z48" s="1">
@@ -23422,65 +23422,65 @@
       </c>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3">
-        <f>SUM(Q189-Q188)</f>
+        <f t="shared" si="53"/>
         <v>20</v>
       </c>
       <c r="AC48" s="3">
-        <f>SUM(R189-R188)</f>
+        <f t="shared" si="54"/>
         <v>41</v>
       </c>
       <c r="AD48" s="3">
-        <f>SUM(S189-S188)</f>
+        <f t="shared" si="52"/>
         <v>21</v>
       </c>
       <c r="AE48" s="3">
-        <f>SUM(T189-T188)</f>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="AH48" s="1">
         <v>43968</v>
       </c>
       <c r="AI48" s="3">
-        <f>SUM(U201-U200)</f>
+        <f t="shared" si="57"/>
         <v>108</v>
       </c>
       <c r="AJ48" s="3">
-        <f>SUM(V201-V200)</f>
+        <f t="shared" si="31"/>
         <v>75</v>
       </c>
       <c r="AK48" s="3">
-        <f>SUM(W201-W200)</f>
+        <f t="shared" si="32"/>
         <v>64</v>
       </c>
       <c r="AL48" s="3">
-        <f>SUM(X201-X200)</f>
+        <f t="shared" si="33"/>
         <v>30</v>
       </c>
       <c r="AM48" s="3">
-        <f>SUM(Y201-Y200)</f>
+        <f t="shared" si="34"/>
         <v>34</v>
       </c>
       <c r="AP48" s="1">
         <v>43968</v>
       </c>
       <c r="AQ48" s="3">
-        <f>SUM(Z198-Z197)</f>
+        <f t="shared" si="44"/>
         <v>644</v>
       </c>
       <c r="AR48" s="3">
-        <f>SUM(AA198-AA197)</f>
+        <f t="shared" si="45"/>
         <v>174</v>
       </c>
       <c r="AS48" s="3">
-        <f>SUM(AB198-AB197)</f>
+        <f t="shared" si="47"/>
         <v>143</v>
       </c>
       <c r="AT48" s="3">
-        <f>SUM(AC198-AC197)</f>
+        <f t="shared" si="36"/>
         <v>33</v>
       </c>
       <c r="AU48" s="3">
-        <f>SUM(AD198-AD197)</f>
+        <f t="shared" si="40"/>
         <v>70</v>
       </c>
     </row>
@@ -23489,135 +23489,135 @@
         <v>43969</v>
       </c>
       <c r="C49" s="3">
-        <f>SUM(A202-A201)</f>
+        <f t="shared" si="55"/>
         <v>192</v>
       </c>
       <c r="D49" s="3">
-        <f>SUM(B195-B194)</f>
+        <f t="shared" si="56"/>
         <v>187</v>
       </c>
       <c r="E49" s="3">
-        <f>SUM(C190-C189)</f>
+        <f t="shared" si="30"/>
         <v>89</v>
       </c>
       <c r="F49" s="3">
-        <f>SUM(D192-D191)</f>
+        <f t="shared" si="61"/>
         <v>136</v>
       </c>
       <c r="G49" s="3">
-        <f>SUM(E188-E187)</f>
+        <f t="shared" si="49"/>
         <v>107</v>
       </c>
       <c r="J49" s="1">
         <v>43969</v>
       </c>
       <c r="K49" s="3">
-        <f>SUM(F183-F182)</f>
+        <f t="shared" si="62"/>
         <v>98</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3">
-        <f>SUM(H177-H176)</f>
+        <f t="shared" si="39"/>
         <v>460</v>
       </c>
       <c r="N49" s="3">
-        <f>SUM(I182-I181)</f>
+        <f t="shared" si="59"/>
         <v>201</v>
       </c>
       <c r="O49" s="3">
-        <f>SUM(J183-J182)</f>
+        <f t="shared" si="50"/>
         <v>73</v>
       </c>
       <c r="R49" s="1">
         <v>43969</v>
       </c>
       <c r="S49" s="3">
-        <f>SUM(K181-K180)</f>
+        <f t="shared" si="51"/>
         <v>192</v>
       </c>
       <c r="T49" s="3">
-        <f>SUM(L195-L194)</f>
+        <f t="shared" si="11"/>
         <v>216</v>
       </c>
       <c r="U49" s="3">
-        <f>SUM(M195-M194)</f>
+        <f t="shared" si="12"/>
         <v>125</v>
       </c>
       <c r="V49" s="3">
-        <f>SUM(N196-N195)</f>
+        <f t="shared" si="58"/>
         <v>50</v>
       </c>
       <c r="W49" s="3">
-        <f>SUM(O184-O183)</f>
+        <f t="shared" si="60"/>
         <v>190</v>
       </c>
       <c r="Z49" s="1">
         <v>43969</v>
       </c>
       <c r="AA49" s="3">
-        <f>SUM(P190-P189)</f>
+        <f t="shared" ref="AA49:AA56" si="63">SUM(P190-P189)</f>
         <v>63</v>
       </c>
       <c r="AB49" s="3">
-        <f>SUM(Q190-Q189)</f>
+        <f t="shared" si="53"/>
         <v>7</v>
       </c>
       <c r="AC49" s="3">
-        <f>SUM(R190-R189)</f>
+        <f t="shared" si="54"/>
         <v>12</v>
       </c>
       <c r="AD49" s="3">
-        <f>SUM(S190-S189)</f>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="AE49" s="3">
-        <f>SUM(T190-T189)</f>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="AH49" s="1">
         <v>43969</v>
       </c>
       <c r="AI49" s="3">
-        <f>SUM(U202-U201)</f>
+        <f t="shared" si="57"/>
         <v>200</v>
       </c>
       <c r="AJ49" s="3">
-        <f>SUM(V202-V201)</f>
+        <f t="shared" si="31"/>
         <v>140</v>
       </c>
       <c r="AK49" s="3">
-        <f>SUM(W202-W201)</f>
+        <f t="shared" si="32"/>
         <v>70</v>
       </c>
       <c r="AL49" s="3">
-        <f>SUM(X202-X201)</f>
+        <f t="shared" si="33"/>
         <v>21</v>
       </c>
       <c r="AM49" s="3">
-        <f>SUM(Y202-Y201)</f>
+        <f t="shared" si="34"/>
         <v>42</v>
       </c>
       <c r="AP49" s="1">
         <v>43969</v>
       </c>
       <c r="AQ49" s="3">
-        <f>SUM(Z199-Z198)</f>
+        <f t="shared" si="44"/>
         <v>481</v>
       </c>
       <c r="AR49" s="3">
-        <f>SUM(AA199-AA198)</f>
+        <f t="shared" si="45"/>
         <v>110</v>
       </c>
       <c r="AS49" s="3">
-        <f>SUM(AB199-AB198)</f>
+        <f t="shared" si="47"/>
         <v>97</v>
       </c>
       <c r="AT49" s="3">
-        <f>SUM(AC199-AC198)</f>
+        <f t="shared" si="36"/>
         <v>15</v>
       </c>
       <c r="AU49" s="3">
-        <f>SUM(AD199-AD198)</f>
+        <f t="shared" si="40"/>
         <v>92</v>
       </c>
     </row>
@@ -23626,135 +23626,135 @@
         <v>43970</v>
       </c>
       <c r="C50" s="3">
-        <f>SUM(A203-A202)</f>
+        <f t="shared" si="55"/>
         <v>184</v>
       </c>
       <c r="D50" s="3">
-        <f>SUM(B196-B195)</f>
+        <f t="shared" si="56"/>
         <v>196</v>
       </c>
       <c r="E50" s="3">
-        <f>SUM(C191-C190)</f>
+        <f t="shared" si="30"/>
         <v>70</v>
       </c>
       <c r="F50" s="3">
-        <f>SUM(D193-D192)</f>
+        <f t="shared" si="61"/>
         <v>112</v>
       </c>
       <c r="G50" s="3">
-        <f>SUM(E189-E188)</f>
+        <f t="shared" si="49"/>
         <v>103</v>
       </c>
       <c r="J50" s="1">
         <v>43970</v>
       </c>
       <c r="K50" s="3">
-        <f>SUM(F184-F183)</f>
+        <f t="shared" si="62"/>
         <v>63</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3">
-        <f>SUM(H178-H177)</f>
+        <f t="shared" si="39"/>
         <v>86</v>
       </c>
       <c r="N50" s="3">
-        <f>SUM(I183-I182)</f>
+        <f t="shared" si="59"/>
         <v>128</v>
       </c>
       <c r="O50" s="3">
-        <f>SUM(J184-J183)</f>
+        <f t="shared" si="50"/>
         <v>93</v>
       </c>
       <c r="R50" s="1">
         <v>43970</v>
       </c>
       <c r="S50" s="3">
-        <f>SUM(K182-K181)</f>
+        <f t="shared" si="51"/>
         <v>154</v>
       </c>
       <c r="T50" s="3">
-        <f>SUM(L196-L195)</f>
+        <f t="shared" si="11"/>
         <v>159</v>
       </c>
       <c r="U50" s="3">
-        <f>SUM(M196-M195)</f>
+        <f t="shared" si="12"/>
         <v>161</v>
       </c>
       <c r="V50" s="3">
-        <f>SUM(N197-N196)</f>
+        <f t="shared" si="58"/>
         <v>41</v>
       </c>
       <c r="W50" s="3">
-        <f>SUM(O185-O184)</f>
+        <f t="shared" si="60"/>
         <v>140</v>
       </c>
       <c r="Z50" s="1">
         <v>43970</v>
       </c>
       <c r="AA50" s="3">
-        <f>SUM(P191-P190)</f>
+        <f t="shared" si="63"/>
         <v>164</v>
       </c>
       <c r="AB50" s="3">
-        <f>SUM(Q191-Q190)</f>
+        <f t="shared" si="53"/>
         <v>28</v>
       </c>
       <c r="AC50" s="3">
-        <f>SUM(R191-R190)</f>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="AD50" s="3">
-        <f>SUM(S191-S190)</f>
+        <f t="shared" si="52"/>
         <v>22</v>
       </c>
       <c r="AE50" s="3">
-        <f>SUM(T191-T190)</f>
+        <f t="shared" si="48"/>
         <v>6</v>
       </c>
       <c r="AH50" s="1">
         <v>43970</v>
       </c>
       <c r="AI50" s="3">
-        <f>SUM(U203-U202)</f>
+        <f t="shared" si="57"/>
         <v>147</v>
       </c>
       <c r="AJ50" s="3">
-        <f>SUM(V203-V202)</f>
+        <f t="shared" si="31"/>
         <v>51</v>
       </c>
       <c r="AK50" s="3">
-        <f>SUM(W203-W202)</f>
+        <f t="shared" si="32"/>
         <v>65</v>
       </c>
       <c r="AL50" s="3">
-        <f>SUM(X203-X202)</f>
+        <f t="shared" si="33"/>
         <v>22</v>
       </c>
       <c r="AM50" s="3">
-        <f>SUM(Y203-Y202)</f>
+        <f t="shared" si="34"/>
         <v>16</v>
       </c>
       <c r="AP50" s="1">
         <v>43970</v>
       </c>
       <c r="AQ50" s="3">
-        <f>SUM(Z200-Z199)</f>
+        <f t="shared" si="44"/>
         <v>1193</v>
       </c>
       <c r="AR50" s="3">
-        <f>SUM(AA200-AA199)</f>
+        <f t="shared" si="45"/>
         <v>80</v>
       </c>
       <c r="AS50" s="3">
-        <f>SUM(AB200-AB199)</f>
+        <f t="shared" si="47"/>
         <v>90</v>
       </c>
       <c r="AT50" s="3">
-        <f>SUM(AC200-AC199)</f>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="AU50" s="3">
-        <f>SUM(AD200-AD199)</f>
+        <f t="shared" si="40"/>
         <v>209</v>
       </c>
     </row>
@@ -23763,135 +23763,135 @@
         <v>43971</v>
       </c>
       <c r="C51" s="3">
-        <f>SUM(A204-A203)</f>
+        <f t="shared" si="55"/>
         <v>244</v>
       </c>
       <c r="D51" s="3">
-        <f>SUM(B197-B196)</f>
+        <f t="shared" si="56"/>
         <v>208</v>
       </c>
       <c r="E51" s="3">
-        <f>SUM(C192-C191)</f>
+        <f t="shared" si="30"/>
         <v>73</v>
       </c>
       <c r="F51" s="3">
-        <f>SUM(D194-D193)</f>
+        <f t="shared" si="61"/>
         <v>148</v>
       </c>
       <c r="G51" s="3">
-        <f>SUM(E190-E189)</f>
+        <f t="shared" si="49"/>
         <v>84</v>
       </c>
       <c r="J51" s="1">
         <v>43971</v>
       </c>
       <c r="K51" s="3">
-        <f>SUM(F185-F184)</f>
+        <f t="shared" si="62"/>
         <v>-4</v>
       </c>
       <c r="L51" s="3">
-        <f>SUM(G183-G182)</f>
+        <f t="shared" ref="L51:L56" si="64">SUM(G183-G182)</f>
         <v>127</v>
       </c>
       <c r="M51" s="3">
-        <f>SUM(H179-H178)</f>
+        <f t="shared" si="39"/>
         <v>166</v>
       </c>
       <c r="N51" s="3">
-        <f>SUM(I184-I183)</f>
+        <f t="shared" si="59"/>
         <v>91</v>
       </c>
       <c r="O51" s="3">
-        <f>SUM(J185-J184)</f>
+        <f t="shared" si="50"/>
         <v>55</v>
       </c>
       <c r="R51" s="1">
         <v>43971</v>
       </c>
       <c r="S51" s="3">
-        <f>SUM(K183-K182)</f>
+        <f t="shared" si="51"/>
         <v>137</v>
       </c>
       <c r="T51" s="3"/>
       <c r="U51" s="3">
-        <f>SUM(M197-M196)</f>
+        <f t="shared" ref="U51:U56" si="65">SUM(M197-M196)</f>
         <v>172</v>
       </c>
       <c r="V51" s="3">
-        <f>SUM(N198-N197)</f>
+        <f t="shared" si="58"/>
         <v>42</v>
       </c>
       <c r="W51" s="3">
-        <f>SUM(O186-O185)</f>
+        <f t="shared" si="60"/>
         <v>198</v>
       </c>
       <c r="Z51" s="1">
         <v>43971</v>
       </c>
       <c r="AA51" s="3">
-        <f>SUM(P192-P191)</f>
+        <f t="shared" si="63"/>
         <v>140</v>
       </c>
       <c r="AB51" s="3">
-        <f>SUM(Q192-Q191)</f>
+        <f t="shared" si="53"/>
         <v>39</v>
       </c>
       <c r="AC51" s="3">
-        <f>SUM(R192-R191)</f>
+        <f t="shared" si="54"/>
         <v>25</v>
       </c>
       <c r="AD51" s="3">
-        <f>SUM(S192-S191)</f>
+        <f t="shared" si="52"/>
         <v>24</v>
       </c>
       <c r="AE51" s="3">
-        <f>SUM(T192-T191)</f>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="AH51" s="1">
         <v>43971</v>
       </c>
       <c r="AI51" s="3">
-        <f>SUM(U204-U203)</f>
+        <f t="shared" si="57"/>
         <v>158</v>
       </c>
       <c r="AJ51" s="3">
-        <f>SUM(V204-V203)</f>
+        <f t="shared" si="31"/>
         <v>91</v>
       </c>
       <c r="AK51" s="3">
-        <f>SUM(W204-W203)</f>
+        <f t="shared" si="32"/>
         <v>90</v>
       </c>
       <c r="AL51" s="3">
-        <f>SUM(X204-X203)</f>
+        <f t="shared" si="33"/>
         <v>37</v>
       </c>
       <c r="AM51" s="3">
-        <f>SUM(Y204-Y203)</f>
+        <f t="shared" si="34"/>
         <v>28</v>
       </c>
       <c r="AP51" s="1">
         <v>43971</v>
       </c>
       <c r="AQ51" s="3">
-        <f>SUM(Z201-Z200)</f>
+        <f t="shared" si="44"/>
         <v>1262</v>
       </c>
       <c r="AR51" s="3">
-        <f>SUM(AA201-AA200)</f>
+        <f t="shared" si="45"/>
         <v>114</v>
       </c>
       <c r="AS51" s="3">
-        <f>SUM(AB201-AB200)</f>
+        <f t="shared" si="47"/>
         <v>127</v>
       </c>
       <c r="AT51" s="3">
-        <f>SUM(AC201-AC200)</f>
+        <f t="shared" si="36"/>
         <v>28</v>
       </c>
       <c r="AU51" s="3">
-        <f>SUM(AD201-AD200)</f>
+        <f t="shared" si="40"/>
         <v>99</v>
       </c>
     </row>
@@ -23900,62 +23900,62 @@
         <v>43972</v>
       </c>
       <c r="C52" s="3">
-        <f>SUM(A205-A204)</f>
+        <f t="shared" si="55"/>
         <v>273</v>
       </c>
       <c r="D52" s="3">
-        <f>SUM(B198-B197)</f>
+        <f t="shared" si="56"/>
         <v>496</v>
       </c>
       <c r="E52" s="3">
-        <f>SUM(C193-C192)</f>
+        <f t="shared" si="30"/>
         <v>119</v>
       </c>
       <c r="F52" s="3">
-        <f>SUM(D195-D194)</f>
+        <f t="shared" si="61"/>
         <v>185</v>
       </c>
       <c r="G52" s="3">
-        <f>SUM(E191-E190)</f>
+        <f t="shared" si="49"/>
         <v>142</v>
       </c>
       <c r="J52" s="1">
         <v>43972</v>
       </c>
       <c r="K52" s="3">
-        <f>SUM(F186-F185)</f>
+        <f t="shared" si="62"/>
         <v>65</v>
       </c>
       <c r="L52" s="3">
-        <f>SUM(G184-G183)</f>
+        <f t="shared" si="64"/>
         <v>66</v>
       </c>
       <c r="M52" s="3">
-        <f>SUM(H180-H179)</f>
+        <f t="shared" si="39"/>
         <v>54</v>
       </c>
       <c r="N52" s="3">
-        <f>SUM(I185-I184)</f>
+        <f t="shared" si="59"/>
         <v>54</v>
       </c>
       <c r="O52" s="3">
-        <f>SUM(J186-J185)</f>
+        <f t="shared" si="50"/>
         <v>71</v>
       </c>
       <c r="R52" s="1">
         <v>43972</v>
       </c>
       <c r="S52" s="3">
-        <f>SUM(K184-K183)</f>
+        <f t="shared" si="51"/>
         <v>127</v>
       </c>
       <c r="T52" s="3"/>
       <c r="U52" s="3">
-        <f>SUM(M198-M197)</f>
+        <f t="shared" si="65"/>
         <v>143</v>
       </c>
       <c r="V52" s="3">
-        <f>SUM(N199-N198)</f>
+        <f t="shared" si="58"/>
         <v>84</v>
       </c>
       <c r="W52" s="3"/>
@@ -23963,69 +23963,69 @@
         <v>43972</v>
       </c>
       <c r="AA52" s="3">
-        <f>SUM(P193-P192)</f>
+        <f t="shared" si="63"/>
         <v>106</v>
       </c>
       <c r="AB52" s="3">
-        <f>SUM(Q193-Q192)</f>
+        <f t="shared" si="53"/>
         <v>8</v>
       </c>
       <c r="AC52" s="3">
-        <f>SUM(R193-R192)</f>
+        <f t="shared" si="54"/>
         <v>28</v>
       </c>
       <c r="AD52" s="3">
-        <f>SUM(S193-S192)</f>
+        <f t="shared" si="52"/>
         <v>11</v>
       </c>
       <c r="AE52" s="3">
-        <f>SUM(T193-T192)</f>
+        <f t="shared" si="48"/>
         <v>4</v>
       </c>
       <c r="AH52" s="1">
         <v>43972</v>
       </c>
       <c r="AI52" s="3">
-        <f>SUM(U205-U204)</f>
+        <f t="shared" si="57"/>
         <v>195</v>
       </c>
       <c r="AJ52" s="3">
-        <f>SUM(V205-V204)</f>
+        <f t="shared" si="31"/>
         <v>114</v>
       </c>
       <c r="AK52" s="3">
-        <f>SUM(W205-W204)</f>
+        <f t="shared" si="32"/>
         <v>125</v>
       </c>
       <c r="AL52" s="3">
-        <f>SUM(X205-X204)</f>
+        <f t="shared" si="33"/>
         <v>36</v>
       </c>
       <c r="AM52" s="3">
-        <f>SUM(Y205-Y204)</f>
+        <f t="shared" si="34"/>
         <v>21</v>
       </c>
       <c r="AP52" s="1">
         <v>43972</v>
       </c>
       <c r="AQ52" s="3">
-        <f>SUM(Z202-Z201)</f>
+        <f t="shared" si="44"/>
         <v>1131</v>
       </c>
       <c r="AR52" s="3">
-        <f>SUM(AA202-AA201)</f>
+        <f t="shared" si="45"/>
         <v>175</v>
       </c>
       <c r="AS52" s="3">
-        <f>SUM(AB202-AB201)</f>
+        <f t="shared" si="47"/>
         <v>155</v>
       </c>
       <c r="AT52" s="3">
-        <f>SUM(AC202-AC201)</f>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="AU52" s="3">
-        <f>SUM(AD202-AD201)</f>
+        <f t="shared" si="40"/>
         <v>109</v>
       </c>
     </row>
@@ -24034,49 +24034,49 @@
         <v>43973</v>
       </c>
       <c r="C53" s="3">
-        <f>SUM(A206-A205)</f>
+        <f t="shared" si="55"/>
         <v>211</v>
       </c>
       <c r="E53" s="3">
-        <f>SUM(C194-C193)</f>
+        <f t="shared" si="30"/>
         <v>121</v>
       </c>
       <c r="F53" s="3">
-        <f>SUM(D196-D195)</f>
+        <f t="shared" si="61"/>
         <v>163</v>
       </c>
       <c r="G53" s="3">
-        <f>SUM(E192-E191)</f>
+        <f t="shared" si="49"/>
         <v>119</v>
       </c>
       <c r="J53" s="1">
         <v>43973</v>
       </c>
       <c r="K53" s="3">
-        <f>SUM(F187-F186)</f>
+        <f t="shared" si="62"/>
         <v>70</v>
       </c>
       <c r="L53" s="3">
-        <f>SUM(G185-G184)</f>
+        <f t="shared" si="64"/>
         <v>83</v>
       </c>
       <c r="M53" s="3">
-        <f>SUM(H181-H180)</f>
+        <f t="shared" si="39"/>
         <v>108</v>
       </c>
       <c r="N53" s="3">
-        <f>SUM(I186-I185)</f>
+        <f t="shared" si="59"/>
         <v>15</v>
       </c>
       <c r="O53" s="3">
-        <f>SUM(J187-J186)</f>
+        <f t="shared" si="50"/>
         <v>107</v>
       </c>
       <c r="R53" s="1">
         <v>43973</v>
       </c>
       <c r="S53" s="3">
-        <f>SUM(K185-K184)</f>
+        <f t="shared" si="51"/>
         <v>91</v>
       </c>
       <c r="T53" s="3">
@@ -24084,11 +24084,11 @@
         <v>155</v>
       </c>
       <c r="U53" s="3">
-        <f>SUM(M199-M198)</f>
+        <f t="shared" si="65"/>
         <v>158</v>
       </c>
       <c r="V53" s="3">
-        <f>SUM(N200-N199)</f>
+        <f t="shared" si="58"/>
         <v>33</v>
       </c>
       <c r="W53" s="3"/>
@@ -24096,69 +24096,69 @@
         <v>43973</v>
       </c>
       <c r="AA53" s="3">
-        <f>SUM(P194-P193)</f>
+        <f t="shared" si="63"/>
         <v>64</v>
       </c>
       <c r="AB53" s="3">
-        <f>SUM(Q194-Q193)</f>
+        <f t="shared" si="53"/>
         <v>6</v>
       </c>
       <c r="AC53" s="3">
-        <f>SUM(R194-R193)</f>
+        <f t="shared" si="54"/>
         <v>25</v>
       </c>
       <c r="AD53" s="3">
-        <f>SUM(S194-S193)</f>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="AE53" s="3">
-        <f>SUM(T194-T193)</f>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="AH53" s="1">
         <v>43973</v>
       </c>
       <c r="AI53" s="3">
-        <f>SUM(U206-U205)</f>
+        <f t="shared" si="57"/>
         <v>217</v>
       </c>
       <c r="AJ53" s="3">
-        <f>SUM(V206-V205)</f>
+        <f t="shared" si="31"/>
         <v>98</v>
       </c>
       <c r="AK53" s="3">
-        <f>SUM(W206-W205)</f>
+        <f t="shared" si="32"/>
         <v>91</v>
       </c>
       <c r="AL53" s="3">
-        <f>SUM(X206-X205)</f>
+        <f t="shared" si="33"/>
         <v>27</v>
       </c>
       <c r="AM53" s="3">
-        <f>SUM(Y206-Y205)</f>
+        <f t="shared" si="34"/>
         <v>54</v>
       </c>
       <c r="AP53" s="1">
         <v>43973</v>
       </c>
       <c r="AQ53" s="3">
-        <f>SUM(Z203-Z202)</f>
+        <f t="shared" si="44"/>
         <v>962</v>
       </c>
       <c r="AR53" s="3">
-        <f>SUM(AA203-AA202)</f>
+        <f t="shared" si="45"/>
         <v>119</v>
       </c>
       <c r="AS53" s="3">
-        <f>SUM(AB203-AB202)</f>
+        <f t="shared" si="47"/>
         <v>106</v>
       </c>
       <c r="AT53" s="3">
-        <f>SUM(AC203-AC202)</f>
+        <f t="shared" si="36"/>
         <v>17</v>
       </c>
       <c r="AU53" s="3">
-        <f>SUM(AD203-AD202)</f>
+        <f t="shared" si="40"/>
         <v>169</v>
       </c>
     </row>
@@ -24167,7 +24167,7 @@
         <v>43974</v>
       </c>
       <c r="C54" s="3">
-        <f>SUM(A207-A206)</f>
+        <f t="shared" si="55"/>
         <v>186</v>
       </c>
       <c r="D54" s="3">
@@ -24175,42 +24175,42 @@
         <v>815.72458718679991</v>
       </c>
       <c r="E54" s="3">
-        <f>SUM(C195-C194)</f>
+        <f t="shared" si="30"/>
         <v>118</v>
       </c>
       <c r="F54" s="3">
-        <f>SUM(D197-D196)</f>
+        <f t="shared" si="61"/>
         <v>155</v>
       </c>
       <c r="G54" s="3">
-        <f>SUM(E193-E192)</f>
+        <f t="shared" si="49"/>
         <v>130</v>
       </c>
       <c r="J54" s="1">
         <v>43974</v>
       </c>
       <c r="K54" s="3">
-        <f>SUM(F188-F187)</f>
+        <f t="shared" si="62"/>
         <v>15</v>
       </c>
       <c r="L54" s="3">
-        <f>SUM(G186-G185)</f>
+        <f t="shared" si="64"/>
         <v>13</v>
       </c>
       <c r="M54" s="3">
-        <f>SUM(H182-H181)</f>
+        <f t="shared" si="39"/>
         <v>51</v>
       </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3">
-        <f>SUM(J188-J187)</f>
+        <f t="shared" si="50"/>
         <v>6</v>
       </c>
       <c r="R54" s="1">
         <v>43974</v>
       </c>
       <c r="S54" s="3">
-        <f>SUM(K186-K185)</f>
+        <f t="shared" si="51"/>
         <v>111</v>
       </c>
       <c r="T54" s="3">
@@ -24218,11 +24218,11 @@
         <v>147</v>
       </c>
       <c r="U54" s="3">
-        <f>SUM(M200-M199)</f>
+        <f t="shared" si="65"/>
         <v>113</v>
       </c>
       <c r="V54" s="3">
-        <f>SUM(N201-N200)</f>
+        <f t="shared" si="58"/>
         <v>35</v>
       </c>
       <c r="W54" s="3">
@@ -24233,69 +24233,69 @@
         <v>43974</v>
       </c>
       <c r="AA54" s="3">
-        <f>SUM(P195-P194)</f>
+        <f t="shared" si="63"/>
         <v>95</v>
       </c>
       <c r="AB54" s="3">
-        <f>SUM(Q195-Q194)</f>
+        <f t="shared" si="53"/>
         <v>61</v>
       </c>
       <c r="AC54" s="3">
-        <f>SUM(R195-R194)</f>
+        <f t="shared" si="54"/>
         <v>37</v>
       </c>
       <c r="AD54" s="3">
-        <f>SUM(S195-S194)</f>
+        <f t="shared" si="52"/>
         <v>7</v>
       </c>
       <c r="AE54" s="3">
-        <f>SUM(T195-T194)</f>
+        <f t="shared" si="48"/>
         <v>7</v>
       </c>
       <c r="AH54" s="1">
         <v>43974</v>
       </c>
       <c r="AI54" s="3">
-        <f>SUM(U207-U206)</f>
+        <f t="shared" si="57"/>
         <v>151</v>
       </c>
       <c r="AJ54" s="3">
-        <f>SUM(V207-V206)</f>
+        <f t="shared" si="31"/>
         <v>98</v>
       </c>
       <c r="AK54" s="3">
-        <f>SUM(W207-W206)</f>
+        <f t="shared" si="32"/>
         <v>54</v>
       </c>
       <c r="AL54" s="3">
-        <f>SUM(X207-X206)</f>
+        <f t="shared" si="33"/>
         <v>15</v>
       </c>
       <c r="AM54" s="3">
-        <f>SUM(Y207-Y206)</f>
+        <f t="shared" si="34"/>
         <v>7</v>
       </c>
       <c r="AP54" s="1">
         <v>43974</v>
       </c>
       <c r="AQ54" s="3">
-        <f>SUM(Z204-Z203)</f>
+        <f t="shared" si="44"/>
         <v>1004</v>
       </c>
       <c r="AR54" s="3">
-        <f>SUM(AA204-AA203)</f>
+        <f t="shared" si="45"/>
         <v>125</v>
       </c>
       <c r="AS54" s="3">
-        <f>SUM(AB204-AB203)</f>
+        <f t="shared" si="47"/>
         <v>109</v>
       </c>
       <c r="AT54" s="3">
-        <f>SUM(AC204-AC203)</f>
+        <f t="shared" si="36"/>
         <v>56</v>
       </c>
       <c r="AU54" s="3">
-        <f>SUM(AD204-AD203)</f>
+        <f t="shared" si="40"/>
         <v>169</v>
       </c>
     </row>
@@ -24308,42 +24308,42 @@
         <v>815.72458718690177</v>
       </c>
       <c r="E55" s="3">
-        <f>SUM(C196-C195)</f>
+        <f t="shared" si="30"/>
         <v>111</v>
       </c>
       <c r="F55" s="3">
-        <f>SUM(D198-D197)</f>
+        <f t="shared" si="61"/>
         <v>216</v>
       </c>
       <c r="G55" s="3">
-        <f>SUM(E194-E193)</f>
+        <f t="shared" si="49"/>
         <v>162</v>
       </c>
       <c r="J55" s="1">
         <v>43975</v>
       </c>
       <c r="K55" s="3">
-        <f>SUM(F189-F188)</f>
+        <f t="shared" si="62"/>
         <v>136</v>
       </c>
       <c r="L55" s="3">
-        <f>SUM(G187-G186)</f>
+        <f t="shared" si="64"/>
         <v>67</v>
       </c>
       <c r="M55" s="3">
-        <f>SUM(H183-H182)</f>
+        <f t="shared" si="39"/>
         <v>77</v>
       </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3">
-        <f>SUM(J189-J188)</f>
+        <f t="shared" si="50"/>
         <v>76</v>
       </c>
       <c r="R55" s="1">
         <v>43975</v>
       </c>
       <c r="S55" s="3">
-        <f>SUM(K187-K186)</f>
+        <f t="shared" si="51"/>
         <v>126</v>
       </c>
       <c r="T55" s="3">
@@ -24351,11 +24351,11 @@
         <v>205</v>
       </c>
       <c r="U55" s="3">
-        <f>SUM(M201-M200)</f>
+        <f t="shared" si="65"/>
         <v>123</v>
       </c>
       <c r="V55" s="3">
-        <f>SUM(N202-N201)</f>
+        <f t="shared" si="58"/>
         <v>53</v>
       </c>
       <c r="W55" s="3">
@@ -24366,69 +24366,69 @@
         <v>43975</v>
       </c>
       <c r="AA55" s="3">
-        <f>SUM(P196-P195)</f>
+        <f t="shared" si="63"/>
         <v>74</v>
       </c>
       <c r="AB55" s="3">
-        <f>SUM(Q196-Q195)</f>
+        <f t="shared" si="53"/>
         <v>23</v>
       </c>
       <c r="AC55" s="3">
-        <f>SUM(R196-R195)</f>
+        <f t="shared" si="54"/>
         <v>17</v>
       </c>
       <c r="AD55" s="3">
-        <f>SUM(S196-S195)</f>
+        <f t="shared" si="52"/>
         <v>12</v>
       </c>
       <c r="AE55" s="3">
-        <f>SUM(T196-T195)</f>
+        <f t="shared" si="48"/>
         <v>12</v>
       </c>
       <c r="AH55" s="1">
         <v>43975</v>
       </c>
       <c r="AI55" s="3">
-        <f>SUM(U208-U207)</f>
+        <f t="shared" si="57"/>
         <v>176</v>
       </c>
       <c r="AJ55" s="3">
-        <f>SUM(V208-V207)</f>
+        <f t="shared" si="31"/>
         <v>61</v>
       </c>
       <c r="AK55" s="3">
-        <f>SUM(W208-W207)</f>
+        <f t="shared" si="32"/>
         <v>65</v>
       </c>
       <c r="AL55" s="3">
-        <f>SUM(X208-X207)</f>
+        <f t="shared" si="33"/>
         <v>23</v>
       </c>
       <c r="AM55" s="3">
-        <f>SUM(Y208-Y207)</f>
+        <f t="shared" si="34"/>
         <v>40</v>
       </c>
       <c r="AP55" s="1">
         <v>43975</v>
       </c>
       <c r="AQ55" s="3">
-        <f>SUM(Z205-Z204)</f>
+        <f t="shared" si="44"/>
         <v>925</v>
       </c>
       <c r="AR55" s="3">
-        <f>SUM(AA205-AA204)</f>
+        <f t="shared" si="45"/>
         <v>142</v>
       </c>
       <c r="AS55" s="3">
-        <f>SUM(AB205-AB204)</f>
+        <f t="shared" si="47"/>
         <v>111</v>
       </c>
       <c r="AT55" s="3">
-        <f>SUM(AC205-AC204)</f>
+        <f t="shared" si="36"/>
         <v>30</v>
       </c>
       <c r="AU55" s="3">
-        <f>SUM(AD205-AD204)</f>
+        <f t="shared" si="40"/>
         <v>126</v>
       </c>
     </row>
@@ -24445,42 +24445,42 @@
         <v>815.72458718690177</v>
       </c>
       <c r="E56" s="3">
-        <f>SUM(C197-C196)</f>
+        <f t="shared" si="30"/>
         <v>70</v>
       </c>
       <c r="F56" s="3">
-        <f>SUM(D199-D198)</f>
+        <f t="shared" si="61"/>
         <v>110</v>
       </c>
       <c r="G56" s="3">
-        <f>SUM(E195-E194)</f>
+        <f t="shared" si="49"/>
         <v>126</v>
       </c>
       <c r="J56" s="1">
         <v>43976</v>
       </c>
       <c r="K56" s="3">
-        <f>SUM(F190-F189)</f>
+        <f t="shared" si="62"/>
         <v>97</v>
       </c>
       <c r="L56" s="3">
-        <f>SUM(G188-G187)</f>
+        <f t="shared" si="64"/>
         <v>74</v>
       </c>
       <c r="M56" s="3">
-        <f>SUM(H184-H183)</f>
+        <f t="shared" si="39"/>
         <v>60</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3">
-        <f>SUM(J190-J189)</f>
+        <f t="shared" si="50"/>
         <v>88</v>
       </c>
       <c r="R56" s="1">
         <v>43976</v>
       </c>
       <c r="S56" s="3">
-        <f>SUM(K188-K187)</f>
+        <f t="shared" si="51"/>
         <v>63</v>
       </c>
       <c r="T56" s="3">
@@ -24488,7 +24488,7 @@
         <v>102</v>
       </c>
       <c r="U56" s="3">
-        <f>SUM(M202-M201)</f>
+        <f t="shared" si="65"/>
         <v>118</v>
       </c>
       <c r="V56" s="3"/>
@@ -24500,69 +24500,69 @@
         <v>43976</v>
       </c>
       <c r="AA56" s="3">
-        <f>SUM(P197-P196)</f>
+        <f t="shared" si="63"/>
         <v>45</v>
       </c>
       <c r="AB56" s="3">
-        <f>SUM(Q197-Q196)</f>
+        <f t="shared" si="53"/>
         <v>11</v>
       </c>
       <c r="AC56" s="3">
-        <f>SUM(R197-R196)</f>
+        <f t="shared" si="54"/>
         <v>17</v>
       </c>
       <c r="AD56" s="3">
-        <f>SUM(S197-S196)</f>
+        <f t="shared" si="52"/>
         <v>13</v>
       </c>
       <c r="AE56" s="3">
-        <f>SUM(T197-T196)</f>
+        <f t="shared" si="48"/>
         <v>4</v>
       </c>
       <c r="AH56" s="1">
         <v>43976</v>
       </c>
       <c r="AI56" s="3">
-        <f>SUM(U209-U208)</f>
+        <f t="shared" si="57"/>
         <v>111</v>
       </c>
       <c r="AJ56" s="3">
-        <f>SUM(V209-V208)</f>
+        <f t="shared" si="31"/>
         <v>51</v>
       </c>
       <c r="AK56" s="3">
-        <f>SUM(W209-W208)</f>
+        <f t="shared" si="32"/>
         <v>31</v>
       </c>
       <c r="AL56" s="3">
-        <f>SUM(X209-X208)</f>
+        <f t="shared" si="33"/>
         <v>16</v>
       </c>
       <c r="AM56" s="3">
-        <f>SUM(Y209-Y208)</f>
+        <f t="shared" si="34"/>
         <v>18</v>
       </c>
       <c r="AP56" s="1">
         <v>43976</v>
       </c>
       <c r="AQ56" s="3">
-        <f>SUM(Z206-Z205)</f>
+        <f t="shared" si="44"/>
         <v>998</v>
       </c>
       <c r="AR56" s="3">
-        <f>SUM(AA206-AA205)</f>
+        <f t="shared" si="45"/>
         <v>96</v>
       </c>
       <c r="AS56" s="3">
-        <f>SUM(AB206-AB205)</f>
+        <f t="shared" si="47"/>
         <v>329</v>
       </c>
       <c r="AT56" s="3">
-        <f>SUM(AC206-AC205)</f>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="AU56" s="3">
-        <f>SUM(AD206-AD205)</f>
+        <f t="shared" si="40"/>
         <v>162</v>
       </c>
     </row>

--- a/other/graphs.xlsx
+++ b/other/graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D39F3C7-BCFC-704E-85CE-30CE6589280E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A162BDF7-00CE-984C-A971-0682E6AD14D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="460" windowWidth="27800" windowHeight="16500" xr2:uid="{50568A54-C490-204A-AE24-4B69BA545E02}"/>
+    <workbookView xWindow="11940" yWindow="460" windowWidth="27800" windowHeight="16500" xr2:uid="{50568A54-C490-204A-AE24-4B69BA545E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -642,6 +642,9 @@
                 <c:pt idx="52">
                   <c:v>186</c:v>
                 </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>214</c:v>
+                </c:pt>
                 <c:pt idx="54">
                   <c:v>192</c:v>
                 </c:pt>
@@ -873,7 +876,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="55"/>
                 <c:pt idx="1">
-                  <c:v>116</c:v>
+                  <c:v>1016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2937</c:v>
@@ -1009,6 +1012,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>815.72458718679991</c:v>
@@ -1258,9 +1264,6 @@
                 <c:pt idx="4">
                   <c:v>1052</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6">
                   <c:v>2212</c:v>
                 </c:pt>
@@ -1272,6 +1275,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1072</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1774</c:v>
@@ -2598,6 +2604,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -2801,12 +2810,6 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>70</c:v>
@@ -2975,6 +2978,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -3352,6 +3358,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -3460,11 +3469,20 @@
                 <c:pt idx="14">
                   <c:v>367</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>588</c:v>
+                </c:pt>
                 <c:pt idx="17">
-                  <c:v>340</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>584</c:v>
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>399</c:v>
@@ -3726,6 +3744,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -3938,6 +3959,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4094,6 +4118,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -4344,7 +4371,7 @@
         <c:axId val="239484271"/>
         <c:axId val="287539375"/>
       </c:barChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="239484271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -4391,10 +4418,9 @@
         <c:crossAx val="287539375"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="287539375"/>
         <c:scaling>
@@ -4747,6 +4773,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -5130,6 +5159,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -5339,6 +5371,12 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>155</c:v>
@@ -5507,6 +5545,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -5890,6 +5931,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -6064,6 +6108,12 @@
                 <c:pt idx="36">
                   <c:v>119</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86</c:v>
+                </c:pt>
                 <c:pt idx="39">
                   <c:v>65</c:v>
                 </c:pt>
@@ -6108,6 +6158,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6264,6 +6317,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -6444,6 +6500,12 @@
                 <c:pt idx="38">
                   <c:v>201</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>75</c:v>
+                </c:pt>
                 <c:pt idx="41">
                   <c:v>141</c:v>
                 </c:pt>
@@ -6470,6 +6532,12 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>150</c:v>
@@ -6502,7 +6570,7 @@
         <c:axId val="296156287"/>
         <c:axId val="295151103"/>
       </c:barChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="296156287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -6549,10 +6617,9 @@
         <c:crossAx val="295151103"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="295151103"/>
         <c:scaling>
@@ -6905,6 +6972,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -7031,8 +7101,14 @@
                 <c:pt idx="20">
                   <c:v>343</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>433</c:v>
+                </c:pt>
                 <c:pt idx="23">
-                  <c:v>846</c:v>
+                  <c:v>413</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>141</c:v>
@@ -7096,6 +7172,12 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>63</c:v>
@@ -7276,6 +7358,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -7647,6 +7732,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -7721,9 +7809,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>443</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>156</c:v>
@@ -8024,6 +8109,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -8407,6 +8495,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -8651,7 +8742,7 @@
         <c:axId val="288394943"/>
         <c:axId val="300142431"/>
       </c:barChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="288394943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -8698,10 +8789,9 @@
         <c:crossAx val="300142431"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="300142431"/>
         <c:scaling>
@@ -9054,6 +9144,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -9168,6 +9261,9 @@
                 <c:pt idx="16">
                   <c:v>879</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>651</c:v>
+                </c:pt>
                 <c:pt idx="21">
                   <c:v>305</c:v>
                 </c:pt>
@@ -9204,8 +9300,8 @@
                 <c:pt idx="32">
                   <c:v>231</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>370</c:v>
+                <c:pt idx="37">
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>253</c:v>
@@ -9413,6 +9509,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -9796,6 +9895,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -10179,6 +10281,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -10562,6 +10667,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -10812,7 +10920,7 @@
         <c:axId val="295218527"/>
         <c:axId val="297905071"/>
       </c:barChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="295218527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -10859,10 +10967,9 @@
         <c:crossAx val="297905071"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="297905071"/>
         <c:scaling>
@@ -11215,6 +11322,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -11598,6 +11708,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -11981,6 +12094,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -12114,16 +12230,16 @@
                   <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>123</c:v>
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>196</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>120</c:v>
@@ -12358,6 +12474,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -12735,6 +12854,9 @@
                 <c:pt idx="34">
                   <c:v>5-May</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
                 <c:pt idx="36">
                   <c:v>7-May</c:v>
                 </c:pt>
@@ -12850,7 +12972,13 @@
                   <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>135</c:v>
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>38</c:v>
@@ -12979,7 +13107,7 @@
         <c:axId val="300468479"/>
         <c:axId val="320925023"/>
       </c:barChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="300468479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -13026,10 +13154,9 @@
         <c:crossAx val="320925023"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="320925023"/>
         <c:scaling>
@@ -17029,8 +17156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA38D56-529F-6943-948B-8ED18F113542}">
   <dimension ref="A1:AU209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC2" zoomScale="31" zoomScaleNormal="34" workbookViewId="0">
-      <selection activeCell="V112" sqref="V112"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="25" zoomScaleNormal="34" workbookViewId="0">
+      <selection activeCell="AB211" sqref="AB211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17215,134 +17342,133 @@
         <v>1602</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D19" si="1">SUM(B149-B148)</f>
-        <v>116</v>
+        <v>1016</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E11" si="2">SUM(C144-C143)</f>
+        <f t="shared" ref="E3:E11" si="1">SUM(C144-C143)</f>
         <v>1011</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F41" si="3">SUM(D146-D145)</f>
+        <f t="shared" ref="F3:F41" si="2">SUM(D146-D145)</f>
         <v>736</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G34" si="4">SUM(E142-E141)</f>
+        <f t="shared" ref="G3:G34" si="3">SUM(E142-E141)</f>
         <v>1141</v>
       </c>
       <c r="J3" s="1">
         <v>43923</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K44" si="5">SUM(F137-F136)</f>
+        <f t="shared" ref="K3:K44" si="4">SUM(F137-F136)</f>
         <v>605</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L48" si="6">SUM(G135-G134)</f>
+        <f t="shared" ref="L3:L48" si="5">SUM(G135-G134)</f>
         <v>360</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M16" si="7">SUM(H131-H130)</f>
+        <f t="shared" ref="M3:M16" si="6">SUM(H131-H130)</f>
         <v>355</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N39" si="8">SUM(I136-I135)</f>
+        <f t="shared" ref="N3:N39" si="7">SUM(I136-I135)</f>
         <v>349</v>
       </c>
       <c r="O3" s="3">
-        <f t="shared" ref="O3:O34" si="9">SUM(J137-J136)</f>
+        <f t="shared" ref="O3:O34" si="8">SUM(J137-J136)</f>
         <v>256</v>
       </c>
       <c r="R3" s="1">
         <v>43923</v>
       </c>
       <c r="S3" s="3">
-        <f t="shared" ref="S3:S34" si="10">SUM(K135-K134)</f>
+        <f t="shared" ref="S3:S34" si="9">SUM(K135-K134)</f>
         <v>272</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3:T50" si="11">SUM(L149-L148)</f>
+        <f t="shared" ref="T3:T50" si="10">SUM(L149-L148)</f>
         <v>288</v>
       </c>
       <c r="U3" s="3">
-        <f t="shared" ref="U3:U50" si="12">SUM(M149-M148)</f>
+        <f t="shared" ref="U3:U50" si="11">SUM(M149-M148)</f>
         <v>154</v>
       </c>
       <c r="V3" s="3">
-        <f t="shared" ref="V3:V38" si="13">SUM(N150-N149)</f>
+        <f t="shared" ref="V3:V38" si="12">SUM(N150-N149)</f>
         <v>109</v>
       </c>
       <c r="W3" s="3">
-        <f t="shared" ref="W3:W40" si="14">SUM(O138-O137)</f>
+        <f t="shared" ref="W3:W40" si="13">SUM(O138-O137)</f>
         <v>104</v>
       </c>
       <c r="Z3" s="1">
         <v>43923</v>
       </c>
       <c r="AA3" s="3">
-        <f t="shared" ref="AA3:AA22" si="15">SUM(P144-P143)</f>
+        <f t="shared" ref="AA3:AA22" si="14">SUM(P144-P143)</f>
         <v>599</v>
       </c>
       <c r="AB3" s="3">
-        <f t="shared" ref="AB3:AB22" si="16">SUM(Q144-Q143)</f>
+        <f t="shared" ref="AB3:AB22" si="15">SUM(Q144-Q143)</f>
         <v>592</v>
       </c>
       <c r="AC3" s="3">
-        <f t="shared" ref="AC3:AC22" si="17">SUM(R144-R143)</f>
+        <f t="shared" ref="AC3:AC22" si="16">SUM(R144-R143)</f>
         <v>479</v>
       </c>
       <c r="AD3" s="3">
-        <f t="shared" ref="AD3:AD22" si="18">SUM(S144-S143)</f>
+        <f t="shared" ref="AD3:AD22" si="17">SUM(S144-S143)</f>
         <v>100</v>
       </c>
       <c r="AE3" s="3">
-        <f t="shared" ref="AE3:AE22" si="19">SUM(T144-T143)</f>
+        <f t="shared" ref="AE3:AE22" si="18">SUM(T144-T143)</f>
         <v>37</v>
       </c>
       <c r="AH3" s="1">
         <v>43923</v>
       </c>
       <c r="AI3" s="3">
-        <f t="shared" ref="AI3:AI18" si="20">SUM(U156-U155)</f>
+        <f t="shared" ref="AI3:AI18" si="19">SUM(U156-U155)</f>
         <v>374</v>
       </c>
       <c r="AJ3" s="3">
-        <f t="shared" ref="AJ3:AJ18" si="21">SUM(V156-V155)</f>
+        <f t="shared" ref="AJ3:AJ18" si="20">SUM(V156-V155)</f>
         <v>86</v>
       </c>
       <c r="AK3" s="3">
-        <f t="shared" ref="AK3:AK18" si="22">SUM(W156-W155)</f>
+        <f t="shared" ref="AK3:AK18" si="21">SUM(W156-W155)</f>
         <v>80</v>
       </c>
       <c r="AL3" s="3">
-        <f t="shared" ref="AL3:AL18" si="23">SUM(X156-X155)</f>
+        <f t="shared" ref="AL3:AL18" si="22">SUM(X156-X155)</f>
         <v>105</v>
       </c>
       <c r="AM3" s="3">
-        <f t="shared" ref="AM3:AM18" si="24">SUM(Y156-Y155)</f>
+        <f t="shared" ref="AM3:AM18" si="23">SUM(Y156-Y155)</f>
         <v>17</v>
       </c>
       <c r="AP3" s="1">
         <v>43923</v>
       </c>
       <c r="AQ3" s="3">
-        <f t="shared" ref="AQ3:AQ18" si="25">SUM(Z153-Z152)</f>
+        <f t="shared" ref="AQ3:AQ18" si="24">SUM(Z153-Z152)</f>
         <v>538</v>
       </c>
       <c r="AR3" s="3">
-        <f t="shared" ref="AR3:AR18" si="26">SUM(AA153-AA152)</f>
+        <f t="shared" ref="AR3:AR18" si="25">SUM(AA153-AA152)</f>
         <v>117</v>
       </c>
       <c r="AS3" s="3">
-        <f t="shared" ref="AS3:AS18" si="27">SUM(AB153-AB152)</f>
+        <f t="shared" ref="AS3:AS18" si="26">SUM(AB153-AB152)</f>
         <v>132</v>
       </c>
       <c r="AT3" s="3">
-        <f t="shared" ref="AT3:AT18" si="28">SUM(AC153-AC152)</f>
+        <f t="shared" ref="AT3:AT18" si="27">SUM(AC153-AC152)</f>
         <v>63</v>
       </c>
       <c r="AU3" s="3">
-        <f t="shared" ref="AU3:AU18" si="29">SUM(AD153-AD152)</f>
+        <f t="shared" ref="AU3:AU18" si="28">SUM(AD153-AD152)</f>
         <v>50</v>
       </c>
     </row>
@@ -17355,134 +17481,134 @@
         <v>2004</v>
       </c>
       <c r="D4" s="3">
+        <f t="shared" ref="D4:D19" si="29">SUM(B150-B149)</f>
+        <v>2937</v>
+      </c>
+      <c r="E4" s="3">
         <f t="shared" si="1"/>
-        <v>2937</v>
-      </c>
-      <c r="E4" s="3">
+        <v>1032</v>
+      </c>
+      <c r="F4" s="3">
         <f t="shared" si="2"/>
-        <v>1032</v>
-      </c>
-      <c r="F4" s="3">
+        <v>1422</v>
+      </c>
+      <c r="G4" s="3">
         <f t="shared" si="3"/>
-        <v>1422</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="4"/>
         <v>1408</v>
       </c>
       <c r="J4" s="1">
         <v>43924</v>
       </c>
       <c r="K4" s="3">
+        <f t="shared" si="4"/>
+        <v>767</v>
+      </c>
+      <c r="L4" s="3">
         <f t="shared" si="5"/>
-        <v>767</v>
-      </c>
-      <c r="L4" s="3">
+        <v>565</v>
+      </c>
+      <c r="M4" s="3">
         <f t="shared" si="6"/>
-        <v>565</v>
-      </c>
-      <c r="M4" s="3">
+        <v>450</v>
+      </c>
+      <c r="N4" s="3">
         <f t="shared" si="7"/>
-        <v>450</v>
-      </c>
-      <c r="N4" s="3">
+        <v>477</v>
+      </c>
+      <c r="O4" s="3">
         <f t="shared" si="8"/>
-        <v>477</v>
-      </c>
-      <c r="O4" s="3">
-        <f t="shared" si="9"/>
         <v>466</v>
       </c>
       <c r="R4" s="1">
         <v>43924</v>
       </c>
       <c r="S4" s="3">
+        <f t="shared" si="9"/>
+        <v>287</v>
+      </c>
+      <c r="T4" s="3">
         <f t="shared" si="10"/>
-        <v>287</v>
-      </c>
-      <c r="T4" s="3">
+        <v>332</v>
+      </c>
+      <c r="U4" s="3">
         <f t="shared" si="11"/>
-        <v>332</v>
-      </c>
-      <c r="U4" s="3">
+        <v>199</v>
+      </c>
+      <c r="V4" s="3">
         <f t="shared" si="12"/>
-        <v>199</v>
-      </c>
-      <c r="V4" s="3">
+        <v>107</v>
+      </c>
+      <c r="W4" s="3">
         <f t="shared" si="13"/>
-        <v>107</v>
-      </c>
-      <c r="W4" s="3">
-        <f t="shared" si="14"/>
         <v>158</v>
       </c>
       <c r="Z4" s="1">
         <v>43924</v>
       </c>
       <c r="AA4" s="3">
+        <f t="shared" si="14"/>
+        <v>1027</v>
+      </c>
+      <c r="AB4" s="3">
         <f t="shared" si="15"/>
-        <v>1027</v>
-      </c>
-      <c r="AB4" s="3">
+        <v>357</v>
+      </c>
+      <c r="AC4" s="3">
         <f t="shared" si="16"/>
-        <v>357</v>
-      </c>
-      <c r="AC4" s="3">
+        <v>228</v>
+      </c>
+      <c r="AD4" s="3">
         <f t="shared" si="17"/>
-        <v>228</v>
-      </c>
-      <c r="AD4" s="3">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="3">
         <f t="shared" si="18"/>
-        <v>73</v>
-      </c>
-      <c r="AE4" s="3">
-        <f t="shared" si="19"/>
         <v>39</v>
       </c>
       <c r="AH4" s="1">
         <v>43924</v>
       </c>
       <c r="AI4" s="3">
+        <f t="shared" si="19"/>
+        <v>432</v>
+      </c>
+      <c r="AJ4" s="3">
         <f t="shared" si="20"/>
-        <v>432</v>
-      </c>
-      <c r="AJ4" s="3">
+        <v>140</v>
+      </c>
+      <c r="AK4" s="3">
         <f t="shared" si="21"/>
-        <v>140</v>
-      </c>
-      <c r="AK4" s="3">
+        <v>72</v>
+      </c>
+      <c r="AL4" s="3">
         <f t="shared" si="22"/>
-        <v>72</v>
-      </c>
-      <c r="AL4" s="3">
+        <v>105</v>
+      </c>
+      <c r="AM4" s="3">
         <f t="shared" si="23"/>
-        <v>105</v>
-      </c>
-      <c r="AM4" s="3">
-        <f t="shared" si="24"/>
         <v>33</v>
       </c>
       <c r="AP4" s="1">
         <v>43924</v>
       </c>
       <c r="AQ4" s="3">
+        <f t="shared" si="24"/>
+        <v>526</v>
+      </c>
+      <c r="AR4" s="3">
         <f t="shared" si="25"/>
-        <v>526</v>
-      </c>
-      <c r="AR4" s="3">
+        <v>146</v>
+      </c>
+      <c r="AS4" s="3">
         <f t="shared" si="26"/>
-        <v>146</v>
-      </c>
-      <c r="AS4" s="3">
+        <v>102</v>
+      </c>
+      <c r="AT4" s="3">
         <f t="shared" si="27"/>
-        <v>102</v>
-      </c>
-      <c r="AT4" s="3">
+        <v>75</v>
+      </c>
+      <c r="AU4" s="3">
         <f t="shared" si="28"/>
-        <v>75</v>
-      </c>
-      <c r="AU4" s="3">
-        <f t="shared" si="29"/>
         <v>55</v>
       </c>
     </row>
@@ -17495,134 +17621,134 @@
         <v>1548</v>
       </c>
       <c r="D5" s="3">
+        <f t="shared" si="29"/>
+        <v>1161</v>
+      </c>
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
-        <v>1161</v>
-      </c>
-      <c r="E5" s="3">
+        <v>2759</v>
+      </c>
+      <c r="F5" s="3">
         <f t="shared" si="2"/>
-        <v>2759</v>
-      </c>
-      <c r="F5" s="3">
+        <v>1055</v>
+      </c>
+      <c r="G5" s="3">
         <f t="shared" si="3"/>
-        <v>1055</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="4"/>
         <v>2174</v>
       </c>
       <c r="J5" s="1">
         <v>43925</v>
       </c>
       <c r="K5" s="3">
+        <f t="shared" si="4"/>
+        <v>894</v>
+      </c>
+      <c r="L5" s="3">
         <f t="shared" si="5"/>
-        <v>894</v>
-      </c>
-      <c r="L5" s="3">
+        <v>656</v>
+      </c>
+      <c r="M5" s="3">
         <f t="shared" si="6"/>
-        <v>656</v>
-      </c>
-      <c r="M5" s="3">
+        <v>517</v>
+      </c>
+      <c r="N5" s="3">
         <f t="shared" si="7"/>
-        <v>517</v>
-      </c>
-      <c r="N5" s="3">
+        <v>429</v>
+      </c>
+      <c r="O5" s="3">
         <f t="shared" si="8"/>
-        <v>429</v>
-      </c>
-      <c r="O5" s="3">
-        <f t="shared" si="9"/>
         <v>640</v>
       </c>
       <c r="R5" s="1">
         <v>43925</v>
       </c>
       <c r="S5" s="3">
+        <f t="shared" si="9"/>
+        <v>246</v>
+      </c>
+      <c r="T5" s="3">
         <f t="shared" si="10"/>
-        <v>246</v>
-      </c>
-      <c r="T5" s="3">
+        <v>266</v>
+      </c>
+      <c r="U5" s="3">
         <f t="shared" si="11"/>
-        <v>266</v>
-      </c>
-      <c r="U5" s="3">
+        <v>162</v>
+      </c>
+      <c r="V5" s="3">
         <f t="shared" si="12"/>
-        <v>162</v>
-      </c>
-      <c r="V5" s="3">
+        <v>154</v>
+      </c>
+      <c r="W5" s="3">
         <f t="shared" si="13"/>
-        <v>154</v>
-      </c>
-      <c r="W5" s="3">
-        <f t="shared" si="14"/>
         <v>90</v>
       </c>
       <c r="Z5" s="1">
         <v>43925</v>
       </c>
       <c r="AA5" s="3">
+        <f t="shared" si="14"/>
+        <v>666</v>
+      </c>
+      <c r="AB5" s="3">
         <f t="shared" si="15"/>
-        <v>666</v>
-      </c>
-      <c r="AB5" s="3">
+        <v>495</v>
+      </c>
+      <c r="AC5" s="3">
         <f t="shared" si="16"/>
-        <v>495</v>
-      </c>
-      <c r="AC5" s="3">
+        <v>443</v>
+      </c>
+      <c r="AD5" s="3">
         <f t="shared" si="17"/>
-        <v>443</v>
-      </c>
-      <c r="AD5" s="3">
+        <v>42</v>
+      </c>
+      <c r="AE5" s="3">
         <f t="shared" si="18"/>
-        <v>42</v>
-      </c>
-      <c r="AE5" s="3">
-        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="AH5" s="1">
         <v>43925</v>
       </c>
       <c r="AI5" s="3">
+        <f t="shared" si="19"/>
+        <v>326</v>
+      </c>
+      <c r="AJ5" s="3">
         <f t="shared" si="20"/>
-        <v>326</v>
-      </c>
-      <c r="AJ5" s="3">
+        <v>107</v>
+      </c>
+      <c r="AK5" s="3">
         <f t="shared" si="21"/>
-        <v>107</v>
-      </c>
-      <c r="AK5" s="3">
+        <v>74</v>
+      </c>
+      <c r="AL5" s="3">
         <f t="shared" si="22"/>
-        <v>74</v>
-      </c>
-      <c r="AL5" s="3">
+        <v>220</v>
+      </c>
+      <c r="AM5" s="3">
         <f t="shared" si="23"/>
-        <v>220</v>
-      </c>
-      <c r="AM5" s="3">
-        <f t="shared" si="24"/>
         <v>34</v>
       </c>
       <c r="AP5" s="1">
         <v>43925</v>
       </c>
       <c r="AQ5" s="3">
+        <f t="shared" si="24"/>
+        <v>709</v>
+      </c>
+      <c r="AR5" s="3">
         <f t="shared" si="25"/>
-        <v>709</v>
-      </c>
-      <c r="AR5" s="3">
+        <v>97</v>
+      </c>
+      <c r="AS5" s="3">
         <f t="shared" si="26"/>
-        <v>97</v>
-      </c>
-      <c r="AS5" s="3">
+        <v>112</v>
+      </c>
+      <c r="AT5" s="3">
         <f t="shared" si="27"/>
-        <v>112</v>
-      </c>
-      <c r="AT5" s="3">
+        <v>54</v>
+      </c>
+      <c r="AU5" s="3">
         <f t="shared" si="28"/>
-        <v>54</v>
-      </c>
-      <c r="AU5" s="3">
-        <f t="shared" si="29"/>
         <v>75</v>
       </c>
     </row>
@@ -17635,134 +17761,131 @@
         <v>1410</v>
       </c>
       <c r="D6" s="3">
+        <f t="shared" si="29"/>
+        <v>1032</v>
+      </c>
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
-        <v>1032</v>
-      </c>
-      <c r="E6" s="3">
+        <v>1052</v>
+      </c>
+      <c r="F6" s="3">
         <f t="shared" si="2"/>
-        <v>1052</v>
-      </c>
-      <c r="F6" s="3">
+        <v>918</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" si="3"/>
-        <v>918</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="4"/>
         <v>605</v>
       </c>
       <c r="J6" s="1">
         <v>43926</v>
       </c>
       <c r="K6" s="3">
+        <f t="shared" si="4"/>
+        <v>427</v>
+      </c>
+      <c r="L6" s="3">
         <f t="shared" si="5"/>
-        <v>427</v>
-      </c>
-      <c r="L6" s="3">
+        <v>433</v>
+      </c>
+      <c r="M6" s="3">
         <f t="shared" si="6"/>
-        <v>433</v>
-      </c>
-      <c r="M6" s="3">
+        <v>498</v>
+      </c>
+      <c r="N6" s="3">
         <f t="shared" si="7"/>
-        <v>498</v>
-      </c>
-      <c r="N6" s="3">
+        <v>300</v>
+      </c>
+      <c r="O6" s="3">
         <f t="shared" si="8"/>
-        <v>300</v>
-      </c>
-      <c r="O6" s="3">
-        <f t="shared" si="9"/>
         <v>371</v>
       </c>
       <c r="R6" s="1">
         <v>43926</v>
       </c>
       <c r="S6" s="3">
+        <f t="shared" si="9"/>
+        <v>229</v>
+      </c>
+      <c r="T6" s="3">
         <f t="shared" si="10"/>
-        <v>229</v>
-      </c>
-      <c r="T6" s="3">
+        <v>164</v>
+      </c>
+      <c r="U6" s="3">
         <f t="shared" si="11"/>
-        <v>164</v>
-      </c>
-      <c r="U6" s="3">
+        <v>106</v>
+      </c>
+      <c r="V6" s="3">
         <f t="shared" si="12"/>
-        <v>106</v>
-      </c>
-      <c r="V6" s="3">
+        <v>72</v>
+      </c>
+      <c r="W6" s="3">
         <f t="shared" si="13"/>
-        <v>72</v>
-      </c>
-      <c r="W6" s="3">
-        <f t="shared" si="14"/>
         <v>63</v>
       </c>
       <c r="Z6" s="1">
         <v>43926</v>
       </c>
       <c r="AA6" s="3">
+        <f t="shared" si="14"/>
+        <v>756</v>
+      </c>
+      <c r="AB6" s="3">
         <f t="shared" si="15"/>
-        <v>756</v>
-      </c>
-      <c r="AB6" s="3">
-        <f t="shared" si="16"/>
         <v>39</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="3">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="3">
         <f t="shared" si="18"/>
-        <v>40</v>
-      </c>
-      <c r="AE6" s="3">
-        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="AH6" s="1">
         <v>43926</v>
       </c>
       <c r="AI6" s="3">
+        <f t="shared" si="19"/>
+        <v>525</v>
+      </c>
+      <c r="AJ6" s="3">
         <f t="shared" si="20"/>
-        <v>525</v>
-      </c>
-      <c r="AJ6" s="3">
+        <v>129</v>
+      </c>
+      <c r="AK6" s="3">
         <f t="shared" si="21"/>
-        <v>129</v>
-      </c>
-      <c r="AK6" s="3">
+        <v>92</v>
+      </c>
+      <c r="AL6" s="3">
         <f t="shared" si="22"/>
-        <v>92</v>
-      </c>
-      <c r="AL6" s="3">
+        <v>73</v>
+      </c>
+      <c r="AM6" s="3">
         <f t="shared" si="23"/>
-        <v>73</v>
-      </c>
-      <c r="AM6" s="3">
-        <f t="shared" si="24"/>
         <v>41</v>
       </c>
       <c r="AP6" s="1">
         <v>43926</v>
       </c>
       <c r="AQ6" s="3">
+        <f t="shared" si="24"/>
+        <v>617</v>
+      </c>
+      <c r="AR6" s="3">
         <f t="shared" si="25"/>
-        <v>617</v>
-      </c>
-      <c r="AR6" s="3">
+        <v>117</v>
+      </c>
+      <c r="AS6" s="3">
         <f t="shared" si="26"/>
-        <v>117</v>
-      </c>
-      <c r="AS6" s="3">
+        <v>17</v>
+      </c>
+      <c r="AT6" s="3">
         <f t="shared" si="27"/>
-        <v>17</v>
-      </c>
-      <c r="AT6" s="3">
+        <v>59</v>
+      </c>
+      <c r="AU6" s="3">
         <f t="shared" si="28"/>
-        <v>59</v>
-      </c>
-      <c r="AU6" s="3">
-        <f t="shared" si="29"/>
         <v>48</v>
       </c>
     </row>
@@ -17775,134 +17898,131 @@
         <v>1302</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="29"/>
         <v>914</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+        <v>942</v>
+      </c>
+      <c r="G7" s="3">
         <f t="shared" si="3"/>
-        <v>942</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="4"/>
         <v>1540</v>
       </c>
       <c r="J7" s="1">
         <v>43927</v>
       </c>
       <c r="K7" s="3">
+        <f t="shared" si="4"/>
+        <v>675</v>
+      </c>
+      <c r="L7" s="3">
         <f t="shared" si="5"/>
-        <v>675</v>
-      </c>
-      <c r="L7" s="3">
+        <v>471</v>
+      </c>
+      <c r="M7" s="3">
         <f t="shared" si="6"/>
-        <v>471</v>
-      </c>
-      <c r="M7" s="3">
+        <v>411</v>
+      </c>
+      <c r="N7" s="3">
         <f t="shared" si="7"/>
-        <v>411</v>
-      </c>
-      <c r="N7" s="3">
+        <v>469</v>
+      </c>
+      <c r="O7" s="3">
         <f t="shared" si="8"/>
-        <v>469</v>
-      </c>
-      <c r="O7" s="3">
-        <f t="shared" si="9"/>
         <v>529</v>
       </c>
       <c r="R7" s="1">
         <v>43927</v>
       </c>
       <c r="S7" s="3">
+        <f t="shared" si="9"/>
+        <v>271</v>
+      </c>
+      <c r="T7" s="3">
         <f t="shared" si="10"/>
-        <v>271</v>
-      </c>
-      <c r="T7" s="3">
+        <v>318</v>
+      </c>
+      <c r="U7" s="3">
         <f t="shared" si="11"/>
-        <v>318</v>
-      </c>
-      <c r="U7" s="3">
+        <v>147</v>
+      </c>
+      <c r="V7" s="3">
         <f t="shared" si="12"/>
-        <v>147</v>
-      </c>
-      <c r="V7" s="3">
+        <v>111</v>
+      </c>
+      <c r="W7" s="3">
         <f t="shared" si="13"/>
-        <v>111</v>
-      </c>
-      <c r="W7" s="3">
-        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="Z7" s="1">
         <v>43927</v>
       </c>
       <c r="AA7" s="3">
+        <f t="shared" si="14"/>
+        <v>752</v>
+      </c>
+      <c r="AB7" s="3">
         <f t="shared" si="15"/>
-        <v>752</v>
-      </c>
-      <c r="AB7" s="3">
+        <v>306</v>
+      </c>
+      <c r="AC7" s="3">
         <f t="shared" si="16"/>
-        <v>306</v>
-      </c>
-      <c r="AC7" s="3">
+        <v>156</v>
+      </c>
+      <c r="AD7" s="3">
         <f t="shared" si="17"/>
-        <v>156</v>
-      </c>
-      <c r="AD7" s="3">
+        <v>64</v>
+      </c>
+      <c r="AE7" s="3">
         <f t="shared" si="18"/>
-        <v>64</v>
-      </c>
-      <c r="AE7" s="3">
-        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="AH7" s="1">
         <v>43927</v>
       </c>
       <c r="AI7" s="3">
+        <f t="shared" si="19"/>
+        <v>476</v>
+      </c>
+      <c r="AJ7" s="3">
         <f t="shared" si="20"/>
-        <v>476</v>
-      </c>
-      <c r="AJ7" s="3">
+        <v>119</v>
+      </c>
+      <c r="AK7" s="3">
         <f t="shared" si="21"/>
-        <v>119</v>
-      </c>
-      <c r="AK7" s="3">
+        <v>114</v>
+      </c>
+      <c r="AL7" s="3">
         <f t="shared" si="22"/>
-        <v>114</v>
-      </c>
-      <c r="AL7" s="3">
+        <v>129</v>
+      </c>
+      <c r="AM7" s="3">
         <f t="shared" si="23"/>
-        <v>129</v>
-      </c>
-      <c r="AM7" s="3">
-        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="AP7" s="1">
         <v>43927</v>
       </c>
       <c r="AQ7" s="3">
+        <f t="shared" si="24"/>
+        <v>454</v>
+      </c>
+      <c r="AR7" s="3">
         <f t="shared" si="25"/>
-        <v>454</v>
-      </c>
-      <c r="AR7" s="3">
+        <v>78</v>
+      </c>
+      <c r="AS7" s="3">
         <f t="shared" si="26"/>
-        <v>78</v>
-      </c>
-      <c r="AS7" s="3">
+        <v>185</v>
+      </c>
+      <c r="AT7" s="3">
         <f t="shared" si="27"/>
-        <v>185</v>
-      </c>
-      <c r="AT7" s="3">
+        <v>17</v>
+      </c>
+      <c r="AU7" s="3">
         <f t="shared" si="28"/>
-        <v>17</v>
-      </c>
-      <c r="AU7" s="3">
-        <f t="shared" si="29"/>
         <v>48</v>
       </c>
     </row>
@@ -17915,134 +18035,134 @@
         <v>1726</v>
       </c>
       <c r="D8" s="3">
+        <f t="shared" si="29"/>
+        <v>1801</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
-        <v>1801</v>
-      </c>
-      <c r="E8" s="3">
+        <v>2212</v>
+      </c>
+      <c r="F8" s="3">
         <f t="shared" si="2"/>
-        <v>2212</v>
-      </c>
-      <c r="F8" s="3">
+        <v>1261</v>
+      </c>
+      <c r="G8" s="3">
         <f t="shared" si="3"/>
-        <v>1261</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="4"/>
         <v>1088</v>
       </c>
       <c r="J8" s="1">
         <v>43928</v>
       </c>
       <c r="K8" s="3">
+        <f t="shared" si="4"/>
+        <v>671</v>
+      </c>
+      <c r="L8" s="3">
         <f t="shared" si="5"/>
-        <v>671</v>
-      </c>
-      <c r="L8" s="3">
+        <v>554</v>
+      </c>
+      <c r="M8" s="3">
         <f t="shared" si="6"/>
-        <v>554</v>
-      </c>
-      <c r="M8" s="3">
+        <v>585</v>
+      </c>
+      <c r="N8" s="3">
         <f t="shared" si="7"/>
-        <v>585</v>
-      </c>
-      <c r="N8" s="3">
+        <v>673</v>
+      </c>
+      <c r="O8" s="3">
         <f t="shared" si="8"/>
-        <v>673</v>
-      </c>
-      <c r="O8" s="3">
-        <f t="shared" si="9"/>
         <v>345</v>
       </c>
       <c r="R8" s="1">
         <v>43928</v>
       </c>
       <c r="S8" s="3">
+        <f t="shared" si="9"/>
+        <v>316</v>
+      </c>
+      <c r="T8" s="3">
         <f t="shared" si="10"/>
-        <v>316</v>
-      </c>
-      <c r="T8" s="3">
+        <v>237</v>
+      </c>
+      <c r="U8" s="3">
         <f t="shared" si="11"/>
-        <v>237</v>
-      </c>
-      <c r="U8" s="3">
+        <v>188</v>
+      </c>
+      <c r="V8" s="3">
         <f t="shared" si="12"/>
-        <v>188</v>
-      </c>
-      <c r="V8" s="3">
+        <v>210</v>
+      </c>
+      <c r="W8" s="3">
         <f t="shared" si="13"/>
-        <v>210</v>
-      </c>
-      <c r="W8" s="3">
-        <f t="shared" si="14"/>
         <v>95</v>
       </c>
       <c r="Z8" s="1">
         <v>43928</v>
       </c>
       <c r="AA8" s="3">
+        <f t="shared" si="14"/>
+        <v>775</v>
+      </c>
+      <c r="AB8" s="3">
         <f t="shared" si="15"/>
-        <v>775</v>
-      </c>
-      <c r="AB8" s="3">
+        <v>356</v>
+      </c>
+      <c r="AC8" s="3">
         <f t="shared" si="16"/>
-        <v>356</v>
-      </c>
-      <c r="AC8" s="3">
+        <v>255</v>
+      </c>
+      <c r="AD8" s="3">
         <f t="shared" si="17"/>
-        <v>255</v>
-      </c>
-      <c r="AD8" s="3">
+        <v>70</v>
+      </c>
+      <c r="AE8" s="3">
         <f t="shared" si="18"/>
-        <v>70</v>
-      </c>
-      <c r="AE8" s="3">
-        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="AH8" s="1">
         <v>43928</v>
       </c>
       <c r="AI8" s="3">
+        <f t="shared" si="19"/>
+        <v>401</v>
+      </c>
+      <c r="AJ8" s="3">
         <f t="shared" si="20"/>
-        <v>401</v>
-      </c>
-      <c r="AJ8" s="3">
+        <v>129</v>
+      </c>
+      <c r="AK8" s="3">
         <f t="shared" si="21"/>
-        <v>129</v>
-      </c>
-      <c r="AK8" s="3">
+        <v>76</v>
+      </c>
+      <c r="AL8" s="3">
         <f t="shared" si="22"/>
-        <v>76</v>
-      </c>
-      <c r="AL8" s="3">
+        <v>140</v>
+      </c>
+      <c r="AM8" s="3">
         <f t="shared" si="23"/>
-        <v>140</v>
-      </c>
-      <c r="AM8" s="3">
-        <f t="shared" si="24"/>
         <v>43</v>
       </c>
       <c r="AP8" s="1">
         <v>43928</v>
       </c>
       <c r="AQ8" s="3">
+        <f t="shared" si="24"/>
+        <v>539</v>
+      </c>
+      <c r="AR8" s="3">
         <f t="shared" si="25"/>
-        <v>539</v>
-      </c>
-      <c r="AR8" s="3">
+        <v>50</v>
+      </c>
+      <c r="AS8" s="3">
         <f t="shared" si="26"/>
-        <v>50</v>
-      </c>
-      <c r="AS8" s="3">
+        <v>51</v>
+      </c>
+      <c r="AT8" s="3">
         <f t="shared" si="27"/>
-        <v>51</v>
-      </c>
-      <c r="AT8" s="3">
+        <v>61</v>
+      </c>
+      <c r="AU8" s="3">
         <f t="shared" si="28"/>
-        <v>61</v>
-      </c>
-      <c r="AU8" s="3">
-        <f t="shared" si="29"/>
         <v>49</v>
       </c>
     </row>
@@ -18055,134 +18175,134 @@
         <v>1395</v>
       </c>
       <c r="D9" s="3">
+        <f t="shared" si="29"/>
+        <v>1345</v>
+      </c>
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>1345</v>
-      </c>
-      <c r="E9" s="3">
+        <v>1938</v>
+      </c>
+      <c r="F9" s="3">
         <f t="shared" si="2"/>
-        <v>1938</v>
-      </c>
-      <c r="F9" s="3">
+        <v>1478</v>
+      </c>
+      <c r="G9" s="3">
         <f t="shared" si="3"/>
-        <v>1478</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="4"/>
         <v>283</v>
       </c>
       <c r="J9" s="1">
         <v>43929</v>
       </c>
       <c r="K9" s="3">
+        <f t="shared" si="4"/>
+        <v>341</v>
+      </c>
+      <c r="L9" s="3">
         <f t="shared" si="5"/>
-        <v>341</v>
-      </c>
-      <c r="L9" s="3">
+        <v>488</v>
+      </c>
+      <c r="M9" s="3">
         <f t="shared" si="6"/>
-        <v>488</v>
-      </c>
-      <c r="M9" s="3">
+        <v>520</v>
+      </c>
+      <c r="N9" s="3">
         <f t="shared" si="7"/>
-        <v>520</v>
-      </c>
-      <c r="N9" s="3">
+        <v>473</v>
+      </c>
+      <c r="O9" s="3">
         <f t="shared" si="8"/>
-        <v>473</v>
-      </c>
-      <c r="O9" s="3">
-        <f t="shared" si="9"/>
         <v>271</v>
       </c>
       <c r="R9" s="1">
         <v>43929</v>
       </c>
       <c r="S9" s="3">
+        <f t="shared" si="9"/>
+        <v>355</v>
+      </c>
+      <c r="T9" s="3">
         <f t="shared" si="10"/>
-        <v>355</v>
-      </c>
-      <c r="T9" s="3">
+        <v>358</v>
+      </c>
+      <c r="U9" s="3">
         <f t="shared" si="11"/>
-        <v>358</v>
-      </c>
-      <c r="U9" s="3">
+        <v>262</v>
+      </c>
+      <c r="V9" s="3">
         <f t="shared" si="12"/>
-        <v>262</v>
-      </c>
-      <c r="V9" s="3">
+        <v>186</v>
+      </c>
+      <c r="W9" s="3">
         <f t="shared" si="13"/>
-        <v>186</v>
-      </c>
-      <c r="W9" s="3">
-        <f t="shared" si="14"/>
         <v>124</v>
       </c>
       <c r="Z9" s="1">
         <v>43929</v>
       </c>
       <c r="AA9" s="3">
+        <f t="shared" si="14"/>
+        <v>581</v>
+      </c>
+      <c r="AB9" s="3">
         <f t="shared" si="15"/>
-        <v>581</v>
-      </c>
-      <c r="AB9" s="3">
+        <v>271</v>
+      </c>
+      <c r="AC9" s="3">
         <f t="shared" si="16"/>
-        <v>271</v>
-      </c>
-      <c r="AC9" s="3">
+        <v>212</v>
+      </c>
+      <c r="AD9" s="3">
         <f t="shared" si="17"/>
-        <v>212</v>
-      </c>
-      <c r="AD9" s="3">
+        <v>75</v>
+      </c>
+      <c r="AE9" s="3">
         <f t="shared" si="18"/>
-        <v>75</v>
-      </c>
-      <c r="AE9" s="3">
-        <f t="shared" si="19"/>
         <v>49</v>
       </c>
       <c r="AH9" s="1">
         <v>43929</v>
       </c>
       <c r="AI9" s="3">
+        <f t="shared" si="19"/>
+        <v>444</v>
+      </c>
+      <c r="AJ9" s="3">
         <f t="shared" si="20"/>
-        <v>444</v>
-      </c>
-      <c r="AJ9" s="3">
+        <v>162</v>
+      </c>
+      <c r="AK9" s="3">
         <f t="shared" si="21"/>
-        <v>162</v>
-      </c>
-      <c r="AK9" s="3">
+        <v>136</v>
+      </c>
+      <c r="AL9" s="3">
         <f t="shared" si="22"/>
-        <v>136</v>
-      </c>
-      <c r="AL9" s="3">
+        <v>173</v>
+      </c>
+      <c r="AM9" s="3">
         <f t="shared" si="23"/>
-        <v>173</v>
-      </c>
-      <c r="AM9" s="3">
-        <f t="shared" si="24"/>
         <v>47</v>
       </c>
       <c r="AP9" s="1">
         <v>43929</v>
       </c>
       <c r="AQ9" s="3">
+        <f t="shared" si="24"/>
+        <v>620</v>
+      </c>
+      <c r="AR9" s="3">
         <f t="shared" si="25"/>
-        <v>620</v>
-      </c>
-      <c r="AR9" s="3">
+        <v>76</v>
+      </c>
+      <c r="AS9" s="3">
         <f t="shared" si="26"/>
-        <v>76</v>
-      </c>
-      <c r="AS9" s="3">
+        <v>69</v>
+      </c>
+      <c r="AT9" s="3">
         <f t="shared" si="27"/>
-        <v>69</v>
-      </c>
-      <c r="AT9" s="3">
+        <v>95</v>
+      </c>
+      <c r="AU9" s="3">
         <f t="shared" si="28"/>
-        <v>95</v>
-      </c>
-      <c r="AU9" s="3">
-        <f t="shared" si="29"/>
         <v>85</v>
       </c>
     </row>
@@ -18195,134 +18315,134 @@
         <v>1555</v>
       </c>
       <c r="D10" s="3">
+        <f t="shared" si="29"/>
+        <v>1828</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
-        <v>1828</v>
-      </c>
-      <c r="E10" s="3">
+        <v>1592</v>
+      </c>
+      <c r="F10" s="3">
         <f t="shared" si="2"/>
-        <v>1592</v>
-      </c>
-      <c r="F10" s="3">
+        <v>2317</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="3"/>
-        <v>2317</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="4"/>
         <v>1569</v>
       </c>
       <c r="J10" s="1">
         <v>43930</v>
       </c>
       <c r="K10" s="3">
+        <f t="shared" si="4"/>
+        <v>469</v>
+      </c>
+      <c r="L10" s="3">
         <f t="shared" si="5"/>
-        <v>469</v>
-      </c>
-      <c r="L10" s="3">
+        <v>442</v>
+      </c>
+      <c r="M10" s="3">
         <f t="shared" si="6"/>
-        <v>442</v>
-      </c>
-      <c r="M10" s="3">
+        <v>471</v>
+      </c>
+      <c r="N10" s="3">
         <f t="shared" si="7"/>
-        <v>471</v>
-      </c>
-      <c r="N10" s="3">
+        <v>372</v>
+      </c>
+      <c r="O10" s="3">
         <f t="shared" si="8"/>
-        <v>372</v>
-      </c>
-      <c r="O10" s="3">
-        <f t="shared" si="9"/>
         <v>318</v>
       </c>
       <c r="R10" s="1">
         <v>43930</v>
       </c>
       <c r="S10" s="3">
+        <f t="shared" si="9"/>
+        <v>441</v>
+      </c>
+      <c r="T10" s="3">
         <f t="shared" si="10"/>
-        <v>441</v>
-      </c>
-      <c r="T10" s="3">
+        <v>500</v>
+      </c>
+      <c r="U10" s="3">
         <f t="shared" si="11"/>
-        <v>500</v>
-      </c>
-      <c r="U10" s="3">
+        <v>233</v>
+      </c>
+      <c r="V10" s="3">
         <f t="shared" si="12"/>
-        <v>233</v>
-      </c>
-      <c r="V10" s="3">
+        <v>229</v>
+      </c>
+      <c r="W10" s="3">
         <f t="shared" si="13"/>
-        <v>229</v>
-      </c>
-      <c r="W10" s="3">
-        <f t="shared" si="14"/>
         <v>165</v>
       </c>
       <c r="Z10" s="1">
         <v>43930</v>
       </c>
       <c r="AA10" s="3">
+        <f t="shared" si="14"/>
+        <v>467</v>
+      </c>
+      <c r="AB10" s="3">
         <f t="shared" si="15"/>
-        <v>467</v>
-      </c>
-      <c r="AB10" s="3">
+        <v>240</v>
+      </c>
+      <c r="AC10" s="3">
         <f t="shared" si="16"/>
-        <v>240</v>
-      </c>
-      <c r="AC10" s="3">
+        <v>157</v>
+      </c>
+      <c r="AD10" s="3">
         <f t="shared" si="17"/>
-        <v>157</v>
-      </c>
-      <c r="AD10" s="3">
+        <v>42</v>
+      </c>
+      <c r="AE10" s="3">
         <f t="shared" si="18"/>
-        <v>42</v>
-      </c>
-      <c r="AE10" s="3">
-        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="AH10" s="1">
         <v>43930</v>
       </c>
       <c r="AI10" s="3">
+        <f t="shared" si="19"/>
+        <v>573</v>
+      </c>
+      <c r="AJ10" s="3">
         <f t="shared" si="20"/>
-        <v>573</v>
-      </c>
-      <c r="AJ10" s="3">
+        <v>172</v>
+      </c>
+      <c r="AK10" s="3">
         <f t="shared" si="21"/>
-        <v>172</v>
-      </c>
-      <c r="AK10" s="3">
+        <v>188</v>
+      </c>
+      <c r="AL10" s="3">
         <f t="shared" si="22"/>
-        <v>188</v>
-      </c>
-      <c r="AL10" s="3">
+        <v>147</v>
+      </c>
+      <c r="AM10" s="3">
         <f t="shared" si="23"/>
-        <v>147</v>
-      </c>
-      <c r="AM10" s="3">
-        <f t="shared" si="24"/>
         <v>200</v>
       </c>
       <c r="AP10" s="1">
         <v>43930</v>
       </c>
       <c r="AQ10" s="3">
+        <f t="shared" si="24"/>
+        <v>414</v>
+      </c>
+      <c r="AR10" s="3">
         <f t="shared" si="25"/>
-        <v>414</v>
-      </c>
-      <c r="AR10" s="3">
+        <v>98</v>
+      </c>
+      <c r="AS10" s="3">
         <f t="shared" si="26"/>
-        <v>98</v>
-      </c>
-      <c r="AS10" s="3">
+        <v>109</v>
+      </c>
+      <c r="AT10" s="3">
         <f t="shared" si="27"/>
-        <v>109</v>
-      </c>
-      <c r="AT10" s="3">
+        <v>62</v>
+      </c>
+      <c r="AU10" s="3">
         <f t="shared" si="28"/>
-        <v>62</v>
-      </c>
-      <c r="AU10" s="3">
-        <f t="shared" si="29"/>
         <v>63</v>
       </c>
     </row>
@@ -18335,134 +18455,134 @@
         <v>1995</v>
       </c>
       <c r="D11" s="3">
+        <f t="shared" si="29"/>
+        <v>1438</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
-        <v>1438</v>
-      </c>
-      <c r="E11" s="3">
+        <v>1372</v>
+      </c>
+      <c r="F11" s="3">
         <f t="shared" si="2"/>
-        <v>1372</v>
-      </c>
-      <c r="F11" s="3">
+        <v>1807</v>
+      </c>
+      <c r="G11" s="3">
         <f t="shared" si="3"/>
-        <v>1807</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="4"/>
         <v>1279</v>
       </c>
       <c r="J11" s="1">
         <v>43931</v>
       </c>
       <c r="K11" s="3">
+        <f t="shared" si="4"/>
+        <v>585</v>
+      </c>
+      <c r="L11" s="3">
         <f t="shared" si="5"/>
-        <v>585</v>
-      </c>
-      <c r="L11" s="3">
+        <v>532</v>
+      </c>
+      <c r="M11" s="3">
         <f t="shared" si="6"/>
-        <v>532</v>
-      </c>
-      <c r="M11" s="3">
+        <v>511</v>
+      </c>
+      <c r="N11" s="3">
         <f t="shared" si="7"/>
-        <v>511</v>
-      </c>
-      <c r="N11" s="3">
+        <v>372</v>
+      </c>
+      <c r="O11" s="3">
         <f t="shared" si="8"/>
-        <v>372</v>
-      </c>
-      <c r="O11" s="3">
-        <f t="shared" si="9"/>
         <v>327</v>
       </c>
       <c r="R11" s="1">
         <v>43931</v>
       </c>
       <c r="S11" s="3">
+        <f t="shared" si="9"/>
+        <v>493</v>
+      </c>
+      <c r="T11" s="3">
         <f t="shared" si="10"/>
-        <v>493</v>
-      </c>
-      <c r="T11" s="3">
+        <v>402</v>
+      </c>
+      <c r="U11" s="3">
         <f t="shared" si="11"/>
-        <v>402</v>
-      </c>
-      <c r="U11" s="3">
+        <v>334</v>
+      </c>
+      <c r="V11" s="3">
         <f t="shared" si="12"/>
-        <v>334</v>
-      </c>
-      <c r="V11" s="3">
+        <v>209</v>
+      </c>
+      <c r="W11" s="3">
         <f t="shared" si="13"/>
-        <v>209</v>
-      </c>
-      <c r="W11" s="3">
-        <f t="shared" si="14"/>
         <v>217</v>
       </c>
       <c r="Z11" s="1">
         <v>43931</v>
       </c>
       <c r="AA11" s="3">
+        <f t="shared" si="14"/>
+        <v>446</v>
+      </c>
+      <c r="AB11" s="3">
         <f t="shared" si="15"/>
-        <v>446</v>
-      </c>
-      <c r="AB11" s="3">
+        <v>264</v>
+      </c>
+      <c r="AC11" s="3">
         <f t="shared" si="16"/>
-        <v>264</v>
-      </c>
-      <c r="AC11" s="3">
+        <v>190</v>
+      </c>
+      <c r="AD11" s="3">
         <f t="shared" si="17"/>
-        <v>190</v>
-      </c>
-      <c r="AD11" s="3">
+        <v>73</v>
+      </c>
+      <c r="AE11" s="3">
         <f t="shared" si="18"/>
-        <v>73</v>
-      </c>
-      <c r="AE11" s="3">
-        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="AH11" s="1">
         <v>43931</v>
       </c>
       <c r="AI11" s="3">
+        <f t="shared" si="19"/>
+        <v>492</v>
+      </c>
+      <c r="AJ11" s="3">
         <f t="shared" si="20"/>
-        <v>492</v>
-      </c>
-      <c r="AJ11" s="3">
+        <v>196</v>
+      </c>
+      <c r="AK11" s="3">
         <f t="shared" si="21"/>
-        <v>196</v>
-      </c>
-      <c r="AK11" s="3">
+        <v>155</v>
+      </c>
+      <c r="AL11" s="3">
         <f t="shared" si="22"/>
-        <v>155</v>
-      </c>
-      <c r="AL11" s="3">
+        <v>96</v>
+      </c>
+      <c r="AM11" s="3">
         <f t="shared" si="23"/>
-        <v>96</v>
-      </c>
-      <c r="AM11" s="3">
-        <f t="shared" si="24"/>
         <v>104</v>
       </c>
       <c r="AP11" s="1">
         <v>43931</v>
       </c>
       <c r="AQ11" s="3">
+        <f t="shared" si="24"/>
+        <v>465</v>
+      </c>
+      <c r="AR11" s="3">
         <f t="shared" si="25"/>
-        <v>465</v>
-      </c>
-      <c r="AR11" s="3">
+        <v>65</v>
+      </c>
+      <c r="AS11" s="3">
         <f t="shared" si="26"/>
-        <v>65</v>
-      </c>
-      <c r="AS11" s="3">
+        <v>79</v>
+      </c>
+      <c r="AT11" s="3">
         <f t="shared" si="27"/>
-        <v>79</v>
-      </c>
-      <c r="AT11" s="3">
+        <v>42</v>
+      </c>
+      <c r="AU11" s="3">
         <f t="shared" si="28"/>
-        <v>42</v>
-      </c>
-      <c r="AU11" s="3">
-        <f t="shared" si="29"/>
         <v>59</v>
       </c>
     </row>
@@ -18475,131 +18595,131 @@
         <v>1290</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="29"/>
         <v>1196</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>980</v>
+      </c>
+      <c r="G12" s="3">
         <f t="shared" si="3"/>
-        <v>980</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="4"/>
         <v>1191</v>
       </c>
       <c r="J12" s="1">
         <v>43932</v>
       </c>
       <c r="K12" s="3">
+        <f t="shared" si="4"/>
+        <v>434</v>
+      </c>
+      <c r="L12" s="3">
         <f t="shared" si="5"/>
-        <v>434</v>
-      </c>
-      <c r="L12" s="3">
+        <v>596</v>
+      </c>
+      <c r="M12" s="3">
         <f t="shared" si="6"/>
-        <v>596</v>
-      </c>
-      <c r="M12" s="3">
+        <v>271</v>
+      </c>
+      <c r="N12" s="3">
         <f t="shared" si="7"/>
-        <v>271</v>
-      </c>
-      <c r="N12" s="3">
+        <v>290</v>
+      </c>
+      <c r="O12" s="3">
         <f t="shared" si="8"/>
-        <v>290</v>
-      </c>
-      <c r="O12" s="3">
-        <f t="shared" si="9"/>
         <v>278</v>
       </c>
       <c r="R12" s="1">
         <v>43932</v>
       </c>
       <c r="S12" s="3">
+        <f t="shared" si="9"/>
+        <v>392</v>
+      </c>
+      <c r="T12" s="3">
         <f t="shared" si="10"/>
-        <v>392</v>
-      </c>
-      <c r="T12" s="3">
+        <v>425</v>
+      </c>
+      <c r="U12" s="3">
         <f t="shared" si="11"/>
-        <v>425</v>
-      </c>
-      <c r="U12" s="3">
+        <v>226</v>
+      </c>
+      <c r="V12" s="3">
         <f t="shared" si="12"/>
-        <v>226</v>
-      </c>
-      <c r="V12" s="3">
+        <v>179</v>
+      </c>
+      <c r="W12" s="3">
         <f t="shared" si="13"/>
-        <v>179</v>
-      </c>
-      <c r="W12" s="3">
-        <f t="shared" si="14"/>
         <v>144</v>
       </c>
       <c r="Z12" s="1">
         <v>43932</v>
       </c>
       <c r="AA12" s="3">
+        <f t="shared" si="14"/>
+        <v>412</v>
+      </c>
+      <c r="AB12" s="3">
         <f t="shared" si="15"/>
-        <v>412</v>
-      </c>
-      <c r="AB12" s="3">
+        <v>291</v>
+      </c>
+      <c r="AC12" s="3">
         <f t="shared" si="16"/>
-        <v>291</v>
-      </c>
-      <c r="AC12" s="3">
+        <v>191</v>
+      </c>
+      <c r="AD12" s="3">
         <f t="shared" si="17"/>
-        <v>191</v>
-      </c>
-      <c r="AD12" s="3">
+        <v>91</v>
+      </c>
+      <c r="AE12" s="3">
         <f t="shared" si="18"/>
-        <v>91</v>
-      </c>
-      <c r="AE12" s="3">
-        <f t="shared" si="19"/>
         <v>26</v>
       </c>
       <c r="AH12" s="1">
         <v>43932</v>
       </c>
       <c r="AI12" s="3">
+        <f t="shared" si="19"/>
+        <v>501</v>
+      </c>
+      <c r="AJ12" s="3">
         <f t="shared" si="20"/>
-        <v>501</v>
-      </c>
-      <c r="AJ12" s="3">
+        <v>164</v>
+      </c>
+      <c r="AK12" s="3">
         <f t="shared" si="21"/>
-        <v>164</v>
-      </c>
-      <c r="AK12" s="3">
+        <v>133</v>
+      </c>
+      <c r="AL12" s="3">
         <f t="shared" si="22"/>
-        <v>133</v>
-      </c>
-      <c r="AL12" s="3">
+        <v>58</v>
+      </c>
+      <c r="AM12" s="3">
         <f t="shared" si="23"/>
-        <v>58</v>
-      </c>
-      <c r="AM12" s="3">
-        <f t="shared" si="24"/>
         <v>210</v>
       </c>
       <c r="AP12" s="1">
         <v>43932</v>
       </c>
       <c r="AQ12" s="3">
+        <f t="shared" si="24"/>
+        <v>439</v>
+      </c>
+      <c r="AR12" s="3">
         <f t="shared" si="25"/>
-        <v>439</v>
-      </c>
-      <c r="AR12" s="3">
+        <v>68</v>
+      </c>
+      <c r="AS12" s="3">
         <f t="shared" si="26"/>
-        <v>68</v>
-      </c>
-      <c r="AS12" s="3">
+        <v>98</v>
+      </c>
+      <c r="AT12" s="3">
         <f t="shared" si="27"/>
-        <v>98</v>
-      </c>
-      <c r="AT12" s="3">
+        <v>82</v>
+      </c>
+      <c r="AU12" s="3">
         <f t="shared" si="28"/>
-        <v>82</v>
-      </c>
-      <c r="AU12" s="3">
-        <f t="shared" si="29"/>
         <v>83</v>
       </c>
     </row>
@@ -18612,131 +18732,133 @@
         <v>1705</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="29"/>
         <v>1420</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>1072</v>
+      </c>
       <c r="F13" s="3">
+        <f t="shared" si="2"/>
+        <v>1186</v>
+      </c>
+      <c r="G13" s="3">
         <f t="shared" si="3"/>
-        <v>1186</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="4"/>
         <v>933</v>
       </c>
       <c r="J13" s="1">
         <v>43933</v>
       </c>
       <c r="K13" s="3">
+        <f t="shared" si="4"/>
+        <v>422</v>
+      </c>
+      <c r="L13" s="3">
         <f t="shared" si="5"/>
-        <v>422</v>
-      </c>
-      <c r="L13" s="3">
+        <v>462</v>
+      </c>
+      <c r="M13" s="3">
         <f t="shared" si="6"/>
-        <v>462</v>
-      </c>
-      <c r="M13" s="3">
+        <v>559</v>
+      </c>
+      <c r="N13" s="3">
         <f t="shared" si="7"/>
-        <v>559</v>
-      </c>
-      <c r="N13" s="3">
+        <v>315</v>
+      </c>
+      <c r="O13" s="3">
         <f t="shared" si="8"/>
-        <v>315</v>
-      </c>
-      <c r="O13" s="3">
-        <f t="shared" si="9"/>
         <v>295</v>
       </c>
       <c r="R13" s="1">
         <v>43933</v>
       </c>
       <c r="S13" s="3">
+        <f t="shared" si="9"/>
+        <v>433</v>
+      </c>
+      <c r="T13" s="3">
         <f t="shared" si="10"/>
-        <v>433</v>
-      </c>
-      <c r="T13" s="3">
+        <v>788</v>
+      </c>
+      <c r="U13" s="3">
         <f t="shared" si="11"/>
-        <v>788</v>
-      </c>
-      <c r="U13" s="3">
+        <v>274</v>
+      </c>
+      <c r="V13" s="3">
         <f t="shared" si="12"/>
-        <v>274</v>
-      </c>
-      <c r="V13" s="3">
+        <v>254</v>
+      </c>
+      <c r="W13" s="3">
         <f t="shared" si="13"/>
-        <v>254</v>
-      </c>
-      <c r="W13" s="3">
-        <f t="shared" si="14"/>
         <v>210</v>
       </c>
       <c r="Z13" s="1">
         <v>43933</v>
       </c>
       <c r="AA13" s="3">
+        <f t="shared" si="14"/>
+        <v>213</v>
+      </c>
+      <c r="AB13" s="3">
         <f t="shared" si="15"/>
-        <v>213</v>
-      </c>
-      <c r="AB13" s="3">
+        <v>113</v>
+      </c>
+      <c r="AC13" s="3">
         <f t="shared" si="16"/>
-        <v>113</v>
-      </c>
-      <c r="AC13" s="3">
+        <v>90</v>
+      </c>
+      <c r="AD13" s="3">
         <f t="shared" si="17"/>
-        <v>90</v>
-      </c>
-      <c r="AD13" s="3">
+        <v>36</v>
+      </c>
+      <c r="AE13" s="3">
         <f t="shared" si="18"/>
-        <v>36</v>
-      </c>
-      <c r="AE13" s="3">
-        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="AH13" s="1">
         <v>43933</v>
       </c>
       <c r="AI13" s="3">
+        <f t="shared" si="19"/>
+        <v>330</v>
+      </c>
+      <c r="AJ13" s="3">
         <f t="shared" si="20"/>
-        <v>330</v>
-      </c>
-      <c r="AJ13" s="3">
+        <v>111</v>
+      </c>
+      <c r="AK13" s="3">
         <f t="shared" si="21"/>
-        <v>111</v>
-      </c>
-      <c r="AK13" s="3">
+        <v>84</v>
+      </c>
+      <c r="AL13" s="3">
         <f t="shared" si="22"/>
-        <v>84</v>
-      </c>
-      <c r="AL13" s="3">
+        <v>64</v>
+      </c>
+      <c r="AM13" s="3">
         <f t="shared" si="23"/>
-        <v>64</v>
-      </c>
-      <c r="AM13" s="3">
-        <f t="shared" si="24"/>
         <v>105</v>
       </c>
       <c r="AP13" s="1">
         <v>43933</v>
       </c>
       <c r="AQ13" s="3">
+        <f t="shared" si="24"/>
+        <v>310</v>
+      </c>
+      <c r="AR13" s="3">
         <f t="shared" si="25"/>
-        <v>310</v>
-      </c>
-      <c r="AR13" s="3">
+        <v>43</v>
+      </c>
+      <c r="AS13" s="3">
         <f t="shared" si="26"/>
-        <v>43</v>
-      </c>
-      <c r="AS13" s="3">
+        <v>70</v>
+      </c>
+      <c r="AT13" s="3">
         <f t="shared" si="27"/>
-        <v>70</v>
-      </c>
-      <c r="AT13" s="3">
+        <v>55</v>
+      </c>
+      <c r="AU13" s="3">
         <f t="shared" si="28"/>
-        <v>55</v>
-      </c>
-      <c r="AU13" s="3">
-        <f t="shared" si="29"/>
         <v>56</v>
       </c>
     </row>
@@ -18749,7 +18871,7 @@
         <v>719</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="29"/>
         <v>573</v>
       </c>
       <c r="E14" s="3">
@@ -18757,126 +18879,126 @@
         <v>1774</v>
       </c>
       <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>643</v>
+      </c>
+      <c r="G14" s="3">
         <f t="shared" si="3"/>
-        <v>643</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="4"/>
         <v>827</v>
       </c>
       <c r="J14" s="1">
         <v>43934</v>
       </c>
       <c r="K14" s="3">
+        <f t="shared" si="4"/>
+        <v>308</v>
+      </c>
+      <c r="L14" s="3">
         <f t="shared" si="5"/>
-        <v>308</v>
-      </c>
-      <c r="L14" s="3">
+        <v>410</v>
+      </c>
+      <c r="M14" s="3">
         <f t="shared" si="6"/>
-        <v>410</v>
-      </c>
-      <c r="M14" s="3">
+        <v>224</v>
+      </c>
+      <c r="N14" s="3">
         <f t="shared" si="7"/>
-        <v>224</v>
-      </c>
-      <c r="N14" s="3">
+        <v>456</v>
+      </c>
+      <c r="O14" s="3">
         <f t="shared" si="8"/>
-        <v>456</v>
-      </c>
-      <c r="O14" s="3">
-        <f t="shared" si="9"/>
         <v>360</v>
       </c>
       <c r="R14" s="1">
         <v>43934</v>
       </c>
       <c r="S14" s="3">
+        <f t="shared" si="9"/>
+        <v>220</v>
+      </c>
+      <c r="T14" s="3">
         <f t="shared" si="10"/>
-        <v>220</v>
-      </c>
-      <c r="T14" s="3">
+        <v>323</v>
+      </c>
+      <c r="U14" s="3">
         <f t="shared" si="11"/>
-        <v>323</v>
-      </c>
-      <c r="U14" s="3">
+        <v>243</v>
+      </c>
+      <c r="V14" s="3">
         <f t="shared" si="12"/>
-        <v>243</v>
-      </c>
-      <c r="V14" s="3">
+        <v>189</v>
+      </c>
+      <c r="W14" s="3">
         <f t="shared" si="13"/>
-        <v>189</v>
-      </c>
-      <c r="W14" s="3">
-        <f t="shared" si="14"/>
         <v>96</v>
       </c>
       <c r="Z14" s="1">
         <v>43934</v>
       </c>
       <c r="AA14" s="3">
+        <f t="shared" si="14"/>
+        <v>484</v>
+      </c>
+      <c r="AB14" s="3">
         <f t="shared" si="15"/>
-        <v>484</v>
-      </c>
-      <c r="AB14" s="3">
+        <v>158</v>
+      </c>
+      <c r="AC14" s="3">
         <f t="shared" si="16"/>
-        <v>158</v>
-      </c>
-      <c r="AC14" s="3">
+        <v>164</v>
+      </c>
+      <c r="AD14" s="3">
         <f t="shared" si="17"/>
-        <v>164</v>
-      </c>
-      <c r="AD14" s="3">
+        <v>33</v>
+      </c>
+      <c r="AE14" s="3">
         <f t="shared" si="18"/>
-        <v>33</v>
-      </c>
-      <c r="AE14" s="3">
-        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="AH14" s="1">
         <v>43934</v>
       </c>
       <c r="AI14" s="3">
+        <f t="shared" si="19"/>
+        <v>458</v>
+      </c>
+      <c r="AJ14" s="3">
         <f t="shared" si="20"/>
-        <v>458</v>
-      </c>
-      <c r="AJ14" s="3">
+        <v>121</v>
+      </c>
+      <c r="AK14" s="3">
         <f t="shared" si="21"/>
-        <v>121</v>
-      </c>
-      <c r="AK14" s="3">
+        <v>118</v>
+      </c>
+      <c r="AL14" s="3">
         <f t="shared" si="22"/>
-        <v>118</v>
-      </c>
-      <c r="AL14" s="3">
+        <v>63</v>
+      </c>
+      <c r="AM14" s="3">
         <f t="shared" si="23"/>
-        <v>63</v>
-      </c>
-      <c r="AM14" s="3">
-        <f t="shared" si="24"/>
         <v>115</v>
       </c>
       <c r="AP14" s="1">
         <v>43934</v>
       </c>
       <c r="AQ14" s="3">
+        <f t="shared" si="24"/>
+        <v>234</v>
+      </c>
+      <c r="AR14" s="3">
         <f t="shared" si="25"/>
-        <v>234</v>
-      </c>
-      <c r="AR14" s="3">
+        <v>43</v>
+      </c>
+      <c r="AS14" s="3">
         <f t="shared" si="26"/>
-        <v>43</v>
-      </c>
-      <c r="AS14" s="3">
+        <v>130</v>
+      </c>
+      <c r="AT14" s="3">
         <f t="shared" si="27"/>
-        <v>130</v>
-      </c>
-      <c r="AT14" s="3">
+        <v>45</v>
+      </c>
+      <c r="AU14" s="3">
         <f t="shared" si="28"/>
-        <v>45</v>
-      </c>
-      <c r="AU14" s="3">
-        <f t="shared" si="29"/>
         <v>6</v>
       </c>
     </row>
@@ -18889,7 +19011,7 @@
         <v>148</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="29"/>
         <v>103</v>
       </c>
       <c r="E15" s="3">
@@ -18897,126 +19019,126 @@
         <v>892</v>
       </c>
       <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="3"/>
-        <v>74</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="4"/>
         <v>819</v>
       </c>
       <c r="J15" s="1">
         <v>43935</v>
       </c>
       <c r="K15" s="3">
+        <f t="shared" si="4"/>
+        <v>334</v>
+      </c>
+      <c r="L15" s="3">
         <f t="shared" si="5"/>
-        <v>334</v>
-      </c>
-      <c r="L15" s="3">
+        <v>363</v>
+      </c>
+      <c r="M15" s="3">
         <f t="shared" si="6"/>
-        <v>363</v>
-      </c>
-      <c r="M15" s="3">
+        <v>578</v>
+      </c>
+      <c r="N15" s="3">
         <f t="shared" si="7"/>
-        <v>578</v>
-      </c>
-      <c r="N15" s="3">
+        <v>629</v>
+      </c>
+      <c r="O15" s="3">
         <f t="shared" si="8"/>
-        <v>629</v>
-      </c>
-      <c r="O15" s="3">
-        <f t="shared" si="9"/>
         <v>488</v>
       </c>
       <c r="R15" s="1">
         <v>43935</v>
       </c>
       <c r="S15" s="3">
+        <f t="shared" si="9"/>
+        <v>293</v>
+      </c>
+      <c r="T15" s="3">
         <f t="shared" si="10"/>
-        <v>293</v>
-      </c>
-      <c r="T15" s="3">
+        <v>271</v>
+      </c>
+      <c r="U15" s="3">
         <f t="shared" si="11"/>
-        <v>271</v>
-      </c>
-      <c r="U15" s="3">
+        <v>181</v>
+      </c>
+      <c r="V15" s="3">
         <f t="shared" si="12"/>
-        <v>181</v>
-      </c>
-      <c r="V15" s="3">
+        <v>131</v>
+      </c>
+      <c r="W15" s="3">
         <f t="shared" si="13"/>
-        <v>131</v>
-      </c>
-      <c r="W15" s="3">
-        <f t="shared" si="14"/>
         <v>118</v>
       </c>
       <c r="Z15" s="1">
         <v>43935</v>
       </c>
       <c r="AA15" s="3">
+        <f t="shared" si="14"/>
+        <v>561</v>
+      </c>
+      <c r="AB15" s="3">
         <f t="shared" si="15"/>
-        <v>561</v>
-      </c>
-      <c r="AB15" s="3">
+        <v>291</v>
+      </c>
+      <c r="AC15" s="3">
         <f t="shared" si="16"/>
-        <v>291</v>
-      </c>
-      <c r="AC15" s="3">
+        <v>202</v>
+      </c>
+      <c r="AD15" s="3">
         <f t="shared" si="17"/>
-        <v>202</v>
-      </c>
-      <c r="AD15" s="3">
+        <v>42</v>
+      </c>
+      <c r="AE15" s="3">
         <f t="shared" si="18"/>
-        <v>42</v>
-      </c>
-      <c r="AE15" s="3">
-        <f t="shared" si="19"/>
         <v>36</v>
       </c>
       <c r="AH15" s="1">
         <v>43935</v>
       </c>
       <c r="AI15" s="3">
+        <f t="shared" si="19"/>
+        <v>311</v>
+      </c>
+      <c r="AJ15" s="3">
         <f t="shared" si="20"/>
-        <v>311</v>
-      </c>
-      <c r="AJ15" s="3">
+        <v>69</v>
+      </c>
+      <c r="AK15" s="3">
         <f t="shared" si="21"/>
-        <v>69</v>
-      </c>
-      <c r="AK15" s="3">
+        <v>94</v>
+      </c>
+      <c r="AL15" s="3">
         <f t="shared" si="22"/>
-        <v>94</v>
-      </c>
-      <c r="AL15" s="3">
+        <v>56</v>
+      </c>
+      <c r="AM15" s="3">
         <f t="shared" si="23"/>
-        <v>56</v>
-      </c>
-      <c r="AM15" s="3">
-        <f t="shared" si="24"/>
         <v>97</v>
       </c>
       <c r="AP15" s="1">
         <v>43935</v>
       </c>
       <c r="AQ15" s="3">
+        <f t="shared" si="24"/>
+        <v>581</v>
+      </c>
+      <c r="AR15" s="3">
         <f t="shared" si="25"/>
-        <v>581</v>
-      </c>
-      <c r="AR15" s="3">
+        <v>83</v>
+      </c>
+      <c r="AS15" s="3">
         <f t="shared" si="26"/>
-        <v>83</v>
-      </c>
-      <c r="AS15" s="3">
+        <v>7</v>
+      </c>
+      <c r="AT15" s="3">
         <f t="shared" si="27"/>
-        <v>7</v>
-      </c>
-      <c r="AT15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="3">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AU15" s="3">
-        <f t="shared" si="29"/>
         <v>16</v>
       </c>
     </row>
@@ -19029,7 +19151,7 @@
         <v>3149</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="29"/>
         <v>3831</v>
       </c>
       <c r="E16" s="3">
@@ -19037,126 +19159,126 @@
         <v>1465</v>
       </c>
       <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>1161</v>
+      </c>
+      <c r="G16" s="3">
         <f t="shared" si="3"/>
-        <v>1161</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="4"/>
         <v>816</v>
       </c>
       <c r="J16" s="1">
         <v>43936</v>
       </c>
       <c r="K16" s="3">
+        <f t="shared" si="4"/>
+        <v>422</v>
+      </c>
+      <c r="L16" s="3">
         <f t="shared" si="5"/>
-        <v>422</v>
-      </c>
-      <c r="L16" s="3">
+        <v>269</v>
+      </c>
+      <c r="M16" s="3">
         <f t="shared" si="6"/>
-        <v>269</v>
-      </c>
-      <c r="M16" s="3">
+        <v>367</v>
+      </c>
+      <c r="N16" s="3">
         <f t="shared" si="7"/>
-        <v>367</v>
-      </c>
-      <c r="N16" s="3">
+        <v>173</v>
+      </c>
+      <c r="O16" s="3">
         <f t="shared" si="8"/>
-        <v>173</v>
-      </c>
-      <c r="O16" s="3">
-        <f t="shared" si="9"/>
         <v>312</v>
       </c>
       <c r="R16" s="1">
         <v>43936</v>
       </c>
       <c r="S16" s="3">
+        <f t="shared" si="9"/>
+        <v>407</v>
+      </c>
+      <c r="T16" s="3">
         <f t="shared" si="10"/>
-        <v>407</v>
-      </c>
-      <c r="T16" s="3">
+        <v>427</v>
+      </c>
+      <c r="U16" s="3">
         <f t="shared" si="11"/>
-        <v>427</v>
-      </c>
-      <c r="U16" s="3">
+        <v>300</v>
+      </c>
+      <c r="V16" s="3">
         <f t="shared" si="12"/>
-        <v>300</v>
-      </c>
-      <c r="V16" s="3">
+        <v>153</v>
+      </c>
+      <c r="W16" s="3">
         <f t="shared" si="13"/>
-        <v>153</v>
-      </c>
-      <c r="W16" s="3">
-        <f t="shared" si="14"/>
         <v>104</v>
       </c>
       <c r="Z16" s="1">
         <v>43936</v>
       </c>
       <c r="AA16" s="3">
+        <f t="shared" si="14"/>
+        <v>335</v>
+      </c>
+      <c r="AB16" s="3">
         <f t="shared" si="15"/>
-        <v>335</v>
-      </c>
-      <c r="AB16" s="3">
+        <v>212</v>
+      </c>
+      <c r="AC16" s="3">
         <f t="shared" si="16"/>
-        <v>212</v>
-      </c>
-      <c r="AC16" s="3">
+        <v>172</v>
+      </c>
+      <c r="AD16" s="3">
         <f t="shared" si="17"/>
-        <v>172</v>
-      </c>
-      <c r="AD16" s="3">
+        <v>54</v>
+      </c>
+      <c r="AE16" s="3">
         <f t="shared" si="18"/>
-        <v>54</v>
-      </c>
-      <c r="AE16" s="3">
-        <f t="shared" si="19"/>
         <v>26</v>
       </c>
       <c r="AH16" s="1">
         <v>43936</v>
       </c>
       <c r="AI16" s="3">
+        <f t="shared" si="19"/>
+        <v>320</v>
+      </c>
+      <c r="AJ16" s="3">
         <f t="shared" si="20"/>
-        <v>320</v>
-      </c>
-      <c r="AJ16" s="3">
+        <v>121</v>
+      </c>
+      <c r="AK16" s="3">
         <f t="shared" si="21"/>
-        <v>121</v>
-      </c>
-      <c r="AK16" s="3">
+        <v>129</v>
+      </c>
+      <c r="AL16" s="3">
         <f t="shared" si="22"/>
-        <v>129</v>
-      </c>
-      <c r="AL16" s="3">
+        <v>119</v>
+      </c>
+      <c r="AM16" s="3">
         <f t="shared" si="23"/>
-        <v>119</v>
-      </c>
-      <c r="AM16" s="3">
-        <f t="shared" si="24"/>
         <v>88</v>
       </c>
       <c r="AP16" s="1">
         <v>43936</v>
       </c>
       <c r="AQ16" s="3">
+        <f t="shared" si="24"/>
+        <v>468</v>
+      </c>
+      <c r="AR16" s="3">
         <f t="shared" si="25"/>
-        <v>468</v>
-      </c>
-      <c r="AR16" s="3">
+        <v>82</v>
+      </c>
+      <c r="AS16" s="3">
         <f t="shared" si="26"/>
-        <v>82</v>
-      </c>
-      <c r="AS16" s="3">
+        <v>256</v>
+      </c>
+      <c r="AT16" s="3">
         <f t="shared" si="27"/>
-        <v>256</v>
-      </c>
-      <c r="AT16" s="3">
+        <v>127</v>
+      </c>
+      <c r="AU16" s="3">
         <f t="shared" si="28"/>
-        <v>127</v>
-      </c>
-      <c r="AU16" s="3">
-        <f t="shared" si="29"/>
         <v>77</v>
       </c>
     </row>
@@ -19169,7 +19291,7 @@
         <v>1153</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="29"/>
         <v>1552</v>
       </c>
       <c r="E17" s="3">
@@ -19177,123 +19299,125 @@
         <v>1057</v>
       </c>
       <c r="F17" s="3">
+        <f t="shared" si="2"/>
+        <v>1051</v>
+      </c>
+      <c r="G17" s="3">
         <f t="shared" si="3"/>
-        <v>1051</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="4"/>
         <v>904</v>
       </c>
       <c r="J17" s="2">
         <v>43937</v>
       </c>
       <c r="K17" s="3">
+        <f t="shared" si="4"/>
+        <v>561</v>
+      </c>
+      <c r="L17" s="3">
         <f t="shared" si="5"/>
-        <v>561</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" si="6"/>
         <v>654</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>505</v>
+      </c>
       <c r="N17" s="3">
+        <f t="shared" si="7"/>
+        <v>466</v>
+      </c>
+      <c r="O17" s="3">
         <f t="shared" si="8"/>
-        <v>466</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" si="9"/>
         <v>567</v>
       </c>
       <c r="R17" s="2">
         <v>43937</v>
       </c>
       <c r="S17" s="3">
+        <f t="shared" si="9"/>
+        <v>541</v>
+      </c>
+      <c r="T17" s="3">
         <f t="shared" si="10"/>
-        <v>541</v>
-      </c>
-      <c r="T17" s="3">
+        <v>525</v>
+      </c>
+      <c r="U17" s="3">
         <f t="shared" si="11"/>
-        <v>525</v>
-      </c>
-      <c r="U17" s="3">
+        <v>351</v>
+      </c>
+      <c r="V17" s="3">
         <f t="shared" si="12"/>
-        <v>351</v>
-      </c>
-      <c r="V17" s="3">
+        <v>220</v>
+      </c>
+      <c r="W17" s="3">
         <f t="shared" si="13"/>
-        <v>220</v>
-      </c>
-      <c r="W17" s="3">
-        <f t="shared" si="14"/>
         <v>153</v>
       </c>
       <c r="Z17" s="2">
         <v>43937</v>
       </c>
       <c r="AA17" s="3">
+        <f t="shared" si="14"/>
+        <v>458</v>
+      </c>
+      <c r="AB17" s="3">
         <f t="shared" si="15"/>
-        <v>458</v>
-      </c>
-      <c r="AB17" s="3">
+        <v>202</v>
+      </c>
+      <c r="AC17" s="3">
         <f t="shared" si="16"/>
-        <v>202</v>
-      </c>
-      <c r="AC17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD17" s="3">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="AD17" s="3">
+        <v>63</v>
+      </c>
+      <c r="AE17" s="3">
         <f t="shared" si="18"/>
-        <v>63</v>
-      </c>
-      <c r="AE17" s="3">
-        <f t="shared" si="19"/>
         <v>28</v>
       </c>
       <c r="AH17" s="2">
         <v>43937</v>
       </c>
       <c r="AI17" s="3">
+        <f t="shared" si="19"/>
+        <v>243</v>
+      </c>
+      <c r="AJ17" s="3">
         <f t="shared" si="20"/>
-        <v>243</v>
-      </c>
-      <c r="AJ17" s="3">
+        <v>69</v>
+      </c>
+      <c r="AK17" s="3">
         <f t="shared" si="21"/>
-        <v>69</v>
-      </c>
-      <c r="AK17" s="3">
+        <v>64</v>
+      </c>
+      <c r="AL17" s="3">
         <f t="shared" si="22"/>
-        <v>64</v>
-      </c>
-      <c r="AL17" s="3">
+        <v>77</v>
+      </c>
+      <c r="AM17" s="3">
         <f t="shared" si="23"/>
-        <v>77</v>
-      </c>
-      <c r="AM17" s="3">
-        <f t="shared" si="24"/>
         <v>84</v>
       </c>
       <c r="AP17" s="2">
         <v>43937</v>
       </c>
       <c r="AQ17" s="3">
+        <f t="shared" si="24"/>
+        <v>370</v>
+      </c>
+      <c r="AR17" s="3">
         <f t="shared" si="25"/>
-        <v>370</v>
-      </c>
-      <c r="AR17" s="3">
+        <v>75</v>
+      </c>
+      <c r="AS17" s="3">
         <f t="shared" si="26"/>
-        <v>75</v>
-      </c>
-      <c r="AS17" s="3">
+        <v>190</v>
+      </c>
+      <c r="AT17" s="3">
         <f t="shared" si="27"/>
-        <v>190</v>
-      </c>
-      <c r="AT17" s="3">
+        <v>40</v>
+      </c>
+      <c r="AU17" s="3">
         <f t="shared" si="28"/>
-        <v>40</v>
-      </c>
-      <c r="AU17" s="3">
-        <f t="shared" si="29"/>
         <v>49</v>
       </c>
     </row>
@@ -19306,7 +19430,7 @@
         <v>1173</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="29"/>
         <v>1184</v>
       </c>
       <c r="E18" s="3">
@@ -19314,123 +19438,125 @@
         <v>767</v>
       </c>
       <c r="F18" s="3">
+        <f t="shared" si="2"/>
+        <v>1376</v>
+      </c>
+      <c r="G18" s="3">
         <f t="shared" si="3"/>
-        <v>1376</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="4"/>
         <v>853</v>
       </c>
       <c r="J18" s="1">
         <v>43938</v>
       </c>
       <c r="K18" s="3">
+        <f t="shared" si="4"/>
+        <v>454</v>
+      </c>
+      <c r="L18" s="3">
         <f t="shared" si="5"/>
-        <v>454</v>
-      </c>
-      <c r="L18" s="3">
-        <f t="shared" si="6"/>
         <v>471</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3">
+        <v>588</v>
+      </c>
       <c r="N18" s="3">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="O18" s="3">
         <f t="shared" si="8"/>
-        <v>525</v>
-      </c>
-      <c r="O18" s="3">
-        <f t="shared" si="9"/>
         <v>287</v>
       </c>
       <c r="R18" s="1">
         <v>43938</v>
       </c>
       <c r="S18" s="3">
+        <f t="shared" si="9"/>
+        <v>452</v>
+      </c>
+      <c r="T18" s="3">
         <f t="shared" si="10"/>
-        <v>452</v>
-      </c>
-      <c r="T18" s="3">
+        <v>538</v>
+      </c>
+      <c r="U18" s="3">
         <f t="shared" si="11"/>
-        <v>538</v>
-      </c>
-      <c r="U18" s="3">
+        <v>339</v>
+      </c>
+      <c r="V18" s="3">
         <f t="shared" si="12"/>
-        <v>339</v>
-      </c>
-      <c r="V18" s="3">
+        <v>157</v>
+      </c>
+      <c r="W18" s="3">
         <f t="shared" si="13"/>
-        <v>157</v>
-      </c>
-      <c r="W18" s="3">
-        <f t="shared" si="14"/>
         <v>262</v>
       </c>
       <c r="Z18" s="1">
         <v>43938</v>
       </c>
       <c r="AA18" s="3">
+        <f t="shared" si="14"/>
+        <v>231</v>
+      </c>
+      <c r="AB18" s="3">
         <f t="shared" si="15"/>
-        <v>231</v>
-      </c>
-      <c r="AB18" s="3">
+        <v>123</v>
+      </c>
+      <c r="AC18" s="3">
         <f t="shared" si="16"/>
-        <v>123</v>
-      </c>
-      <c r="AC18" s="3">
+        <v>153</v>
+      </c>
+      <c r="AD18" s="3">
         <f t="shared" si="17"/>
-        <v>153</v>
-      </c>
-      <c r="AD18" s="3">
+        <v>50</v>
+      </c>
+      <c r="AE18" s="3">
         <f t="shared" si="18"/>
-        <v>50</v>
-      </c>
-      <c r="AE18" s="3">
-        <f t="shared" si="19"/>
         <v>29</v>
       </c>
       <c r="AH18" s="1">
         <v>43938</v>
       </c>
       <c r="AI18" s="3">
+        <f t="shared" si="19"/>
+        <v>879</v>
+      </c>
+      <c r="AJ18" s="3">
         <f t="shared" si="20"/>
-        <v>879</v>
-      </c>
-      <c r="AJ18" s="3">
+        <v>140</v>
+      </c>
+      <c r="AK18" s="3">
         <f t="shared" si="21"/>
-        <v>140</v>
-      </c>
-      <c r="AK18" s="3">
+        <v>282</v>
+      </c>
+      <c r="AL18" s="3">
         <f t="shared" si="22"/>
-        <v>282</v>
-      </c>
-      <c r="AL18" s="3">
+        <v>93</v>
+      </c>
+      <c r="AM18" s="3">
         <f t="shared" si="23"/>
-        <v>93</v>
-      </c>
-      <c r="AM18" s="3">
-        <f t="shared" si="24"/>
         <v>118</v>
       </c>
       <c r="AP18" s="1">
         <v>43938</v>
       </c>
       <c r="AQ18" s="3">
+        <f t="shared" si="24"/>
+        <v>568</v>
+      </c>
+      <c r="AR18" s="3">
         <f t="shared" si="25"/>
-        <v>568</v>
-      </c>
-      <c r="AR18" s="3">
+        <v>71</v>
+      </c>
+      <c r="AS18" s="3">
         <f t="shared" si="26"/>
-        <v>71</v>
-      </c>
-      <c r="AS18" s="3">
+        <v>167</v>
+      </c>
+      <c r="AT18" s="3">
         <f t="shared" si="27"/>
-        <v>167</v>
-      </c>
-      <c r="AT18" s="3">
+        <v>37</v>
+      </c>
+      <c r="AU18" s="3">
         <f t="shared" si="28"/>
-        <v>37</v>
-      </c>
-      <c r="AU18" s="3">
-        <f t="shared" si="29"/>
         <v>76</v>
       </c>
     </row>
@@ -19443,7 +19569,7 @@
         <v>1125</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="29"/>
         <v>1058</v>
       </c>
       <c r="E19" s="3">
@@ -19451,80 +19577,79 @@
         <v>641</v>
       </c>
       <c r="F19" s="3">
+        <f t="shared" si="2"/>
+        <v>1002</v>
+      </c>
+      <c r="G19" s="3">
         <f t="shared" si="3"/>
-        <v>1002</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="4"/>
         <v>1108</v>
       </c>
       <c r="J19" s="1">
         <v>43939</v>
       </c>
       <c r="K19" s="3">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="L19" s="3">
         <f t="shared" si="5"/>
-        <v>300</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" si="6"/>
         <v>320</v>
       </c>
       <c r="M19" s="3">
-        <f>SUM(H147-H146)</f>
-        <v>340</v>
+        <v>229</v>
       </c>
       <c r="N19" s="3">
+        <f t="shared" si="7"/>
+        <v>530</v>
+      </c>
+      <c r="O19" s="3">
         <f t="shared" si="8"/>
-        <v>530</v>
-      </c>
-      <c r="O19" s="3">
-        <f t="shared" si="9"/>
         <v>332</v>
       </c>
       <c r="R19" s="1">
         <v>43939</v>
       </c>
       <c r="S19" s="3">
+        <f t="shared" si="9"/>
+        <v>424</v>
+      </c>
+      <c r="T19" s="3">
         <f t="shared" si="10"/>
-        <v>424</v>
-      </c>
-      <c r="T19" s="3">
+        <v>553</v>
+      </c>
+      <c r="U19" s="3">
         <f t="shared" si="11"/>
-        <v>553</v>
-      </c>
-      <c r="U19" s="3">
+        <v>330</v>
+      </c>
+      <c r="V19" s="3">
         <f t="shared" si="12"/>
-        <v>330</v>
-      </c>
-      <c r="V19" s="3">
+        <v>160</v>
+      </c>
+      <c r="W19" s="3">
         <f t="shared" si="13"/>
-        <v>160</v>
-      </c>
-      <c r="W19" s="3">
-        <f t="shared" si="14"/>
         <v>187</v>
       </c>
       <c r="Z19" s="1">
         <v>43939</v>
       </c>
       <c r="AA19" s="3">
+        <f t="shared" si="14"/>
+        <v>238</v>
+      </c>
+      <c r="AB19" s="3">
         <f t="shared" si="15"/>
-        <v>238</v>
-      </c>
-      <c r="AB19" s="3">
+        <v>120</v>
+      </c>
+      <c r="AC19" s="3">
         <f t="shared" si="16"/>
-        <v>120</v>
-      </c>
-      <c r="AC19" s="3">
+        <v>106</v>
+      </c>
+      <c r="AD19" s="3">
         <f t="shared" si="17"/>
-        <v>106</v>
-      </c>
-      <c r="AD19" s="3">
+        <v>31</v>
+      </c>
+      <c r="AE19" s="3">
         <f t="shared" si="18"/>
-        <v>31</v>
-      </c>
-      <c r="AE19" s="3">
-        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="AH19" s="1">
@@ -19564,8 +19689,7 @@
       </c>
       <c r="AT19" s="3"/>
       <c r="AU19" s="3">
-        <f>SUM(AD169-AD168)</f>
-        <v>135</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:47" x14ac:dyDescent="0.2">
@@ -19579,86 +19703,87 @@
         <v>833</v>
       </c>
       <c r="F20" s="3">
+        <f t="shared" si="2"/>
+        <v>859</v>
+      </c>
+      <c r="G20" s="3">
         <f t="shared" si="3"/>
-        <v>859</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="4"/>
         <v>745</v>
       </c>
       <c r="J20" s="2">
         <v>43940</v>
       </c>
       <c r="K20" s="3">
+        <f t="shared" si="4"/>
+        <v>476</v>
+      </c>
+      <c r="L20" s="3">
         <f t="shared" si="5"/>
-        <v>476</v>
-      </c>
-      <c r="L20" s="3">
-        <f t="shared" si="6"/>
         <v>530</v>
       </c>
       <c r="M20" s="3">
-        <f>SUM(H148-H147)</f>
-        <v>584</v>
+        <v>403</v>
       </c>
       <c r="N20" s="3">
+        <f t="shared" si="7"/>
+        <v>650</v>
+      </c>
+      <c r="O20" s="3">
         <f t="shared" si="8"/>
-        <v>650</v>
-      </c>
-      <c r="O20" s="3">
-        <f t="shared" si="9"/>
         <v>352</v>
       </c>
       <c r="R20" s="2">
         <v>43940</v>
       </c>
       <c r="S20" s="3">
+        <f t="shared" si="9"/>
+        <v>378</v>
+      </c>
+      <c r="T20" s="3">
         <f t="shared" si="10"/>
-        <v>378</v>
-      </c>
-      <c r="T20" s="3">
+        <v>440</v>
+      </c>
+      <c r="U20" s="3">
         <f t="shared" si="11"/>
-        <v>440</v>
-      </c>
-      <c r="U20" s="3">
+        <v>239</v>
+      </c>
+      <c r="V20" s="3">
         <f t="shared" si="12"/>
-        <v>239</v>
-      </c>
-      <c r="V20" s="3">
+        <v>130</v>
+      </c>
+      <c r="W20" s="3">
         <f t="shared" si="13"/>
-        <v>130</v>
-      </c>
-      <c r="W20" s="3">
-        <f t="shared" si="14"/>
         <v>117</v>
       </c>
       <c r="Z20" s="2">
         <v>43940</v>
       </c>
       <c r="AA20" s="3">
+        <f t="shared" si="14"/>
+        <v>221</v>
+      </c>
+      <c r="AB20" s="3">
         <f t="shared" si="15"/>
-        <v>221</v>
-      </c>
-      <c r="AB20" s="3">
+        <v>88</v>
+      </c>
+      <c r="AC20" s="3">
         <f t="shared" si="16"/>
-        <v>88</v>
-      </c>
-      <c r="AC20" s="3">
+        <v>109</v>
+      </c>
+      <c r="AD20" s="3">
         <f t="shared" si="17"/>
-        <v>109</v>
-      </c>
-      <c r="AD20" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE20" s="3">
         <f t="shared" si="18"/>
-        <v>12</v>
-      </c>
-      <c r="AE20" s="3">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AH20" s="2">
         <v>43940</v>
       </c>
-      <c r="AI20" s="3"/>
+      <c r="AI20" s="3">
+        <v>651</v>
+      </c>
       <c r="AJ20" s="3">
         <f t="shared" si="31"/>
         <v>132</v>
@@ -19691,7 +19816,9 @@
         <v>59</v>
       </c>
       <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
+      <c r="AU20" s="3">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
@@ -19704,77 +19831,79 @@
         <v>664</v>
       </c>
       <c r="F21" s="3">
+        <f t="shared" si="2"/>
+        <v>497</v>
+      </c>
+      <c r="G21" s="3">
         <f t="shared" si="3"/>
-        <v>497</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="4"/>
         <v>774</v>
       </c>
       <c r="J21" s="1">
         <v>43941</v>
       </c>
       <c r="K21" s="3">
+        <f t="shared" si="4"/>
+        <v>372</v>
+      </c>
+      <c r="L21" s="3">
         <f t="shared" si="5"/>
-        <v>372</v>
-      </c>
-      <c r="L21" s="3">
-        <f t="shared" si="6"/>
         <v>664</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="3">
+        <v>425</v>
+      </c>
       <c r="N21" s="3">
+        <f t="shared" si="7"/>
+        <v>363</v>
+      </c>
+      <c r="O21" s="3">
         <f t="shared" si="8"/>
-        <v>363</v>
-      </c>
-      <c r="O21" s="3">
-        <f t="shared" si="9"/>
         <v>191</v>
       </c>
       <c r="R21" s="1">
         <v>43941</v>
       </c>
       <c r="S21" s="3">
+        <f t="shared" si="9"/>
+        <v>240</v>
+      </c>
+      <c r="T21" s="3">
         <f t="shared" si="10"/>
-        <v>240</v>
-      </c>
-      <c r="T21" s="3">
+        <v>516</v>
+      </c>
+      <c r="U21" s="3">
         <f t="shared" si="11"/>
-        <v>516</v>
-      </c>
-      <c r="U21" s="3">
+        <v>143</v>
+      </c>
+      <c r="V21" s="3">
         <f t="shared" si="12"/>
-        <v>143</v>
-      </c>
-      <c r="V21" s="3">
+        <v>171</v>
+      </c>
+      <c r="W21" s="3">
         <f t="shared" si="13"/>
-        <v>171</v>
-      </c>
-      <c r="W21" s="3">
-        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="Z21" s="1">
         <v>43941</v>
       </c>
       <c r="AA21" s="3">
+        <f t="shared" si="14"/>
+        <v>220</v>
+      </c>
+      <c r="AB21" s="3">
         <f t="shared" si="15"/>
-        <v>220</v>
-      </c>
-      <c r="AB21" s="3">
+        <v>69</v>
+      </c>
+      <c r="AC21" s="3">
         <f t="shared" si="16"/>
-        <v>69</v>
-      </c>
-      <c r="AC21" s="3">
+        <v>65</v>
+      </c>
+      <c r="AD21" s="3">
         <f t="shared" si="17"/>
-        <v>65</v>
-      </c>
-      <c r="AD21" s="3">
+        <v>16</v>
+      </c>
+      <c r="AE21" s="3">
         <f t="shared" si="18"/>
-        <v>16</v>
-      </c>
-      <c r="AE21" s="3">
-        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="AH21" s="1">
@@ -19816,7 +19945,9 @@
         <f t="shared" ref="AT21:AT56" si="36">SUM(AC171-AC170)</f>
         <v>42</v>
       </c>
-      <c r="AU21" s="3"/>
+      <c r="AU21" s="3">
+        <v>88</v>
+      </c>
     </row>
     <row r="22" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
@@ -19835,22 +19966,22 @@
         <v>402</v>
       </c>
       <c r="F22" s="3">
+        <f t="shared" si="2"/>
+        <v>617</v>
+      </c>
+      <c r="G22" s="3">
         <f t="shared" si="3"/>
-        <v>617</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="4"/>
         <v>492</v>
       </c>
       <c r="J22" s="1">
         <v>43942</v>
       </c>
       <c r="K22" s="3">
+        <f t="shared" si="4"/>
+        <v>345</v>
+      </c>
+      <c r="L22" s="3">
         <f t="shared" si="5"/>
-        <v>345</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" si="6"/>
         <v>486</v>
       </c>
       <c r="M22" s="3">
@@ -19858,57 +19989,57 @@
         <v>399</v>
       </c>
       <c r="N22" s="3">
+        <f t="shared" si="7"/>
+        <v>317</v>
+      </c>
+      <c r="O22" s="3">
         <f t="shared" si="8"/>
-        <v>317</v>
-      </c>
-      <c r="O22" s="3">
-        <f t="shared" si="9"/>
         <v>462</v>
       </c>
       <c r="R22" s="1">
         <v>43942</v>
       </c>
       <c r="S22" s="3">
+        <f t="shared" si="9"/>
+        <v>355</v>
+      </c>
+      <c r="T22" s="3">
         <f t="shared" si="10"/>
-        <v>355</v>
-      </c>
-      <c r="T22" s="3">
+        <v>368</v>
+      </c>
+      <c r="U22" s="3">
         <f t="shared" si="11"/>
-        <v>368</v>
-      </c>
-      <c r="U22" s="3">
+        <v>225</v>
+      </c>
+      <c r="V22" s="3">
         <f t="shared" si="12"/>
-        <v>225</v>
-      </c>
-      <c r="V22" s="3">
+        <v>102</v>
+      </c>
+      <c r="W22" s="3">
         <f t="shared" si="13"/>
-        <v>102</v>
-      </c>
-      <c r="W22" s="3">
-        <f t="shared" si="14"/>
         <v>162</v>
       </c>
       <c r="Z22" s="1">
         <v>43942</v>
       </c>
       <c r="AA22" s="3">
+        <f t="shared" si="14"/>
+        <v>343</v>
+      </c>
+      <c r="AB22" s="3">
         <f t="shared" si="15"/>
-        <v>343</v>
-      </c>
-      <c r="AB22" s="3">
+        <v>128</v>
+      </c>
+      <c r="AC22" s="3">
         <f t="shared" si="16"/>
-        <v>128</v>
-      </c>
-      <c r="AC22" s="3">
+        <v>119</v>
+      </c>
+      <c r="AD22" s="3">
         <f t="shared" si="17"/>
-        <v>119</v>
-      </c>
-      <c r="AD22" s="3">
+        <v>42</v>
+      </c>
+      <c r="AE22" s="3">
         <f t="shared" si="18"/>
-        <v>42</v>
-      </c>
-      <c r="AE22" s="3">
-        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="AH22" s="1">
@@ -19972,22 +20103,22 @@
         <v>476</v>
       </c>
       <c r="F23" s="3">
+        <f t="shared" si="2"/>
+        <v>879</v>
+      </c>
+      <c r="G23" s="3">
         <f t="shared" si="3"/>
-        <v>879</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="4"/>
         <v>700</v>
       </c>
       <c r="J23" s="1">
         <v>43943</v>
       </c>
       <c r="K23" s="3">
+        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="L23" s="3">
         <f t="shared" si="5"/>
-        <v>330</v>
-      </c>
-      <c r="L23" s="3">
-        <f t="shared" si="6"/>
         <v>403</v>
       </c>
       <c r="M23" s="3">
@@ -19995,40 +20126,42 @@
         <v>259</v>
       </c>
       <c r="N23" s="3">
+        <f t="shared" si="7"/>
+        <v>195</v>
+      </c>
+      <c r="O23" s="3">
         <f t="shared" si="8"/>
-        <v>195</v>
-      </c>
-      <c r="O23" s="3">
-        <f t="shared" si="9"/>
         <v>451</v>
       </c>
       <c r="R23" s="1">
         <v>43943</v>
       </c>
       <c r="S23" s="3">
+        <f t="shared" si="9"/>
+        <v>391</v>
+      </c>
+      <c r="T23" s="3">
         <f t="shared" si="10"/>
-        <v>391</v>
-      </c>
-      <c r="T23" s="3">
+        <v>473</v>
+      </c>
+      <c r="U23" s="3">
         <f t="shared" si="11"/>
-        <v>473</v>
-      </c>
-      <c r="U23" s="3">
+        <v>262</v>
+      </c>
+      <c r="V23" s="3">
         <f t="shared" si="12"/>
-        <v>262</v>
-      </c>
-      <c r="V23" s="3">
+        <v>150</v>
+      </c>
+      <c r="W23" s="3">
         <f t="shared" si="13"/>
-        <v>150</v>
-      </c>
-      <c r="W23" s="3">
-        <f t="shared" si="14"/>
         <v>115</v>
       </c>
       <c r="Z23" s="1">
         <v>43943</v>
       </c>
-      <c r="AA23" s="3"/>
+      <c r="AA23" s="3">
+        <v>306</v>
+      </c>
       <c r="AB23" s="3">
         <f t="shared" ref="AB23:AE26" si="41">SUM(Q164-Q163)</f>
         <v>157</v>
@@ -20109,22 +20242,22 @@
         <v>569</v>
       </c>
       <c r="F24" s="3">
+        <f t="shared" si="2"/>
+        <v>791</v>
+      </c>
+      <c r="G24" s="3">
         <f t="shared" si="3"/>
-        <v>791</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" si="4"/>
         <v>713</v>
       </c>
       <c r="J24" s="1">
         <v>43944</v>
       </c>
       <c r="K24" s="3">
+        <f t="shared" si="4"/>
+        <v>363</v>
+      </c>
+      <c r="L24" s="3">
         <f t="shared" si="5"/>
-        <v>363</v>
-      </c>
-      <c r="L24" s="3">
-        <f t="shared" si="6"/>
         <v>606</v>
       </c>
       <c r="M24" s="3">
@@ -20132,40 +20265,42 @@
         <v>424</v>
       </c>
       <c r="N24" s="3">
+        <f t="shared" si="7"/>
+        <v>451</v>
+      </c>
+      <c r="O24" s="3">
         <f t="shared" si="8"/>
-        <v>451</v>
-      </c>
-      <c r="O24" s="3">
-        <f t="shared" si="9"/>
         <v>482</v>
       </c>
       <c r="R24" s="1">
         <v>43944</v>
       </c>
       <c r="S24" s="3">
+        <f t="shared" si="9"/>
+        <v>679</v>
+      </c>
+      <c r="T24" s="3">
         <f t="shared" si="10"/>
-        <v>679</v>
-      </c>
-      <c r="T24" s="3">
+        <v>630</v>
+      </c>
+      <c r="U24" s="3">
         <f t="shared" si="11"/>
-        <v>630</v>
-      </c>
-      <c r="U24" s="3">
+        <v>436</v>
+      </c>
+      <c r="V24" s="3">
         <f t="shared" si="12"/>
-        <v>436</v>
-      </c>
-      <c r="V24" s="3">
+        <v>329</v>
+      </c>
+      <c r="W24" s="3">
         <f t="shared" si="13"/>
-        <v>329</v>
-      </c>
-      <c r="W24" s="3">
-        <f t="shared" si="14"/>
         <v>342</v>
       </c>
       <c r="Z24" s="1">
         <v>43944</v>
       </c>
-      <c r="AA24" s="3"/>
+      <c r="AA24" s="3">
+        <v>433</v>
+      </c>
       <c r="AB24" s="3">
         <f t="shared" si="41"/>
         <v>171</v>
@@ -20246,22 +20381,22 @@
         <v>641</v>
       </c>
       <c r="F25" s="3">
+        <f t="shared" si="2"/>
+        <v>1042</v>
+      </c>
+      <c r="G25" s="3">
         <f t="shared" si="3"/>
-        <v>1042</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="4"/>
         <v>1039</v>
       </c>
       <c r="J25" s="1">
         <v>43945</v>
       </c>
       <c r="K25" s="3">
+        <f t="shared" si="4"/>
+        <v>314</v>
+      </c>
+      <c r="L25" s="3">
         <f t="shared" si="5"/>
-        <v>314</v>
-      </c>
-      <c r="L25" s="3">
-        <f t="shared" si="6"/>
         <v>366</v>
       </c>
       <c r="M25" s="3">
@@ -20269,42 +20404,41 @@
         <v>299</v>
       </c>
       <c r="N25" s="3">
+        <f t="shared" si="7"/>
+        <v>273</v>
+      </c>
+      <c r="O25" s="3">
         <f t="shared" si="8"/>
-        <v>273</v>
-      </c>
-      <c r="O25" s="3">
-        <f t="shared" si="9"/>
         <v>417</v>
       </c>
       <c r="R25" s="1">
         <v>43945</v>
       </c>
       <c r="S25" s="3">
+        <f t="shared" si="9"/>
+        <v>985</v>
+      </c>
+      <c r="T25" s="3">
         <f t="shared" si="10"/>
-        <v>985</v>
-      </c>
-      <c r="T25" s="3">
+        <v>957</v>
+      </c>
+      <c r="U25" s="3">
         <f t="shared" si="11"/>
-        <v>957</v>
-      </c>
-      <c r="U25" s="3">
+        <v>622</v>
+      </c>
+      <c r="V25" s="3">
         <f t="shared" si="12"/>
-        <v>622</v>
-      </c>
-      <c r="V25" s="3">
+        <v>438</v>
+      </c>
+      <c r="W25" s="3">
         <f t="shared" si="13"/>
-        <v>438</v>
-      </c>
-      <c r="W25" s="3">
-        <f t="shared" si="14"/>
         <v>429</v>
       </c>
       <c r="Z25" s="1">
         <v>43945</v>
       </c>
       <c r="AA25" s="3">
-        <f t="shared" ref="AA25:AA46" si="43">SUM(P166-P165)</f>
-        <v>846</v>
+        <v>413</v>
       </c>
       <c r="AB25" s="3">
         <f t="shared" si="41"/>
@@ -20357,8 +20491,7 @@
         <v>183</v>
       </c>
       <c r="AS25" s="3">
-        <f t="shared" si="35"/>
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="AT25" s="3">
         <f t="shared" si="36"/>
@@ -20386,22 +20519,22 @@
         <v>1033</v>
       </c>
       <c r="F26" s="3">
+        <f t="shared" si="2"/>
+        <v>1482</v>
+      </c>
+      <c r="G26" s="3">
         <f t="shared" si="3"/>
-        <v>1482</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="4"/>
         <v>762</v>
       </c>
       <c r="J26" s="1">
         <v>43946</v>
       </c>
       <c r="K26" s="3">
+        <f t="shared" si="4"/>
+        <v>375</v>
+      </c>
+      <c r="L26" s="3">
         <f t="shared" si="5"/>
-        <v>375</v>
-      </c>
-      <c r="L26" s="3">
-        <f t="shared" si="6"/>
         <v>356</v>
       </c>
       <c r="M26" s="3">
@@ -20409,41 +20542,41 @@
         <v>410</v>
       </c>
       <c r="N26" s="3">
+        <f t="shared" si="7"/>
+        <v>315</v>
+      </c>
+      <c r="O26" s="3">
         <f t="shared" si="8"/>
-        <v>315</v>
-      </c>
-      <c r="O26" s="3">
-        <f t="shared" si="9"/>
         <v>447</v>
       </c>
       <c r="R26" s="1">
         <v>43946</v>
       </c>
       <c r="S26" s="3">
+        <f t="shared" si="9"/>
+        <v>494</v>
+      </c>
+      <c r="T26" s="3">
         <f t="shared" si="10"/>
-        <v>494</v>
-      </c>
-      <c r="T26" s="3">
+        <v>572</v>
+      </c>
+      <c r="U26" s="3">
         <f t="shared" si="11"/>
-        <v>572</v>
-      </c>
-      <c r="U26" s="3">
+        <v>371</v>
+      </c>
+      <c r="V26" s="3">
         <f t="shared" si="12"/>
-        <v>371</v>
-      </c>
-      <c r="V26" s="3">
+        <v>193</v>
+      </c>
+      <c r="W26" s="3">
         <f t="shared" si="13"/>
-        <v>193</v>
-      </c>
-      <c r="W26" s="3">
-        <f t="shared" si="14"/>
         <v>233</v>
       </c>
       <c r="Z26" s="1">
         <v>43946</v>
       </c>
       <c r="AA26" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="AA25:AA46" si="43">SUM(P167-P166)</f>
         <v>141</v>
       </c>
       <c r="AB26" s="3">
@@ -20496,7 +20629,9 @@
         <f t="shared" ref="AR26:AR56" si="45">SUM(AA176-AA175)</f>
         <v>117</v>
       </c>
-      <c r="AS26" s="3"/>
+      <c r="AS26" s="3">
+        <v>97</v>
+      </c>
       <c r="AT26" s="3">
         <f t="shared" si="36"/>
         <v>19</v>
@@ -20523,22 +20658,22 @@
         <v>724</v>
       </c>
       <c r="F27" s="3">
+        <f t="shared" si="2"/>
+        <v>787</v>
+      </c>
+      <c r="G27" s="3">
         <f t="shared" si="3"/>
-        <v>787</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="4"/>
         <v>691</v>
       </c>
       <c r="J27" s="1">
         <v>43947</v>
       </c>
       <c r="K27" s="3">
+        <f t="shared" si="4"/>
+        <v>227</v>
+      </c>
+      <c r="L27" s="3">
         <f t="shared" si="5"/>
-        <v>227</v>
-      </c>
-      <c r="L27" s="3">
-        <f t="shared" si="6"/>
         <v>341</v>
       </c>
       <c r="M27" s="3">
@@ -20546,34 +20681,34 @@
         <v>343</v>
       </c>
       <c r="N27" s="3">
+        <f t="shared" si="7"/>
+        <v>330</v>
+      </c>
+      <c r="O27" s="3">
         <f t="shared" si="8"/>
-        <v>330</v>
-      </c>
-      <c r="O27" s="3">
-        <f t="shared" si="9"/>
         <v>399</v>
       </c>
       <c r="R27" s="1">
         <v>43947</v>
       </c>
       <c r="S27" s="3">
+        <f t="shared" si="9"/>
+        <v>325</v>
+      </c>
+      <c r="T27" s="3">
         <f t="shared" si="10"/>
-        <v>325</v>
-      </c>
-      <c r="T27" s="3">
+        <v>395</v>
+      </c>
+      <c r="U27" s="3">
         <f t="shared" si="11"/>
-        <v>395</v>
-      </c>
-      <c r="U27" s="3">
+        <v>277</v>
+      </c>
+      <c r="V27" s="3">
         <f t="shared" si="12"/>
-        <v>277</v>
-      </c>
-      <c r="V27" s="3">
+        <v>116</v>
+      </c>
+      <c r="W27" s="3">
         <f t="shared" si="13"/>
-        <v>116</v>
-      </c>
-      <c r="W27" s="3">
-        <f t="shared" si="14"/>
         <v>112</v>
       </c>
       <c r="Z27" s="1">
@@ -20630,7 +20765,9 @@
         <f t="shared" si="45"/>
         <v>100</v>
       </c>
-      <c r="AS27" s="3"/>
+      <c r="AS27" s="3">
+        <v>248</v>
+      </c>
       <c r="AT27" s="3">
         <f t="shared" si="36"/>
         <v>52</v>
@@ -20657,22 +20794,22 @@
         <v>343</v>
       </c>
       <c r="F28" s="3">
+        <f t="shared" si="2"/>
+        <v>586</v>
+      </c>
+      <c r="G28" s="3">
         <f t="shared" si="3"/>
-        <v>586</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="4"/>
         <v>411</v>
       </c>
       <c r="J28" s="1">
         <v>43948</v>
       </c>
       <c r="K28" s="3">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="L28" s="3">
         <f t="shared" si="5"/>
-        <v>139</v>
-      </c>
-      <c r="L28" s="3">
-        <f t="shared" si="6"/>
         <v>217</v>
       </c>
       <c r="M28" s="3">
@@ -20680,34 +20817,34 @@
         <v>184</v>
       </c>
       <c r="N28" s="3">
+        <f t="shared" si="7"/>
+        <v>158</v>
+      </c>
+      <c r="O28" s="3">
         <f t="shared" si="8"/>
-        <v>158</v>
-      </c>
-      <c r="O28" s="3">
-        <f t="shared" si="9"/>
         <v>212</v>
       </c>
       <c r="R28" s="1">
         <v>43948</v>
       </c>
       <c r="S28" s="3">
+        <f t="shared" si="9"/>
+        <v>340</v>
+      </c>
+      <c r="T28" s="3">
         <f t="shared" si="10"/>
-        <v>340</v>
-      </c>
-      <c r="T28" s="3">
+        <v>305</v>
+      </c>
+      <c r="U28" s="3">
         <f t="shared" si="11"/>
-        <v>305</v>
-      </c>
-      <c r="U28" s="3">
+        <v>219</v>
+      </c>
+      <c r="V28" s="3">
         <f t="shared" si="12"/>
-        <v>219</v>
-      </c>
-      <c r="V28" s="3">
+        <v>110</v>
+      </c>
+      <c r="W28" s="3">
         <f t="shared" si="13"/>
-        <v>110</v>
-      </c>
-      <c r="W28" s="3">
-        <f t="shared" si="14"/>
         <v>172</v>
       </c>
       <c r="Z28" s="1">
@@ -20761,10 +20898,7 @@
         <f t="shared" si="45"/>
         <v>98</v>
       </c>
-      <c r="AS28" s="3">
-        <f t="shared" ref="AS28:AS56" si="47">SUM(AB178-AB177)</f>
-        <v>80</v>
-      </c>
+      <c r="AS28" s="3"/>
       <c r="AT28" s="3">
         <f t="shared" si="36"/>
         <v>7</v>
@@ -20791,22 +20925,22 @@
         <v>220</v>
       </c>
       <c r="F29" s="3">
+        <f t="shared" si="2"/>
+        <v>438</v>
+      </c>
+      <c r="G29" s="3">
         <f t="shared" si="3"/>
-        <v>438</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="4"/>
         <v>254</v>
       </c>
       <c r="J29" s="1">
         <v>43949</v>
       </c>
       <c r="K29" s="3">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="L29" s="3">
         <f t="shared" si="5"/>
-        <v>147</v>
-      </c>
-      <c r="L29" s="3">
-        <f t="shared" si="6"/>
         <v>384</v>
       </c>
       <c r="M29" s="3">
@@ -20814,34 +20948,34 @@
         <v>143</v>
       </c>
       <c r="N29" s="3">
+        <f t="shared" si="7"/>
+        <v>177</v>
+      </c>
+      <c r="O29" s="3">
         <f t="shared" si="8"/>
-        <v>177</v>
-      </c>
-      <c r="O29" s="3">
-        <f t="shared" si="9"/>
         <v>406</v>
       </c>
       <c r="R29" s="1">
         <v>43949</v>
       </c>
       <c r="S29" s="3">
+        <f t="shared" si="9"/>
+        <v>257</v>
+      </c>
+      <c r="T29" s="3">
         <f t="shared" si="10"/>
-        <v>257</v>
-      </c>
-      <c r="T29" s="3">
+        <v>464</v>
+      </c>
+      <c r="U29" s="3">
         <f t="shared" si="11"/>
-        <v>464</v>
-      </c>
-      <c r="U29" s="3">
+        <v>264</v>
+      </c>
+      <c r="V29" s="3">
         <f t="shared" si="12"/>
-        <v>264</v>
-      </c>
-      <c r="V29" s="3">
+        <v>169</v>
+      </c>
+      <c r="W29" s="3">
         <f t="shared" si="13"/>
-        <v>169</v>
-      </c>
-      <c r="W29" s="3">
-        <f t="shared" si="14"/>
         <v>255</v>
       </c>
       <c r="Z29" s="1">
@@ -20861,7 +20995,7 @@
         <v>50</v>
       </c>
       <c r="AE29" s="3">
-        <f t="shared" ref="AE29:AE56" si="48">SUM(T170-T169)</f>
+        <f t="shared" ref="AE29:AE56" si="47">SUM(T170-T169)</f>
         <v>29</v>
       </c>
       <c r="AH29" s="1">
@@ -20898,10 +21032,7 @@
         <f t="shared" si="45"/>
         <v>173</v>
       </c>
-      <c r="AS29" s="3">
-        <f t="shared" si="47"/>
-        <v>123</v>
-      </c>
+      <c r="AS29" s="3"/>
       <c r="AT29" s="3">
         <f t="shared" si="36"/>
         <v>26</v>
@@ -20928,22 +21059,22 @@
         <v>420</v>
       </c>
       <c r="F30" s="3">
+        <f t="shared" si="2"/>
+        <v>606</v>
+      </c>
+      <c r="G30" s="3">
         <f t="shared" si="3"/>
-        <v>606</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="4"/>
         <v>541</v>
       </c>
       <c r="J30" s="1">
         <v>43950</v>
       </c>
       <c r="K30" s="3">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
+      <c r="L30" s="3">
         <f t="shared" si="5"/>
-        <v>195</v>
-      </c>
-      <c r="L30" s="3">
-        <f t="shared" si="6"/>
         <v>287</v>
       </c>
       <c r="M30" s="3">
@@ -20951,34 +21082,34 @@
         <v>255</v>
       </c>
       <c r="N30" s="3">
+        <f t="shared" si="7"/>
+        <v>192</v>
+      </c>
+      <c r="O30" s="3">
         <f t="shared" si="8"/>
-        <v>192</v>
-      </c>
-      <c r="O30" s="3">
-        <f t="shared" si="9"/>
         <v>430</v>
       </c>
       <c r="R30" s="1">
         <v>43950</v>
       </c>
       <c r="S30" s="3">
+        <f t="shared" si="9"/>
+        <v>399</v>
+      </c>
+      <c r="T30" s="3">
         <f t="shared" si="10"/>
-        <v>399</v>
-      </c>
-      <c r="T30" s="3">
+        <v>382</v>
+      </c>
+      <c r="U30" s="3">
         <f t="shared" si="11"/>
-        <v>382</v>
-      </c>
-      <c r="U30" s="3">
+        <v>408</v>
+      </c>
+      <c r="V30" s="3">
         <f t="shared" si="12"/>
-        <v>408</v>
-      </c>
-      <c r="V30" s="3">
+        <v>133</v>
+      </c>
+      <c r="W30" s="3">
         <f t="shared" si="13"/>
-        <v>133</v>
-      </c>
-      <c r="W30" s="3">
-        <f t="shared" si="14"/>
         <v>301</v>
       </c>
       <c r="Z30" s="1">
@@ -21001,7 +21132,7 @@
         <v>31</v>
       </c>
       <c r="AE30" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>16</v>
       </c>
       <c r="AH30" s="1">
@@ -21039,8 +21170,7 @@
         <v>118</v>
       </c>
       <c r="AS30" s="3">
-        <f t="shared" si="47"/>
-        <v>196</v>
+        <v>57</v>
       </c>
       <c r="AT30" s="3">
         <f t="shared" si="36"/>
@@ -21068,22 +21198,22 @@
         <v>349</v>
       </c>
       <c r="F31" s="3">
+        <f t="shared" si="2"/>
+        <v>644</v>
+      </c>
+      <c r="G31" s="3">
         <f t="shared" si="3"/>
-        <v>644</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="4"/>
         <v>399</v>
       </c>
       <c r="J31" s="1">
         <v>43951</v>
       </c>
       <c r="K31" s="3">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="L31" s="3">
         <f t="shared" si="5"/>
-        <v>164</v>
-      </c>
-      <c r="L31" s="3">
-        <f t="shared" si="6"/>
         <v>320</v>
       </c>
       <c r="M31" s="3">
@@ -21091,34 +21221,34 @@
         <v>237</v>
       </c>
       <c r="N31" s="3">
+        <f t="shared" si="7"/>
+        <v>198</v>
+      </c>
+      <c r="O31" s="3">
         <f t="shared" si="8"/>
-        <v>198</v>
-      </c>
-      <c r="O31" s="3">
-        <f t="shared" si="9"/>
         <v>264</v>
       </c>
       <c r="R31" s="1">
         <v>43951</v>
       </c>
       <c r="S31" s="3">
+        <f t="shared" si="9"/>
+        <v>351</v>
+      </c>
+      <c r="T31" s="3">
         <f t="shared" si="10"/>
-        <v>351</v>
-      </c>
-      <c r="T31" s="3">
+        <v>409</v>
+      </c>
+      <c r="U31" s="3">
         <f t="shared" si="11"/>
-        <v>409</v>
-      </c>
-      <c r="U31" s="3">
+        <v>293</v>
+      </c>
+      <c r="V31" s="3">
         <f t="shared" si="12"/>
-        <v>293</v>
-      </c>
-      <c r="V31" s="3">
+        <v>196</v>
+      </c>
+      <c r="W31" s="3">
         <f t="shared" si="13"/>
-        <v>196</v>
-      </c>
-      <c r="W31" s="3">
-        <f t="shared" si="14"/>
         <v>250</v>
       </c>
       <c r="Z31" s="1">
@@ -21141,7 +21271,7 @@
         <v>17</v>
       </c>
       <c r="AE31" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>26</v>
       </c>
       <c r="AH31" s="1">
@@ -21179,7 +21309,7 @@
         <v>132</v>
       </c>
       <c r="AS31" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="AS28:AS56" si="48">SUM(AB181-AB180)</f>
         <v>120</v>
       </c>
       <c r="AT31" s="3">
@@ -21208,22 +21338,22 @@
         <v>307</v>
       </c>
       <c r="F32" s="3">
+        <f t="shared" si="2"/>
+        <v>541</v>
+      </c>
+      <c r="G32" s="3">
         <f t="shared" si="3"/>
-        <v>541</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="4"/>
         <v>373</v>
       </c>
       <c r="J32" s="1">
         <v>43952</v>
       </c>
       <c r="K32" s="3">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="L32" s="3">
         <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-      <c r="L32" s="3">
-        <f t="shared" si="6"/>
         <v>232</v>
       </c>
       <c r="M32" s="3">
@@ -21231,34 +21361,34 @@
         <v>312</v>
       </c>
       <c r="N32" s="3">
+        <f t="shared" si="7"/>
+        <v>201</v>
+      </c>
+      <c r="O32" s="3">
         <f t="shared" si="8"/>
-        <v>201</v>
-      </c>
-      <c r="O32" s="3">
-        <f t="shared" si="9"/>
         <v>365</v>
       </c>
       <c r="R32" s="1">
         <v>43952</v>
       </c>
       <c r="S32" s="3">
+        <f t="shared" si="9"/>
+        <v>405</v>
+      </c>
+      <c r="T32" s="3">
         <f t="shared" si="10"/>
-        <v>405</v>
-      </c>
-      <c r="T32" s="3">
+        <v>399</v>
+      </c>
+      <c r="U32" s="3">
         <f t="shared" si="11"/>
-        <v>399</v>
-      </c>
-      <c r="U32" s="3">
+        <v>355</v>
+      </c>
+      <c r="V32" s="3">
         <f t="shared" si="12"/>
-        <v>355</v>
-      </c>
-      <c r="V32" s="3">
+        <v>169</v>
+      </c>
+      <c r="W32" s="3">
         <f t="shared" si="13"/>
-        <v>169</v>
-      </c>
-      <c r="W32" s="3">
-        <f t="shared" si="14"/>
         <v>237</v>
       </c>
       <c r="Z32" s="1">
@@ -21281,7 +21411,7 @@
         <v>19</v>
       </c>
       <c r="AE32" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>16</v>
       </c>
       <c r="AH32" s="1">
@@ -21319,7 +21449,7 @@
         <v>147</v>
       </c>
       <c r="AS32" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>73</v>
       </c>
       <c r="AT32" s="3">
@@ -21348,22 +21478,22 @@
         <v>358</v>
       </c>
       <c r="F33" s="3">
+        <f t="shared" si="2"/>
+        <v>665</v>
+      </c>
+      <c r="G33" s="3">
         <f t="shared" si="3"/>
-        <v>665</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="4"/>
         <v>441</v>
       </c>
       <c r="J33" s="1">
         <v>43953</v>
       </c>
       <c r="K33" s="3">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="L33" s="3">
         <f t="shared" si="5"/>
-        <v>144</v>
-      </c>
-      <c r="L33" s="3">
-        <f t="shared" si="6"/>
         <v>253</v>
       </c>
       <c r="M33" s="3">
@@ -21371,34 +21501,34 @@
         <v>254</v>
       </c>
       <c r="N33" s="3">
+        <f t="shared" si="7"/>
+        <v>217</v>
+      </c>
+      <c r="O33" s="3">
         <f t="shared" si="8"/>
-        <v>217</v>
-      </c>
-      <c r="O33" s="3">
-        <f t="shared" si="9"/>
         <v>268</v>
       </c>
       <c r="R33" s="1">
         <v>43953</v>
       </c>
       <c r="S33" s="3">
+        <f t="shared" si="9"/>
+        <v>311</v>
+      </c>
+      <c r="T33" s="3">
         <f t="shared" si="10"/>
-        <v>311</v>
-      </c>
-      <c r="T33" s="3">
+        <v>441</v>
+      </c>
+      <c r="U33" s="3">
         <f t="shared" si="11"/>
-        <v>441</v>
-      </c>
-      <c r="U33" s="3">
+        <v>334</v>
+      </c>
+      <c r="V33" s="3">
         <f t="shared" si="12"/>
-        <v>334</v>
-      </c>
-      <c r="V33" s="3">
+        <v>122</v>
+      </c>
+      <c r="W33" s="3">
         <f t="shared" si="13"/>
-        <v>122</v>
-      </c>
-      <c r="W33" s="3">
-        <f t="shared" si="14"/>
         <v>342</v>
       </c>
       <c r="Z33" s="1">
@@ -21421,7 +21551,7 @@
         <v>20</v>
       </c>
       <c r="AE33" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="AH33" s="1">
@@ -21459,7 +21589,7 @@
         <v>131</v>
       </c>
       <c r="AS33" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>104</v>
       </c>
       <c r="AT33" s="3">
@@ -21488,22 +21618,22 @@
         <v>261</v>
       </c>
       <c r="F34" s="3">
+        <f t="shared" si="2"/>
+        <v>466</v>
+      </c>
+      <c r="G34" s="3">
         <f t="shared" si="3"/>
-        <v>466</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="4"/>
         <v>377</v>
       </c>
       <c r="J34" s="1">
         <v>43954</v>
       </c>
       <c r="K34" s="3">
+        <f t="shared" si="4"/>
+        <v>211</v>
+      </c>
+      <c r="L34" s="3">
         <f t="shared" si="5"/>
-        <v>211</v>
-      </c>
-      <c r="L34" s="3">
-        <f t="shared" si="6"/>
         <v>368</v>
       </c>
       <c r="M34" s="3">
@@ -21511,34 +21641,34 @@
         <v>273</v>
       </c>
       <c r="N34" s="3">
+        <f t="shared" si="7"/>
+        <v>229</v>
+      </c>
+      <c r="O34" s="3">
         <f t="shared" si="8"/>
-        <v>229</v>
-      </c>
-      <c r="O34" s="3">
-        <f t="shared" si="9"/>
         <v>282</v>
       </c>
       <c r="R34" s="1">
         <v>43954</v>
       </c>
       <c r="S34" s="3">
+        <f t="shared" si="9"/>
+        <v>171</v>
+      </c>
+      <c r="T34" s="3">
         <f t="shared" si="10"/>
-        <v>171</v>
-      </c>
-      <c r="T34" s="3">
+        <v>322</v>
+      </c>
+      <c r="U34" s="3">
         <f t="shared" si="11"/>
-        <v>322</v>
-      </c>
-      <c r="U34" s="3">
+        <v>180</v>
+      </c>
+      <c r="V34" s="3">
         <f t="shared" si="12"/>
-        <v>180</v>
-      </c>
-      <c r="V34" s="3">
+        <v>93</v>
+      </c>
+      <c r="W34" s="3">
         <f t="shared" si="13"/>
-        <v>93</v>
-      </c>
-      <c r="W34" s="3">
-        <f t="shared" si="14"/>
         <v>159</v>
       </c>
       <c r="Z34" s="1">
@@ -21561,7 +21691,7 @@
         <v>14</v>
       </c>
       <c r="AE34" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>12</v>
       </c>
       <c r="AH34" s="1">
@@ -21599,7 +21729,7 @@
         <v>85</v>
       </c>
       <c r="AS34" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>37</v>
       </c>
       <c r="AT34" s="3">
@@ -21628,22 +21758,22 @@
         <v>185</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>307</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" ref="G35:G66" si="49">SUM(E174-E173)</f>
+        <f t="shared" ref="G35:G56" si="49">SUM(E174-E173)</f>
         <v>222</v>
       </c>
       <c r="J35" s="1">
         <v>43955</v>
       </c>
       <c r="K35" s="3">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="L35" s="3">
         <f t="shared" si="5"/>
-        <v>97</v>
-      </c>
-      <c r="L35" s="3">
-        <f t="shared" si="6"/>
         <v>112</v>
       </c>
       <c r="M35" s="3">
@@ -21651,34 +21781,34 @@
         <v>100</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>132</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" ref="O35:O66" si="50">SUM(J169-J168)</f>
+        <f t="shared" ref="O35:O56" si="50">SUM(J169-J168)</f>
         <v>132</v>
       </c>
       <c r="R35" s="1">
         <v>43955</v>
       </c>
       <c r="S35" s="3">
-        <f t="shared" ref="S35:S66" si="51">SUM(K167-K166)</f>
+        <f t="shared" ref="S35:S56" si="51">SUM(K167-K166)</f>
         <v>164</v>
       </c>
       <c r="T35" s="3">
+        <f t="shared" si="10"/>
+        <v>387</v>
+      </c>
+      <c r="U35" s="3">
         <f t="shared" si="11"/>
-        <v>387</v>
-      </c>
-      <c r="U35" s="3">
+        <v>231</v>
+      </c>
+      <c r="V35" s="3">
         <f t="shared" si="12"/>
-        <v>231</v>
-      </c>
-      <c r="V35" s="3">
+        <v>102</v>
+      </c>
+      <c r="W35" s="3">
         <f t="shared" si="13"/>
-        <v>102</v>
-      </c>
-      <c r="W35" s="3">
-        <f t="shared" si="14"/>
         <v>183</v>
       </c>
       <c r="Z35" s="1">
@@ -21695,7 +21825,7 @@
         <v>13</v>
       </c>
       <c r="AE35" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="AH35" s="1">
@@ -21730,7 +21860,7 @@
         <v>93</v>
       </c>
       <c r="AS35" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>187</v>
       </c>
       <c r="AT35" s="3">
@@ -21759,7 +21889,7 @@
         <v>187</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>253</v>
       </c>
       <c r="G36" s="3">
@@ -21770,11 +21900,11 @@
         <v>43956</v>
       </c>
       <c r="K36" s="3">
+        <f t="shared" si="4"/>
+        <v>178</v>
+      </c>
+      <c r="L36" s="3">
         <f t="shared" si="5"/>
-        <v>178</v>
-      </c>
-      <c r="L36" s="3">
-        <f t="shared" si="6"/>
         <v>218</v>
       </c>
       <c r="M36" s="3">
@@ -21782,7 +21912,7 @@
         <v>219</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>146</v>
       </c>
       <c r="O36" s="3">
@@ -21797,19 +21927,19 @@
         <v>232</v>
       </c>
       <c r="T36" s="3">
+        <f t="shared" si="10"/>
+        <v>223</v>
+      </c>
+      <c r="U36" s="3">
         <f t="shared" si="11"/>
-        <v>223</v>
-      </c>
-      <c r="U36" s="3">
+        <v>206</v>
+      </c>
+      <c r="V36" s="3">
         <f t="shared" si="12"/>
-        <v>206</v>
-      </c>
-      <c r="V36" s="3">
+        <v>84</v>
+      </c>
+      <c r="W36" s="3">
         <f t="shared" si="13"/>
-        <v>84</v>
-      </c>
-      <c r="W36" s="3">
-        <f t="shared" si="14"/>
         <v>126</v>
       </c>
       <c r="Z36" s="1">
@@ -21826,16 +21956,13 @@
         <v>21</v>
       </c>
       <c r="AE36" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="AH36" s="1">
         <v>43956</v>
       </c>
-      <c r="AI36" s="3">
-        <f>SUM(U189-U188)</f>
-        <v>370</v>
-      </c>
+      <c r="AI36" s="3"/>
       <c r="AJ36" s="3">
         <f t="shared" si="31"/>
         <v>42</v>
@@ -21864,7 +21991,7 @@
         <v>61</v>
       </c>
       <c r="AS36" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>133</v>
       </c>
       <c r="AT36" s="3">
@@ -21887,19 +22014,22 @@
         <v>198</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>402</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="49"/>
         <v>268</v>
       </c>
+      <c r="J37" s="1">
+        <v>43957</v>
+      </c>
       <c r="K37" s="3">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="L37" s="3">
         <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="L37" s="3">
-        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="M37" s="3">
@@ -21907,32 +22037,38 @@
         <v>111</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
       <c r="O37" s="3">
         <f t="shared" si="50"/>
         <v>174</v>
       </c>
+      <c r="R37" s="1">
+        <v>43957</v>
+      </c>
       <c r="S37" s="3">
         <f t="shared" si="51"/>
         <v>303</v>
       </c>
       <c r="T37" s="3">
+        <f t="shared" si="10"/>
+        <v>347</v>
+      </c>
+      <c r="U37" s="3">
         <f t="shared" si="11"/>
-        <v>347</v>
-      </c>
-      <c r="U37" s="3">
+        <v>365</v>
+      </c>
+      <c r="V37" s="3">
         <f t="shared" si="12"/>
-        <v>365</v>
-      </c>
-      <c r="V37" s="3">
+        <v>144</v>
+      </c>
+      <c r="W37" s="3">
         <f t="shared" si="13"/>
-        <v>144</v>
-      </c>
-      <c r="W37" s="3">
-        <f t="shared" si="14"/>
         <v>395</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>43957</v>
       </c>
       <c r="AA37" s="3">
         <f t="shared" si="43"/>
@@ -21951,8 +22087,11 @@
         <v>42</v>
       </c>
       <c r="AE37" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>6</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>43957</v>
       </c>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3">
@@ -21971,6 +22110,9 @@
         <f t="shared" si="34"/>
         <v>44</v>
       </c>
+      <c r="AP37" s="1">
+        <v>43957</v>
+      </c>
       <c r="AQ37" s="3">
         <f t="shared" si="44"/>
         <v>872</v>
@@ -21980,7 +22122,7 @@
         <v>238</v>
       </c>
       <c r="AS37" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>181</v>
       </c>
       <c r="AT37" s="3">
@@ -22003,7 +22145,7 @@
         <v>243</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>303</v>
       </c>
       <c r="G38" s="3">
@@ -22014,11 +22156,11 @@
         <v>43958</v>
       </c>
       <c r="K38" s="3">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="L38" s="3">
         <f t="shared" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="L38" s="3">
-        <f t="shared" si="6"/>
         <v>157</v>
       </c>
       <c r="M38" s="3">
@@ -22026,7 +22168,7 @@
         <v>144</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>177</v>
       </c>
       <c r="O38" s="3">
@@ -22041,19 +22183,19 @@
         <v>256</v>
       </c>
       <c r="T38" s="3">
+        <f t="shared" si="10"/>
+        <v>349</v>
+      </c>
+      <c r="U38" s="3">
         <f t="shared" si="11"/>
-        <v>349</v>
-      </c>
-      <c r="U38" s="3">
+        <v>266</v>
+      </c>
+      <c r="V38" s="3">
         <f t="shared" si="12"/>
-        <v>266</v>
-      </c>
-      <c r="V38" s="3">
+        <v>119</v>
+      </c>
+      <c r="W38" s="3">
         <f t="shared" si="13"/>
-        <v>119</v>
-      </c>
-      <c r="W38" s="3">
-        <f t="shared" si="14"/>
         <v>205</v>
       </c>
       <c r="Z38" s="1">
@@ -22076,7 +22218,7 @@
         <v>21</v>
       </c>
       <c r="AE38" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="AH38" s="1">
@@ -22111,7 +22253,7 @@
         <v>110</v>
       </c>
       <c r="AS38" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>73</v>
       </c>
       <c r="AT38" s="3">
@@ -22140,7 +22282,7 @@
         <v>219</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>352</v>
       </c>
       <c r="G39" s="3">
@@ -22151,11 +22293,11 @@
         <v>43959</v>
       </c>
       <c r="K39" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L39" s="3">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="L39" s="3">
-        <f t="shared" si="6"/>
         <v>166</v>
       </c>
       <c r="M39" s="3">
@@ -22163,7 +22305,7 @@
         <v>161</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>136</v>
       </c>
       <c r="O39" s="3">
@@ -22178,16 +22320,18 @@
         <v>212</v>
       </c>
       <c r="T39" s="3">
+        <f t="shared" si="10"/>
+        <v>338</v>
+      </c>
+      <c r="U39" s="3">
         <f t="shared" si="11"/>
-        <v>338</v>
-      </c>
-      <c r="U39" s="3">
-        <f t="shared" si="12"/>
         <v>385</v>
       </c>
-      <c r="V39" s="3"/>
+      <c r="V39" s="3">
+        <v>72</v>
+      </c>
       <c r="W39" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>213</v>
       </c>
       <c r="Z39" s="1">
@@ -22210,13 +22354,15 @@
         <v>8</v>
       </c>
       <c r="AE39" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>20</v>
       </c>
       <c r="AH39" s="1">
         <v>43959</v>
       </c>
-      <c r="AI39" s="3"/>
+      <c r="AI39" s="3">
+        <v>378</v>
+      </c>
       <c r="AJ39" s="3">
         <f t="shared" si="31"/>
         <v>122</v>
@@ -22245,7 +22391,7 @@
         <v>233</v>
       </c>
       <c r="AS39" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>64</v>
       </c>
       <c r="AT39" s="3">
@@ -22274,7 +22420,7 @@
         <v>216</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>271</v>
       </c>
       <c r="G40" s="3">
@@ -22285,11 +22431,11 @@
         <v>43960</v>
       </c>
       <c r="K40" s="3">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="L40" s="3">
         <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="L40" s="3">
-        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="M40" s="3">
@@ -22309,16 +22455,18 @@
         <v>175</v>
       </c>
       <c r="T40" s="3">
+        <f t="shared" si="10"/>
+        <v>293</v>
+      </c>
+      <c r="U40" s="3">
         <f t="shared" si="11"/>
-        <v>293</v>
-      </c>
-      <c r="U40" s="3">
-        <f t="shared" si="12"/>
         <v>216</v>
       </c>
-      <c r="V40" s="3"/>
+      <c r="V40" s="3">
+        <v>86</v>
+      </c>
       <c r="W40" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>201</v>
       </c>
       <c r="Z40" s="1">
@@ -22341,7 +22489,7 @@
         <v>11</v>
       </c>
       <c r="AE40" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>16</v>
       </c>
       <c r="AH40" s="1">
@@ -22379,7 +22527,7 @@
         <v>114</v>
       </c>
       <c r="AS40" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>199</v>
       </c>
       <c r="AT40" s="3">
@@ -22408,7 +22556,7 @@
         <v>189</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
       <c r="G41" s="3">
@@ -22419,11 +22567,11 @@
         <v>43961</v>
       </c>
       <c r="K41" s="3">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="L41" s="3">
         <f t="shared" si="5"/>
-        <v>125</v>
-      </c>
-      <c r="L41" s="3">
-        <f t="shared" si="6"/>
         <v>147</v>
       </c>
       <c r="M41" s="3">
@@ -22443,18 +22591,20 @@
         <v>160</v>
       </c>
       <c r="T41" s="3">
+        <f t="shared" si="10"/>
+        <v>282</v>
+      </c>
+      <c r="U41" s="3">
         <f t="shared" si="11"/>
-        <v>282</v>
-      </c>
-      <c r="U41" s="3">
-        <f t="shared" si="12"/>
         <v>142</v>
       </c>
       <c r="V41" s="3">
         <f t="shared" ref="V41:V55" si="58">SUM(N188-N187)</f>
         <v>65</v>
       </c>
-      <c r="W41" s="3"/>
+      <c r="W41" s="3">
+        <v>132</v>
+      </c>
       <c r="Z41" s="1">
         <v>43961</v>
       </c>
@@ -22475,7 +22625,7 @@
         <v>8</v>
       </c>
       <c r="AE41" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="AH41" s="1">
@@ -22513,7 +22663,7 @@
         <v>150</v>
       </c>
       <c r="AS41" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>80</v>
       </c>
       <c r="AT41" s="3">
@@ -22550,11 +22700,11 @@
         <v>43962</v>
       </c>
       <c r="K42" s="3">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="L42" s="3">
         <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
-      <c r="L42" s="3">
-        <f t="shared" si="6"/>
         <v>114</v>
       </c>
       <c r="M42" s="3">
@@ -22577,18 +22727,20 @@
         <v>77</v>
       </c>
       <c r="T42" s="3">
+        <f t="shared" si="10"/>
+        <v>185</v>
+      </c>
+      <c r="U42" s="3">
         <f t="shared" si="11"/>
-        <v>185</v>
-      </c>
-      <c r="U42" s="3">
-        <f t="shared" si="12"/>
         <v>79</v>
       </c>
       <c r="V42" s="3">
         <f t="shared" si="58"/>
         <v>52</v>
       </c>
-      <c r="W42" s="3"/>
+      <c r="W42" s="3">
+        <v>75</v>
+      </c>
       <c r="Z42" s="1">
         <v>43962</v>
       </c>
@@ -22609,7 +22761,7 @@
         <v>7</v>
       </c>
       <c r="AE42" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="AH42" s="1">
@@ -22647,7 +22799,7 @@
         <v>139</v>
       </c>
       <c r="AS42" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>131</v>
       </c>
       <c r="AT42" s="3">
@@ -22684,11 +22836,11 @@
         <v>43963</v>
       </c>
       <c r="K43" s="3">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="L43" s="3">
         <f t="shared" si="5"/>
-        <v>63</v>
-      </c>
-      <c r="L43" s="3">
-        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="M43" s="3">
@@ -22711,11 +22863,11 @@
         <v>98</v>
       </c>
       <c r="T43" s="3">
+        <f t="shared" si="10"/>
+        <v>179</v>
+      </c>
+      <c r="U43" s="3">
         <f t="shared" si="11"/>
-        <v>179</v>
-      </c>
-      <c r="U43" s="3">
-        <f t="shared" si="12"/>
         <v>140</v>
       </c>
       <c r="V43" s="3">
@@ -22746,7 +22898,7 @@
         <v>17</v>
       </c>
       <c r="AE43" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>14</v>
       </c>
       <c r="AH43" s="1">
@@ -22784,7 +22936,7 @@
         <v>96</v>
       </c>
       <c r="AS43" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>52</v>
       </c>
       <c r="AT43" s="3">
@@ -22824,11 +22976,11 @@
         <v>43964</v>
       </c>
       <c r="K44" s="3">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="L44" s="3">
         <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="L44" s="3">
-        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="M44" s="3">
@@ -22851,11 +23003,11 @@
         <v>133</v>
       </c>
       <c r="T44" s="3">
+        <f t="shared" si="10"/>
+        <v>248</v>
+      </c>
+      <c r="U44" s="3">
         <f t="shared" si="11"/>
-        <v>248</v>
-      </c>
-      <c r="U44" s="3">
-        <f t="shared" si="12"/>
         <v>131</v>
       </c>
       <c r="V44" s="3">
@@ -22886,7 +23038,7 @@
         <v>2</v>
       </c>
       <c r="AE44" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="AH44" s="1">
@@ -22924,7 +23076,7 @@
         <v>117</v>
       </c>
       <c r="AS44" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>70</v>
       </c>
       <c r="AT44" s="3">
@@ -22965,7 +23117,7 @@
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="M45" s="3">
@@ -22988,11 +23140,11 @@
         <v>294</v>
       </c>
       <c r="T45" s="3">
+        <f t="shared" si="10"/>
+        <v>180</v>
+      </c>
+      <c r="U45" s="3">
         <f t="shared" si="11"/>
-        <v>180</v>
-      </c>
-      <c r="U45" s="3">
-        <f t="shared" si="12"/>
         <v>247</v>
       </c>
       <c r="V45" s="3">
@@ -23023,7 +23175,7 @@
         <v>29</v>
       </c>
       <c r="AE45" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>21</v>
       </c>
       <c r="AH45" s="1">
@@ -23061,7 +23213,7 @@
         <v>113</v>
       </c>
       <c r="AS45" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>135</v>
       </c>
       <c r="AT45" s="3">
@@ -23102,7 +23254,7 @@
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="M46" s="3">
@@ -23125,11 +23277,11 @@
         <v>115</v>
       </c>
       <c r="T46" s="3">
+        <f t="shared" si="10"/>
+        <v>302</v>
+      </c>
+      <c r="U46" s="3">
         <f t="shared" si="11"/>
-        <v>302</v>
-      </c>
-      <c r="U46" s="3">
-        <f t="shared" si="12"/>
         <v>181</v>
       </c>
       <c r="V46" s="3">
@@ -23160,7 +23312,7 @@
         <v>22</v>
       </c>
       <c r="AE46" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="AH46" s="1">
@@ -23198,7 +23350,7 @@
         <v>132</v>
       </c>
       <c r="AS46" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>157</v>
       </c>
       <c r="AT46" s="3">
@@ -23242,7 +23394,7 @@
         <v>51</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="M47" s="3">
@@ -23265,11 +23417,11 @@
         <v>350</v>
       </c>
       <c r="T47" s="3">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="U47" s="3">
         <f t="shared" si="11"/>
-        <v>200</v>
-      </c>
-      <c r="U47" s="3">
-        <f t="shared" si="12"/>
         <v>183</v>
       </c>
       <c r="V47" s="3">
@@ -23283,7 +23435,9 @@
       <c r="Z47" s="1">
         <v>43967</v>
       </c>
-      <c r="AA47" s="3"/>
+      <c r="AA47" s="3">
+        <v>134</v>
+      </c>
       <c r="AB47" s="3">
         <f t="shared" si="53"/>
         <v>29</v>
@@ -23297,7 +23451,7 @@
         <v>10</v>
       </c>
       <c r="AE47" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="AH47" s="1">
@@ -23335,7 +23489,7 @@
         <v>139</v>
       </c>
       <c r="AS47" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>137</v>
       </c>
       <c r="AT47" s="3">
@@ -23379,7 +23533,7 @@
         <v>115</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>121</v>
       </c>
       <c r="M48" s="3">
@@ -23402,11 +23556,11 @@
         <v>133</v>
       </c>
       <c r="T48" s="3">
+        <f t="shared" si="10"/>
+        <v>246</v>
+      </c>
+      <c r="U48" s="3">
         <f t="shared" si="11"/>
-        <v>246</v>
-      </c>
-      <c r="U48" s="3">
-        <f t="shared" si="12"/>
         <v>148</v>
       </c>
       <c r="V48" s="3">
@@ -23420,7 +23574,9 @@
       <c r="Z48" s="1">
         <v>43968</v>
       </c>
-      <c r="AA48" s="3"/>
+      <c r="AA48" s="3">
+        <v>49</v>
+      </c>
       <c r="AB48" s="3">
         <f t="shared" si="53"/>
         <v>20</v>
@@ -23434,7 +23590,7 @@
         <v>21</v>
       </c>
       <c r="AE48" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AH48" s="1">
@@ -23472,7 +23628,7 @@
         <v>174</v>
       </c>
       <c r="AS48" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>143</v>
       </c>
       <c r="AT48" s="3">
@@ -23536,11 +23692,11 @@
         <v>192</v>
       </c>
       <c r="T49" s="3">
+        <f t="shared" si="10"/>
+        <v>216</v>
+      </c>
+      <c r="U49" s="3">
         <f t="shared" si="11"/>
-        <v>216</v>
-      </c>
-      <c r="U49" s="3">
-        <f t="shared" si="12"/>
         <v>125</v>
       </c>
       <c r="V49" s="3">
@@ -23571,7 +23727,7 @@
         <v>3</v>
       </c>
       <c r="AE49" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="AH49" s="1">
@@ -23609,7 +23765,7 @@
         <v>110</v>
       </c>
       <c r="AS49" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>97</v>
       </c>
       <c r="AT49" s="3">
@@ -23673,11 +23829,11 @@
         <v>154</v>
       </c>
       <c r="T50" s="3">
+        <f t="shared" si="10"/>
+        <v>159</v>
+      </c>
+      <c r="U50" s="3">
         <f t="shared" si="11"/>
-        <v>159</v>
-      </c>
-      <c r="U50" s="3">
-        <f t="shared" si="12"/>
         <v>161</v>
       </c>
       <c r="V50" s="3">
@@ -23708,7 +23864,7 @@
         <v>22</v>
       </c>
       <c r="AE50" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="AH50" s="1">
@@ -23746,7 +23902,7 @@
         <v>80</v>
       </c>
       <c r="AS50" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>90</v>
       </c>
       <c r="AT50" s="3">
@@ -23785,10 +23941,7 @@
       <c r="J51" s="1">
         <v>43971</v>
       </c>
-      <c r="K51" s="3">
-        <f t="shared" si="62"/>
-        <v>-4</v>
-      </c>
+      <c r="K51" s="3"/>
       <c r="L51" s="3">
         <f t="shared" ref="L51:L56" si="64">SUM(G183-G182)</f>
         <v>127</v>
@@ -23812,7 +23965,9 @@
         <f t="shared" si="51"/>
         <v>137</v>
       </c>
-      <c r="T51" s="3"/>
+      <c r="T51" s="3">
+        <v>204</v>
+      </c>
       <c r="U51" s="3">
         <f t="shared" ref="U51:U56" si="65">SUM(M197-M196)</f>
         <v>172</v>
@@ -23845,7 +24000,7 @@
         <v>24</v>
       </c>
       <c r="AE51" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="AH51" s="1">
@@ -23883,7 +24038,7 @@
         <v>114</v>
       </c>
       <c r="AS51" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>127</v>
       </c>
       <c r="AT51" s="3">
@@ -23922,10 +24077,7 @@
       <c r="J52" s="1">
         <v>43972</v>
       </c>
-      <c r="K52" s="3">
-        <f t="shared" si="62"/>
-        <v>65</v>
-      </c>
+      <c r="K52" s="3"/>
       <c r="L52" s="3">
         <f t="shared" si="64"/>
         <v>66</v>
@@ -23949,7 +24101,9 @@
         <f t="shared" si="51"/>
         <v>127</v>
       </c>
-      <c r="T52" s="3"/>
+      <c r="T52" s="3">
+        <v>222</v>
+      </c>
       <c r="U52" s="3">
         <f t="shared" si="65"/>
         <v>143</v>
@@ -23958,7 +24112,9 @@
         <f t="shared" si="58"/>
         <v>84</v>
       </c>
-      <c r="W52" s="3"/>
+      <c r="W52" s="3">
+        <v>217</v>
+      </c>
       <c r="Z52" s="1">
         <v>43972</v>
       </c>
@@ -23979,7 +24135,7 @@
         <v>11</v>
       </c>
       <c r="AE52" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="AH52" s="1">
@@ -24017,7 +24173,7 @@
         <v>175</v>
       </c>
       <c r="AS52" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>155</v>
       </c>
       <c r="AT52" s="3">
@@ -24037,6 +24193,9 @@
         <f t="shared" si="55"/>
         <v>211</v>
       </c>
+      <c r="D53">
+        <v>254</v>
+      </c>
       <c r="E53" s="3">
         <f t="shared" si="30"/>
         <v>121</v>
@@ -24091,7 +24250,9 @@
         <f t="shared" si="58"/>
         <v>33</v>
       </c>
-      <c r="W53" s="3"/>
+      <c r="W53" s="3">
+        <v>104</v>
+      </c>
       <c r="Z53" s="1">
         <v>43973</v>
       </c>
@@ -24112,7 +24273,7 @@
         <v>3</v>
       </c>
       <c r="AE53" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="AH53" s="1">
@@ -24150,7 +24311,7 @@
         <v>119</v>
       </c>
       <c r="AS53" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>106</v>
       </c>
       <c r="AT53" s="3">
@@ -24249,7 +24410,7 @@
         <v>7</v>
       </c>
       <c r="AE54" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="AH54" s="1">
@@ -24287,7 +24448,7 @@
         <v>125</v>
       </c>
       <c r="AS54" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>109</v>
       </c>
       <c r="AT54" s="3">
@@ -24303,6 +24464,9 @@
       <c r="B55" s="1">
         <v>43975</v>
       </c>
+      <c r="C55">
+        <v>214</v>
+      </c>
       <c r="D55" s="3">
         <f>SUM(B201-B200)</f>
         <v>815.72458718690177</v>
@@ -24382,7 +24546,7 @@
         <v>12</v>
       </c>
       <c r="AE55" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>12</v>
       </c>
       <c r="AH55" s="1">
@@ -24420,7 +24584,7 @@
         <v>142</v>
       </c>
       <c r="AS55" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>111</v>
       </c>
       <c r="AT55" s="3">
@@ -24471,7 +24635,9 @@
         <f t="shared" si="39"/>
         <v>60</v>
       </c>
-      <c r="N56" s="3"/>
+      <c r="N56" s="3">
+        <v>49</v>
+      </c>
       <c r="O56" s="3">
         <f t="shared" si="50"/>
         <v>88</v>
@@ -24491,7 +24657,9 @@
         <f t="shared" si="65"/>
         <v>118</v>
       </c>
-      <c r="V56" s="3"/>
+      <c r="V56" s="3">
+        <v>32</v>
+      </c>
       <c r="W56" s="3">
         <f>SUM(O191-O190)</f>
         <v>74</v>
@@ -24516,7 +24684,7 @@
         <v>13</v>
       </c>
       <c r="AE56" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="AH56" s="1">
@@ -24554,7 +24722,7 @@
         <v>96</v>
       </c>
       <c r="AS56" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>329</v>
       </c>
       <c r="AT56" s="3">

--- a/other/graphs.xlsx
+++ b/other/graphs.xlsx
@@ -8,27 +8,69 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5A20C4-AC2A-B74A-BD38-7C3D81BE3E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A05219-9B1B-C348-B565-BB6D0AA12FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="460" windowWidth="19380" windowHeight="16500" xr2:uid="{50568A54-C490-204A-AE24-4B69BA545E02}"/>
+    <workbookView xWindow="7860" yWindow="460" windowWidth="19380" windowHeight="16500" xr2:uid="{50568A54-C490-204A-AE24-4B69BA545E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$CI$178:$CJ$237</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$CK$177</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$CK$178:$CK$237</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$CL$177</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$CL$178:$CL$237</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$CK$178:$CK$237</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$CL$177</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$CL$178:$CL$237</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$CE$178:$CE$237</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$CF$178:$CF$237</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$CG$178:$CG$237</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$CI$178:$CJ$237</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$CK$177</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$B$61</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$G$2:$G$61</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$AY$2:$AZ$61</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$BA$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$BA$2:$BA$61</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$BB$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$BB$2:$BB$61</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$BC$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$BC$2:$BC$61</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$BD$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$BD$2:$BD$61</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$61</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$BE$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$BE$2:$BE$61</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$A$2:$B$61</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$C$2:$C$61</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$D$2:$D$61</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$E$2:$E$61</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$F$2:$F$61</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$G$2:$G$61</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$AE$2:$AF$61</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$AG$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$AG$2:$AG$61</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$AH$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$AH$2:$AH$61</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$AI$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$AI$2:$AI$61</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$2:$D$61</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$AJ$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$AJ$2:$AJ$61</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$AK$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$AK$2:$AK$61</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$AE$2:$AF$61</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$AG$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$AG$2:$AG$61</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$AH$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$AH$2:$AH$61</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$AI$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$AI$2:$AI$61</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$AJ$1</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$AJ$2:$AJ$61</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$AK$1</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$AK$2:$AK$61</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$2:$E$61</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$F$2:$F$61</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -177,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,9 +351,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -328,27 +369,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent1"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
@@ -714,6 +745,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A17-CC40-B05D-5B6B95719B0C}"/>
@@ -735,27 +767,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent2"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent2"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
@@ -1121,6 +1143,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A17-CC40-B05D-5B6B95719B0C}"/>
@@ -1142,27 +1165,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent3"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent3"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
@@ -1534,6 +1547,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8A17-CC40-B05D-5B6B95719B0C}"/>
@@ -1555,27 +1569,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent4"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent4"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
@@ -1947,6 +1951,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8A17-CC40-B05D-5B6B95719B0C}"/>
@@ -1968,27 +1973,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent5"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent5"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
@@ -2366,6 +2361,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-8A17-CC40-B05D-5B6B95719B0C}"/>
@@ -2373,7 +2369,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -2381,10 +2376,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="164"/>
+        <c:smooth val="0"/>
         <c:axId val="295280399"/>
         <c:axId val="299056655"/>
-      </c:barChart>
+      </c:lineChart>
       <c:dateAx>
         <c:axId val="295280399"/>
         <c:scaling>
@@ -5715,9 +5710,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5734,27 +5728,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent1"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$2:$L$61</c:f>
@@ -6114,6 +6098,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-081F-3A42-B717-D3B6D28590C2}"/>
@@ -6135,27 +6120,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent2"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent2"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$2:$L$61</c:f>
@@ -6524,6 +6499,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-081F-3A42-B717-D3B6D28590C2}"/>
@@ -6545,27 +6521,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent3"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent3"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$2:$L$61</c:f>
@@ -6940,6 +6906,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-081F-3A42-B717-D3B6D28590C2}"/>
@@ -6961,27 +6928,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent4"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent4"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$2:$L$61</c:f>
@@ -7341,6 +7298,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-081F-3A42-B717-D3B6D28590C2}"/>
@@ -7362,27 +7320,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent5"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent5"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$2:$L$61</c:f>
@@ -7757,6 +7705,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-081F-3A42-B717-D3B6D28590C2}"/>
@@ -7771,11 +7720,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="164"/>
-        <c:overlap val="-22"/>
+        <c:smooth val="0"/>
         <c:axId val="239484271"/>
         <c:axId val="287539375"/>
-      </c:barChart>
+      </c:lineChart>
       <c:dateAx>
         <c:axId val="239484271"/>
         <c:scaling>
@@ -8028,9 +7976,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -8047,27 +7994,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent1"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$U$2:$V$61</c:f>
@@ -8442,6 +8379,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FC62-764B-924B-F5E090432A5C}"/>
@@ -8463,27 +8401,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent2"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent2"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$U$2:$V$61</c:f>
@@ -8858,6 +8786,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FC62-764B-924B-F5E090432A5C}"/>
@@ -8879,27 +8808,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent3"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent3"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$U$2:$V$61</c:f>
@@ -9274,6 +9193,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FC62-764B-924B-F5E090432A5C}"/>
@@ -9295,27 +9215,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent4"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent4"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$U$2:$V$61</c:f>
@@ -9690,6 +9600,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FC62-764B-924B-F5E090432A5C}"/>
@@ -9711,27 +9622,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent5"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent5"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$U$2:$V$61</c:f>
@@ -10106,6 +10007,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-FC62-764B-924B-F5E090432A5C}"/>
@@ -10120,11 +10022,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="164"/>
-        <c:overlap val="-22"/>
+        <c:smooth val="0"/>
         <c:axId val="296156287"/>
         <c:axId val="295151103"/>
-      </c:barChart>
+      </c:lineChart>
       <c:dateAx>
         <c:axId val="296156287"/>
         <c:scaling>
@@ -10377,9 +10278,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -10396,27 +10296,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent1"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AE$2:$AF$61</c:f>
@@ -10791,6 +10681,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1D6E-A04B-8A48-EEE6DFA7EB31}"/>
@@ -10812,27 +10703,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent2"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent2"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AE$2:$AF$61</c:f>
@@ -11195,6 +11076,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1D6E-A04B-8A48-EEE6DFA7EB31}"/>
@@ -11216,27 +11098,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent3"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent3"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AE$2:$AF$61</c:f>
@@ -11602,6 +11474,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1D6E-A04B-8A48-EEE6DFA7EB31}"/>
@@ -11623,27 +11496,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent4"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent4"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AE$2:$AF$61</c:f>
@@ -12018,6 +11881,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1D6E-A04B-8A48-EEE6DFA7EB31}"/>
@@ -12039,27 +11903,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent5"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent5"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AE$2:$AF$61</c:f>
@@ -12428,6 +12282,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1D6E-A04B-8A48-EEE6DFA7EB31}"/>
@@ -12442,11 +12297,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="164"/>
-        <c:overlap val="-22"/>
+        <c:smooth val="0"/>
         <c:axId val="288394943"/>
         <c:axId val="300142431"/>
-      </c:barChart>
+      </c:lineChart>
       <c:dateAx>
         <c:axId val="288394943"/>
         <c:scaling>
@@ -12699,9 +12553,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -12718,27 +12571,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent1"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AO$2:$AP$61</c:f>
@@ -13092,6 +12935,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1064-1C46-8B45-F7B62835C87B}"/>
@@ -13113,27 +12957,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent2"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent2"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AO$2:$AP$61</c:f>
@@ -13508,6 +13342,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1064-1C46-8B45-F7B62835C87B}"/>
@@ -13529,27 +13364,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent3"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent3"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AO$2:$AP$61</c:f>
@@ -13924,6 +13749,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1064-1C46-8B45-F7B62835C87B}"/>
@@ -13945,27 +13771,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent4"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent4"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AO$2:$AP$61</c:f>
@@ -14340,6 +14156,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1064-1C46-8B45-F7B62835C87B}"/>
@@ -14361,27 +14178,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent5"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent5"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AO$2:$AP$61</c:f>
@@ -14756,6 +14563,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1064-1C46-8B45-F7B62835C87B}"/>
@@ -14770,11 +14578,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="164"/>
-        <c:overlap val="-22"/>
+        <c:smooth val="0"/>
         <c:axId val="295218527"/>
         <c:axId val="297905071"/>
-      </c:barChart>
+      </c:lineChart>
       <c:dateAx>
         <c:axId val="295218527"/>
         <c:scaling>
@@ -14907,7 +14714,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="span"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -15027,9 +14834,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -15046,27 +14852,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent1"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AY$2:$AZ$61</c:f>
@@ -15438,6 +15234,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6AB9-DD4D-87F1-72AEF6B3FCD1}"/>
@@ -15459,27 +15256,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent2"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent2"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AY$2:$AZ$61</c:f>
@@ -15851,6 +15638,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6AB9-DD4D-87F1-72AEF6B3FCD1}"/>
@@ -15872,27 +15660,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent3"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent3"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AY$2:$AZ$61</c:f>
@@ -16258,6 +16036,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6AB9-DD4D-87F1-72AEF6B3FCD1}"/>
@@ -16279,27 +16058,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent4"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent4"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AY$2:$AZ$61</c:f>
@@ -16665,6 +16434,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6AB9-DD4D-87F1-72AEF6B3FCD1}"/>
@@ -16686,27 +16456,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent5"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent5"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$AY$2:$AZ$61</c:f>
@@ -17078,6 +16838,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-6AB9-DD4D-87F1-72AEF6B3FCD1}"/>
@@ -17092,11 +16853,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="164"/>
-        <c:overlap val="-22"/>
+        <c:smooth val="0"/>
         <c:axId val="300468479"/>
         <c:axId val="320925023"/>
-      </c:barChart>
+      </c:lineChart>
       <c:dateAx>
         <c:axId val="300468479"/>
         <c:scaling>
@@ -17229,7 +16989,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="span"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -27828,13 +27588,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA38D56-529F-6943-948B-8ED18F113542}">
   <dimension ref="A1:DA237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CJ216" zoomScale="41" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="CM282" sqref="CM282"/>
+    <sheetView tabSelected="1" topLeftCell="AZ85" zoomScale="14" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="DG53" sqref="DG53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27962,7 +27722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57">
       <c r="B2" s="1">
         <v>43922</v>
       </c>
@@ -28010,7 +27770,7 @@
       <c r="BD2" s="3"/>
       <c r="BE2" s="3"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57">
       <c r="B3" s="1">
         <v>43923</v>
       </c>
@@ -28149,7 +27909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57">
       <c r="B4" s="1">
         <v>43924</v>
       </c>
@@ -28289,7 +28049,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57">
       <c r="B5" s="1">
         <v>43925</v>
       </c>
@@ -28429,7 +28189,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57">
       <c r="B6" s="1">
         <v>43926</v>
       </c>
@@ -28566,7 +28326,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57">
       <c r="B7" s="1">
         <v>43927</v>
       </c>
@@ -28703,7 +28463,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57">
       <c r="B8" s="1">
         <v>43928</v>
       </c>
@@ -28843,7 +28603,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57">
       <c r="B9" s="1">
         <v>43929</v>
       </c>
@@ -28983,7 +28743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57">
       <c r="B10" s="1">
         <v>43930</v>
       </c>
@@ -29123,7 +28883,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57">
       <c r="B11" s="1">
         <v>43931</v>
       </c>
@@ -29263,7 +29023,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57">
       <c r="B12" s="1">
         <v>43932</v>
       </c>
@@ -29400,7 +29160,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57">
       <c r="B13" s="1">
         <v>43933</v>
       </c>
@@ -29539,7 +29299,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57">
       <c r="B14" s="1">
         <v>43934</v>
       </c>
@@ -29679,7 +29439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57">
       <c r="B15" s="1">
         <v>43935</v>
       </c>
@@ -29819,7 +29579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57">
       <c r="B16" s="1">
         <v>43936</v>
       </c>
@@ -29959,7 +29719,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:57">
       <c r="B17" s="2">
         <v>43937</v>
       </c>
@@ -30098,7 +29858,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:57">
       <c r="B18" s="1">
         <v>43938</v>
       </c>
@@ -30237,7 +29997,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:57">
       <c r="B19" s="1">
         <v>43939</v>
       </c>
@@ -30369,7 +30129,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:57">
       <c r="B20" s="2">
         <v>43940</v>
       </c>
@@ -30497,7 +30257,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:57">
       <c r="B21" s="1">
         <v>43941</v>
       </c>
@@ -30626,7 +30386,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:57">
       <c r="B22" s="1">
         <v>43942</v>
       </c>
@@ -30763,7 +30523,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:57">
       <c r="B23" s="1">
         <v>43943</v>
       </c>
@@ -30902,7 +30662,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:57">
       <c r="B24" s="1">
         <v>43944</v>
       </c>
@@ -31041,7 +30801,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:57">
       <c r="B25" s="1">
         <v>43945</v>
       </c>
@@ -31179,7 +30939,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:57">
       <c r="B26" s="1">
         <v>43946</v>
       </c>
@@ -31318,7 +31078,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:57">
       <c r="B27" s="1">
         <v>43947</v>
       </c>
@@ -31454,7 +31214,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:57">
       <c r="B28" s="1">
         <v>43948</v>
       </c>
@@ -31585,7 +31345,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:57">
       <c r="B29" s="1">
         <v>43949</v>
       </c>
@@ -31719,7 +31479,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:57">
       <c r="B30" s="1">
         <v>43950</v>
       </c>
@@ -31858,7 +31618,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:57">
       <c r="B31" s="1">
         <v>43951</v>
       </c>
@@ -31998,7 +31758,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:57">
       <c r="B32" s="1">
         <v>43952</v>
       </c>
@@ -32138,7 +31898,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:57">
       <c r="B33" s="1">
         <v>43953</v>
       </c>
@@ -32278,7 +32038,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:57">
       <c r="B34" s="1">
         <v>43954</v>
       </c>
@@ -32418,7 +32178,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:57">
       <c r="B35" s="1">
         <v>43955</v>
       </c>
@@ -32549,7 +32309,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:57">
       <c r="B36" s="1">
         <v>43956</v>
       </c>
@@ -32680,7 +32440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:57">
       <c r="B37" s="1">
         <v>43957</v>
       </c>
@@ -32811,7 +32571,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:57">
       <c r="B38" s="1">
         <v>43958</v>
       </c>
@@ -32942,7 +32702,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:57">
       <c r="B39" s="1">
         <v>43959</v>
       </c>
@@ -33080,7 +32840,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:57">
       <c r="B40" s="1">
         <v>43960</v>
       </c>
@@ -33216,7 +32976,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:57">
       <c r="B41" s="1">
         <v>43961</v>
       </c>
@@ -33352,7 +33112,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:57">
       <c r="B42" s="1">
         <v>43962</v>
       </c>
@@ -33488,7 +33248,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:57">
       <c r="B43" s="1">
         <v>43963</v>
       </c>
@@ -33625,7 +33385,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:57">
       <c r="B44" s="1">
         <v>43964</v>
       </c>
@@ -33765,7 +33525,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:57">
       <c r="B45" s="1">
         <v>43965</v>
       </c>
@@ -33902,7 +33662,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:57">
       <c r="B46" s="1">
         <v>43966</v>
       </c>
@@ -34039,7 +33799,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:57">
       <c r="B47" s="1">
         <v>43967</v>
       </c>
@@ -34178,7 +33938,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:57">
       <c r="B48" s="1">
         <v>43968</v>
       </c>
@@ -34317,7 +34077,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:57">
       <c r="B49" s="1">
         <v>43969</v>
       </c>
@@ -34454,7 +34214,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:57">
       <c r="B50" s="1">
         <v>43970</v>
       </c>
@@ -34591,7 +34351,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:57">
       <c r="B51" s="1">
         <v>43971</v>
       </c>
@@ -34727,7 +34487,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:57">
       <c r="B52" s="1">
         <v>43972</v>
       </c>
@@ -34862,7 +34622,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:57">
       <c r="B53" s="1">
         <v>43973</v>
       </c>
@@ -35000,7 +34760,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:57">
       <c r="B54" s="1">
         <v>43974</v>
       </c>
@@ -35136,7 +34896,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:57">
       <c r="B55" s="1">
         <v>43975</v>
       </c>
@@ -35271,7 +35031,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:57">
       <c r="B56" s="1">
         <v>43976</v>
       </c>
@@ -35408,7 +35168,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:57">
       <c r="B57" s="1">
         <v>43977</v>
       </c>
@@ -35518,7 +35278,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:57">
       <c r="B58" s="1">
         <v>43978</v>
       </c>
@@ -35628,7 +35388,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:57">
       <c r="B59" s="1">
         <v>43979</v>
       </c>
@@ -35738,7 +35498,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:57">
       <c r="B60" s="1">
         <v>43980</v>
       </c>
@@ -35848,7 +35608,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:57">
       <c r="B61" s="1">
         <v>43981</v>
       </c>
@@ -35937,7 +35697,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="62" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:57">
       <c r="B62" s="1"/>
       <c r="E62" s="1"/>
       <c r="L62" s="1"/>
@@ -35946,85 +35706,85 @@
       <c r="AP62" s="1"/>
       <c r="AZ62" s="1"/>
     </row>
-    <row r="120" spans="42:45" x14ac:dyDescent="0.2">
+    <row r="120" spans="42:45">
       <c r="AP120" s="3"/>
       <c r="AQ120" s="3"/>
       <c r="AR120" s="3"/>
       <c r="AS120" s="3"/>
     </row>
-    <row r="121" spans="42:45" x14ac:dyDescent="0.2">
+    <row r="121" spans="42:45">
       <c r="AP121" s="3"/>
       <c r="AQ121" s="3"/>
       <c r="AR121" s="3"/>
       <c r="AS121" s="3"/>
     </row>
-    <row r="122" spans="42:45" x14ac:dyDescent="0.2">
+    <row r="122" spans="42:45">
       <c r="AP122" s="3"/>
       <c r="AQ122" s="3"/>
       <c r="AR122" s="3"/>
       <c r="AS122" s="3"/>
     </row>
-    <row r="123" spans="42:45" x14ac:dyDescent="0.2">
+    <row r="123" spans="42:45">
       <c r="AP123" s="3"/>
       <c r="AQ123" s="3"/>
       <c r="AR123" s="3"/>
       <c r="AS123" s="3"/>
     </row>
-    <row r="124" spans="42:45" x14ac:dyDescent="0.2">
+    <row r="124" spans="42:45">
       <c r="AP124" s="3"/>
       <c r="AQ124" s="3"/>
       <c r="AR124" s="3"/>
       <c r="AS124" s="3"/>
     </row>
-    <row r="125" spans="42:45" x14ac:dyDescent="0.2">
+    <row r="125" spans="42:45">
       <c r="AP125" s="3"/>
       <c r="AQ125" s="3"/>
       <c r="AR125" s="3"/>
       <c r="AS125" s="3"/>
     </row>
-    <row r="126" spans="42:45" x14ac:dyDescent="0.2">
+    <row r="126" spans="42:45">
       <c r="AP126" s="3"/>
       <c r="AQ126" s="3"/>
       <c r="AR126" s="3"/>
       <c r="AS126" s="3"/>
     </row>
-    <row r="127" spans="42:45" x14ac:dyDescent="0.2">
+    <row r="127" spans="42:45">
       <c r="AP127" s="3"/>
       <c r="AQ127" s="3"/>
       <c r="AR127" s="3"/>
       <c r="AS127" s="3"/>
     </row>
-    <row r="128" spans="42:45" x14ac:dyDescent="0.2">
+    <row r="128" spans="42:45">
       <c r="AP128" s="3"/>
       <c r="AQ128" s="3"/>
       <c r="AR128" s="3"/>
       <c r="AS128" s="3"/>
     </row>
-    <row r="129" spans="5:64" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="5:64" ht="408" customHeight="1">
       <c r="AP129" s="3"/>
       <c r="AQ129" s="3"/>
       <c r="AR129" s="3"/>
       <c r="AS129" s="3"/>
     </row>
-    <row r="130" spans="5:64" x14ac:dyDescent="0.2">
+    <row r="130" spans="5:64">
       <c r="AP130" s="3"/>
       <c r="AQ130" s="3"/>
       <c r="AR130" s="3"/>
       <c r="AS130" s="3"/>
     </row>
-    <row r="131" spans="5:64" x14ac:dyDescent="0.2">
+    <row r="131" spans="5:64">
       <c r="AP131" s="3"/>
       <c r="AQ131" s="3"/>
       <c r="AR131" s="3"/>
       <c r="AS131" s="3"/>
     </row>
-    <row r="132" spans="5:64" x14ac:dyDescent="0.2">
+    <row r="132" spans="5:64">
       <c r="AP132" s="3"/>
       <c r="AQ132" s="3"/>
       <c r="AR132" s="3"/>
       <c r="AS132" s="3"/>
     </row>
-    <row r="133" spans="5:64" x14ac:dyDescent="0.2">
+    <row r="133" spans="5:64">
       <c r="J133" s="3">
         <v>2262</v>
       </c>
@@ -36033,7 +35793,7 @@
       <c r="AR133" s="3"/>
       <c r="AS133" s="3"/>
     </row>
-    <row r="134" spans="5:64" x14ac:dyDescent="0.2">
+    <row r="134" spans="5:64">
       <c r="J134" s="3">
         <v>2617</v>
       </c>
@@ -36042,7 +35802,7 @@
       <c r="AR134" s="3"/>
       <c r="AS134" s="3"/>
     </row>
-    <row r="135" spans="5:64" x14ac:dyDescent="0.2">
+    <row r="135" spans="5:64">
       <c r="J135" s="3">
         <v>3067</v>
       </c>
@@ -36051,7 +35811,7 @@
       <c r="AR135" s="3"/>
       <c r="AS135" s="3"/>
     </row>
-    <row r="136" spans="5:64" x14ac:dyDescent="0.2">
+    <row r="136" spans="5:64">
       <c r="J136" s="3">
         <v>3584</v>
       </c>
@@ -36060,7 +35820,7 @@
       <c r="AR136" s="3"/>
       <c r="AS136" s="3"/>
     </row>
-    <row r="137" spans="5:64" x14ac:dyDescent="0.2">
+    <row r="137" spans="5:64">
       <c r="G137" s="3">
         <v>1910</v>
       </c>
@@ -36077,7 +35837,7 @@
       <c r="AR137" s="3"/>
       <c r="AS137" s="3"/>
     </row>
-    <row r="138" spans="5:64" x14ac:dyDescent="0.2">
+    <row r="138" spans="5:64">
       <c r="G138" s="3">
         <v>2270</v>
       </c>
@@ -36097,7 +35857,7 @@
       <c r="AR138" s="3"/>
       <c r="AS138" s="3"/>
     </row>
-    <row r="139" spans="5:64" x14ac:dyDescent="0.2">
+    <row r="139" spans="5:64">
       <c r="F139" s="3">
         <v>3494</v>
       </c>
@@ -36123,7 +35883,7 @@
       <c r="AR139" s="3"/>
       <c r="AS139" s="3"/>
     </row>
-    <row r="140" spans="5:64" x14ac:dyDescent="0.2">
+    <row r="140" spans="5:64">
       <c r="F140" s="3">
         <v>4099</v>
       </c>
@@ -36168,7 +35928,7 @@
       <c r="BK140" s="3"/>
       <c r="BL140" s="3"/>
     </row>
-    <row r="141" spans="5:64" x14ac:dyDescent="0.2">
+    <row r="141" spans="5:64">
       <c r="F141" s="3">
         <v>4866</v>
       </c>
@@ -36209,7 +35969,7 @@
       <c r="BJ141" s="3"/>
       <c r="BK141" s="3"/>
     </row>
-    <row r="142" spans="5:64" x14ac:dyDescent="0.2">
+    <row r="142" spans="5:64">
       <c r="F142" s="3">
         <v>5760</v>
       </c>
@@ -36250,7 +36010,7 @@
       <c r="BJ142" s="3"/>
       <c r="BK142" s="3"/>
     </row>
-    <row r="143" spans="5:64" x14ac:dyDescent="0.2">
+    <row r="143" spans="5:64">
       <c r="F143" s="3">
         <v>6187</v>
       </c>
@@ -36291,7 +36051,7 @@
       <c r="BJ143" s="3"/>
       <c r="BK143" s="3"/>
     </row>
-    <row r="144" spans="5:64" x14ac:dyDescent="0.2">
+    <row r="144" spans="5:64">
       <c r="E144" s="3">
         <v>7605</v>
       </c>
@@ -36335,7 +36095,7 @@
       <c r="BJ144" s="3"/>
       <c r="BK144" s="3"/>
     </row>
-    <row r="145" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:63">
       <c r="E145" s="3">
         <v>8746</v>
       </c>
@@ -36379,7 +36139,7 @@
       <c r="BJ145" s="3"/>
       <c r="BK145" s="3"/>
     </row>
-    <row r="146" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:63">
       <c r="C146" s="3">
         <v>8544</v>
       </c>
@@ -36441,7 +36201,7 @@
       <c r="BJ146" s="3"/>
       <c r="BK146" s="3"/>
     </row>
-    <row r="147" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:63">
       <c r="C147" s="3">
         <v>9555</v>
       </c>
@@ -36503,7 +36263,7 @@
       <c r="BJ147" s="3"/>
       <c r="BK147" s="3"/>
     </row>
-    <row r="148" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:63">
       <c r="C148" s="3">
         <v>10587</v>
       </c>
@@ -36566,7 +36326,7 @@
       <c r="BJ148" s="3"/>
       <c r="BK148" s="3"/>
     </row>
-    <row r="149" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:63">
       <c r="C149" s="3">
         <v>13346</v>
       </c>
@@ -36631,7 +36391,7 @@
       <c r="BJ149" s="3"/>
       <c r="BK149" s="3"/>
     </row>
-    <row r="150" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:63">
       <c r="C150" s="3">
         <v>14398</v>
       </c>
@@ -36696,7 +36456,7 @@
       <c r="BJ150" s="3"/>
       <c r="BK150" s="3"/>
     </row>
-    <row r="151" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:63">
       <c r="B151" s="3">
         <v>12274</v>
       </c>
@@ -36770,7 +36530,7 @@
       <c r="BJ151" s="3"/>
       <c r="BK151" s="3"/>
     </row>
-    <row r="152" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:63">
       <c r="B152" s="3">
         <v>12390</v>
       </c>
@@ -36848,7 +36608,7 @@
       <c r="BJ152" s="3"/>
       <c r="BK152" s="3"/>
     </row>
-    <row r="153" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:63">
       <c r="B153" s="3">
         <v>15327</v>
       </c>
@@ -36925,7 +36685,7 @@
       <c r="BJ153" s="3"/>
       <c r="BK153" s="3"/>
     </row>
-    <row r="154" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:63">
       <c r="B154" s="3">
         <v>16488</v>
       </c>
@@ -37002,7 +36762,7 @@
       <c r="BJ154" s="3"/>
       <c r="BK154" s="3"/>
     </row>
-    <row r="155" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:63">
       <c r="B155" s="3">
         <v>17520</v>
       </c>
@@ -37094,7 +36854,7 @@
       <c r="BJ155" s="3"/>
       <c r="BK155" s="3"/>
     </row>
-    <row r="156" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:63">
       <c r="B156" s="3">
         <v>18434</v>
       </c>
@@ -37184,7 +36944,7 @@
       <c r="BJ156" s="3"/>
       <c r="BK156" s="3"/>
     </row>
-    <row r="157" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:63">
       <c r="B157" s="3">
         <v>20235</v>
       </c>
@@ -37276,7 +37036,7 @@
       <c r="BJ157" s="3"/>
       <c r="BK157" s="3"/>
     </row>
-    <row r="158" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:63">
       <c r="A158" s="3">
         <v>15217</v>
       </c>
@@ -37388,7 +37148,7 @@
       <c r="BJ158" s="3"/>
       <c r="BK158" s="3"/>
     </row>
-    <row r="159" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:63">
       <c r="A159" s="3">
         <v>16819</v>
       </c>
@@ -37500,7 +37260,7 @@
       <c r="BJ159" s="3"/>
       <c r="BK159" s="3"/>
     </row>
-    <row r="160" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:63">
       <c r="A160" s="3">
         <v>18823</v>
       </c>
@@ -37610,7 +37370,7 @@
       <c r="BJ160" s="3"/>
       <c r="BK160" s="3"/>
     </row>
-    <row r="161" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:63">
       <c r="A161" s="3">
         <v>20371</v>
       </c>
@@ -37720,7 +37480,7 @@
       <c r="BJ161" s="3"/>
       <c r="BK161" s="3"/>
     </row>
-    <row r="162" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:63">
       <c r="A162" s="3">
         <v>21781</v>
       </c>
@@ -37832,7 +37592,7 @@
       <c r="BJ162" s="3"/>
       <c r="BK162" s="3"/>
     </row>
-    <row r="163" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:63">
       <c r="A163" s="3">
         <v>23083</v>
       </c>
@@ -37945,7 +37705,7 @@
       <c r="BJ163" s="3"/>
       <c r="BK163" s="3"/>
     </row>
-    <row r="164" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:63">
       <c r="A164" s="3">
         <v>24809</v>
       </c>
@@ -38058,7 +37818,7 @@
       <c r="BJ164" s="3"/>
       <c r="BK164" s="3"/>
     </row>
-    <row r="165" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:63">
       <c r="A165" s="3">
         <v>26204</v>
       </c>
@@ -38171,7 +37931,7 @@
       <c r="BJ165" s="3"/>
       <c r="BK165" s="3"/>
     </row>
-    <row r="166" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:63">
       <c r="A166" s="3">
         <v>27759</v>
       </c>
@@ -38284,7 +38044,7 @@
       <c r="BJ166" s="3"/>
       <c r="BK166" s="3"/>
     </row>
-    <row r="167" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:63">
       <c r="A167" s="3">
         <v>29754</v>
       </c>
@@ -38394,7 +38154,7 @@
       <c r="BJ167" s="3"/>
       <c r="BK167" s="3"/>
     </row>
-    <row r="168" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:63">
       <c r="A168" s="3">
         <v>31044</v>
       </c>
@@ -38507,7 +38267,7 @@
       <c r="BJ168" s="3"/>
       <c r="BK168" s="3"/>
     </row>
-    <row r="169" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:63">
       <c r="A169" s="3">
         <v>32749</v>
       </c>
@@ -38618,7 +38378,7 @@
       <c r="BJ169" s="3"/>
       <c r="BK169" s="3"/>
     </row>
-    <row r="170" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:63">
       <c r="A170" s="3">
         <v>33468</v>
       </c>
@@ -38731,7 +38491,7 @@
       <c r="BJ170" s="3"/>
       <c r="BK170" s="3"/>
     </row>
-    <row r="171" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:63">
       <c r="A171" s="3">
         <v>33616</v>
       </c>
@@ -38842,7 +38602,7 @@
       <c r="BJ171" s="3"/>
       <c r="BK171" s="3"/>
     </row>
-    <row r="172" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:63">
       <c r="A172" s="3">
         <v>36765</v>
       </c>
@@ -38951,7 +38711,7 @@
       <c r="BJ172" s="3"/>
       <c r="BK172" s="3"/>
     </row>
-    <row r="173" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:63">
       <c r="A173" s="3">
         <v>37918</v>
       </c>
@@ -39062,7 +38822,7 @@
       <c r="BJ173" s="3"/>
       <c r="BK173" s="3"/>
     </row>
-    <row r="174" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:63">
       <c r="A174" s="3">
         <v>39091</v>
       </c>
@@ -39175,7 +38935,7 @@
       <c r="BJ174" s="3"/>
       <c r="BK174" s="3"/>
     </row>
-    <row r="175" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:63">
       <c r="A175" s="3">
         <v>40216</v>
       </c>
@@ -39286,7 +39046,7 @@
       <c r="BJ175" s="3"/>
       <c r="BK175" s="3"/>
     </row>
-    <row r="176" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:63">
       <c r="A176" s="3"/>
       <c r="B176" s="3">
         <v>42487</v>
@@ -39395,7 +39155,7 @@
       <c r="BJ176" s="3"/>
       <c r="BK176" s="3"/>
     </row>
-    <row r="177" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:105">
       <c r="A177" s="3">
         <v>42023</v>
       </c>
@@ -39578,7 +39338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:105">
       <c r="A178" s="3">
         <v>42822</v>
       </c>
@@ -39732,7 +39492,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="179" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:105">
       <c r="A179" s="3">
         <v>43713</v>
       </c>
@@ -39878,18 +39638,18 @@
         <v>1925</v>
       </c>
       <c r="CG179" s="3">
-        <f>SUM(BR179-BR178)</f>
+        <f t="shared" ref="CG179:CG215" si="67">SUM(BR179-BR178)</f>
         <v>6468</v>
       </c>
       <c r="CJ179" s="1">
         <v>43923</v>
       </c>
       <c r="CK179" s="3">
-        <f t="shared" ref="CK179:CK210" si="67">SUM(W3+X3+Y3+Z3+AA3)</f>
+        <f t="shared" ref="CK179:CK210" si="68">SUM(W3+X3+Y3+Z3+AA3)</f>
         <v>927</v>
       </c>
       <c r="CL179" s="3">
-        <f>SUM(BS179-BS178)</f>
+        <f t="shared" ref="CL179:CL210" si="69">SUM(BS179-BS178)</f>
         <v>4870</v>
       </c>
       <c r="CO179" s="1">
@@ -39907,26 +39667,26 @@
         <v>43923</v>
       </c>
       <c r="CU179" s="3">
-        <f t="shared" ref="CU179:CU194" si="68">SUM(AQ3+AR3+AS3+AT3+AU3)</f>
+        <f t="shared" ref="CU179:CU194" si="70">SUM(AQ3+AR3+AS3+AT3+AU3)</f>
         <v>662</v>
       </c>
       <c r="CV179" s="3">
-        <f>SUM(BU179-BU178)</f>
+        <f t="shared" ref="CV179:CV194" si="71">SUM(BU179-BU178)</f>
         <v>6482</v>
       </c>
       <c r="CY179" s="1">
         <v>43923</v>
       </c>
       <c r="CZ179" s="3">
-        <f t="shared" ref="CZ179:CZ194" si="69">SUM(BA3+BB3+BC3+BD3+BE3)</f>
+        <f t="shared" ref="CZ179:CZ194" si="72">SUM(BA3+BB3+BC3+BD3+BE3)</f>
         <v>900</v>
       </c>
       <c r="DA179" s="3">
-        <f>SUM(BV179-BV178)</f>
+        <f t="shared" ref="DA179:DA194" si="73">SUM(BV179-BV178)</f>
         <v>3073</v>
       </c>
     </row>
-    <row r="180" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:105">
       <c r="A180" s="3">
         <v>44904</v>
       </c>
@@ -40077,18 +39837,18 @@
         <v>2725</v>
       </c>
       <c r="CG180" s="3">
-        <f>SUM(BR180-BR179)</f>
+        <f t="shared" si="67"/>
         <v>8393</v>
       </c>
       <c r="CJ180" s="1">
         <v>43924</v>
       </c>
       <c r="CK180" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1083</v>
       </c>
       <c r="CL180" s="3">
-        <f>SUM(BS180-BS179)</f>
+        <f t="shared" si="69"/>
         <v>6354</v>
       </c>
       <c r="CO180" s="1">
@@ -40106,26 +39866,26 @@
         <v>43924</v>
       </c>
       <c r="CU180" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>782</v>
       </c>
       <c r="CV180" s="3">
-        <f>SUM(BU180-BU179)</f>
+        <f t="shared" si="71"/>
         <v>7401</v>
       </c>
       <c r="CY180" s="1">
         <v>43924</v>
       </c>
       <c r="CZ180" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>904</v>
       </c>
       <c r="DA180" s="3">
-        <f>SUM(BV180-BV179)</f>
+        <f t="shared" si="73"/>
         <v>2300</v>
       </c>
     </row>
-    <row r="181" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:105">
       <c r="A181" s="3">
         <v>46387</v>
       </c>
@@ -40268,18 +40028,18 @@
         <v>3136</v>
       </c>
       <c r="CG181" s="3">
-        <f>SUM(BR181-BR180)</f>
+        <f t="shared" si="67"/>
         <v>7853</v>
       </c>
       <c r="CJ181" s="1">
         <v>43925</v>
       </c>
       <c r="CK181" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>918</v>
       </c>
       <c r="CL181" s="3">
-        <f>SUM(BS181-BS180)</f>
+        <f t="shared" si="69"/>
         <v>5838</v>
       </c>
       <c r="CO181" s="1">
@@ -40297,26 +40057,26 @@
         <v>43925</v>
       </c>
       <c r="CU181" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>761</v>
       </c>
       <c r="CV181" s="3">
-        <f>SUM(BU181-BU180)</f>
+        <f t="shared" si="71"/>
         <v>7915</v>
       </c>
       <c r="CY181" s="1">
         <v>43925</v>
       </c>
       <c r="CZ181" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>1047</v>
       </c>
       <c r="DA181" s="3">
-        <f>SUM(BV181-BV180)</f>
+        <f t="shared" si="73"/>
         <v>78400</v>
       </c>
     </row>
-    <row r="182" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:105">
       <c r="A182" s="3">
         <v>47861</v>
       </c>
@@ -40453,18 +40213,18 @@
         <v>2029</v>
       </c>
       <c r="CG182" s="3">
-        <f>SUM(BR182-BR181)</f>
+        <f t="shared" si="67"/>
         <v>6810</v>
       </c>
       <c r="CJ182" s="1">
         <v>43926</v>
       </c>
       <c r="CK182" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>634</v>
       </c>
       <c r="CL182" s="3">
-        <f>SUM(BS182-BS181)</f>
+        <f t="shared" si="69"/>
         <v>3137</v>
       </c>
       <c r="CO182" s="1">
@@ -40476,26 +40236,26 @@
         <v>43926</v>
       </c>
       <c r="CU182" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>860</v>
       </c>
       <c r="CV182" s="3">
-        <f>SUM(BU182-BU181)</f>
+        <f t="shared" si="71"/>
         <v>7741</v>
       </c>
       <c r="CY182" s="1">
         <v>43926</v>
       </c>
       <c r="CZ182" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>858</v>
       </c>
       <c r="DA182" s="3">
-        <f>SUM(BV182-BV181)</f>
+        <f t="shared" si="73"/>
         <v>2833</v>
       </c>
     </row>
-    <row r="183" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:105">
       <c r="A183" s="3">
         <v>48745</v>
       </c>
@@ -40628,55 +40388,55 @@
         <v>2555</v>
       </c>
       <c r="CG183" s="3">
-        <f>SUM(BR183-BR182)</f>
+        <f t="shared" si="67"/>
         <v>6866</v>
       </c>
       <c r="CJ183" s="1">
         <v>43927</v>
       </c>
       <c r="CK183" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>946</v>
       </c>
       <c r="CL183" s="3">
-        <f>SUM(BS183-BS182)</f>
+        <f t="shared" si="69"/>
         <v>4492</v>
       </c>
       <c r="CO183" s="1">
         <v>43927</v>
       </c>
       <c r="CP183" s="3">
-        <f t="shared" ref="CP183:CP202" si="70">SUM(AG7+AH7+AI7+AJ7+AK7)</f>
+        <f t="shared" ref="CP183:CP202" si="74">SUM(AG7+AH7+AI7+AJ7+AK7)</f>
         <v>1300</v>
       </c>
       <c r="CQ183" s="3">
-        <f>SUM(BT183-BT182)</f>
+        <f t="shared" ref="CQ183:CQ202" si="75">SUM(BT183-BT182)</f>
         <v>4072</v>
       </c>
       <c r="CT183" s="1">
         <v>43927</v>
       </c>
       <c r="CU183" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>888</v>
       </c>
       <c r="CV183" s="3">
-        <f>SUM(BU183-BU182)</f>
+        <f t="shared" si="71"/>
         <v>6083</v>
       </c>
       <c r="CY183" s="1">
         <v>43927</v>
       </c>
       <c r="CZ183" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>782</v>
       </c>
       <c r="DA183" s="3">
-        <f>SUM(BV183-BV182)</f>
+        <f t="shared" si="73"/>
         <v>898</v>
       </c>
     </row>
-    <row r="184" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:105">
       <c r="A184" s="3">
         <v>49399</v>
       </c>
@@ -40813,55 +40573,55 @@
         <v>2828</v>
       </c>
       <c r="CG184" s="3">
-        <f>SUM(BR184-BR183)</f>
+        <f t="shared" si="67"/>
         <v>5942</v>
       </c>
       <c r="CJ184" s="1">
         <v>43928</v>
       </c>
       <c r="CK184" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1046</v>
       </c>
       <c r="CL184" s="3">
-        <f>SUM(BS184-BS183)</f>
+        <f t="shared" si="69"/>
         <v>4915</v>
       </c>
       <c r="CO184" s="1">
         <v>43928</v>
       </c>
       <c r="CP184" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>1474</v>
       </c>
       <c r="CQ184" s="3">
-        <f>SUM(BT184-BT183)</f>
+        <f t="shared" si="75"/>
         <v>3403</v>
       </c>
       <c r="CT184" s="1">
         <v>43928</v>
       </c>
       <c r="CU184" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>789</v>
       </c>
       <c r="CV184" s="3">
-        <f>SUM(BU184-BU183)</f>
+        <f t="shared" si="71"/>
         <v>7424</v>
       </c>
       <c r="CY184" s="1">
         <v>43928</v>
       </c>
       <c r="CZ184" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>750</v>
       </c>
       <c r="DA184" s="3">
-        <f>SUM(BV184-BV183)</f>
+        <f t="shared" si="73"/>
         <v>13798</v>
       </c>
     </row>
-    <row r="185" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:105">
       <c r="A185" s="3">
         <v>49929</v>
       </c>
@@ -41000,55 +40760,55 @@
         <v>2093</v>
       </c>
       <c r="CG185" s="3">
-        <f>SUM(BR185-BR184)</f>
+        <f t="shared" si="67"/>
         <v>5442</v>
       </c>
       <c r="CJ185" s="1">
         <v>43929</v>
       </c>
       <c r="CK185" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1285</v>
       </c>
       <c r="CL185" s="3">
-        <f>SUM(BS185-BS184)</f>
+        <f t="shared" si="69"/>
         <v>6167</v>
       </c>
       <c r="CO185" s="1">
         <v>43929</v>
       </c>
       <c r="CP185" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>1188</v>
       </c>
       <c r="CQ185" s="3">
-        <f>SUM(BT185-BT184)</f>
+        <f t="shared" si="75"/>
         <v>766</v>
       </c>
       <c r="CT185" s="1">
         <v>43929</v>
       </c>
       <c r="CU185" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>962</v>
       </c>
       <c r="CV185" s="3">
-        <f>SUM(BU185-BU184)</f>
+        <f t="shared" si="71"/>
         <v>7260</v>
       </c>
       <c r="CY185" s="1">
         <v>43929</v>
       </c>
       <c r="CZ185" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>945</v>
       </c>
       <c r="DA185" s="3">
-        <f>SUM(BV185-BV184)</f>
+        <f t="shared" si="73"/>
         <v>13035</v>
       </c>
     </row>
-    <row r="186" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:105">
       <c r="A186" s="3">
         <v>50741</v>
       </c>
@@ -41185,55 +40945,55 @@
         <v>2072</v>
       </c>
       <c r="CG186" s="3">
-        <f>SUM(BR186-BR185)</f>
+        <f t="shared" si="67"/>
         <v>6776</v>
       </c>
       <c r="CJ186" s="1">
         <v>43930</v>
       </c>
       <c r="CK186" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1568</v>
       </c>
       <c r="CL186" s="3">
-        <f>SUM(BS186-BS185)</f>
+        <f t="shared" si="69"/>
         <v>7447</v>
       </c>
       <c r="CO186" s="1">
         <v>43930</v>
       </c>
       <c r="CP186" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>933</v>
       </c>
       <c r="CQ186" s="3">
-        <f>SUM(BT186-BT185)</f>
+        <f t="shared" si="75"/>
         <v>915</v>
       </c>
       <c r="CT186" s="1">
         <v>43930</v>
       </c>
       <c r="CU186" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1280</v>
       </c>
       <c r="CV186" s="3">
-        <f>SUM(BU186-BU185)</f>
+        <f t="shared" si="71"/>
         <v>7064</v>
       </c>
       <c r="CY186" s="1">
         <v>43930</v>
       </c>
       <c r="CZ186" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>746</v>
       </c>
       <c r="DA186" s="3">
-        <f>SUM(BV186-BV185)</f>
+        <f t="shared" si="73"/>
         <v>19236</v>
       </c>
     </row>
-    <row r="187" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:105">
       <c r="A187" s="3">
         <v>51631</v>
       </c>
@@ -41372,55 +41132,55 @@
         <v>2327</v>
       </c>
       <c r="CG187" s="3">
-        <f>SUM(BR187-BR186)</f>
+        <f t="shared" si="67"/>
         <v>6331</v>
       </c>
       <c r="CJ187" s="1">
         <v>43931</v>
       </c>
       <c r="CK187" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1655</v>
       </c>
       <c r="CL187" s="3">
-        <f>SUM(BS187-BS186)</f>
+        <f t="shared" si="69"/>
         <v>7414</v>
       </c>
       <c r="CO187" s="1">
         <v>43931</v>
       </c>
       <c r="CP187" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>995</v>
       </c>
       <c r="CQ187" s="3">
-        <f>SUM(BT187-BT186)</f>
+        <f t="shared" si="75"/>
         <v>4990</v>
       </c>
       <c r="CT187" s="1">
         <v>43931</v>
       </c>
       <c r="CU187" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1043</v>
       </c>
       <c r="CV187" s="3">
-        <f>SUM(BU187-BU186)</f>
+        <f t="shared" si="71"/>
         <v>7417</v>
       </c>
       <c r="CY187" s="1">
         <v>43931</v>
       </c>
       <c r="CZ187" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>710</v>
       </c>
       <c r="DA187" s="3">
-        <f>SUM(BV187-BV186)</f>
+        <f t="shared" si="73"/>
         <v>1363</v>
       </c>
     </row>
-    <row r="188" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:105">
       <c r="A188" s="3">
         <v>52274</v>
       </c>
@@ -41556,55 +41316,55 @@
         <v>1869</v>
       </c>
       <c r="CG188" s="3">
-        <f>SUM(BR188-BR187)</f>
+        <f t="shared" si="67"/>
         <v>6670</v>
       </c>
       <c r="CJ188" s="1">
         <v>43932</v>
       </c>
       <c r="CK188" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1366</v>
       </c>
       <c r="CL188" s="3">
-        <f>SUM(BS188-BS187)</f>
+        <f t="shared" si="69"/>
         <v>6404</v>
       </c>
       <c r="CO188" s="1">
         <v>43932</v>
       </c>
       <c r="CP188" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>1011</v>
       </c>
       <c r="CQ188" s="3">
-        <f>SUM(BT188-BT187)</f>
+        <f t="shared" si="75"/>
         <v>3970</v>
       </c>
       <c r="CT188" s="1">
         <v>43932</v>
       </c>
       <c r="CU188" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1066</v>
       </c>
       <c r="CV188" s="3">
-        <f>SUM(BU188-BU187)</f>
+        <f t="shared" si="71"/>
         <v>7134</v>
       </c>
       <c r="CY188" s="1">
         <v>43932</v>
       </c>
       <c r="CZ188" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>770</v>
       </c>
       <c r="DA188" s="3">
-        <f>SUM(BV188-BV187)</f>
+        <f t="shared" si="73"/>
         <v>8356</v>
       </c>
     </row>
-    <row r="189" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:105">
       <c r="A189" s="3">
         <v>53039</v>
       </c>
@@ -41739,11 +41499,11 @@
         <v>43933</v>
       </c>
       <c r="CA189" s="3">
-        <f t="shared" ref="CA189:CA195" si="71">SUM(C13+D13+E13+F13+G13)</f>
+        <f t="shared" ref="CA189:CA195" si="76">SUM(C13+D13+E13+F13+G13)</f>
         <v>6316</v>
       </c>
       <c r="CB189" s="3">
-        <f>SUM(BQ189-BQ188)</f>
+        <f t="shared" ref="CB189:CB195" si="77">SUM(BQ189-BQ188)</f>
         <v>20621</v>
       </c>
       <c r="CE189" s="1">
@@ -41754,55 +41514,55 @@
         <v>2053</v>
       </c>
       <c r="CG189" s="3">
-        <f>SUM(BR189-BR188)</f>
+        <f t="shared" si="67"/>
         <v>6542</v>
       </c>
       <c r="CJ189" s="1">
         <v>43933</v>
       </c>
       <c r="CK189" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1959</v>
       </c>
       <c r="CL189" s="3">
-        <f>SUM(BS189-BS188)</f>
+        <f t="shared" si="69"/>
         <v>7954</v>
       </c>
       <c r="CO189" s="1">
         <v>43933</v>
       </c>
       <c r="CP189" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>483</v>
       </c>
       <c r="CQ189" s="3">
-        <f>SUM(BT189-BT188)</f>
+        <f t="shared" si="75"/>
         <v>3423</v>
       </c>
       <c r="CT189" s="1">
         <v>43933</v>
       </c>
       <c r="CU189" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>694</v>
       </c>
       <c r="CV189" s="3">
-        <f>SUM(BU189-BU188)</f>
+        <f t="shared" si="71"/>
         <v>4737</v>
       </c>
       <c r="CY189" s="1">
         <v>43933</v>
       </c>
       <c r="CZ189" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>534</v>
       </c>
       <c r="DA189" s="3">
-        <f>SUM(BV189-BV188)</f>
+        <f t="shared" si="73"/>
         <v>17109</v>
       </c>
     </row>
-    <row r="190" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:105">
       <c r="A190" s="3">
         <v>53640</v>
       </c>
@@ -41935,11 +41695,11 @@
         <v>43934</v>
       </c>
       <c r="CA190" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>4536</v>
       </c>
       <c r="CB190" s="3">
-        <f>SUM(BQ190-BQ189)</f>
+        <f t="shared" si="77"/>
         <v>16756</v>
       </c>
       <c r="CE190" s="1">
@@ -41950,55 +41710,55 @@
         <v>1758</v>
       </c>
       <c r="CG190" s="3">
-        <f>SUM(BR190-BR189)</f>
+        <f t="shared" si="67"/>
         <v>2734</v>
       </c>
       <c r="CJ190" s="1">
         <v>43934</v>
       </c>
       <c r="CK190" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1071</v>
       </c>
       <c r="CL190" s="3">
-        <f>SUM(BS190-BS189)</f>
+        <f t="shared" si="69"/>
         <v>5319</v>
       </c>
       <c r="CO190" s="1">
         <v>43934</v>
       </c>
       <c r="CP190" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>859</v>
       </c>
       <c r="CQ190" s="3">
-        <f>SUM(BT190-BT189)</f>
+        <f t="shared" si="75"/>
         <v>3207</v>
       </c>
       <c r="CT190" s="1">
         <v>43934</v>
       </c>
       <c r="CU190" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>875</v>
       </c>
       <c r="CV190" s="3">
-        <f>SUM(BU190-BU189)</f>
+        <f t="shared" si="71"/>
         <v>4902</v>
       </c>
       <c r="CY190" s="1">
         <v>43934</v>
       </c>
       <c r="CZ190" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>458</v>
       </c>
       <c r="DA190" s="3">
-        <f>SUM(BV190-BV189)</f>
+        <f t="shared" si="73"/>
         <v>554</v>
       </c>
     </row>
-    <row r="191" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:105">
       <c r="A191" s="3">
         <v>54090</v>
       </c>
@@ -42132,11 +41892,11 @@
         <v>43935</v>
       </c>
       <c r="CA191" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>2036</v>
       </c>
       <c r="CB191" s="3">
-        <f>SUM(BQ191-BQ190)</f>
+        <f t="shared" si="77"/>
         <v>20786</v>
       </c>
       <c r="CE191" s="1">
@@ -42147,55 +41907,55 @@
         <v>2392</v>
       </c>
       <c r="CG191" s="3">
-        <f>SUM(BR191-BR190)</f>
+        <f t="shared" si="67"/>
         <v>10305</v>
       </c>
       <c r="CJ191" s="1">
         <v>43935</v>
       </c>
       <c r="CK191" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>994</v>
       </c>
       <c r="CL191" s="3">
-        <f>SUM(BS191-BS190)</f>
+        <f t="shared" si="69"/>
         <v>4502</v>
       </c>
       <c r="CO191" s="1">
         <v>43935</v>
       </c>
       <c r="CP191" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>1132</v>
       </c>
       <c r="CQ191" s="3">
-        <f>SUM(BT191-BT190)</f>
+        <f t="shared" si="75"/>
         <v>3582</v>
       </c>
       <c r="CT191" s="1">
         <v>43935</v>
       </c>
       <c r="CU191" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>627</v>
       </c>
       <c r="CV191" s="3">
-        <f>SUM(BU191-BU190)</f>
+        <f t="shared" si="71"/>
         <v>3839</v>
       </c>
       <c r="CY191" s="1">
         <v>43935</v>
       </c>
       <c r="CZ191" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>687</v>
       </c>
       <c r="DA191" s="3">
-        <f>SUM(BV191-BV190)</f>
+        <f t="shared" si="73"/>
         <v>11326</v>
       </c>
     </row>
-    <row r="192" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:105">
       <c r="A192" s="3">
         <v>54448</v>
       </c>
@@ -42326,11 +42086,11 @@
         <v>43936</v>
       </c>
       <c r="CA192" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>10422</v>
       </c>
       <c r="CB192" s="3">
-        <f>SUM(BQ192-BQ191)</f>
+        <f t="shared" si="77"/>
         <v>26869</v>
       </c>
       <c r="CE192" s="1">
@@ -42341,55 +42101,55 @@
         <v>1543</v>
       </c>
       <c r="CG192" s="3">
-        <f>SUM(BR192-BR191)</f>
+        <f t="shared" si="67"/>
         <v>4247</v>
       </c>
       <c r="CJ192" s="1">
         <v>43936</v>
       </c>
       <c r="CK192" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1391</v>
       </c>
       <c r="CL192" s="3">
-        <f>SUM(BS192-BS191)</f>
+        <f t="shared" si="69"/>
         <v>5472</v>
       </c>
       <c r="CO192" s="1">
         <v>43936</v>
       </c>
       <c r="CP192" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>799</v>
       </c>
       <c r="CQ192" s="3">
-        <f>SUM(BT192-BT191)</f>
+        <f t="shared" si="75"/>
         <v>3471</v>
       </c>
       <c r="CT192" s="1">
         <v>43936</v>
       </c>
       <c r="CU192" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>777</v>
       </c>
       <c r="CV192" s="3">
-        <f>SUM(BU192-BU191)</f>
+        <f t="shared" si="71"/>
         <v>3953</v>
       </c>
       <c r="CY192" s="1">
         <v>43936</v>
       </c>
       <c r="CZ192" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>1010</v>
       </c>
       <c r="DA192" s="3">
-        <f>SUM(BV192-BV191)</f>
+        <f t="shared" si="73"/>
         <v>14278</v>
       </c>
     </row>
-    <row r="193" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:105">
       <c r="A193" s="3"/>
       <c r="B193" s="3">
         <v>50667</v>
@@ -42516,11 +42276,11 @@
         <v>43937</v>
       </c>
       <c r="CA193" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>5717</v>
       </c>
       <c r="CB193" s="3">
-        <f>SUM(BQ193-BQ192)</f>
+        <f t="shared" si="77"/>
         <v>24567</v>
       </c>
       <c r="CE193" s="2">
@@ -42531,55 +42291,55 @@
         <v>2753</v>
       </c>
       <c r="CG193" s="3">
-        <f>SUM(BR193-BR192)</f>
+        <f t="shared" si="67"/>
         <v>7809</v>
       </c>
       <c r="CJ193" s="2">
         <v>43937</v>
       </c>
       <c r="CK193" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1790</v>
       </c>
       <c r="CL193" s="3">
-        <f>SUM(BS193-BS192)</f>
+        <f t="shared" si="69"/>
         <v>8750</v>
       </c>
       <c r="CO193" s="2">
         <v>43937</v>
       </c>
       <c r="CP193" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>951</v>
       </c>
       <c r="CQ193" s="3">
-        <f>SUM(BT193-BT192)</f>
+        <f t="shared" si="75"/>
         <v>4589</v>
       </c>
       <c r="CT193" s="2">
         <v>43937</v>
       </c>
       <c r="CU193" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>537</v>
       </c>
       <c r="CV193" s="3">
-        <f>SUM(BU193-BU192)</f>
+        <f t="shared" si="71"/>
         <v>3886</v>
       </c>
       <c r="CY193" s="2">
         <v>43937</v>
       </c>
       <c r="CZ193" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>724</v>
       </c>
       <c r="DA193" s="3">
-        <f>SUM(BV193-BV192)</f>
+        <f t="shared" si="73"/>
         <v>29914</v>
       </c>
     </row>
-    <row r="194" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:105">
       <c r="A194" s="3">
         <v>55450</v>
       </c>
@@ -42706,11 +42466,11 @@
         <v>43938</v>
       </c>
       <c r="CA194" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>5353</v>
       </c>
       <c r="CB194" s="3">
-        <f>SUM(BQ194-BQ193)</f>
+        <f t="shared" si="77"/>
         <v>22644</v>
       </c>
       <c r="CE194" s="1">
@@ -42721,55 +42481,55 @@
         <v>2325</v>
       </c>
       <c r="CG194" s="3">
-        <f>SUM(BR194-BR193)</f>
+        <f t="shared" si="67"/>
         <v>5619</v>
       </c>
       <c r="CJ194" s="1">
         <v>43938</v>
       </c>
       <c r="CK194" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1748</v>
       </c>
       <c r="CL194" s="3">
-        <f>SUM(BS194-BS193)</f>
+        <f t="shared" si="69"/>
         <v>7971</v>
       </c>
       <c r="CO194" s="1">
         <v>43938</v>
       </c>
       <c r="CP194" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>586</v>
       </c>
       <c r="CQ194" s="3">
-        <f>SUM(BT194-BT193)</f>
+        <f t="shared" si="75"/>
         <v>4673</v>
       </c>
       <c r="CT194" s="1">
         <v>43938</v>
       </c>
       <c r="CU194" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1512</v>
       </c>
       <c r="CV194" s="3">
-        <f>SUM(BU194-BU193)</f>
+        <f t="shared" si="71"/>
         <v>5903</v>
       </c>
       <c r="CY194" s="1">
         <v>43938</v>
       </c>
       <c r="CZ194" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>919</v>
       </c>
       <c r="DA194" s="3">
-        <f>SUM(BV194-BV193)</f>
+        <f t="shared" si="73"/>
         <v>5214</v>
       </c>
     </row>
-    <row r="195" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:105">
       <c r="A195" s="3">
         <v>55944</v>
       </c>
@@ -42895,11 +42655,11 @@
         <v>43939</v>
       </c>
       <c r="CA195" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>4934</v>
       </c>
       <c r="CB195" s="3">
-        <f>SUM(BQ195-BQ194)</f>
+        <f t="shared" si="77"/>
         <v>23309</v>
       </c>
       <c r="CE195" s="1">
@@ -42910,29 +42670,29 @@
         <v>1711</v>
       </c>
       <c r="CG195" s="3">
-        <f>SUM(BR195-BR194)</f>
+        <f t="shared" si="67"/>
         <v>5087</v>
       </c>
       <c r="CJ195" s="1">
         <v>43939</v>
       </c>
       <c r="CK195" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1654</v>
       </c>
       <c r="CL195" s="3">
-        <f>SUM(BS195-BS194)</f>
+        <f t="shared" si="69"/>
         <v>8062</v>
       </c>
       <c r="CO195" s="1">
         <v>43939</v>
       </c>
       <c r="CP195" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>510</v>
       </c>
       <c r="CQ195" s="3">
-        <f>SUM(BT195-BT194)</f>
+        <f t="shared" si="75"/>
         <v>768</v>
       </c>
       <c r="CT195" s="1">
@@ -42946,7 +42706,7 @@
       <c r="CZ195" s="3"/>
       <c r="DA195" s="3"/>
     </row>
-    <row r="196" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:105">
       <c r="A196" s="3">
         <v>56493</v>
       </c>
@@ -43081,29 +42841,29 @@
         <v>2411</v>
       </c>
       <c r="CG196" s="3">
-        <f>SUM(BR196-BR195)</f>
+        <f t="shared" si="67"/>
         <v>7882</v>
       </c>
       <c r="CJ196" s="2">
         <v>43940</v>
       </c>
       <c r="CK196" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1304</v>
       </c>
       <c r="CL196" s="3">
-        <f>SUM(BS196-BS195)</f>
+        <f t="shared" si="69"/>
         <v>5435</v>
       </c>
       <c r="CO196" s="2">
         <v>43940</v>
       </c>
       <c r="CP196" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>430</v>
       </c>
       <c r="CQ196" s="3">
-        <f>SUM(BT196-BT195)</f>
+        <f t="shared" si="75"/>
         <v>9934</v>
       </c>
       <c r="CT196" s="2">
@@ -43123,7 +42883,7 @@
       <c r="CZ196" s="3"/>
       <c r="DA196" s="3"/>
     </row>
-    <row r="197" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:105">
       <c r="A197" s="3">
         <v>56862</v>
       </c>
@@ -43257,29 +43017,29 @@
         <v>2015</v>
       </c>
       <c r="CG197" s="3">
-        <f>SUM(BR197-BR196)</f>
+        <f t="shared" si="67"/>
         <v>7639</v>
       </c>
       <c r="CJ197" s="1">
         <v>43941</v>
       </c>
       <c r="CK197" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1180</v>
       </c>
       <c r="CL197" s="3">
-        <f>SUM(BS197-BS196)</f>
+        <f t="shared" si="69"/>
         <v>7157</v>
       </c>
       <c r="CO197" s="1">
         <v>43941</v>
       </c>
       <c r="CP197" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>378</v>
       </c>
       <c r="CQ197" s="3">
-        <f>SUM(BT197-BT196)</f>
+        <f t="shared" si="75"/>
         <v>4137</v>
       </c>
       <c r="CT197" s="1">
@@ -43291,15 +43051,15 @@
         <v>43941</v>
       </c>
       <c r="CZ197" s="3">
-        <f t="shared" ref="CZ197:CZ203" si="72">SUM(BA21+BB21+BC21+BD21+BE21)</f>
+        <f t="shared" ref="CZ197:CZ203" si="78">SUM(BA21+BB21+BC21+BD21+BE21)</f>
         <v>1836</v>
       </c>
       <c r="DA197" s="3">
-        <f>SUM(BV197-BV196)</f>
+        <f t="shared" ref="DA197:DA203" si="79">SUM(BV197-BV196)</f>
         <v>9600</v>
       </c>
     </row>
-    <row r="198" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:105">
       <c r="A198" s="3">
         <v>57180</v>
       </c>
@@ -43422,11 +43182,11 @@
         <v>43942</v>
       </c>
       <c r="CA198" s="3">
-        <f t="shared" ref="CA198:CA212" si="73">SUM(C22+D22+E22+F22+G22)</f>
+        <f t="shared" ref="CA198:CA212" si="80">SUM(C22+D22+E22+F22+G22)</f>
         <v>2974</v>
       </c>
       <c r="CB198" s="3">
-        <f>SUM(BQ198-BQ197)</f>
+        <f t="shared" ref="CB198:CB212" si="81">SUM(BQ198-BQ197)</f>
         <v>15464</v>
       </c>
       <c r="CE198" s="1">
@@ -43437,29 +43197,29 @@
         <v>2009</v>
       </c>
       <c r="CG198" s="3">
-        <f>SUM(BR198-BR197)</f>
+        <f t="shared" si="67"/>
         <v>6769</v>
       </c>
       <c r="CJ198" s="1">
         <v>43942</v>
       </c>
       <c r="CK198" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1212</v>
       </c>
       <c r="CL198" s="3">
-        <f>SUM(BS198-BS197)</f>
+        <f t="shared" si="69"/>
         <v>5974</v>
       </c>
       <c r="CO198" s="1">
         <v>43942</v>
       </c>
       <c r="CP198" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>654</v>
       </c>
       <c r="CQ198" s="3">
-        <f>SUM(BT198-BT197)</f>
+        <f t="shared" si="75"/>
         <v>3428</v>
       </c>
       <c r="CT198" s="1">
@@ -43471,15 +43231,15 @@
         <v>43942</v>
       </c>
       <c r="CZ198" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>1633</v>
       </c>
       <c r="DA198" s="3">
-        <f>SUM(BV198-BV197)</f>
+        <f t="shared" si="79"/>
         <v>18200</v>
       </c>
     </row>
-    <row r="199" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:105">
       <c r="A199" s="3">
         <v>57391</v>
       </c>
@@ -43600,11 +43360,11 @@
         <v>43943</v>
       </c>
       <c r="CA199" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>3733</v>
       </c>
       <c r="CB199" s="3">
-        <f>SUM(BQ199-BQ198)</f>
+        <f t="shared" si="81"/>
         <v>20657</v>
       </c>
       <c r="CE199" s="1">
@@ -43615,55 +43375,55 @@
         <v>1638</v>
       </c>
       <c r="CG199" s="3">
-        <f>SUM(BR199-BR198)</f>
+        <f t="shared" si="67"/>
         <v>6833</v>
       </c>
       <c r="CJ199" s="1">
         <v>43943</v>
       </c>
       <c r="CK199" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1391</v>
       </c>
       <c r="CL199" s="3">
-        <f>SUM(BS199-BS198)</f>
+        <f t="shared" si="69"/>
         <v>5090</v>
       </c>
       <c r="CO199" s="1">
         <v>43943</v>
       </c>
       <c r="CP199" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>623</v>
       </c>
       <c r="CQ199" s="3">
-        <f>SUM(BT199-BT198)</f>
+        <f t="shared" si="75"/>
         <v>999</v>
       </c>
       <c r="CT199" s="1">
         <v>43943</v>
       </c>
       <c r="CU199" s="3">
-        <f t="shared" ref="CU199:CU210" si="74">SUM(AQ23+AR23+AS23+AT23+AU23)</f>
+        <f t="shared" ref="CU199:CU210" si="82">SUM(AQ23+AR23+AS23+AT23+AU23)</f>
         <v>708</v>
       </c>
       <c r="CV199" s="3">
-        <f>SUM(BU199-BU198)</f>
+        <f t="shared" ref="CV199:CV210" si="83">SUM(BU199-BU198)</f>
         <v>5105</v>
       </c>
       <c r="CY199" s="1">
         <v>43943</v>
       </c>
       <c r="CZ199" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>1646</v>
       </c>
       <c r="DA199" s="3">
-        <f>SUM(BV199-BV198)</f>
+        <f t="shared" si="79"/>
         <v>173397</v>
       </c>
     </row>
-    <row r="200" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:105">
       <c r="A200" s="3">
         <v>57748</v>
       </c>
@@ -43767,11 +43527,11 @@
         <v>43944</v>
       </c>
       <c r="CA200" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>4137</v>
       </c>
       <c r="CB200" s="3">
-        <f>SUM(BQ200-BQ199)</f>
+        <f t="shared" si="81"/>
         <v>25938</v>
       </c>
       <c r="CE200" s="1">
@@ -43782,55 +43542,55 @@
         <v>2326</v>
       </c>
       <c r="CG200" s="3">
-        <f>SUM(BR200-BR199)</f>
+        <f t="shared" si="67"/>
         <v>8489</v>
       </c>
       <c r="CJ200" s="1">
         <v>43944</v>
       </c>
       <c r="CK200" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>2416</v>
       </c>
       <c r="CL200" s="3">
-        <f>SUM(BS200-BS199)</f>
+        <f t="shared" si="69"/>
         <v>14614</v>
       </c>
       <c r="CO200" s="1">
         <v>43944</v>
       </c>
       <c r="CP200" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>911</v>
       </c>
       <c r="CQ200" s="3">
-        <f>SUM(BT200-BT199)</f>
+        <f t="shared" si="75"/>
         <v>10096</v>
       </c>
       <c r="CT200" s="1">
         <v>43944</v>
       </c>
       <c r="CU200" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>827</v>
       </c>
       <c r="CV200" s="3">
-        <f>SUM(BU200-BU199)</f>
+        <f t="shared" si="83"/>
         <v>7158</v>
       </c>
       <c r="CY200" s="1">
         <v>43944</v>
       </c>
       <c r="CZ200" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>1496</v>
       </c>
       <c r="DA200" s="3">
-        <f>SUM(BV200-BV199)</f>
+        <f t="shared" si="79"/>
         <v>12076</v>
       </c>
     </row>
-    <row r="201" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:105">
       <c r="A201" s="3">
         <v>58084</v>
       </c>
@@ -43919,11 +43679,11 @@
         <v>43945</v>
       </c>
       <c r="CA201" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>5499</v>
       </c>
       <c r="CB201" s="3">
-        <f>SUM(BQ201-BQ200)</f>
+        <f t="shared" si="81"/>
         <v>34736</v>
       </c>
       <c r="CE201" s="1">
@@ -43934,55 +43694,55 @@
         <v>1669</v>
       </c>
       <c r="CG201" s="3">
-        <f>SUM(BR201-BR200)</f>
+        <f t="shared" si="67"/>
         <v>5814</v>
       </c>
       <c r="CJ201" s="1">
         <v>43945</v>
       </c>
       <c r="CK201" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>3431</v>
       </c>
       <c r="CL201" s="3">
-        <f>SUM(BS201-BS200)</f>
+        <f t="shared" si="69"/>
         <v>20137</v>
       </c>
       <c r="CO201" s="1">
         <v>43945</v>
       </c>
       <c r="CP201" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>804</v>
       </c>
       <c r="CQ201" s="3">
-        <f>SUM(BT201-BT200)</f>
+        <f t="shared" si="75"/>
         <v>7975</v>
       </c>
       <c r="CT201" s="1">
         <v>43945</v>
       </c>
       <c r="CU201" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>887</v>
       </c>
       <c r="CV201" s="3">
-        <f>SUM(BU201-BU200)</f>
+        <f t="shared" si="83"/>
         <v>7029</v>
       </c>
       <c r="CY201" s="1">
         <v>43945</v>
       </c>
       <c r="CZ201" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>1605</v>
       </c>
       <c r="DA201" s="3">
-        <f>SUM(BV201-BV200)</f>
+        <f t="shared" si="79"/>
         <v>11862</v>
       </c>
     </row>
-    <row r="202" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:105">
       <c r="A202" s="3">
         <v>58516</v>
       </c>
@@ -44072,11 +43832,11 @@
         <v>43946</v>
       </c>
       <c r="CA202" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>5763</v>
       </c>
       <c r="CB202" s="3">
-        <f>SUM(BQ202-BQ201)</f>
+        <f t="shared" si="81"/>
         <v>46912</v>
       </c>
       <c r="CE202" s="1">
@@ -44087,55 +43847,55 @@
         <v>1903</v>
       </c>
       <c r="CG202" s="3">
-        <f>SUM(BR202-BR201)</f>
+        <f t="shared" si="67"/>
         <v>7724</v>
       </c>
       <c r="CJ202" s="1">
         <v>43946</v>
       </c>
       <c r="CK202" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1863</v>
       </c>
       <c r="CL202" s="3">
-        <f>SUM(BS202-BS201)</f>
+        <f t="shared" si="69"/>
         <v>11632</v>
       </c>
       <c r="CO202" s="1">
         <v>43946</v>
       </c>
       <c r="CP202" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>381</v>
       </c>
       <c r="CQ202" s="3">
-        <f>SUM(BT202-BT201)</f>
+        <f t="shared" si="75"/>
         <v>7748</v>
       </c>
       <c r="CT202" s="1">
         <v>43946</v>
       </c>
       <c r="CU202" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>734</v>
       </c>
       <c r="CV202" s="3">
-        <f>SUM(BU202-BU201)</f>
+        <f t="shared" si="83"/>
         <v>6792</v>
       </c>
       <c r="CY202" s="1">
         <v>43946</v>
       </c>
       <c r="CZ202" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>926</v>
       </c>
       <c r="DA202" s="3">
-        <f>SUM(BV202-BV201)</f>
+        <f t="shared" si="79"/>
         <v>20049</v>
       </c>
     </row>
-    <row r="203" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:105">
       <c r="A203" s="3">
         <v>58841</v>
       </c>
@@ -44223,11 +43983,11 @@
         <v>43947</v>
       </c>
       <c r="CA203" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>3913</v>
       </c>
       <c r="CB203" s="3">
-        <f>SUM(BQ203-BQ202)</f>
+        <f t="shared" si="81"/>
         <v>27782</v>
       </c>
       <c r="CE203" s="1">
@@ -44238,18 +43998,18 @@
         <v>1640</v>
       </c>
       <c r="CG203" s="3">
-        <f>SUM(BR203-BR202)</f>
+        <f t="shared" si="67"/>
         <v>9458</v>
       </c>
       <c r="CJ203" s="1">
         <v>43947</v>
       </c>
       <c r="CK203" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1225</v>
       </c>
       <c r="CL203" s="3">
-        <f>SUM(BS203-BS202)</f>
+        <f t="shared" si="69"/>
         <v>9255</v>
       </c>
       <c r="CO203" s="1">
@@ -44261,26 +44021,26 @@
         <v>43947</v>
       </c>
       <c r="CU203" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>620</v>
       </c>
       <c r="CV203" s="3">
-        <f>SUM(BU203-BU202)</f>
+        <f t="shared" si="83"/>
         <v>5658</v>
       </c>
       <c r="CY203" s="1">
         <v>43947</v>
       </c>
       <c r="CZ203" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>903</v>
       </c>
       <c r="DA203" s="3">
-        <f>SUM(BV203-BV202)</f>
+        <f t="shared" si="79"/>
         <v>27425</v>
       </c>
     </row>
-    <row r="204" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:105">
       <c r="A204" s="3">
         <v>59132</v>
       </c>
@@ -44368,11 +44128,11 @@
         <v>43948</v>
       </c>
       <c r="CA204" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>2521</v>
       </c>
       <c r="CB204" s="3">
-        <f>SUM(BQ204-BQ203)</f>
+        <f t="shared" si="81"/>
         <v>20745</v>
       </c>
       <c r="CE204" s="1">
@@ -44383,18 +44143,18 @@
         <v>910</v>
       </c>
       <c r="CG204" s="3">
-        <f>SUM(BR204-BR203)</f>
+        <f t="shared" si="67"/>
         <v>4631</v>
       </c>
       <c r="CJ204" s="1">
         <v>43948</v>
       </c>
       <c r="CK204" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1146</v>
       </c>
       <c r="CL204" s="3">
-        <f>SUM(BS204-BS203)</f>
+        <f t="shared" si="69"/>
         <v>8787</v>
       </c>
       <c r="CO204" s="1">
@@ -44406,11 +44166,11 @@
         <v>43948</v>
       </c>
       <c r="CU204" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>443</v>
       </c>
       <c r="CV204" s="3">
-        <f>SUM(BU204-BU203)</f>
+        <f t="shared" si="83"/>
         <v>4829</v>
       </c>
       <c r="CY204" s="1">
@@ -44419,7 +44179,7 @@
       <c r="CZ204" s="3"/>
       <c r="DA204" s="3"/>
     </row>
-    <row r="205" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:105">
       <c r="A205" s="3">
         <v>59324</v>
       </c>
@@ -44507,11 +44267,11 @@
         <v>43949</v>
       </c>
       <c r="CA205" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>2015</v>
       </c>
       <c r="CB205" s="3">
-        <f>SUM(BQ205-BQ204)</f>
+        <f t="shared" si="81"/>
         <v>18899</v>
       </c>
       <c r="CE205" s="1">
@@ -44522,18 +44282,18 @@
         <v>1257</v>
       </c>
       <c r="CG205" s="3">
-        <f>SUM(BR205-BR204)</f>
+        <f t="shared" si="67"/>
         <v>6584</v>
       </c>
       <c r="CJ205" s="1">
         <v>43949</v>
       </c>
       <c r="CK205" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1409</v>
       </c>
       <c r="CL205" s="3">
-        <f>SUM(BS205-BS204)</f>
+        <f t="shared" si="69"/>
         <v>9613</v>
       </c>
       <c r="CO205" s="1">
@@ -44545,11 +44305,11 @@
         <v>43949</v>
       </c>
       <c r="CU205" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>699</v>
       </c>
       <c r="CV205" s="3">
-        <f>SUM(BU205-BU204)</f>
+        <f t="shared" si="83"/>
         <v>5666</v>
       </c>
       <c r="CY205" s="1">
@@ -44558,7 +44318,7 @@
       <c r="CZ205" s="3"/>
       <c r="DA205" s="3"/>
     </row>
-    <row r="206" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:105">
       <c r="A206" s="3">
         <v>59508</v>
       </c>
@@ -44640,11 +44400,11 @@
         <v>43950</v>
       </c>
       <c r="CA206" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>3028</v>
       </c>
       <c r="CB206" s="3">
-        <f>SUM(BQ206-BQ205)</f>
+        <f t="shared" si="81"/>
         <v>27487</v>
       </c>
       <c r="CE206" s="1">
@@ -44655,18 +44415,18 @@
         <v>1359</v>
       </c>
       <c r="CG206" s="3">
-        <f>SUM(BR206-BR205)</f>
+        <f t="shared" si="67"/>
         <v>6959</v>
       </c>
       <c r="CJ206" s="1">
         <v>43950</v>
       </c>
       <c r="CK206" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1623</v>
       </c>
       <c r="CL206" s="3">
-        <f>SUM(BS206-BS205)</f>
+        <f t="shared" si="69"/>
         <v>11118</v>
       </c>
       <c r="CO206" s="1">
@@ -44684,26 +44444,26 @@
         <v>43950</v>
       </c>
       <c r="CU206" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>637</v>
       </c>
       <c r="CV206" s="3">
-        <f>SUM(BU206-BU205)</f>
+        <f t="shared" si="83"/>
         <v>5795</v>
       </c>
       <c r="CY206" s="1">
         <v>43950</v>
       </c>
       <c r="CZ206" s="3">
-        <f t="shared" ref="CZ206:CZ236" si="75">SUM(BA30+BB30+BC30+BD30+BE30)</f>
+        <f t="shared" ref="CZ206:CZ236" si="84">SUM(BA30+BB30+BC30+BD30+BE30)</f>
         <v>1819</v>
       </c>
       <c r="DA206" s="3">
-        <f>SUM(BV206-BV205)</f>
+        <f t="shared" ref="DA206:DA236" si="85">SUM(BV206-BV205)</f>
         <v>22198</v>
       </c>
     </row>
-    <row r="207" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:105">
       <c r="A207" s="3">
         <v>59752</v>
       </c>
@@ -44779,11 +44539,11 @@
         <v>43951</v>
       </c>
       <c r="CA207" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>2918</v>
       </c>
       <c r="CB207" s="3">
-        <f>SUM(BQ207-BQ206)</f>
+        <f t="shared" si="81"/>
         <v>28155</v>
       </c>
       <c r="CE207" s="1">
@@ -44794,18 +44554,18 @@
         <v>1183</v>
       </c>
       <c r="CG207" s="3">
-        <f>SUM(BR207-BR206)</f>
+        <f t="shared" si="67"/>
         <v>6600</v>
       </c>
       <c r="CJ207" s="1">
         <v>43951</v>
       </c>
       <c r="CK207" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1499</v>
       </c>
       <c r="CL207" s="3">
-        <f>SUM(BS207-BS206)</f>
+        <f t="shared" si="69"/>
         <v>10029</v>
       </c>
       <c r="CO207" s="1">
@@ -44823,26 +44583,26 @@
         <v>43951</v>
       </c>
       <c r="CU207" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>757</v>
       </c>
       <c r="CV207" s="3">
-        <f>SUM(BU207-BU206)</f>
+        <f t="shared" si="83"/>
         <v>6482</v>
       </c>
       <c r="CY207" s="1">
         <v>43951</v>
       </c>
       <c r="CZ207" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1172</v>
       </c>
       <c r="DA207" s="3">
-        <f>SUM(BV207-BV206)</f>
+        <f t="shared" si="85"/>
         <v>29648</v>
       </c>
     </row>
-    <row r="208" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:105">
       <c r="A208" s="3">
         <v>60025</v>
       </c>
@@ -44918,11 +44678,11 @@
         <v>43952</v>
       </c>
       <c r="CA208" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>2511</v>
       </c>
       <c r="CB208" s="3">
-        <f>SUM(BQ208-BQ207)</f>
+        <f t="shared" si="81"/>
         <v>26802</v>
       </c>
       <c r="CE208" s="1">
@@ -44933,18 +44693,18 @@
         <v>1330</v>
       </c>
       <c r="CG208" s="3">
-        <f>SUM(BR208-BR207)</f>
+        <f t="shared" si="67"/>
         <v>8627</v>
       </c>
       <c r="CJ208" s="1">
         <v>43952</v>
       </c>
       <c r="CK208" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1565</v>
       </c>
       <c r="CL208" s="3">
-        <f>SUM(BS208-BS207)</f>
+        <f t="shared" si="69"/>
         <v>13989</v>
       </c>
       <c r="CO208" s="1">
@@ -44962,26 +44722,26 @@
         <v>43952</v>
       </c>
       <c r="CU208" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>602</v>
       </c>
       <c r="CV208" s="3">
-        <f>SUM(BU208-BU207)</f>
+        <f t="shared" si="83"/>
         <v>6083</v>
       </c>
       <c r="CY208" s="1">
         <v>43952</v>
       </c>
       <c r="CZ208" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1315</v>
       </c>
       <c r="DA208" s="3">
-        <f>SUM(BV208-BV207)</f>
+        <f t="shared" si="85"/>
         <v>30063</v>
       </c>
     </row>
-    <row r="209" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:105">
       <c r="A209" s="3">
         <v>60236</v>
       </c>
@@ -45057,11 +44817,11 @@
         <v>43953</v>
       </c>
       <c r="CA209" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>2985</v>
       </c>
       <c r="CB209" s="3">
-        <f>SUM(BQ209-BQ208)</f>
+        <f t="shared" si="81"/>
         <v>31579</v>
       </c>
       <c r="CE209" s="1">
@@ -45072,18 +44832,18 @@
         <v>1136</v>
       </c>
       <c r="CG209" s="3">
-        <f>SUM(BR209-BR208)</f>
+        <f t="shared" si="67"/>
         <v>5767</v>
       </c>
       <c r="CJ209" s="1">
         <v>43953</v>
       </c>
       <c r="CK209" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1550</v>
       </c>
       <c r="CL209" s="3">
-        <f>SUM(BS209-BS208)</f>
+        <f t="shared" si="69"/>
         <v>9358</v>
       </c>
       <c r="CO209" s="1">
@@ -45101,26 +44861,26 @@
         <v>43953</v>
       </c>
       <c r="CU209" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>744</v>
       </c>
       <c r="CV209" s="3">
-        <f>SUM(BU209-BU208)</f>
+        <f t="shared" si="83"/>
         <v>7928</v>
       </c>
       <c r="CY209" s="1">
         <v>43953</v>
       </c>
       <c r="CZ209" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1025</v>
       </c>
       <c r="DA209" s="3">
-        <f>SUM(BV209-BV208)</f>
+        <f t="shared" si="85"/>
         <v>30703</v>
       </c>
     </row>
-    <row r="210" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:105">
       <c r="A210" s="3">
         <v>60422</v>
       </c>
@@ -45181,11 +44941,11 @@
         <v>43954</v>
       </c>
       <c r="CA210" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>2269</v>
       </c>
       <c r="CB210" s="3">
-        <f>SUM(BQ210-BQ209)</f>
+        <f t="shared" si="81"/>
         <v>26894</v>
       </c>
       <c r="CE210" s="1">
@@ -45196,18 +44956,18 @@
         <v>1363</v>
       </c>
       <c r="CG210" s="3">
-        <f>SUM(BR210-BR209)</f>
+        <f t="shared" si="67"/>
         <v>12754</v>
       </c>
       <c r="CJ210" s="1">
         <v>43954</v>
       </c>
       <c r="CK210" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>925</v>
       </c>
       <c r="CL210" s="3">
-        <f>SUM(BS210-BS209)</f>
+        <f t="shared" si="69"/>
         <v>15652</v>
       </c>
       <c r="CO210" s="1">
@@ -45225,26 +44985,26 @@
         <v>43954</v>
       </c>
       <c r="CU210" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>514</v>
       </c>
       <c r="CV210" s="3">
-        <f>SUM(BU210-BU209)</f>
+        <f t="shared" si="83"/>
         <v>5265</v>
       </c>
       <c r="CY210" s="1">
         <v>43954</v>
       </c>
       <c r="CZ210" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>992</v>
       </c>
       <c r="DA210" s="3">
-        <f>SUM(BV210-BV209)</f>
+        <f t="shared" si="85"/>
         <v>32123</v>
       </c>
     </row>
-    <row r="211" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:105">
       <c r="A211" s="3">
         <v>60636</v>
       </c>
@@ -45305,11 +45065,11 @@
         <v>43955</v>
       </c>
       <c r="CA211" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>1508</v>
       </c>
       <c r="CB211" s="3">
-        <f>SUM(BQ211-BQ210)</f>
+        <f t="shared" si="81"/>
         <v>21399</v>
       </c>
       <c r="CE211" s="1">
@@ -45320,18 +45080,18 @@
         <v>573</v>
       </c>
       <c r="CG211" s="3">
-        <f>SUM(BR211-BR210)</f>
+        <f t="shared" si="67"/>
         <v>2154</v>
       </c>
       <c r="CJ211" s="1">
         <v>43955</v>
       </c>
       <c r="CK211" s="3">
-        <f t="shared" ref="CK211:CK242" si="76">SUM(W35+X35+Y35+Z35+AA35)</f>
+        <f t="shared" ref="CK211:CK237" si="86">SUM(W35+X35+Y35+Z35+AA35)</f>
         <v>1067</v>
       </c>
       <c r="CL211" s="3">
-        <f>SUM(BS211-BS210)</f>
+        <f t="shared" ref="CL211:CL237" si="87">SUM(BS211-BS210)</f>
         <v>9622</v>
       </c>
       <c r="CO211" s="1">
@@ -45348,15 +45108,15 @@
         <v>43955</v>
       </c>
       <c r="CZ211" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>890</v>
       </c>
       <c r="DA211" s="3">
-        <f>SUM(BV211-BV210)</f>
+        <f t="shared" si="85"/>
         <v>32028</v>
       </c>
     </row>
-    <row r="212" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:105">
       <c r="A212" s="3">
         <v>60828</v>
       </c>
@@ -45418,11 +45178,11 @@
         <v>43956</v>
       </c>
       <c r="CA212" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>1392</v>
       </c>
       <c r="CB212" s="3">
-        <f>SUM(BQ212-BQ211)</f>
+        <f t="shared" si="81"/>
         <v>21589</v>
       </c>
       <c r="CE212" s="1">
@@ -45433,18 +45193,18 @@
         <v>1062</v>
       </c>
       <c r="CG212" s="3">
-        <f>SUM(BR212-BR211)</f>
+        <f t="shared" si="67"/>
         <v>10403</v>
       </c>
       <c r="CJ212" s="1">
         <v>43956</v>
       </c>
       <c r="CK212" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>871</v>
       </c>
       <c r="CL212" s="3">
-        <f>SUM(BS212-BS211)</f>
+        <f t="shared" si="87"/>
         <v>9081</v>
       </c>
       <c r="CO212" s="1">
@@ -45461,15 +45221,15 @@
         <v>43956</v>
       </c>
       <c r="CZ212" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1783</v>
       </c>
       <c r="DA212" s="3">
-        <f>SUM(BV212-BV211)</f>
+        <f t="shared" si="85"/>
         <v>29134</v>
       </c>
     </row>
-    <row r="213" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:105">
       <c r="BQ213" s="3">
         <f>SUM(323978+731943)</f>
         <v>1055921</v>
@@ -45506,29 +45266,29 @@
         <v>544</v>
       </c>
       <c r="CG213" s="3">
-        <f>SUM(BR213-BR212)</f>
+        <f t="shared" si="67"/>
         <v>1297</v>
       </c>
       <c r="CJ213" s="1">
         <v>43957</v>
       </c>
       <c r="CK213" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>1554</v>
       </c>
       <c r="CL213" s="3">
-        <f>SUM(BS213-BS212)</f>
+        <f t="shared" si="87"/>
         <v>6290</v>
       </c>
       <c r="CO213" s="1">
         <v>43957</v>
       </c>
       <c r="CP213" s="3">
-        <f t="shared" ref="CP213:CP237" si="77">SUM(AG37+AH37+AI37+AJ37+AK37)</f>
+        <f t="shared" ref="CP213:CP237" si="88">SUM(AG37+AH37+AI37+AJ37+AK37)</f>
         <v>322</v>
       </c>
       <c r="CQ213" s="3">
-        <f>SUM(BT213-BT212)</f>
+        <f t="shared" ref="CQ213:CQ229" si="89">SUM(BT213-BT212)</f>
         <v>10395</v>
       </c>
       <c r="CT213" s="1">
@@ -45540,15 +45300,15 @@
         <v>43957</v>
       </c>
       <c r="CZ213" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1531</v>
       </c>
       <c r="DA213" s="3">
-        <f>SUM(BV213-BV212)</f>
+        <f t="shared" si="85"/>
         <v>33838</v>
       </c>
     </row>
-    <row r="214" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:105">
       <c r="BQ214" s="3">
         <v>1089916</v>
       </c>
@@ -45583,29 +45343,29 @@
         <v>729</v>
       </c>
       <c r="CG214" s="3">
-        <f>SUM(BR214-BR213)</f>
+        <f t="shared" si="67"/>
         <v>3738</v>
       </c>
       <c r="CJ214" s="1">
         <v>43958</v>
       </c>
       <c r="CK214" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>1195</v>
       </c>
       <c r="CL214" s="3">
-        <f>SUM(BS214-BS213)</f>
+        <f t="shared" si="87"/>
         <v>11993</v>
       </c>
       <c r="CO214" s="1">
         <v>43958</v>
       </c>
       <c r="CP214" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>223</v>
       </c>
       <c r="CQ214" s="3">
-        <f>SUM(BT214-BT213)</f>
+        <f t="shared" si="89"/>
         <v>13831</v>
       </c>
       <c r="CT214" s="1">
@@ -45617,15 +45377,15 @@
         <v>43958</v>
       </c>
       <c r="CZ214" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1178</v>
       </c>
       <c r="DA214" s="3">
-        <f>SUM(BV214-BV213)</f>
+        <f t="shared" si="85"/>
         <v>32398</v>
       </c>
     </row>
-    <row r="215" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:105">
       <c r="BQ215" s="3">
         <v>1121543</v>
       </c>
@@ -45666,55 +45426,55 @@
         <v>710</v>
       </c>
       <c r="CG215" s="3">
-        <f>SUM(BR215-BR214)</f>
+        <f t="shared" si="67"/>
         <v>6101</v>
       </c>
       <c r="CJ215" s="1">
         <v>43959</v>
       </c>
       <c r="CK215" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>1220</v>
       </c>
       <c r="CL215" s="3">
-        <f>SUM(BS215-BS214)</f>
+        <f t="shared" si="87"/>
         <v>14400</v>
       </c>
       <c r="CO215" s="1">
         <v>43959</v>
       </c>
       <c r="CP215" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>312</v>
       </c>
       <c r="CQ215" s="3">
-        <f>SUM(BT215-BT214)</f>
+        <f t="shared" si="89"/>
         <v>13191</v>
       </c>
       <c r="CT215" s="1">
         <v>43959</v>
       </c>
       <c r="CU215" s="3">
-        <f t="shared" ref="CU215:CU237" si="78">SUM(AQ39+AR39+AS39+AT39+AU39)</f>
+        <f t="shared" ref="CU215:CU237" si="90">SUM(AQ39+AR39+AS39+AT39+AU39)</f>
         <v>816</v>
       </c>
       <c r="CV215" s="3">
-        <f>SUM(BU215-BU214)</f>
+        <f t="shared" ref="CV215:CV237" si="91">SUM(BU215-BU214)</f>
         <v>7771</v>
       </c>
       <c r="CY215" s="1">
         <v>43959</v>
       </c>
       <c r="CZ215" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1226</v>
       </c>
       <c r="DA215" s="3">
-        <f>SUM(BV215-BV214)</f>
+        <f t="shared" si="85"/>
         <v>37298</v>
       </c>
     </row>
-    <row r="216" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:105">
       <c r="BQ216" s="3">
         <v>1153768</v>
       </c>
@@ -45756,48 +45516,48 @@
         <v>43960</v>
       </c>
       <c r="CK216" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>971</v>
       </c>
       <c r="CL216" s="3">
-        <f>SUM(BS216-BS215)</f>
+        <f t="shared" si="87"/>
         <v>10505</v>
       </c>
       <c r="CO216" s="1">
         <v>43960</v>
       </c>
       <c r="CP216" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>247</v>
       </c>
       <c r="CQ216" s="3">
-        <f>SUM(BT216-BT215)</f>
+        <f t="shared" si="89"/>
         <v>13233</v>
       </c>
       <c r="CT216" s="1">
         <v>43960</v>
       </c>
       <c r="CU216" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>584</v>
       </c>
       <c r="CV216" s="3">
-        <f>SUM(BU216-BU215)</f>
+        <f t="shared" si="91"/>
         <v>6548</v>
       </c>
       <c r="CY216" s="1">
         <v>43960</v>
       </c>
       <c r="CZ216" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1367</v>
       </c>
       <c r="DA216" s="3">
-        <f>SUM(BV216-BV215)</f>
+        <f t="shared" si="85"/>
         <v>43094</v>
       </c>
     </row>
-    <row r="217" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:105">
       <c r="BQ217" s="3">
         <v>1182998</v>
       </c>
@@ -45839,48 +45599,48 @@
         <v>43961</v>
       </c>
       <c r="CK217" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>781</v>
       </c>
       <c r="CL217" s="3">
-        <f>SUM(BS217-BS216)</f>
+        <f t="shared" si="87"/>
         <v>11852</v>
       </c>
       <c r="CO217" s="1">
         <v>43961</v>
       </c>
       <c r="CP217" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>196</v>
       </c>
       <c r="CQ217" s="3">
-        <f>SUM(BT217-BT216)</f>
+        <f t="shared" si="89"/>
         <v>12192</v>
       </c>
       <c r="CT217" s="1">
         <v>43961</v>
       </c>
       <c r="CU217" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>716</v>
       </c>
       <c r="CV217" s="3">
-        <f>SUM(BU217-BU216)</f>
+        <f t="shared" si="91"/>
         <v>7276</v>
       </c>
       <c r="CY217" s="1">
         <v>43961</v>
       </c>
       <c r="CZ217" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>808</v>
       </c>
       <c r="DA217" s="3">
-        <f>SUM(BV217-BV216)</f>
+        <f t="shared" si="85"/>
         <v>36233</v>
       </c>
     </row>
-    <row r="218" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:105">
       <c r="BQ218" s="3">
         <v>1204650</v>
       </c>
@@ -45922,48 +45682,48 @@
         <v>43962</v>
       </c>
       <c r="CK218" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>468</v>
       </c>
       <c r="CL218" s="3">
-        <f>SUM(BS218-BS217)</f>
+        <f t="shared" si="87"/>
         <v>6339</v>
       </c>
       <c r="CO218" s="1">
         <v>43962</v>
       </c>
       <c r="CP218" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>174</v>
       </c>
       <c r="CQ218" s="3">
-        <f>SUM(BT218-BT217)</f>
+        <f t="shared" si="89"/>
         <v>13270</v>
       </c>
       <c r="CT218" s="1">
         <v>43962</v>
       </c>
       <c r="CU218" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>291</v>
       </c>
       <c r="CV218" s="3">
-        <f>SUM(BU218-BU217)</f>
+        <f t="shared" si="91"/>
         <v>4475</v>
       </c>
       <c r="CY218" s="1">
         <v>43962</v>
       </c>
       <c r="CZ218" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>919</v>
       </c>
       <c r="DA218" s="3">
-        <f>SUM(BV218-BV217)</f>
+        <f t="shared" si="85"/>
         <v>41473</v>
       </c>
     </row>
-    <row r="219" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:105">
       <c r="BQ219" s="3">
         <v>1225113</v>
       </c>
@@ -46005,48 +45765,48 @@
         <v>43963</v>
       </c>
       <c r="CK219" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>600</v>
       </c>
       <c r="CL219" s="3">
-        <f>SUM(BS219-BS218)</f>
+        <f t="shared" si="87"/>
         <v>6768</v>
       </c>
       <c r="CO219" s="1">
         <v>43963</v>
       </c>
       <c r="CP219" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>176</v>
       </c>
       <c r="CQ219" s="3">
-        <f>SUM(BT219-BT218)</f>
+        <f t="shared" si="89"/>
         <v>8942</v>
       </c>
       <c r="CT219" s="1">
         <v>43963</v>
       </c>
       <c r="CU219" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>461</v>
       </c>
       <c r="CV219" s="3">
-        <f>SUM(BU219-BU218)</f>
+        <f t="shared" si="91"/>
         <v>7122</v>
       </c>
       <c r="CY219" s="1">
         <v>43963</v>
       </c>
       <c r="CZ219" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1316</v>
       </c>
       <c r="DA219" s="3">
-        <f>SUM(BV219-BV218)</f>
+        <f t="shared" si="85"/>
         <v>32222</v>
       </c>
     </row>
-    <row r="220" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:105">
       <c r="BQ220" s="3">
         <v>1258907</v>
       </c>
@@ -46072,11 +45832,11 @@
         <v>43964</v>
       </c>
       <c r="CA220" s="3">
-        <f t="shared" ref="CA220:CA237" si="79">SUM(C44+D44+E44+F44+G44)</f>
+        <f t="shared" ref="CA220:CA237" si="92">SUM(C44+D44+E44+F44+G44)</f>
         <v>1325</v>
       </c>
       <c r="CB220" s="3">
-        <f>SUM(BQ220-BQ219)</f>
+        <f t="shared" ref="CB220:CB237" si="93">SUM(BQ220-BQ219)</f>
         <v>33794</v>
       </c>
       <c r="CE220" s="1">
@@ -46094,48 +45854,48 @@
         <v>43964</v>
       </c>
       <c r="CK220" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>877</v>
       </c>
       <c r="CL220" s="3">
-        <f>SUM(BS220-BS219)</f>
+        <f t="shared" si="87"/>
         <v>8536</v>
       </c>
       <c r="CO220" s="1">
         <v>43964</v>
       </c>
       <c r="CP220" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>207</v>
       </c>
       <c r="CQ220" s="3">
-        <f>SUM(BT220-BT219)</f>
+        <f t="shared" si="89"/>
         <v>370</v>
       </c>
       <c r="CT220" s="1">
         <v>43964</v>
       </c>
       <c r="CU220" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>366</v>
       </c>
       <c r="CV220" s="3">
-        <f>SUM(BU220-BU219)</f>
+        <f t="shared" si="91"/>
         <v>6889</v>
       </c>
       <c r="CY220" s="1">
         <v>43964</v>
       </c>
       <c r="CZ220" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1670</v>
       </c>
       <c r="DA220" s="3">
-        <f>SUM(BV220-BV219)</f>
+        <f t="shared" si="85"/>
         <v>39059</v>
       </c>
     </row>
-    <row r="221" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:105">
       <c r="BQ221" s="3">
         <v>1298757</v>
       </c>
@@ -46161,11 +45921,11 @@
         <v>43965</v>
       </c>
       <c r="CA221" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>1462</v>
       </c>
       <c r="CB221" s="3">
-        <f>SUM(BQ221-BQ220)</f>
+        <f t="shared" si="93"/>
         <v>39850</v>
       </c>
       <c r="CE221" s="1">
@@ -46177,48 +45937,48 @@
         <v>43965</v>
       </c>
       <c r="CK221" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>1164</v>
       </c>
       <c r="CL221" s="3">
-        <f>SUM(BS221-BS220)</f>
+        <f t="shared" si="87"/>
         <v>14329</v>
       </c>
       <c r="CO221" s="1">
         <v>43965</v>
       </c>
       <c r="CP221" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>648</v>
       </c>
       <c r="CQ221" s="3">
-        <f>SUM(BT221-BT220)</f>
+        <f t="shared" si="89"/>
         <v>27623</v>
       </c>
       <c r="CT221" s="1">
         <v>43965</v>
       </c>
       <c r="CU221" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>518</v>
       </c>
       <c r="CV221" s="3">
-        <f>SUM(BU221-BU220)</f>
+        <f t="shared" si="91"/>
         <v>8326</v>
       </c>
       <c r="CY221" s="1">
         <v>43965</v>
       </c>
       <c r="CZ221" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1249</v>
       </c>
       <c r="DA221" s="3">
-        <f>SUM(BV221-BV220)</f>
+        <f t="shared" si="85"/>
         <v>29255</v>
       </c>
     </row>
-    <row r="222" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:105">
       <c r="BQ222" s="3">
         <v>1338048</v>
       </c>
@@ -46244,11 +46004,11 @@
         <v>43966</v>
       </c>
       <c r="CA222" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>1753</v>
       </c>
       <c r="CB222" s="3">
-        <f>SUM(BQ222-BQ221)</f>
+        <f t="shared" si="93"/>
         <v>39291</v>
       </c>
       <c r="CE222" s="1">
@@ -46260,48 +46020,48 @@
         <v>43966</v>
       </c>
       <c r="CK222" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>902</v>
       </c>
       <c r="CL222" s="3">
-        <f>SUM(BS222-BS221)</f>
+        <f t="shared" si="87"/>
         <v>11318</v>
       </c>
       <c r="CO222" s="1">
         <v>43966</v>
       </c>
       <c r="CP222" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>223</v>
       </c>
       <c r="CQ222" s="3">
-        <f>SUM(BT222-BT221)</f>
+        <f t="shared" si="89"/>
         <v>21613</v>
       </c>
       <c r="CT222" s="1">
         <v>43966</v>
       </c>
       <c r="CU222" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>563</v>
       </c>
       <c r="CV222" s="3">
-        <f>SUM(BU222-BU221)</f>
+        <f t="shared" si="91"/>
         <v>8637</v>
       </c>
       <c r="CY222" s="1">
         <v>43966</v>
       </c>
       <c r="CZ222" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1312</v>
       </c>
       <c r="DA222" s="3">
-        <f>SUM(BV222-BV221)</f>
+        <f t="shared" si="85"/>
         <v>45220</v>
       </c>
     </row>
-    <row r="223" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:105">
       <c r="BQ223" s="3">
         <v>1378717</v>
       </c>
@@ -46327,11 +46087,11 @@
         <v>43967</v>
       </c>
       <c r="CA223" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>1420</v>
       </c>
       <c r="CB223" s="3">
-        <f>SUM(BQ223-BQ222)</f>
+        <f t="shared" si="93"/>
         <v>40669</v>
       </c>
       <c r="CE223" s="1">
@@ -46349,48 +46109,48 @@
         <v>43967</v>
       </c>
       <c r="CK223" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>1095</v>
       </c>
       <c r="CL223" s="3">
-        <f>SUM(BS223-BS222)</f>
+        <f t="shared" si="87"/>
         <v>12410</v>
       </c>
       <c r="CO223" s="1">
         <v>43967</v>
       </c>
       <c r="CP223" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>208</v>
       </c>
       <c r="CQ223" s="3">
-        <f>SUM(BT223-BT222)</f>
+        <f t="shared" si="89"/>
         <v>425</v>
       </c>
       <c r="CT223" s="1">
         <v>43967</v>
       </c>
       <c r="CU223" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>537</v>
       </c>
       <c r="CV223" s="3">
-        <f>SUM(BU223-BU222)</f>
+        <f t="shared" si="91"/>
         <v>8004</v>
       </c>
       <c r="CY223" s="1">
         <v>43967</v>
       </c>
       <c r="CZ223" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1451</v>
       </c>
       <c r="DA223" s="3">
-        <f>SUM(BV223-BV222)</f>
+        <f t="shared" si="85"/>
         <v>56117</v>
       </c>
     </row>
-    <row r="224" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:105">
       <c r="BQ224" s="3">
         <v>1413396</v>
       </c>
@@ -46415,11 +46175,11 @@
         <v>43968</v>
       </c>
       <c r="CA224" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>1086</v>
       </c>
       <c r="CB224" s="3">
-        <f>SUM(BQ224-BQ223)</f>
+        <f t="shared" si="93"/>
         <v>34679</v>
       </c>
       <c r="CE224" s="1">
@@ -46437,48 +46197,48 @@
         <v>43968</v>
       </c>
       <c r="CK224" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>774</v>
       </c>
       <c r="CL224" s="3">
-        <f>SUM(BS224-BS223)</f>
+        <f t="shared" si="87"/>
         <v>12737</v>
       </c>
       <c r="CO224" s="1">
         <v>43968</v>
       </c>
       <c r="CP224" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>132</v>
       </c>
       <c r="CQ224" s="3">
-        <f>SUM(BT224-BT223)</f>
+        <f t="shared" si="89"/>
         <v>39037</v>
       </c>
       <c r="CT224" s="1">
         <v>43968</v>
       </c>
       <c r="CU224" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>311</v>
       </c>
       <c r="CV224" s="3">
-        <f>SUM(BU224-BU223)</f>
+        <f t="shared" si="91"/>
         <v>5068</v>
       </c>
       <c r="CY224" s="1">
         <v>43968</v>
       </c>
       <c r="CZ224" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1064</v>
       </c>
       <c r="DA224" s="3">
-        <f>SUM(BV224-BV223)</f>
+        <f t="shared" si="85"/>
         <v>57429</v>
       </c>
     </row>
-    <row r="225" spans="69:105" x14ac:dyDescent="0.2">
+    <row r="225" spans="69:105">
       <c r="BQ225" s="3">
         <v>1439557</v>
       </c>
@@ -46504,11 +46264,11 @@
         <v>43969</v>
       </c>
       <c r="CA225" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>711</v>
       </c>
       <c r="CB225" s="3">
-        <f>SUM(BQ225-BQ224)</f>
+        <f t="shared" si="93"/>
         <v>26161</v>
       </c>
       <c r="CE225" s="1">
@@ -46520,48 +46280,48 @@
         <v>43969</v>
       </c>
       <c r="CK225" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>773</v>
       </c>
       <c r="CL225" s="3">
-        <f>SUM(BS225-BS224)</f>
+        <f t="shared" si="87"/>
         <v>8373</v>
       </c>
       <c r="CO225" s="1">
         <v>43969</v>
       </c>
       <c r="CP225" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>88</v>
       </c>
       <c r="CQ225" s="3">
-        <f>SUM(BT225-BT224)</f>
+        <f t="shared" si="89"/>
         <v>13220</v>
       </c>
       <c r="CT225" s="1">
         <v>43969</v>
       </c>
       <c r="CU225" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>473</v>
       </c>
       <c r="CV225" s="3">
-        <f>SUM(BU225-BU224)</f>
+        <f t="shared" si="91"/>
         <v>7705</v>
       </c>
       <c r="CY225" s="1">
         <v>43969</v>
       </c>
       <c r="CZ225" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>795</v>
       </c>
       <c r="DA225" s="3">
-        <f>SUM(BV225-BV224)</f>
+        <f t="shared" si="85"/>
         <v>46644</v>
       </c>
     </row>
-    <row r="226" spans="69:105" x14ac:dyDescent="0.2">
+    <row r="226" spans="69:105">
       <c r="BQ226" s="3">
         <v>1467739</v>
       </c>
@@ -46587,11 +46347,11 @@
         <v>43970</v>
       </c>
       <c r="CA226" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>665</v>
       </c>
       <c r="CB226" s="3">
-        <f>SUM(BQ226-BQ225)</f>
+        <f t="shared" si="93"/>
         <v>28182</v>
       </c>
       <c r="CE226" s="1">
@@ -46603,48 +46363,48 @@
         <v>43970</v>
       </c>
       <c r="CK226" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>655</v>
       </c>
       <c r="CL226" s="3">
-        <f>SUM(BS226-BS225)</f>
+        <f t="shared" si="87"/>
         <v>7741</v>
       </c>
       <c r="CO226" s="1">
         <v>43970</v>
       </c>
       <c r="CP226" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>230</v>
       </c>
       <c r="CQ226" s="3">
-        <f>SUM(BT226-BT225)</f>
+        <f t="shared" si="89"/>
         <v>12726</v>
       </c>
       <c r="CT226" s="1">
         <v>43970</v>
       </c>
       <c r="CU226" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>301</v>
       </c>
       <c r="CV226" s="3">
-        <f>SUM(BU226-BU225)</f>
+        <f t="shared" si="91"/>
         <v>9091</v>
       </c>
       <c r="CY226" s="1">
         <v>43970</v>
       </c>
       <c r="CZ226" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1584</v>
       </c>
       <c r="DA226" s="3">
-        <f>SUM(BV226-BV225)</f>
+        <f t="shared" si="85"/>
         <v>40804</v>
       </c>
     </row>
-    <row r="227" spans="69:105" x14ac:dyDescent="0.2">
+    <row r="227" spans="69:105">
       <c r="BQ227" s="3">
         <v>1505836</v>
       </c>
@@ -46669,11 +46429,11 @@
         <v>43971</v>
       </c>
       <c r="CA227" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>757</v>
       </c>
       <c r="CB227" s="3">
-        <f>SUM(BQ227-BQ226)</f>
+        <f t="shared" si="93"/>
         <v>38097</v>
       </c>
       <c r="CE227" s="1">
@@ -46685,48 +46445,48 @@
         <v>43971</v>
       </c>
       <c r="CK227" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>753</v>
       </c>
       <c r="CL227" s="3">
-        <f>SUM(BS227-BS226)</f>
+        <f t="shared" si="87"/>
         <v>13013</v>
       </c>
       <c r="CO227" s="1">
         <v>43971</v>
       </c>
       <c r="CP227" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>238</v>
       </c>
       <c r="CQ227" s="3">
-        <f>SUM(BT227-BT226)</f>
+        <f t="shared" si="89"/>
         <v>14168</v>
       </c>
       <c r="CT227" s="1">
         <v>43971</v>
       </c>
       <c r="CU227" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>404</v>
       </c>
       <c r="CV227" s="3">
-        <f>SUM(BU227-BU226)</f>
+        <f t="shared" si="91"/>
         <v>7956</v>
       </c>
       <c r="CY227" s="1">
         <v>43971</v>
       </c>
       <c r="CZ227" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1630</v>
       </c>
       <c r="DA227" s="3">
-        <f>SUM(BV227-BV226)</f>
+        <f t="shared" si="85"/>
         <v>41007</v>
       </c>
     </row>
-    <row r="228" spans="69:105" x14ac:dyDescent="0.2">
+    <row r="228" spans="69:105">
       <c r="BQ228" s="3">
         <v>1555055</v>
       </c>
@@ -46751,11 +46511,11 @@
         <v>43972</v>
       </c>
       <c r="CA228" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>1215</v>
       </c>
       <c r="CB228" s="3">
-        <f>SUM(BQ228-BQ227)</f>
+        <f t="shared" si="93"/>
         <v>49219</v>
       </c>
       <c r="CE228" s="1">
@@ -46767,48 +46527,48 @@
         <v>43972</v>
       </c>
       <c r="CK228" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>793</v>
       </c>
       <c r="CL228" s="3">
-        <f>SUM(BS228-BS227)</f>
+        <f t="shared" si="87"/>
         <v>11533</v>
       </c>
       <c r="CO228" s="1">
         <v>43972</v>
       </c>
       <c r="CP228" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>157</v>
       </c>
       <c r="CQ228" s="3">
-        <f>SUM(BT228-BT227)</f>
+        <f t="shared" si="89"/>
         <v>17668</v>
       </c>
       <c r="CT228" s="1">
         <v>43972</v>
       </c>
       <c r="CU228" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>491</v>
       </c>
       <c r="CV228" s="3">
-        <f>SUM(BU228-BU227)</f>
+        <f t="shared" si="91"/>
         <v>11250</v>
       </c>
       <c r="CY228" s="1">
         <v>43972</v>
       </c>
       <c r="CZ228" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1582</v>
       </c>
       <c r="DA228" s="3">
-        <f>SUM(BV228-BV227)</f>
+        <f t="shared" si="85"/>
         <v>45646</v>
       </c>
     </row>
-    <row r="229" spans="69:105" x14ac:dyDescent="0.2">
+    <row r="229" spans="69:105">
       <c r="BQ229" s="3">
         <v>1600793</v>
       </c>
@@ -46833,11 +46593,11 @@
         <v>43973</v>
       </c>
       <c r="CA229" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>868</v>
       </c>
       <c r="CB229" s="3">
-        <f>SUM(BQ229-BQ228)</f>
+        <f t="shared" si="93"/>
         <v>45738</v>
       </c>
       <c r="CE229" s="1">
@@ -46855,48 +46615,48 @@
         <v>43973</v>
       </c>
       <c r="CK229" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>541</v>
       </c>
       <c r="CL229" s="3">
-        <f>SUM(BS229-BS228)</f>
+        <f t="shared" si="87"/>
         <v>10158</v>
       </c>
       <c r="CO229" s="1">
         <v>43973</v>
       </c>
       <c r="CP229" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>108</v>
       </c>
       <c r="CQ229" s="3">
-        <f>SUM(BT229-BT228)</f>
+        <f t="shared" si="89"/>
         <v>17044</v>
       </c>
       <c r="CT229" s="1">
         <v>43973</v>
       </c>
       <c r="CU229" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>487</v>
       </c>
       <c r="CV229" s="3">
-        <f>SUM(BU229-BU228)</f>
+        <f t="shared" si="91"/>
         <v>10095</v>
       </c>
       <c r="CY229" s="1">
         <v>43973</v>
       </c>
       <c r="CZ229" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1373</v>
       </c>
       <c r="DA229" s="3">
-        <f>SUM(BV229-BV228)</f>
+        <f t="shared" si="85"/>
         <v>48533</v>
       </c>
     </row>
-    <row r="230" spans="69:105" x14ac:dyDescent="0.2">
+    <row r="230" spans="69:105">
       <c r="BQ230" s="3">
         <v>1652061</v>
       </c>
@@ -46918,11 +46678,11 @@
         <v>43974</v>
       </c>
       <c r="CA230" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>852</v>
       </c>
       <c r="CB230" s="3">
-        <f>SUM(BQ230-BQ229)</f>
+        <f t="shared" si="93"/>
         <v>51268</v>
       </c>
       <c r="CE230" s="1">
@@ -46934,18 +46694,18 @@
         <v>43974</v>
       </c>
       <c r="CK230" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>556</v>
       </c>
       <c r="CL230" s="3">
-        <f>SUM(BS230-BS229)</f>
+        <f t="shared" si="87"/>
         <v>9342</v>
       </c>
       <c r="CO230" s="1">
         <v>43974</v>
       </c>
       <c r="CP230" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>207</v>
       </c>
       <c r="CQ230" s="3"/>
@@ -46953,26 +46713,26 @@
         <v>43974</v>
       </c>
       <c r="CU230" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>325</v>
       </c>
       <c r="CV230" s="3">
-        <f>SUM(BU230-BU229)</f>
+        <f t="shared" si="91"/>
         <v>9451</v>
       </c>
       <c r="CY230" s="1">
         <v>43974</v>
       </c>
       <c r="CZ230" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1463</v>
       </c>
       <c r="DA230" s="3">
-        <f>SUM(BV230-BV229)</f>
+        <f t="shared" si="85"/>
         <v>67439</v>
       </c>
     </row>
-    <row r="231" spans="69:105" x14ac:dyDescent="0.2">
+    <row r="231" spans="69:105">
       <c r="BQ231" s="3">
         <v>1699826</v>
       </c>
@@ -46994,11 +46754,11 @@
         <v>43975</v>
       </c>
       <c r="CA231" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>976</v>
       </c>
       <c r="CB231" s="3">
-        <f>SUM(BQ231-BQ230)</f>
+        <f t="shared" si="93"/>
         <v>47765</v>
       </c>
       <c r="CE231" s="1">
@@ -47010,18 +46770,18 @@
         <v>43975</v>
       </c>
       <c r="CK231" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>687</v>
       </c>
       <c r="CL231" s="3">
-        <f>SUM(BS231-BS230)</f>
+        <f t="shared" si="87"/>
         <v>11387</v>
       </c>
       <c r="CO231" s="1">
         <v>43975</v>
       </c>
       <c r="CP231" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>138</v>
       </c>
       <c r="CQ231" s="3"/>
@@ -47029,26 +46789,26 @@
         <v>43975</v>
       </c>
       <c r="CU231" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>365</v>
       </c>
       <c r="CV231" s="3">
-        <f>SUM(BU231-BU230)</f>
+        <f t="shared" si="91"/>
         <v>7643</v>
       </c>
       <c r="CY231" s="1">
         <v>43975</v>
       </c>
       <c r="CZ231" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1334</v>
       </c>
       <c r="DA231" s="3">
-        <f>SUM(BV231-BV230)</f>
+        <f t="shared" si="85"/>
         <v>61357</v>
       </c>
     </row>
-    <row r="232" spans="69:105" x14ac:dyDescent="0.2">
+    <row r="232" spans="69:105">
       <c r="BQ232" s="3">
         <v>1739449</v>
       </c>
@@ -47073,11 +46833,11 @@
         <v>43976</v>
       </c>
       <c r="CA232" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>683</v>
       </c>
       <c r="CB232" s="3">
-        <f>SUM(BQ232-BQ231)</f>
+        <f t="shared" si="93"/>
         <v>39623</v>
       </c>
       <c r="CE232" s="1">
@@ -47088,25 +46848,25 @@
         <v>368</v>
       </c>
       <c r="CG232" s="3">
-        <f>SUM(BR232-BR231)</f>
+        <f t="shared" ref="CG232:CG237" si="94">SUM(BR232-BR231)</f>
         <v>19990</v>
       </c>
       <c r="CJ232" s="1">
         <v>43976</v>
       </c>
       <c r="CK232" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>389</v>
       </c>
       <c r="CL232" s="3">
-        <f>SUM(BS232-BS231)</f>
+        <f t="shared" si="87"/>
         <v>8188</v>
       </c>
       <c r="CO232" s="1">
         <v>43976</v>
       </c>
       <c r="CP232" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>90</v>
       </c>
       <c r="CQ232" s="3"/>
@@ -47114,26 +46874,26 @@
         <v>43976</v>
       </c>
       <c r="CU232" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>227</v>
       </c>
       <c r="CV232" s="3">
-        <f>SUM(BU232-BU231)</f>
+        <f t="shared" si="91"/>
         <v>7019</v>
       </c>
       <c r="CY232" s="1">
         <v>43976</v>
       </c>
       <c r="CZ232" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1609</v>
       </c>
       <c r="DA232" s="3">
-        <f>SUM(BV232-BV231)</f>
+        <f t="shared" si="85"/>
         <v>52294</v>
       </c>
     </row>
-    <row r="233" spans="69:105" x14ac:dyDescent="0.2">
+    <row r="233" spans="69:105">
       <c r="BQ233" s="3">
         <v>1774128</v>
       </c>
@@ -47158,11 +46918,11 @@
         <v>43977</v>
       </c>
       <c r="CA233" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>625</v>
       </c>
       <c r="CB233" s="3">
-        <f>SUM(BQ233-BQ232)</f>
+        <f t="shared" si="93"/>
         <v>34679</v>
       </c>
       <c r="CE233" s="1">
@@ -47173,25 +46933,25 @@
         <v>287</v>
       </c>
       <c r="CG233" s="3">
-        <f>SUM(BR233-BR232)</f>
+        <f t="shared" si="94"/>
         <v>12095</v>
       </c>
       <c r="CJ233" s="1">
         <v>43977</v>
       </c>
       <c r="CK233" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>281</v>
       </c>
       <c r="CL233" s="3">
-        <f>SUM(BS233-BS232)</f>
+        <f t="shared" si="87"/>
         <v>4920</v>
       </c>
       <c r="CO233" s="1">
         <v>43977</v>
       </c>
       <c r="CP233" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>142</v>
       </c>
       <c r="CQ233" s="3">
@@ -47202,26 +46962,26 @@
         <v>43977</v>
       </c>
       <c r="CU233" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>182</v>
       </c>
       <c r="CV233" s="3">
-        <f>SUM(BU233-BU232)</f>
+        <f t="shared" si="91"/>
         <v>5358</v>
       </c>
       <c r="CY233" s="1">
         <v>43977</v>
       </c>
       <c r="CZ233" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1972</v>
       </c>
       <c r="DA233" s="3">
-        <f>SUM(BV233-BV232)</f>
+        <f t="shared" si="85"/>
         <v>40498</v>
       </c>
     </row>
-    <row r="234" spans="69:105" x14ac:dyDescent="0.2">
+    <row r="234" spans="69:105">
       <c r="BQ234" s="3">
         <v>1811544</v>
       </c>
@@ -47246,11 +47006,11 @@
         <v>43978</v>
       </c>
       <c r="CA234" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>642</v>
       </c>
       <c r="CB234" s="3">
-        <f>SUM(BQ234-BQ233)</f>
+        <f t="shared" si="93"/>
         <v>37416</v>
       </c>
       <c r="CE234" s="1">
@@ -47261,25 +47021,25 @@
         <v>257</v>
       </c>
       <c r="CG234" s="3">
-        <f>SUM(BR234-BR233)</f>
+        <f t="shared" si="94"/>
         <v>24433</v>
       </c>
       <c r="CJ234" s="1">
         <v>43978</v>
       </c>
       <c r="CK234" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>383</v>
       </c>
       <c r="CL234" s="3">
-        <f>SUM(BS234-BS233)</f>
+        <f t="shared" si="87"/>
         <v>6663</v>
       </c>
       <c r="CO234" s="1">
         <v>43978</v>
       </c>
       <c r="CP234" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>134</v>
       </c>
       <c r="CQ234" s="3">
@@ -47290,26 +47050,26 @@
         <v>43978</v>
       </c>
       <c r="CU234" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>484</v>
       </c>
       <c r="CV234" s="3">
-        <f>SUM(BU234-BU233)</f>
+        <f t="shared" si="91"/>
         <v>10935</v>
       </c>
       <c r="CY234" s="1">
         <v>43978</v>
       </c>
       <c r="CZ234" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1510</v>
       </c>
       <c r="DA234" s="3">
-        <f>SUM(BV234-BV233)</f>
+        <f t="shared" si="85"/>
         <v>53665</v>
       </c>
     </row>
-    <row r="235" spans="69:105" x14ac:dyDescent="0.2">
+    <row r="235" spans="69:105">
       <c r="BQ235" s="3">
         <v>1876789</v>
       </c>
@@ -47334,11 +47094,11 @@
         <v>43979</v>
       </c>
       <c r="CA235" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>1100</v>
       </c>
       <c r="CB235" s="3">
-        <f>SUM(BQ235-BQ234)</f>
+        <f t="shared" si="93"/>
         <v>65245</v>
       </c>
       <c r="CE235" s="1">
@@ -47349,25 +47109,25 @@
         <v>578</v>
       </c>
       <c r="CG235" s="3">
-        <f>SUM(BR235-BR234)</f>
+        <f t="shared" si="94"/>
         <v>25532</v>
       </c>
       <c r="CJ235" s="1">
         <v>43979</v>
       </c>
       <c r="CK235" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>479</v>
       </c>
       <c r="CL235" s="3">
-        <f>SUM(BS235-BS234)</f>
+        <f t="shared" si="87"/>
         <v>10179</v>
       </c>
       <c r="CO235" s="1">
         <v>43979</v>
       </c>
       <c r="CP235" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>129</v>
       </c>
       <c r="CQ235" s="3">
@@ -47378,26 +47138,26 @@
         <v>43979</v>
       </c>
       <c r="CU235" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>295</v>
       </c>
       <c r="CV235" s="3">
-        <f>SUM(BU235-BU234)</f>
+        <f t="shared" si="91"/>
         <v>8439</v>
       </c>
       <c r="CY235" s="1">
         <v>43979</v>
       </c>
       <c r="CZ235" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1565</v>
       </c>
       <c r="DA235" s="3">
-        <f>SUM(BV235-BV234)</f>
+        <f t="shared" si="85"/>
         <v>44919</v>
       </c>
     </row>
-    <row r="236" spans="69:105" x14ac:dyDescent="0.2">
+    <row r="236" spans="69:105">
       <c r="BQ236" s="3">
         <v>1944130</v>
       </c>
@@ -47421,11 +47181,11 @@
         <v>43980</v>
       </c>
       <c r="CA236" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>936</v>
       </c>
       <c r="CB236" s="3">
-        <f>SUM(BQ236-BQ235)</f>
+        <f t="shared" si="93"/>
         <v>67341</v>
       </c>
       <c r="CE236" s="1">
@@ -47436,25 +47196,25 @@
         <v>443</v>
       </c>
       <c r="CG236" s="3">
-        <f>SUM(BR236-BR235)</f>
+        <f t="shared" si="94"/>
         <v>30554</v>
       </c>
       <c r="CJ236" s="1">
         <v>43980</v>
       </c>
       <c r="CK236" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>441</v>
       </c>
       <c r="CL236" s="3">
-        <f>SUM(BS236-BS235)</f>
+        <f t="shared" si="87"/>
         <v>9422</v>
       </c>
       <c r="CO236" s="1">
         <v>43980</v>
       </c>
       <c r="CP236" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>248</v>
       </c>
       <c r="CQ236" s="3">
@@ -47465,26 +47225,26 @@
         <v>43980</v>
       </c>
       <c r="CU236" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>355</v>
       </c>
       <c r="CV236" s="3">
-        <f>SUM(BU236-BU235)</f>
+        <f t="shared" si="91"/>
         <v>9859</v>
       </c>
       <c r="CY236" s="1">
         <v>43980</v>
       </c>
       <c r="CZ236" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>2133</v>
       </c>
       <c r="DA236" s="3">
-        <f>SUM(BV236-BV235)</f>
+        <f t="shared" si="85"/>
         <v>53117</v>
       </c>
     </row>
-    <row r="237" spans="69:105" x14ac:dyDescent="0.2">
+    <row r="237" spans="69:105">
       <c r="BQ237" s="3">
         <v>2005381</v>
       </c>
@@ -47509,11 +47269,11 @@
         <v>43981</v>
       </c>
       <c r="CA237" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>774</v>
       </c>
       <c r="CB237" s="3">
-        <f>SUM(BQ237-BQ236)</f>
+        <f t="shared" si="93"/>
         <v>61251</v>
       </c>
       <c r="CE237" s="1">
@@ -47521,25 +47281,25 @@
       </c>
       <c r="CF237" s="3"/>
       <c r="CG237" s="3">
-        <f>SUM(BR237-BR236)</f>
+        <f t="shared" si="94"/>
         <v>28897</v>
       </c>
       <c r="CJ237" s="1">
         <v>43981</v>
       </c>
       <c r="CK237" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>455</v>
       </c>
       <c r="CL237" s="3">
-        <f>SUM(BS237-BS236)</f>
+        <f t="shared" si="87"/>
         <v>10774</v>
       </c>
       <c r="CO237" s="1">
         <v>43981</v>
       </c>
       <c r="CP237" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>62</v>
       </c>
       <c r="CQ237" s="3">
@@ -47550,11 +47310,11 @@
         <v>43981</v>
       </c>
       <c r="CU237" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>355</v>
       </c>
       <c r="CV237" s="3">
-        <f>SUM(BU237-BU236)</f>
+        <f t="shared" si="91"/>
         <v>9441</v>
       </c>
       <c r="CY237" s="1">

--- a/other/graphs.xlsx
+++ b/other/graphs.xlsx
@@ -8,70 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A05219-9B1B-C348-B565-BB6D0AA12FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079738D0-BF38-0E43-BE55-222C22CC076F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="460" windowWidth="19380" windowHeight="16500" xr2:uid="{50568A54-C490-204A-AE24-4B69BA545E02}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="19380" windowHeight="16500" xr2:uid="{50568A54-C490-204A-AE24-4B69BA545E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$B$61</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$G$2:$G$61</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$AY$2:$AZ$61</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$BA$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$BA$2:$BA$61</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$BB$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$BB$2:$BB$61</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$BC$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$BC$2:$BC$61</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$BD$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$BD$2:$BD$61</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$61</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$BE$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$BE$2:$BE$61</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$A$2:$B$61</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$C$2:$C$61</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$D$2:$D$61</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$E$2:$E$61</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$F$2:$F$61</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$G$2:$G$61</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$AE$2:$AF$61</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$AG$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$AG$2:$AG$61</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$AH$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$AH$2:$AH$61</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$AI$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$AI$2:$AI$61</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$2:$D$61</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$AJ$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$AJ$2:$AJ$61</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$AK$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$AK$2:$AK$61</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$AE$2:$AF$61</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$AG$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$AG$2:$AG$61</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$AH$1</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$AH$2:$AH$61</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$AI$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$AI$2:$AI$61</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$AJ$1</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$AJ$2:$AJ$61</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$AK$1</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$AK$2:$AK$61</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$2:$E$61</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$F$2:$F$61</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$G$1</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -90,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>NEW YORK</t>
   </si>
@@ -214,12 +157,30 @@
   <si>
     <t>TESTS CONDUCTED</t>
   </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2512,7 +2473,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="span"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5591,6 +5552,2630 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Daily</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Cases of COVID-19 Among the Top 5 Infected Counties of the Top 6 Infected States in the United States</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$DH$177</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$DG$178:$DG$237</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$DH$178:$DH$237</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="1">
+                  <c:v>5506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8088</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6439</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7891</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6316</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10422</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5717</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5353</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4934</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2974</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3733</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4137</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5763</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3913</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2918</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2511</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2985</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2269</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1508</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1844</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1737</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1325</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1462</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1753</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1086</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66B8-1542-84D8-9154527E031C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$DI$177</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$DG$178:$DG$237</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$DI$178:$DI$237</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="1">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2828</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2093</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2327</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1869</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2053</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1758</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2392</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1543</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2753</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2411</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1638</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2326</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1669</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1257</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1359</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1136</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1363</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-66B8-1542-84D8-9154527E031C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$DJ$177</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$DG$178:$DG$237</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$DJ$178:$DJ$237</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="1">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1285</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1655</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1391</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1790</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1748</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1654</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1304</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1212</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1391</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2416</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3431</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1863</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1146</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1409</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1623</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1565</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1554</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1164</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-66B8-1542-84D8-9154527E031C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$DK$177</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$DG$178:$DG$237</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$DK$178:$DK$237</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="1">
+                  <c:v>1807</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1670</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1132</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-66B8-1542-84D8-9154527E031C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$DL$177</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$DG$178:$DG$237</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$DL$178:$DL$237</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="1">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-66B8-1542-84D8-9154527E031C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$DM$177</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$DG$178:$DG$237</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$DM$178:$DM$237</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1836</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1633</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1646</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1496</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1605</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1819</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1172</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1315</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1783</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1531</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1178</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1316</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1670</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1312</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1582</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1373</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1463</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1334</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1609</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1565</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-66B8-1542-84D8-9154527E031C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1260289584"/>
+        <c:axId val="1266509888"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1260289584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1266509888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1266509888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1260289584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -20361,6 +22946,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -22395,6 +25020,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -27286,6 +30427,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>117</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>130</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6CF328-AE99-E144-9C7E-5E41EB942C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -27586,15 +30763,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA38D56-529F-6943-948B-8ED18F113542}">
-  <dimension ref="A1:DA237"/>
+  <dimension ref="A1:DM248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ85" zoomScale="14" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="DG53" sqref="DG53"/>
+    <sheetView tabSelected="1" topLeftCell="DA159" zoomScale="37" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="EB190" sqref="EB190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27722,7 +30899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>43922</v>
       </c>
@@ -27770,7 +30947,7 @@
       <c r="BD2" s="3"/>
       <c r="BE2" s="3"/>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>43923</v>
       </c>
@@ -27909,7 +31086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>43924</v>
       </c>
@@ -28049,7 +31226,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>43925</v>
       </c>
@@ -28189,7 +31366,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>43926</v>
       </c>
@@ -28326,7 +31503,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>43927</v>
       </c>
@@ -28463,7 +31640,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>43928</v>
       </c>
@@ -28603,7 +31780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:57">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>43929</v>
       </c>
@@ -28743,7 +31920,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>43930</v>
       </c>
@@ -28883,7 +32060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>43931</v>
       </c>
@@ -29023,7 +32200,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:57">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>43932</v>
       </c>
@@ -29160,7 +32337,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:57">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>43933</v>
       </c>
@@ -29299,7 +32476,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:57">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>43934</v>
       </c>
@@ -29439,7 +32616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:57">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>43935</v>
       </c>
@@ -29579,7 +32756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:57">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>43936</v>
       </c>
@@ -29719,7 +32896,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="2:57">
+    <row r="17" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>43937</v>
       </c>
@@ -29858,7 +33035,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:57">
+    <row r="18" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>43938</v>
       </c>
@@ -29997,7 +33174,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:57">
+    <row r="19" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>43939</v>
       </c>
@@ -30129,7 +33306,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:57">
+    <row r="20" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>43940</v>
       </c>
@@ -30257,7 +33434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:57">
+    <row r="21" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>43941</v>
       </c>
@@ -30386,7 +33563,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="2:57">
+    <row r="22" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>43942</v>
       </c>
@@ -30523,7 +33700,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:57">
+    <row r="23" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>43943</v>
       </c>
@@ -30662,7 +33839,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="2:57">
+    <row r="24" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>43944</v>
       </c>
@@ -30801,7 +33978,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:57">
+    <row r="25" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>43945</v>
       </c>
@@ -30939,7 +34116,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="2:57">
+    <row r="26" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>43946</v>
       </c>
@@ -31078,7 +34255,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="2:57">
+    <row r="27" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>43947</v>
       </c>
@@ -31214,7 +34391,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="2:57">
+    <row r="28" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>43948</v>
       </c>
@@ -31345,7 +34522,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="2:57">
+    <row r="29" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>43949</v>
       </c>
@@ -31479,7 +34656,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="2:57">
+    <row r="30" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>43950</v>
       </c>
@@ -31618,7 +34795,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="2:57">
+    <row r="31" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>43951</v>
       </c>
@@ -31758,7 +34935,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="2:57">
+    <row r="32" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>43952</v>
       </c>
@@ -31898,7 +35075,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="2:57">
+    <row r="33" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>43953</v>
       </c>
@@ -32038,7 +35215,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="2:57">
+    <row r="34" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>43954</v>
       </c>
@@ -32178,7 +35355,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="2:57">
+    <row r="35" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>43955</v>
       </c>
@@ -32309,7 +35486,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="2:57">
+    <row r="36" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>43956</v>
       </c>
@@ -32440,7 +35617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:57">
+    <row r="37" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>43957</v>
       </c>
@@ -32571,7 +35748,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="2:57">
+    <row r="38" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>43958</v>
       </c>
@@ -32702,7 +35879,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="2:57">
+    <row r="39" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>43959</v>
       </c>
@@ -32840,7 +36017,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:57">
+    <row r="40" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>43960</v>
       </c>
@@ -32976,7 +36153,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="2:57">
+    <row r="41" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>43961</v>
       </c>
@@ -33112,7 +36289,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="2:57">
+    <row r="42" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>43962</v>
       </c>
@@ -33248,7 +36425,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="2:57">
+    <row r="43" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>43963</v>
       </c>
@@ -33385,7 +36562,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="2:57">
+    <row r="44" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>43964</v>
       </c>
@@ -33525,7 +36702,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="2:57">
+    <row r="45" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>43965</v>
       </c>
@@ -33662,7 +36839,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="2:57">
+    <row r="46" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>43966</v>
       </c>
@@ -33799,7 +36976,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="2:57">
+    <row r="47" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>43967</v>
       </c>
@@ -33938,7 +37115,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="2:57">
+    <row r="48" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>43968</v>
       </c>
@@ -34077,7 +37254,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="2:57">
+    <row r="49" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>43969</v>
       </c>
@@ -34214,7 +37391,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="2:57">
+    <row r="50" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>43970</v>
       </c>
@@ -34351,7 +37528,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="2:57">
+    <row r="51" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>43971</v>
       </c>
@@ -34487,7 +37664,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="2:57">
+    <row r="52" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>43972</v>
       </c>
@@ -34622,7 +37799,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="2:57">
+    <row r="53" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
         <v>43973</v>
       </c>
@@ -34760,7 +37937,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="2:57">
+    <row r="54" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>43974</v>
       </c>
@@ -34896,7 +38073,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="2:57">
+    <row r="55" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>43975</v>
       </c>
@@ -35031,7 +38208,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="2:57">
+    <row r="56" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>43976</v>
       </c>
@@ -35168,7 +38345,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="2:57">
+    <row r="57" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>43977</v>
       </c>
@@ -35278,7 +38455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="2:57">
+    <row r="58" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>43978</v>
       </c>
@@ -35388,7 +38565,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="2:57">
+    <row r="59" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <v>43979</v>
       </c>
@@ -35498,7 +38675,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="2:57">
+    <row r="60" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>43980</v>
       </c>
@@ -35608,7 +38785,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="2:57">
+    <row r="61" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>43981</v>
       </c>
@@ -35696,8 +38873,9 @@
       <c r="AZ61" s="1">
         <v>43981</v>
       </c>
+      <c r="BF61" s="3"/>
     </row>
-    <row r="62" spans="2:57">
+    <row r="62" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
       <c r="E62" s="1"/>
       <c r="L62" s="1"/>
@@ -35706,85 +38884,85 @@
       <c r="AP62" s="1"/>
       <c r="AZ62" s="1"/>
     </row>
-    <row r="120" spans="42:45">
+    <row r="120" spans="42:45" x14ac:dyDescent="0.2">
       <c r="AP120" s="3"/>
       <c r="AQ120" s="3"/>
       <c r="AR120" s="3"/>
       <c r="AS120" s="3"/>
     </row>
-    <row r="121" spans="42:45">
+    <row r="121" spans="42:45" x14ac:dyDescent="0.2">
       <c r="AP121" s="3"/>
       <c r="AQ121" s="3"/>
       <c r="AR121" s="3"/>
       <c r="AS121" s="3"/>
     </row>
-    <row r="122" spans="42:45">
+    <row r="122" spans="42:45" x14ac:dyDescent="0.2">
       <c r="AP122" s="3"/>
       <c r="AQ122" s="3"/>
       <c r="AR122" s="3"/>
       <c r="AS122" s="3"/>
     </row>
-    <row r="123" spans="42:45">
+    <row r="123" spans="42:45" x14ac:dyDescent="0.2">
       <c r="AP123" s="3"/>
       <c r="AQ123" s="3"/>
       <c r="AR123" s="3"/>
       <c r="AS123" s="3"/>
     </row>
-    <row r="124" spans="42:45">
+    <row r="124" spans="42:45" x14ac:dyDescent="0.2">
       <c r="AP124" s="3"/>
       <c r="AQ124" s="3"/>
       <c r="AR124" s="3"/>
       <c r="AS124" s="3"/>
     </row>
-    <row r="125" spans="42:45">
+    <row r="125" spans="42:45" x14ac:dyDescent="0.2">
       <c r="AP125" s="3"/>
       <c r="AQ125" s="3"/>
       <c r="AR125" s="3"/>
       <c r="AS125" s="3"/>
     </row>
-    <row r="126" spans="42:45">
+    <row r="126" spans="42:45" x14ac:dyDescent="0.2">
       <c r="AP126" s="3"/>
       <c r="AQ126" s="3"/>
       <c r="AR126" s="3"/>
       <c r="AS126" s="3"/>
     </row>
-    <row r="127" spans="42:45">
+    <row r="127" spans="42:45" x14ac:dyDescent="0.2">
       <c r="AP127" s="3"/>
       <c r="AQ127" s="3"/>
       <c r="AR127" s="3"/>
       <c r="AS127" s="3"/>
     </row>
-    <row r="128" spans="42:45">
+    <row r="128" spans="42:45" x14ac:dyDescent="0.2">
       <c r="AP128" s="3"/>
       <c r="AQ128" s="3"/>
       <c r="AR128" s="3"/>
       <c r="AS128" s="3"/>
     </row>
-    <row r="129" spans="5:64" ht="408" customHeight="1">
+    <row r="129" spans="5:64" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AP129" s="3"/>
       <c r="AQ129" s="3"/>
       <c r="AR129" s="3"/>
       <c r="AS129" s="3"/>
     </row>
-    <row r="130" spans="5:64">
+    <row r="130" spans="5:64" x14ac:dyDescent="0.2">
       <c r="AP130" s="3"/>
       <c r="AQ130" s="3"/>
       <c r="AR130" s="3"/>
       <c r="AS130" s="3"/>
     </row>
-    <row r="131" spans="5:64">
+    <row r="131" spans="5:64" x14ac:dyDescent="0.2">
       <c r="AP131" s="3"/>
       <c r="AQ131" s="3"/>
       <c r="AR131" s="3"/>
       <c r="AS131" s="3"/>
     </row>
-    <row r="132" spans="5:64">
+    <row r="132" spans="5:64" x14ac:dyDescent="0.2">
       <c r="AP132" s="3"/>
       <c r="AQ132" s="3"/>
       <c r="AR132" s="3"/>
       <c r="AS132" s="3"/>
     </row>
-    <row r="133" spans="5:64">
+    <row r="133" spans="5:64" x14ac:dyDescent="0.2">
       <c r="J133" s="3">
         <v>2262</v>
       </c>
@@ -35793,7 +38971,7 @@
       <c r="AR133" s="3"/>
       <c r="AS133" s="3"/>
     </row>
-    <row r="134" spans="5:64">
+    <row r="134" spans="5:64" x14ac:dyDescent="0.2">
       <c r="J134" s="3">
         <v>2617</v>
       </c>
@@ -35802,7 +38980,7 @@
       <c r="AR134" s="3"/>
       <c r="AS134" s="3"/>
     </row>
-    <row r="135" spans="5:64">
+    <row r="135" spans="5:64" x14ac:dyDescent="0.2">
       <c r="J135" s="3">
         <v>3067</v>
       </c>
@@ -35811,7 +38989,7 @@
       <c r="AR135" s="3"/>
       <c r="AS135" s="3"/>
     </row>
-    <row r="136" spans="5:64">
+    <row r="136" spans="5:64" x14ac:dyDescent="0.2">
       <c r="J136" s="3">
         <v>3584</v>
       </c>
@@ -35820,7 +38998,7 @@
       <c r="AR136" s="3"/>
       <c r="AS136" s="3"/>
     </row>
-    <row r="137" spans="5:64">
+    <row r="137" spans="5:64" x14ac:dyDescent="0.2">
       <c r="G137" s="3">
         <v>1910</v>
       </c>
@@ -35837,7 +39015,7 @@
       <c r="AR137" s="3"/>
       <c r="AS137" s="3"/>
     </row>
-    <row r="138" spans="5:64">
+    <row r="138" spans="5:64" x14ac:dyDescent="0.2">
       <c r="G138" s="3">
         <v>2270</v>
       </c>
@@ -35857,7 +39035,7 @@
       <c r="AR138" s="3"/>
       <c r="AS138" s="3"/>
     </row>
-    <row r="139" spans="5:64">
+    <row r="139" spans="5:64" x14ac:dyDescent="0.2">
       <c r="F139" s="3">
         <v>3494</v>
       </c>
@@ -35883,7 +39061,7 @@
       <c r="AR139" s="3"/>
       <c r="AS139" s="3"/>
     </row>
-    <row r="140" spans="5:64">
+    <row r="140" spans="5:64" x14ac:dyDescent="0.2">
       <c r="F140" s="3">
         <v>4099</v>
       </c>
@@ -35928,7 +39106,7 @@
       <c r="BK140" s="3"/>
       <c r="BL140" s="3"/>
     </row>
-    <row r="141" spans="5:64">
+    <row r="141" spans="5:64" x14ac:dyDescent="0.2">
       <c r="F141" s="3">
         <v>4866</v>
       </c>
@@ -35969,7 +39147,7 @@
       <c r="BJ141" s="3"/>
       <c r="BK141" s="3"/>
     </row>
-    <row r="142" spans="5:64">
+    <row r="142" spans="5:64" x14ac:dyDescent="0.2">
       <c r="F142" s="3">
         <v>5760</v>
       </c>
@@ -36010,7 +39188,7 @@
       <c r="BJ142" s="3"/>
       <c r="BK142" s="3"/>
     </row>
-    <row r="143" spans="5:64">
+    <row r="143" spans="5:64" x14ac:dyDescent="0.2">
       <c r="F143" s="3">
         <v>6187</v>
       </c>
@@ -36051,7 +39229,7 @@
       <c r="BJ143" s="3"/>
       <c r="BK143" s="3"/>
     </row>
-    <row r="144" spans="5:64">
+    <row r="144" spans="5:64" x14ac:dyDescent="0.2">
       <c r="E144" s="3">
         <v>7605</v>
       </c>
@@ -36095,7 +39273,7 @@
       <c r="BJ144" s="3"/>
       <c r="BK144" s="3"/>
     </row>
-    <row r="145" spans="1:63">
+    <row r="145" spans="1:63" x14ac:dyDescent="0.2">
       <c r="E145" s="3">
         <v>8746</v>
       </c>
@@ -36139,7 +39317,7 @@
       <c r="BJ145" s="3"/>
       <c r="BK145" s="3"/>
     </row>
-    <row r="146" spans="1:63">
+    <row r="146" spans="1:63" x14ac:dyDescent="0.2">
       <c r="C146" s="3">
         <v>8544</v>
       </c>
@@ -36201,7 +39379,7 @@
       <c r="BJ146" s="3"/>
       <c r="BK146" s="3"/>
     </row>
-    <row r="147" spans="1:63">
+    <row r="147" spans="1:63" x14ac:dyDescent="0.2">
       <c r="C147" s="3">
         <v>9555</v>
       </c>
@@ -36263,7 +39441,7 @@
       <c r="BJ147" s="3"/>
       <c r="BK147" s="3"/>
     </row>
-    <row r="148" spans="1:63">
+    <row r="148" spans="1:63" x14ac:dyDescent="0.2">
       <c r="C148" s="3">
         <v>10587</v>
       </c>
@@ -36326,7 +39504,7 @@
       <c r="BJ148" s="3"/>
       <c r="BK148" s="3"/>
     </row>
-    <row r="149" spans="1:63">
+    <row r="149" spans="1:63" x14ac:dyDescent="0.2">
       <c r="C149" s="3">
         <v>13346</v>
       </c>
@@ -36391,7 +39569,7 @@
       <c r="BJ149" s="3"/>
       <c r="BK149" s="3"/>
     </row>
-    <row r="150" spans="1:63">
+    <row r="150" spans="1:63" x14ac:dyDescent="0.2">
       <c r="C150" s="3">
         <v>14398</v>
       </c>
@@ -36456,7 +39634,7 @@
       <c r="BJ150" s="3"/>
       <c r="BK150" s="3"/>
     </row>
-    <row r="151" spans="1:63">
+    <row r="151" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B151" s="3">
         <v>12274</v>
       </c>
@@ -36530,7 +39708,7 @@
       <c r="BJ151" s="3"/>
       <c r="BK151" s="3"/>
     </row>
-    <row r="152" spans="1:63">
+    <row r="152" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B152" s="3">
         <v>12390</v>
       </c>
@@ -36608,7 +39786,7 @@
       <c r="BJ152" s="3"/>
       <c r="BK152" s="3"/>
     </row>
-    <row r="153" spans="1:63">
+    <row r="153" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B153" s="3">
         <v>15327</v>
       </c>
@@ -36685,7 +39863,7 @@
       <c r="BJ153" s="3"/>
       <c r="BK153" s="3"/>
     </row>
-    <row r="154" spans="1:63">
+    <row r="154" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B154" s="3">
         <v>16488</v>
       </c>
@@ -36762,7 +39940,7 @@
       <c r="BJ154" s="3"/>
       <c r="BK154" s="3"/>
     </row>
-    <row r="155" spans="1:63">
+    <row r="155" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B155" s="3">
         <v>17520</v>
       </c>
@@ -36854,7 +40032,7 @@
       <c r="BJ155" s="3"/>
       <c r="BK155" s="3"/>
     </row>
-    <row r="156" spans="1:63">
+    <row r="156" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B156" s="3">
         <v>18434</v>
       </c>
@@ -36944,7 +40122,7 @@
       <c r="BJ156" s="3"/>
       <c r="BK156" s="3"/>
     </row>
-    <row r="157" spans="1:63">
+    <row r="157" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B157" s="3">
         <v>20235</v>
       </c>
@@ -37036,7 +40214,7 @@
       <c r="BJ157" s="3"/>
       <c r="BK157" s="3"/>
     </row>
-    <row r="158" spans="1:63">
+    <row r="158" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>15217</v>
       </c>
@@ -37148,7 +40326,7 @@
       <c r="BJ158" s="3"/>
       <c r="BK158" s="3"/>
     </row>
-    <row r="159" spans="1:63">
+    <row r="159" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>16819</v>
       </c>
@@ -37260,7 +40438,7 @@
       <c r="BJ159" s="3"/>
       <c r="BK159" s="3"/>
     </row>
-    <row r="160" spans="1:63">
+    <row r="160" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>18823</v>
       </c>
@@ -37370,7 +40548,7 @@
       <c r="BJ160" s="3"/>
       <c r="BK160" s="3"/>
     </row>
-    <row r="161" spans="1:63">
+    <row r="161" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>20371</v>
       </c>
@@ -37480,7 +40658,7 @@
       <c r="BJ161" s="3"/>
       <c r="BK161" s="3"/>
     </row>
-    <row r="162" spans="1:63">
+    <row r="162" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>21781</v>
       </c>
@@ -37592,7 +40770,7 @@
       <c r="BJ162" s="3"/>
       <c r="BK162" s="3"/>
     </row>
-    <row r="163" spans="1:63">
+    <row r="163" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>23083</v>
       </c>
@@ -37705,7 +40883,7 @@
       <c r="BJ163" s="3"/>
       <c r="BK163" s="3"/>
     </row>
-    <row r="164" spans="1:63">
+    <row r="164" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>24809</v>
       </c>
@@ -37818,7 +40996,7 @@
       <c r="BJ164" s="3"/>
       <c r="BK164" s="3"/>
     </row>
-    <row r="165" spans="1:63">
+    <row r="165" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>26204</v>
       </c>
@@ -37931,7 +41109,7 @@
       <c r="BJ165" s="3"/>
       <c r="BK165" s="3"/>
     </row>
-    <row r="166" spans="1:63">
+    <row r="166" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>27759</v>
       </c>
@@ -38044,7 +41222,7 @@
       <c r="BJ166" s="3"/>
       <c r="BK166" s="3"/>
     </row>
-    <row r="167" spans="1:63">
+    <row r="167" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>29754</v>
       </c>
@@ -38154,7 +41332,7 @@
       <c r="BJ167" s="3"/>
       <c r="BK167" s="3"/>
     </row>
-    <row r="168" spans="1:63">
+    <row r="168" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>31044</v>
       </c>
@@ -38267,7 +41445,7 @@
       <c r="BJ168" s="3"/>
       <c r="BK168" s="3"/>
     </row>
-    <row r="169" spans="1:63">
+    <row r="169" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>32749</v>
       </c>
@@ -38378,7 +41556,7 @@
       <c r="BJ169" s="3"/>
       <c r="BK169" s="3"/>
     </row>
-    <row r="170" spans="1:63">
+    <row r="170" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>33468</v>
       </c>
@@ -38491,7 +41669,7 @@
       <c r="BJ170" s="3"/>
       <c r="BK170" s="3"/>
     </row>
-    <row r="171" spans="1:63">
+    <row r="171" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>33616</v>
       </c>
@@ -38602,7 +41780,7 @@
       <c r="BJ171" s="3"/>
       <c r="BK171" s="3"/>
     </row>
-    <row r="172" spans="1:63">
+    <row r="172" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>36765</v>
       </c>
@@ -38711,7 +41889,7 @@
       <c r="BJ172" s="3"/>
       <c r="BK172" s="3"/>
     </row>
-    <row r="173" spans="1:63">
+    <row r="173" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>37918</v>
       </c>
@@ -38822,7 +42000,7 @@
       <c r="BJ173" s="3"/>
       <c r="BK173" s="3"/>
     </row>
-    <row r="174" spans="1:63">
+    <row r="174" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>39091</v>
       </c>
@@ -38935,7 +42113,7 @@
       <c r="BJ174" s="3"/>
       <c r="BK174" s="3"/>
     </row>
-    <row r="175" spans="1:63">
+    <row r="175" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>40216</v>
       </c>
@@ -39046,7 +42224,7 @@
       <c r="BJ175" s="3"/>
       <c r="BK175" s="3"/>
     </row>
-    <row r="176" spans="1:63">
+    <row r="176" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3">
         <v>42487</v>
@@ -39155,7 +42333,7 @@
       <c r="BJ176" s="3"/>
       <c r="BK176" s="3"/>
     </row>
-    <row r="177" spans="1:105">
+    <row r="177" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>42023</v>
       </c>
@@ -39337,8 +42515,29 @@
       <c r="DA177" t="s">
         <v>40</v>
       </c>
+      <c r="DG177" t="s">
+        <v>1</v>
+      </c>
+      <c r="DH177" t="s">
+        <v>41</v>
+      </c>
+      <c r="DI177" t="s">
+        <v>42</v>
+      </c>
+      <c r="DJ177" t="s">
+        <v>43</v>
+      </c>
+      <c r="DK177" t="s">
+        <v>44</v>
+      </c>
+      <c r="DL177" t="s">
+        <v>45</v>
+      </c>
+      <c r="DM177" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="178" spans="1:105">
+    <row r="178" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>42822</v>
       </c>
@@ -39491,8 +42690,11 @@
       <c r="CY178" s="1">
         <v>43922</v>
       </c>
+      <c r="DG178" s="1">
+        <v>43922</v>
+      </c>
     </row>
-    <row r="179" spans="1:105">
+    <row r="179" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>43713</v>
       </c>
@@ -39596,6 +42798,7 @@
       <c r="BI179" s="3"/>
       <c r="BJ179" s="3"/>
       <c r="BK179" s="3"/>
+      <c r="BP179" s="3"/>
       <c r="BQ179" s="3">
         <f>SUM(92381+146584)</f>
         <v>238965</v>
@@ -39685,8 +42888,35 @@
         <f t="shared" ref="DA179:DA194" si="73">SUM(BV179-BV178)</f>
         <v>3073</v>
       </c>
+      <c r="DG179" s="1">
+        <v>43923</v>
+      </c>
+      <c r="DH179" s="3">
+        <f>SUM(C3+D3+E3+F3+G3)</f>
+        <v>5506</v>
+      </c>
+      <c r="DI179" s="3">
+        <f>SUM(M3+N3+O3+P3+Q3)</f>
+        <v>1925</v>
+      </c>
+      <c r="DJ179" s="3">
+        <f>SUM(W3+X3+Y3+Z3+AA3)</f>
+        <v>927</v>
+      </c>
+      <c r="DK179" s="3">
+        <f>SUM(AG3+AH3+AI3+AJ3+AK3)</f>
+        <v>1807</v>
+      </c>
+      <c r="DL179" s="3">
+        <f>SUM(AQ3+AR3+AS3+AT3+AU3)</f>
+        <v>662</v>
+      </c>
+      <c r="DM179" s="3">
+        <f>SUM(BA3+BB3+BC3+BD3+BE3)</f>
+        <v>900</v>
+      </c>
     </row>
-    <row r="180" spans="1:105">
+    <row r="180" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>44904</v>
       </c>
@@ -39884,8 +43114,35 @@
         <f t="shared" si="73"/>
         <v>2300</v>
       </c>
+      <c r="DG180" s="1">
+        <v>43924</v>
+      </c>
+      <c r="DH180" s="3">
+        <f>SUM(C4+D4+E4+F4+G4)</f>
+        <v>8803</v>
+      </c>
+      <c r="DI180" s="3">
+        <f>SUM(M4+N4+O4+P4+Q4)</f>
+        <v>2725</v>
+      </c>
+      <c r="DJ180" s="3">
+        <f>SUM(W4+X4+Y4+Z4+AA4)</f>
+        <v>1083</v>
+      </c>
+      <c r="DK180" s="3">
+        <f>SUM(AG4+AH4+AI4+AJ4+AK4)</f>
+        <v>1724</v>
+      </c>
+      <c r="DL180" s="3">
+        <f>SUM(AQ4+AR4+AS4+AT4+AU4)</f>
+        <v>782</v>
+      </c>
+      <c r="DM180" s="3">
+        <f>SUM(BA4+BB4+BC4+BD4+BE4)</f>
+        <v>904</v>
+      </c>
     </row>
-    <row r="181" spans="1:105">
+    <row r="181" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>46387</v>
       </c>
@@ -40075,8 +43332,35 @@
         <f t="shared" si="73"/>
         <v>78400</v>
       </c>
+      <c r="DG181" s="1">
+        <v>43925</v>
+      </c>
+      <c r="DH181" s="3">
+        <f>SUM(C5+D5+E5+F5+G5)</f>
+        <v>8697</v>
+      </c>
+      <c r="DI181" s="3">
+        <f>SUM(M5+N5+O5+P5+Q5)</f>
+        <v>3136</v>
+      </c>
+      <c r="DJ181" s="3">
+        <f>SUM(W5+X5+Y5+Z5+AA5)</f>
+        <v>918</v>
+      </c>
+      <c r="DK181" s="3">
+        <f>SUM(AG5+AH5+AI5+AJ5+AK5)</f>
+        <v>1670</v>
+      </c>
+      <c r="DL181" s="3">
+        <f>SUM(AQ5+AR5+AS5+AT5+AU5)</f>
+        <v>761</v>
+      </c>
+      <c r="DM181" s="3">
+        <f>SUM(BA5+BB5+BC5+BD5+BE5)</f>
+        <v>1047</v>
+      </c>
     </row>
-    <row r="182" spans="1:105">
+    <row r="182" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>47861</v>
       </c>
@@ -40254,8 +43538,35 @@
         <f t="shared" si="73"/>
         <v>2833</v>
       </c>
+      <c r="DG182" s="1">
+        <v>43926</v>
+      </c>
+      <c r="DH182" s="3">
+        <f>SUM(C6+D6+E6+F6+G6)</f>
+        <v>5017</v>
+      </c>
+      <c r="DI182" s="3">
+        <f>SUM(M6+N6+O6+P6+Q6)</f>
+        <v>2029</v>
+      </c>
+      <c r="DJ182" s="3">
+        <f>SUM(W6+X6+Y6+Z6+AA6)</f>
+        <v>634</v>
+      </c>
+      <c r="DK182" s="3">
+        <f>SUM(AG6+AH6+AI6+AJ6+AK6)</f>
+        <v>855</v>
+      </c>
+      <c r="DL182" s="3">
+        <f>SUM(AQ6+AR6+AS6+AT6+AU6)</f>
+        <v>860</v>
+      </c>
+      <c r="DM182" s="3">
+        <f>SUM(BA6+BB6+BC6+BD6+BE6)</f>
+        <v>858</v>
+      </c>
     </row>
-    <row r="183" spans="1:105">
+    <row r="183" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>48745</v>
       </c>
@@ -40435,8 +43746,32 @@
         <f t="shared" si="73"/>
         <v>898</v>
       </c>
+      <c r="DG183" s="1">
+        <v>43927</v>
+      </c>
+      <c r="DH183" s="3"/>
+      <c r="DI183" s="3">
+        <f>SUM(M7+N7+O7+P7+Q7)</f>
+        <v>2555</v>
+      </c>
+      <c r="DJ183" s="3">
+        <f>SUM(W7+X7+Y7+Z7+AA7)</f>
+        <v>946</v>
+      </c>
+      <c r="DK183" s="3">
+        <f>SUM(AG7+AH7+AI7+AJ7+AK7)</f>
+        <v>1300</v>
+      </c>
+      <c r="DL183" s="3">
+        <f>SUM(AQ7+AR7+AS7+AT7+AU7)</f>
+        <v>888</v>
+      </c>
+      <c r="DM183" s="3">
+        <f>SUM(BA7+BB7+BC7+BD7+BE7)</f>
+        <v>782</v>
+      </c>
     </row>
-    <row r="184" spans="1:105">
+    <row r="184" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>49399</v>
       </c>
@@ -40620,8 +43955,35 @@
         <f t="shared" si="73"/>
         <v>13798</v>
       </c>
+      <c r="DG184" s="1">
+        <v>43928</v>
+      </c>
+      <c r="DH184" s="3">
+        <f>SUM(C8+D8+E8+F8+G8)</f>
+        <v>8088</v>
+      </c>
+      <c r="DI184" s="3">
+        <f>SUM(M8+N8+O8+P8+Q8)</f>
+        <v>2828</v>
+      </c>
+      <c r="DJ184" s="3">
+        <f>SUM(W8+X8+Y8+Z8+AA8)</f>
+        <v>1046</v>
+      </c>
+      <c r="DK184" s="3">
+        <f>SUM(AG8+AH8+AI8+AJ8+AK8)</f>
+        <v>1474</v>
+      </c>
+      <c r="DL184" s="3">
+        <f>SUM(AQ8+AR8+AS8+AT8+AU8)</f>
+        <v>789</v>
+      </c>
+      <c r="DM184" s="3">
+        <f>SUM(BA8+BB8+BC8+BD8+BE8)</f>
+        <v>750</v>
+      </c>
     </row>
-    <row r="185" spans="1:105">
+    <row r="185" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>49929</v>
       </c>
@@ -40807,8 +44169,35 @@
         <f t="shared" si="73"/>
         <v>13035</v>
       </c>
+      <c r="DG185" s="1">
+        <v>43929</v>
+      </c>
+      <c r="DH185" s="3">
+        <f>SUM(C9+D9+E9+F9+G9)</f>
+        <v>6439</v>
+      </c>
+      <c r="DI185" s="3">
+        <f>SUM(M9+N9+O9+P9+Q9)</f>
+        <v>2093</v>
+      </c>
+      <c r="DJ185" s="3">
+        <f>SUM(W9+X9+Y9+Z9+AA9)</f>
+        <v>1285</v>
+      </c>
+      <c r="DK185" s="3">
+        <f>SUM(AG9+AH9+AI9+AJ9+AK9)</f>
+        <v>1188</v>
+      </c>
+      <c r="DL185" s="3">
+        <f>SUM(AQ9+AR9+AS9+AT9+AU9)</f>
+        <v>962</v>
+      </c>
+      <c r="DM185" s="3">
+        <f>SUM(BA9+BB9+BC9+BD9+BE9)</f>
+        <v>945</v>
+      </c>
     </row>
-    <row r="186" spans="1:105">
+    <row r="186" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>50741</v>
       </c>
@@ -40992,8 +44381,35 @@
         <f t="shared" si="73"/>
         <v>19236</v>
       </c>
+      <c r="DG186" s="1">
+        <v>43930</v>
+      </c>
+      <c r="DH186" s="3">
+        <f>SUM(C10+D10+E10+F10+G10)</f>
+        <v>8861</v>
+      </c>
+      <c r="DI186" s="3">
+        <f>SUM(M10+N10+O10+P10+Q10)</f>
+        <v>2072</v>
+      </c>
+      <c r="DJ186" s="3">
+        <f>SUM(W10+X10+Y10+Z10+AA10)</f>
+        <v>1568</v>
+      </c>
+      <c r="DK186" s="3">
+        <f>SUM(AG10+AH10+AI10+AJ10+AK10)</f>
+        <v>933</v>
+      </c>
+      <c r="DL186" s="3">
+        <f>SUM(AQ10+AR10+AS10+AT10+AU10)</f>
+        <v>1280</v>
+      </c>
+      <c r="DM186" s="3">
+        <f>SUM(BA10+BB10+BC10+BD10+BE10)</f>
+        <v>746</v>
+      </c>
     </row>
-    <row r="187" spans="1:105">
+    <row r="187" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>51631</v>
       </c>
@@ -41179,8 +44595,35 @@
         <f t="shared" si="73"/>
         <v>1363</v>
       </c>
+      <c r="DG187" s="1">
+        <v>43931</v>
+      </c>
+      <c r="DH187" s="3">
+        <f>SUM(C11+D11+E11+F11+G11)</f>
+        <v>7891</v>
+      </c>
+      <c r="DI187" s="3">
+        <f>SUM(M11+N11+O11+P11+Q11)</f>
+        <v>2327</v>
+      </c>
+      <c r="DJ187" s="3">
+        <f>SUM(W11+X11+Y11+Z11+AA11)</f>
+        <v>1655</v>
+      </c>
+      <c r="DK187" s="3">
+        <f>SUM(AG11+AH11+AI11+AJ11+AK11)</f>
+        <v>995</v>
+      </c>
+      <c r="DL187" s="3">
+        <f>SUM(AQ11+AR11+AS11+AT11+AU11)</f>
+        <v>1043</v>
+      </c>
+      <c r="DM187" s="3">
+        <f>SUM(BA11+BB11+BC11+BD11+BE11)</f>
+        <v>710</v>
+      </c>
     </row>
-    <row r="188" spans="1:105">
+    <row r="188" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>52274</v>
       </c>
@@ -41363,8 +44806,32 @@
         <f t="shared" si="73"/>
         <v>8356</v>
       </c>
+      <c r="DG188" s="1">
+        <v>43932</v>
+      </c>
+      <c r="DH188" s="3"/>
+      <c r="DI188" s="3">
+        <f>SUM(M12+N12+O12+P12+Q12)</f>
+        <v>1869</v>
+      </c>
+      <c r="DJ188" s="3">
+        <f>SUM(W12+X12+Y12+Z12+AA12)</f>
+        <v>1366</v>
+      </c>
+      <c r="DK188" s="3">
+        <f>SUM(AG12+AH12+AI12+AJ12+AK12)</f>
+        <v>1011</v>
+      </c>
+      <c r="DL188" s="3">
+        <f>SUM(AQ12+AR12+AS12+AT12+AU12)</f>
+        <v>1066</v>
+      </c>
+      <c r="DM188" s="3">
+        <f>SUM(BA12+BB12+BC12+BD12+BE12)</f>
+        <v>770</v>
+      </c>
     </row>
-    <row r="189" spans="1:105">
+    <row r="189" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>53039</v>
       </c>
@@ -41499,11 +44966,11 @@
         <v>43933</v>
       </c>
       <c r="CA189" s="3">
-        <f t="shared" ref="CA189:CA195" si="76">SUM(C13+D13+E13+F13+G13)</f>
+        <f>SUM(C13+D13+E13+F13+G13)</f>
         <v>6316</v>
       </c>
       <c r="CB189" s="3">
-        <f t="shared" ref="CB189:CB195" si="77">SUM(BQ189-BQ188)</f>
+        <f t="shared" ref="CB189:CB195" si="76">SUM(BQ189-BQ188)</f>
         <v>20621</v>
       </c>
       <c r="CE189" s="1">
@@ -41561,8 +45028,35 @@
         <f t="shared" si="73"/>
         <v>17109</v>
       </c>
+      <c r="DG189" s="1">
+        <v>43933</v>
+      </c>
+      <c r="DH189" s="3">
+        <f>SUM(C13+D13+E13+F13+G13)</f>
+        <v>6316</v>
+      </c>
+      <c r="DI189" s="3">
+        <f>SUM(M13+N13+O13+P13+Q13)</f>
+        <v>2053</v>
+      </c>
+      <c r="DJ189" s="3">
+        <f>SUM(W13+X13+Y13+Z13+AA13)</f>
+        <v>1959</v>
+      </c>
+      <c r="DK189" s="3">
+        <f>SUM(AG13+AH13+AI13+AJ13+AK13)</f>
+        <v>483</v>
+      </c>
+      <c r="DL189" s="3">
+        <f>SUM(AQ13+AR13+AS13+AT13+AU13)</f>
+        <v>694</v>
+      </c>
+      <c r="DM189" s="3">
+        <f>SUM(BA13+BB13+BC13+BD13+BE13)</f>
+        <v>534</v>
+      </c>
     </row>
-    <row r="190" spans="1:105">
+    <row r="190" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>53640</v>
       </c>
@@ -41668,6 +45162,7 @@
       <c r="BD190" s="3"/>
       <c r="BE190" s="3"/>
       <c r="BF190" s="3"/>
+      <c r="BM190" s="3"/>
       <c r="BQ190" s="3">
         <f>SUM(195031+283326)</f>
         <v>478357</v>
@@ -41695,11 +45190,11 @@
         <v>43934</v>
       </c>
       <c r="CA190" s="3">
+        <f>SUM(C14+D14+E14+F14+G14)</f>
+        <v>4536</v>
+      </c>
+      <c r="CB190" s="3">
         <f t="shared" si="76"/>
-        <v>4536</v>
-      </c>
-      <c r="CB190" s="3">
-        <f t="shared" si="77"/>
         <v>16756</v>
       </c>
       <c r="CE190" s="1">
@@ -41757,8 +45252,35 @@
         <f t="shared" si="73"/>
         <v>554</v>
       </c>
+      <c r="DG190" s="1">
+        <v>43934</v>
+      </c>
+      <c r="DH190" s="3">
+        <f>SUM(C14+D14+E14+F14+G14)</f>
+        <v>4536</v>
+      </c>
+      <c r="DI190" s="3">
+        <f>SUM(M14+N14+O14+P14+Q14)</f>
+        <v>1758</v>
+      </c>
+      <c r="DJ190" s="3">
+        <f>SUM(W14+X14+Y14+Z14+AA14)</f>
+        <v>1071</v>
+      </c>
+      <c r="DK190" s="3">
+        <f>SUM(AG14+AH14+AI14+AJ14+AK14)</f>
+        <v>859</v>
+      </c>
+      <c r="DL190" s="3">
+        <f>SUM(AQ14+AR14+AS14+AT14+AU14)</f>
+        <v>875</v>
+      </c>
+      <c r="DM190" s="3">
+        <f>SUM(BA14+BB14+BC14+BD14+BE14)</f>
+        <v>458</v>
+      </c>
     </row>
-    <row r="191" spans="1:105">
+    <row r="191" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>54090</v>
       </c>
@@ -41865,6 +45387,7 @@
       <c r="BD191" s="3"/>
       <c r="BE191" s="3"/>
       <c r="BF191" s="3"/>
+      <c r="BM191" s="3"/>
       <c r="BQ191" s="3">
         <f>SUM(202208+296935)</f>
         <v>499143</v>
@@ -41892,11 +45415,11 @@
         <v>43935</v>
       </c>
       <c r="CA191" s="3">
+        <f>SUM(C15+D15+E15+F15+G15)</f>
+        <v>2036</v>
+      </c>
+      <c r="CB191" s="3">
         <f t="shared" si="76"/>
-        <v>2036</v>
-      </c>
-      <c r="CB191" s="3">
-        <f t="shared" si="77"/>
         <v>20786</v>
       </c>
       <c r="CE191" s="1">
@@ -41954,8 +45477,35 @@
         <f t="shared" si="73"/>
         <v>11326</v>
       </c>
+      <c r="DG191" s="1">
+        <v>43935</v>
+      </c>
+      <c r="DH191" s="3">
+        <f>SUM(C15+D15+E15+F15+G15)</f>
+        <v>2036</v>
+      </c>
+      <c r="DI191" s="3">
+        <f>SUM(M15+N15+O15+P15+Q15)</f>
+        <v>2392</v>
+      </c>
+      <c r="DJ191" s="3">
+        <f>SUM(W15+X15+Y15+Z15+AA15)</f>
+        <v>994</v>
+      </c>
+      <c r="DK191" s="3">
+        <f>SUM(AG15+AH15+AI15+AJ15+AK15)</f>
+        <v>1132</v>
+      </c>
+      <c r="DL191" s="3">
+        <f>SUM(AQ15+AR15+AS15+AT15+AU15)</f>
+        <v>627</v>
+      </c>
+      <c r="DM191" s="3">
+        <f>SUM(BA15+BB15+BC15+BD15+BE15)</f>
+        <v>687</v>
+      </c>
     </row>
-    <row r="192" spans="1:105">
+    <row r="192" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>54448</v>
       </c>
@@ -42059,6 +45609,7 @@
       <c r="BD192" s="3"/>
       <c r="BE192" s="3"/>
       <c r="BF192" s="3"/>
+      <c r="BM192" s="3"/>
       <c r="BQ192" s="3">
         <f>SUM(213779+312233)</f>
         <v>526012</v>
@@ -42086,11 +45637,11 @@
         <v>43936</v>
       </c>
       <c r="CA192" s="3">
+        <f>SUM(C16+D16+E16+F16+G16)</f>
+        <v>10422</v>
+      </c>
+      <c r="CB192" s="3">
         <f t="shared" si="76"/>
-        <v>10422</v>
-      </c>
-      <c r="CB192" s="3">
-        <f t="shared" si="77"/>
         <v>26869</v>
       </c>
       <c r="CE192" s="1">
@@ -42148,8 +45699,35 @@
         <f t="shared" si="73"/>
         <v>14278</v>
       </c>
+      <c r="DG192" s="1">
+        <v>43936</v>
+      </c>
+      <c r="DH192" s="3">
+        <f>SUM(C16+D16+E16+F16+G16)</f>
+        <v>10422</v>
+      </c>
+      <c r="DI192" s="3">
+        <f>SUM(M16+N16+O16+P16+Q16)</f>
+        <v>1543</v>
+      </c>
+      <c r="DJ192" s="3">
+        <f>SUM(W16+X16+Y16+Z16+AA16)</f>
+        <v>1391</v>
+      </c>
+      <c r="DK192" s="3">
+        <f>SUM(AG16+AH16+AI16+AJ16+AK16)</f>
+        <v>799</v>
+      </c>
+      <c r="DL192" s="3">
+        <f>SUM(AQ16+AR16+AS16+AT16+AU16)</f>
+        <v>777</v>
+      </c>
+      <c r="DM192" s="3">
+        <f>SUM(BA16+BB16+BC16+BD16+BE16)</f>
+        <v>1010</v>
+      </c>
     </row>
-    <row r="193" spans="1:105">
+    <row r="193" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3">
         <v>50667</v>
@@ -42249,6 +45827,7 @@
       <c r="BD193" s="3"/>
       <c r="BE193" s="3"/>
       <c r="BF193" s="3"/>
+      <c r="BM193" s="3"/>
       <c r="BQ193" s="3">
         <f>SUM(222284+328295)</f>
         <v>550579</v>
@@ -42276,11 +45855,11 @@
         <v>43937</v>
       </c>
       <c r="CA193" s="3">
+        <f>SUM(C17+D17+E17+F17+G17)</f>
+        <v>5717</v>
+      </c>
+      <c r="CB193" s="3">
         <f t="shared" si="76"/>
-        <v>5717</v>
-      </c>
-      <c r="CB193" s="3">
-        <f t="shared" si="77"/>
         <v>24567</v>
       </c>
       <c r="CE193" s="2">
@@ -42338,8 +45917,35 @@
         <f t="shared" si="73"/>
         <v>29914</v>
       </c>
+      <c r="DG193" s="2">
+        <v>43937</v>
+      </c>
+      <c r="DH193" s="3">
+        <f>SUM(C17+D17+E17+F17+G17)</f>
+        <v>5717</v>
+      </c>
+      <c r="DI193" s="3">
+        <f>SUM(M17+N17+O17+P17+Q17)</f>
+        <v>2753</v>
+      </c>
+      <c r="DJ193" s="3">
+        <f>SUM(W17+X17+Y17+Z17+AA17)</f>
+        <v>1790</v>
+      </c>
+      <c r="DK193" s="3">
+        <f>SUM(AG17+AH17+AI17+AJ17+AK17)</f>
+        <v>951</v>
+      </c>
+      <c r="DL193" s="3">
+        <f>SUM(AQ17+AR17+AS17+AT17+AU17)</f>
+        <v>537</v>
+      </c>
+      <c r="DM193" s="3">
+        <f>SUM(BA17+BB17+BC17+BD17+BE17)</f>
+        <v>724</v>
+      </c>
     </row>
-    <row r="194" spans="1:105">
+    <row r="194" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>55450</v>
       </c>
@@ -42439,6 +46045,7 @@
       <c r="BD194" s="3"/>
       <c r="BE194" s="3"/>
       <c r="BF194" s="3"/>
+      <c r="BM194" s="3"/>
       <c r="BQ194" s="3">
         <f>SUM(229642+343581)</f>
         <v>573223</v>
@@ -42466,11 +46073,11 @@
         <v>43938</v>
       </c>
       <c r="CA194" s="3">
+        <f>SUM(C18+D18+E18+F18+G18)</f>
+        <v>5353</v>
+      </c>
+      <c r="CB194" s="3">
         <f t="shared" si="76"/>
-        <v>5353</v>
-      </c>
-      <c r="CB194" s="3">
-        <f t="shared" si="77"/>
         <v>22644</v>
       </c>
       <c r="CE194" s="1">
@@ -42528,8 +46135,35 @@
         <f t="shared" si="73"/>
         <v>5214</v>
       </c>
+      <c r="DG194" s="1">
+        <v>43938</v>
+      </c>
+      <c r="DH194" s="3">
+        <f>SUM(C18+D18+E18+F18+G18)</f>
+        <v>5353</v>
+      </c>
+      <c r="DI194" s="3">
+        <f>SUM(M18+N18+O18+P18+Q18)</f>
+        <v>2325</v>
+      </c>
+      <c r="DJ194" s="3">
+        <f>SUM(W18+X18+Y18+Z18+AA18)</f>
+        <v>1748</v>
+      </c>
+      <c r="DK194" s="3">
+        <f>SUM(AG18+AH18+AI18+AJ18+AK18)</f>
+        <v>586</v>
+      </c>
+      <c r="DL194" s="3">
+        <f>SUM(AQ18+AR18+AS18+AT18+AU18)</f>
+        <v>1512</v>
+      </c>
+      <c r="DM194" s="3">
+        <f>SUM(BA18+BB18+BC18+BD18+BE18)</f>
+        <v>919</v>
+      </c>
     </row>
-    <row r="195" spans="1:105">
+    <row r="195" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>55944</v>
       </c>
@@ -42628,6 +46262,7 @@
       <c r="BD195" s="3"/>
       <c r="BE195" s="3"/>
       <c r="BF195" s="3"/>
+      <c r="BM195" s="3"/>
       <c r="BQ195" s="3">
         <f>SUM(236732+359800)</f>
         <v>596532</v>
@@ -42655,11 +46290,11 @@
         <v>43939</v>
       </c>
       <c r="CA195" s="3">
+        <f>SUM(C19+D19+E19+F19+G19)</f>
+        <v>4934</v>
+      </c>
+      <c r="CB195" s="3">
         <f t="shared" si="76"/>
-        <v>4934</v>
-      </c>
-      <c r="CB195" s="3">
-        <f t="shared" si="77"/>
         <v>23309</v>
       </c>
       <c r="CE195" s="1">
@@ -42705,8 +46340,29 @@
       </c>
       <c r="CZ195" s="3"/>
       <c r="DA195" s="3"/>
+      <c r="DG195" s="1">
+        <v>43939</v>
+      </c>
+      <c r="DH195" s="3">
+        <f>SUM(C19+D19+E19+F19+G19)</f>
+        <v>4934</v>
+      </c>
+      <c r="DI195" s="3">
+        <f>SUM(M19+N19+O19+P19+Q19)</f>
+        <v>1711</v>
+      </c>
+      <c r="DJ195" s="3">
+        <f>SUM(W19+X19+Y19+Z19+AA19)</f>
+        <v>1654</v>
+      </c>
+      <c r="DK195" s="3">
+        <f>SUM(AG19+AH19+AI19+AJ19+AK19)</f>
+        <v>510</v>
+      </c>
+      <c r="DL195" s="3"/>
+      <c r="DM195" s="3"/>
     </row>
-    <row r="196" spans="1:105">
+    <row r="196" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>56493</v>
       </c>
@@ -42805,6 +46461,7 @@
       <c r="BD196" s="3"/>
       <c r="BE196" s="3"/>
       <c r="BF196" s="3"/>
+      <c r="BM196" s="3"/>
       <c r="BQ196" s="3">
         <f>SUM(242786+374769)</f>
         <v>617555</v>
@@ -42882,8 +46539,29 @@
       </c>
       <c r="CZ196" s="3"/>
       <c r="DA196" s="3"/>
+      <c r="DG196" s="2">
+        <v>43940</v>
+      </c>
+      <c r="DH196" s="3"/>
+      <c r="DI196" s="3">
+        <f>SUM(M20+N20+O20+P20+Q20)</f>
+        <v>2411</v>
+      </c>
+      <c r="DJ196" s="3">
+        <f>SUM(W20+X20+Y20+Z20+AA20)</f>
+        <v>1304</v>
+      </c>
+      <c r="DK196" s="3">
+        <f>SUM(AG20+AH20+AI20+AJ20+AK20)</f>
+        <v>430</v>
+      </c>
+      <c r="DL196" s="3">
+        <f>SUM(AQ20+AR20+AS20+AT20+AU20)</f>
+        <v>1083</v>
+      </c>
+      <c r="DM196" s="3"/>
     </row>
-    <row r="197" spans="1:105">
+    <row r="197" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>56862</v>
       </c>
@@ -42982,6 +46660,7 @@
       <c r="BD197" s="3"/>
       <c r="BE197" s="3"/>
       <c r="BF197" s="3"/>
+      <c r="BM197" s="3"/>
       <c r="BQ197" s="3">
         <v>633861</v>
       </c>
@@ -43051,15 +46730,36 @@
         <v>43941</v>
       </c>
       <c r="CZ197" s="3">
-        <f t="shared" ref="CZ197:CZ203" si="78">SUM(BA21+BB21+BC21+BD21+BE21)</f>
+        <f t="shared" ref="CZ197:CZ203" si="77">SUM(BA21+BB21+BC21+BD21+BE21)</f>
         <v>1836</v>
       </c>
       <c r="DA197" s="3">
-        <f t="shared" ref="DA197:DA203" si="79">SUM(BV197-BV196)</f>
+        <f t="shared" ref="DA197:DA203" si="78">SUM(BV197-BV196)</f>
         <v>9600</v>
       </c>
+      <c r="DG197" s="1">
+        <v>43941</v>
+      </c>
+      <c r="DH197" s="3"/>
+      <c r="DI197" s="3">
+        <f>SUM(M21+N21+O21+P21+Q21)</f>
+        <v>2015</v>
+      </c>
+      <c r="DJ197" s="3">
+        <f>SUM(W21+X21+Y21+Z21+AA21)</f>
+        <v>1180</v>
+      </c>
+      <c r="DK197" s="3">
+        <f>SUM(AG21+AH21+AI21+AJ21+AK21)</f>
+        <v>378</v>
+      </c>
+      <c r="DL197" s="3"/>
+      <c r="DM197" s="3">
+        <f>SUM(BA21+BB21+BC21+BD21+BE21)</f>
+        <v>1836</v>
+      </c>
     </row>
-    <row r="198" spans="1:105">
+    <row r="198" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>57180</v>
       </c>
@@ -43158,6 +46858,7 @@
       <c r="BD198" s="3"/>
       <c r="BE198" s="3"/>
       <c r="BF198" s="3"/>
+      <c r="BM198" s="3"/>
       <c r="BQ198" s="3">
         <v>649325</v>
       </c>
@@ -43182,11 +46883,11 @@
         <v>43942</v>
       </c>
       <c r="CA198" s="3">
-        <f t="shared" ref="CA198:CA212" si="80">SUM(C22+D22+E22+F22+G22)</f>
+        <f>SUM(C22+D22+E22+F22+G22)</f>
         <v>2974</v>
       </c>
       <c r="CB198" s="3">
-        <f t="shared" ref="CB198:CB212" si="81">SUM(BQ198-BQ197)</f>
+        <f t="shared" ref="CB198:CB212" si="79">SUM(BQ198-BQ197)</f>
         <v>15464</v>
       </c>
       <c r="CE198" s="1">
@@ -43231,15 +46932,39 @@
         <v>43942</v>
       </c>
       <c r="CZ198" s="3">
+        <f t="shared" si="77"/>
+        <v>1633</v>
+      </c>
+      <c r="DA198" s="3">
         <f t="shared" si="78"/>
+        <v>18200</v>
+      </c>
+      <c r="DG198" s="1">
+        <v>43942</v>
+      </c>
+      <c r="DH198" s="3">
+        <f>SUM(C22+D22+E22+F22+G22)</f>
+        <v>2974</v>
+      </c>
+      <c r="DI198" s="3">
+        <f>SUM(M22+N22+O22+P22+Q22)</f>
+        <v>2009</v>
+      </c>
+      <c r="DJ198" s="3">
+        <f>SUM(W22+X22+Y22+Z22+AA22)</f>
+        <v>1212</v>
+      </c>
+      <c r="DK198" s="3">
+        <f>SUM(AG22+AH22+AI22+AJ22+AK22)</f>
+        <v>654</v>
+      </c>
+      <c r="DL198" s="3"/>
+      <c r="DM198" s="3">
+        <f>SUM(BA22+BB22+BC22+BD22+BE22)</f>
         <v>1633</v>
       </c>
-      <c r="DA198" s="3">
-        <f t="shared" si="79"/>
-        <v>18200</v>
-      </c>
     </row>
-    <row r="199" spans="1:105">
+    <row r="199" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>57391</v>
       </c>
@@ -43335,6 +47060,7 @@
       <c r="BD199" s="3"/>
       <c r="BE199" s="3"/>
       <c r="BF199" s="3"/>
+      <c r="BM199" s="3"/>
       <c r="BQ199" s="3">
         <v>669982</v>
       </c>
@@ -43360,11 +47086,11 @@
         <v>43943</v>
       </c>
       <c r="CA199" s="3">
-        <f t="shared" si="80"/>
+        <f>SUM(C23+D23+E23+F23+G23)</f>
         <v>3733</v>
       </c>
       <c r="CB199" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>20657</v>
       </c>
       <c r="CE199" s="1">
@@ -43404,26 +47130,53 @@
         <v>43943</v>
       </c>
       <c r="CU199" s="3">
-        <f t="shared" ref="CU199:CU210" si="82">SUM(AQ23+AR23+AS23+AT23+AU23)</f>
+        <f t="shared" ref="CU199:CU210" si="80">SUM(AQ23+AR23+AS23+AT23+AU23)</f>
         <v>708</v>
       </c>
       <c r="CV199" s="3">
-        <f t="shared" ref="CV199:CV210" si="83">SUM(BU199-BU198)</f>
+        <f t="shared" ref="CV199:CV210" si="81">SUM(BU199-BU198)</f>
         <v>5105</v>
       </c>
       <c r="CY199" s="1">
         <v>43943</v>
       </c>
       <c r="CZ199" s="3">
+        <f t="shared" si="77"/>
+        <v>1646</v>
+      </c>
+      <c r="DA199" s="3">
         <f t="shared" si="78"/>
+        <v>173397</v>
+      </c>
+      <c r="DG199" s="1">
+        <v>43943</v>
+      </c>
+      <c r="DH199" s="3">
+        <f>SUM(C23+D23+E23+F23+G23)</f>
+        <v>3733</v>
+      </c>
+      <c r="DI199" s="3">
+        <f>SUM(M23+N23+O23+P23+Q23)</f>
+        <v>1638</v>
+      </c>
+      <c r="DJ199" s="3">
+        <f>SUM(W23+X23+Y23+Z23+AA23)</f>
+        <v>1391</v>
+      </c>
+      <c r="DK199" s="3">
+        <f>SUM(AG23+AH23+AI23+AJ23+AK23)</f>
+        <v>623</v>
+      </c>
+      <c r="DL199" s="3">
+        <f>SUM(AQ23+AR23+AS23+AT23+AU23)</f>
+        <v>708</v>
+      </c>
+      <c r="DM199" s="3">
+        <f>SUM(BA23+BB23+BC23+BD23+BE23)</f>
         <v>1646</v>
       </c>
-      <c r="DA199" s="3">
-        <f t="shared" si="79"/>
-        <v>173397</v>
-      </c>
     </row>
-    <row r="200" spans="1:105">
+    <row r="200" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>57748</v>
       </c>
@@ -43502,6 +47255,7 @@
         <v>4396</v>
       </c>
       <c r="AO200" s="3"/>
+      <c r="BM200" s="3"/>
       <c r="BQ200" s="3">
         <v>695920</v>
       </c>
@@ -43527,11 +47281,11 @@
         <v>43944</v>
       </c>
       <c r="CA200" s="3">
-        <f t="shared" si="80"/>
+        <f>SUM(C24+D24+E24+F24+G24)</f>
         <v>4137</v>
       </c>
       <c r="CB200" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>25938</v>
       </c>
       <c r="CE200" s="1">
@@ -43571,26 +47325,53 @@
         <v>43944</v>
       </c>
       <c r="CU200" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>827</v>
       </c>
       <c r="CV200" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>7158</v>
       </c>
       <c r="CY200" s="1">
         <v>43944</v>
       </c>
       <c r="CZ200" s="3">
+        <f t="shared" si="77"/>
+        <v>1496</v>
+      </c>
+      <c r="DA200" s="3">
         <f t="shared" si="78"/>
+        <v>12076</v>
+      </c>
+      <c r="DG200" s="1">
+        <v>43944</v>
+      </c>
+      <c r="DH200" s="3">
+        <f>SUM(C24+D24+E24+F24+G24)</f>
+        <v>4137</v>
+      </c>
+      <c r="DI200" s="3">
+        <f>SUM(M24+N24+O24+P24+Q24)</f>
+        <v>2326</v>
+      </c>
+      <c r="DJ200" s="3">
+        <f>SUM(W24+X24+Y24+Z24+AA24)</f>
+        <v>2416</v>
+      </c>
+      <c r="DK200" s="3">
+        <f>SUM(AG24+AH24+AI24+AJ24+AK24)</f>
+        <v>911</v>
+      </c>
+      <c r="DL200" s="3">
+        <f>SUM(AQ24+AR24+AS24+AT24+AU24)</f>
+        <v>827</v>
+      </c>
+      <c r="DM200" s="3">
+        <f>SUM(BA24+BB24+BC24+BD24+BE24)</f>
         <v>1496</v>
       </c>
-      <c r="DA200" s="3">
-        <f t="shared" si="79"/>
-        <v>12076</v>
-      </c>
     </row>
-    <row r="201" spans="1:105">
+    <row r="201" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>58084</v>
       </c>
@@ -43654,6 +47435,7 @@
         <v>4466</v>
       </c>
       <c r="AO201" s="3"/>
+      <c r="BM201" s="3"/>
       <c r="BQ201" s="5">
         <v>730656</v>
       </c>
@@ -43679,11 +47461,11 @@
         <v>43945</v>
       </c>
       <c r="CA201" s="3">
-        <f t="shared" si="80"/>
+        <f>SUM(C25+D25+E25+F25+G25)</f>
         <v>5499</v>
       </c>
       <c r="CB201" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>34736</v>
       </c>
       <c r="CE201" s="1">
@@ -43723,26 +47505,53 @@
         <v>43945</v>
       </c>
       <c r="CU201" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>887</v>
       </c>
       <c r="CV201" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>7029</v>
       </c>
       <c r="CY201" s="1">
         <v>43945</v>
       </c>
       <c r="CZ201" s="3">
+        <f t="shared" si="77"/>
+        <v>1605</v>
+      </c>
+      <c r="DA201" s="3">
         <f t="shared" si="78"/>
+        <v>11862</v>
+      </c>
+      <c r="DG201" s="1">
+        <v>43945</v>
+      </c>
+      <c r="DH201" s="3">
+        <f>SUM(C25+D25+E25+F25+G25)</f>
+        <v>5499</v>
+      </c>
+      <c r="DI201" s="3">
+        <f>SUM(M25+N25+O25+P25+Q25)</f>
+        <v>1669</v>
+      </c>
+      <c r="DJ201" s="3">
+        <f>SUM(W25+X25+Y25+Z25+AA25)</f>
+        <v>3431</v>
+      </c>
+      <c r="DK201" s="3">
+        <f>SUM(AG25+AH25+AI25+AJ25+AK25)</f>
+        <v>804</v>
+      </c>
+      <c r="DL201" s="3">
+        <f>SUM(AQ25+AR25+AS25+AT25+AU25)</f>
+        <v>887</v>
+      </c>
+      <c r="DM201" s="3">
+        <f>SUM(BA25+BB25+BC25+BD25+BE25)</f>
         <v>1605</v>
       </c>
-      <c r="DA201" s="3">
-        <f t="shared" si="79"/>
-        <v>11862</v>
-      </c>
     </row>
-    <row r="202" spans="1:105">
+    <row r="202" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>58516</v>
       </c>
@@ -43807,6 +47616,7 @@
         <v>4558</v>
       </c>
       <c r="AO202" s="3"/>
+      <c r="BM202" s="3"/>
       <c r="BQ202" s="3">
         <v>777568</v>
       </c>
@@ -43832,11 +47642,11 @@
         <v>43946</v>
       </c>
       <c r="CA202" s="3">
-        <f t="shared" si="80"/>
+        <f>SUM(C26+D26+E26+F26+G26)</f>
         <v>5763</v>
       </c>
       <c r="CB202" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>46912</v>
       </c>
       <c r="CE202" s="1">
@@ -43876,26 +47686,53 @@
         <v>43946</v>
       </c>
       <c r="CU202" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>734</v>
       </c>
       <c r="CV202" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>6792</v>
       </c>
       <c r="CY202" s="1">
         <v>43946</v>
       </c>
       <c r="CZ202" s="3">
+        <f t="shared" si="77"/>
+        <v>926</v>
+      </c>
+      <c r="DA202" s="3">
         <f t="shared" si="78"/>
+        <v>20049</v>
+      </c>
+      <c r="DG202" s="1">
+        <v>43946</v>
+      </c>
+      <c r="DH202" s="3">
+        <f>SUM(C26+D26+E26+F26+G26)</f>
+        <v>5763</v>
+      </c>
+      <c r="DI202" s="3">
+        <f>SUM(M26+N26+O26+P26+Q26)</f>
+        <v>1903</v>
+      </c>
+      <c r="DJ202" s="3">
+        <f>SUM(W26+X26+Y26+Z26+AA26)</f>
+        <v>1863</v>
+      </c>
+      <c r="DK202" s="3">
+        <f>SUM(AG26+AH26+AI26+AJ26+AK26)</f>
+        <v>381</v>
+      </c>
+      <c r="DL202" s="3">
+        <f>SUM(AQ26+AR26+AS26+AT26+AU26)</f>
+        <v>734</v>
+      </c>
+      <c r="DM202" s="3">
+        <f>SUM(BA26+BB26+BC26+BD26+BE26)</f>
         <v>926</v>
       </c>
-      <c r="DA202" s="3">
-        <f t="shared" si="79"/>
-        <v>20049</v>
-      </c>
     </row>
-    <row r="203" spans="1:105">
+    <row r="203" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>58841</v>
       </c>
@@ -43958,6 +47795,7 @@
         <v>4767</v>
       </c>
       <c r="AO203" s="3"/>
+      <c r="BM203" s="3"/>
       <c r="BQ203" s="3">
         <v>805350</v>
       </c>
@@ -43983,11 +47821,11 @@
         <v>43947</v>
       </c>
       <c r="CA203" s="3">
-        <f t="shared" si="80"/>
+        <f>SUM(C27+D27+E27+F27+G27)</f>
         <v>3913</v>
       </c>
       <c r="CB203" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>27782</v>
       </c>
       <c r="CE203" s="1">
@@ -44021,26 +47859,50 @@
         <v>43947</v>
       </c>
       <c r="CU203" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>620</v>
       </c>
       <c r="CV203" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>5658</v>
       </c>
       <c r="CY203" s="1">
         <v>43947</v>
       </c>
       <c r="CZ203" s="3">
+        <f t="shared" si="77"/>
+        <v>903</v>
+      </c>
+      <c r="DA203" s="3">
         <f t="shared" si="78"/>
+        <v>27425</v>
+      </c>
+      <c r="DG203" s="1">
+        <v>43947</v>
+      </c>
+      <c r="DH203" s="3">
+        <f>SUM(C27+D27+E27+F27+G27)</f>
+        <v>3913</v>
+      </c>
+      <c r="DI203" s="3">
+        <f>SUM(M27+N27+O27+P27+Q27)</f>
+        <v>1640</v>
+      </c>
+      <c r="DJ203" s="3">
+        <f>SUM(W27+X27+Y27+Z27+AA27)</f>
+        <v>1225</v>
+      </c>
+      <c r="DK203" s="3"/>
+      <c r="DL203" s="3">
+        <f>SUM(AQ27+AR27+AS27+AT27+AU27)</f>
+        <v>620</v>
+      </c>
+      <c r="DM203" s="3">
+        <f>SUM(BA27+BB27+BC27+BD27+BE27)</f>
         <v>903</v>
       </c>
-      <c r="DA203" s="3">
-        <f t="shared" si="79"/>
-        <v>27425</v>
-      </c>
     </row>
-    <row r="204" spans="1:105">
+    <row r="204" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>59132</v>
       </c>
@@ -44103,6 +47965,7 @@
         <v>4866</v>
       </c>
       <c r="AO204" s="3"/>
+      <c r="BM204" s="3"/>
       <c r="BQ204" s="3">
         <v>826095</v>
       </c>
@@ -44128,11 +47991,11 @@
         <v>43948</v>
       </c>
       <c r="CA204" s="3">
-        <f t="shared" si="80"/>
+        <f>SUM(C28+D28+E28+F28+G28)</f>
         <v>2521</v>
       </c>
       <c r="CB204" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>20745</v>
       </c>
       <c r="CE204" s="1">
@@ -44166,11 +48029,11 @@
         <v>43948</v>
       </c>
       <c r="CU204" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>443</v>
       </c>
       <c r="CV204" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>4829</v>
       </c>
       <c r="CY204" s="1">
@@ -44178,8 +48041,29 @@
       </c>
       <c r="CZ204" s="3"/>
       <c r="DA204" s="3"/>
+      <c r="DG204" s="1">
+        <v>43948</v>
+      </c>
+      <c r="DH204" s="3">
+        <f>SUM(C28+D28+E28+F28+G28)</f>
+        <v>2521</v>
+      </c>
+      <c r="DI204" s="3">
+        <f>SUM(M28+N28+O28+P28+Q28)</f>
+        <v>910</v>
+      </c>
+      <c r="DJ204" s="3">
+        <f>SUM(W28+X28+Y28+Z28+AA28)</f>
+        <v>1146</v>
+      </c>
+      <c r="DK204" s="3"/>
+      <c r="DL204" s="3">
+        <f>SUM(AQ28+AR28+AS28+AT28+AU28)</f>
+        <v>443</v>
+      </c>
+      <c r="DM204" s="3"/>
     </row>
-    <row r="205" spans="1:105">
+    <row r="205" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>59324</v>
       </c>
@@ -44242,6 +48126,7 @@
         <v>4975</v>
       </c>
       <c r="AO205" s="3"/>
+      <c r="BM205" s="3"/>
       <c r="BQ205" s="3">
         <v>844994</v>
       </c>
@@ -44267,11 +48152,11 @@
         <v>43949</v>
       </c>
       <c r="CA205" s="3">
-        <f t="shared" si="80"/>
+        <f>SUM(C29+D29+E29+F29+G29)</f>
         <v>2015</v>
       </c>
       <c r="CB205" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>18899</v>
       </c>
       <c r="CE205" s="1">
@@ -44305,11 +48190,11 @@
         <v>43949</v>
       </c>
       <c r="CU205" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>699</v>
       </c>
       <c r="CV205" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>5666</v>
       </c>
       <c r="CY205" s="1">
@@ -44317,8 +48202,29 @@
       </c>
       <c r="CZ205" s="3"/>
       <c r="DA205" s="3"/>
+      <c r="DG205" s="1">
+        <v>43949</v>
+      </c>
+      <c r="DH205" s="3">
+        <f>SUM(C29+D29+E29+F29+G29)</f>
+        <v>2015</v>
+      </c>
+      <c r="DI205" s="3">
+        <f>SUM(M29+N29+O29+P29+Q29)</f>
+        <v>1257</v>
+      </c>
+      <c r="DJ205" s="3">
+        <f>SUM(W29+X29+Y29+Z29+AA29)</f>
+        <v>1409</v>
+      </c>
+      <c r="DK205" s="3"/>
+      <c r="DL205" s="3">
+        <f>SUM(AQ29+AR29+AS29+AT29+AU29)</f>
+        <v>699</v>
+      </c>
+      <c r="DM205" s="3"/>
     </row>
-    <row r="206" spans="1:105">
+    <row r="206" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>59508</v>
       </c>
@@ -44375,6 +48281,7 @@
         <v>5144</v>
       </c>
       <c r="AO206" s="3"/>
+      <c r="BM206" s="3"/>
       <c r="BQ206" s="3">
         <v>872481</v>
       </c>
@@ -44400,11 +48307,11 @@
         <v>43950</v>
       </c>
       <c r="CA206" s="3">
-        <f t="shared" si="80"/>
+        <f>SUM(C30+D30+E30+F30+G30)</f>
         <v>3028</v>
       </c>
       <c r="CB206" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>27487</v>
       </c>
       <c r="CE206" s="1">
@@ -44444,26 +48351,53 @@
         <v>43950</v>
       </c>
       <c r="CU206" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>637</v>
       </c>
       <c r="CV206" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>5795</v>
       </c>
       <c r="CY206" s="1">
         <v>43950</v>
       </c>
       <c r="CZ206" s="3">
-        <f t="shared" ref="CZ206:CZ236" si="84">SUM(BA30+BB30+BC30+BD30+BE30)</f>
+        <f t="shared" ref="CZ206:CZ236" si="82">SUM(BA30+BB30+BC30+BD30+BE30)</f>
         <v>1819</v>
       </c>
       <c r="DA206" s="3">
-        <f t="shared" ref="DA206:DA236" si="85">SUM(BV206-BV205)</f>
+        <f t="shared" ref="DA206:DA236" si="83">SUM(BV206-BV205)</f>
         <v>22198</v>
       </c>
+      <c r="DG206" s="1">
+        <v>43950</v>
+      </c>
+      <c r="DH206" s="3">
+        <f>SUM(C30+D30+E30+F30+G30)</f>
+        <v>3028</v>
+      </c>
+      <c r="DI206" s="3">
+        <f>SUM(M30+N30+O30+P30+Q30)</f>
+        <v>1359</v>
+      </c>
+      <c r="DJ206" s="3">
+        <f>SUM(W30+X30+Y30+Z30+AA30)</f>
+        <v>1623</v>
+      </c>
+      <c r="DK206" s="3">
+        <f>SUM(AG30+AH30+AI30+AJ30+AK30)</f>
+        <v>606</v>
+      </c>
+      <c r="DL206" s="3">
+        <f>SUM(AQ30+AR30+AS30+AT30+AU30)</f>
+        <v>637</v>
+      </c>
+      <c r="DM206" s="3">
+        <f>SUM(BA30+BB30+BC30+BD30+BE30)</f>
+        <v>1819</v>
+      </c>
     </row>
-    <row r="207" spans="1:105">
+    <row r="207" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>59752</v>
       </c>
@@ -44514,6 +48448,7 @@
         <v>5313</v>
       </c>
       <c r="AO207" s="3"/>
+      <c r="BM207" s="3"/>
       <c r="BQ207" s="3">
         <v>900636</v>
       </c>
@@ -44539,11 +48474,11 @@
         <v>43951</v>
       </c>
       <c r="CA207" s="3">
-        <f t="shared" si="80"/>
+        <f>SUM(C31+D31+E31+F31+G31)</f>
         <v>2918</v>
       </c>
       <c r="CB207" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>28155</v>
       </c>
       <c r="CE207" s="1">
@@ -44583,26 +48518,53 @@
         <v>43951</v>
       </c>
       <c r="CU207" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>757</v>
       </c>
       <c r="CV207" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>6482</v>
       </c>
       <c r="CY207" s="1">
         <v>43951</v>
       </c>
       <c r="CZ207" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1172</v>
       </c>
       <c r="DA207" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>29648</v>
       </c>
+      <c r="DG207" s="1">
+        <v>43951</v>
+      </c>
+      <c r="DH207" s="3">
+        <f>SUM(C31+D31+E31+F31+G31)</f>
+        <v>2918</v>
+      </c>
+      <c r="DI207" s="3">
+        <f>SUM(M31+N31+O31+P31+Q31)</f>
+        <v>1183</v>
+      </c>
+      <c r="DJ207" s="3">
+        <f>SUM(W31+X31+Y31+Z31+AA31)</f>
+        <v>1499</v>
+      </c>
+      <c r="DK207" s="3">
+        <f>SUM(AG31+AH31+AI31+AJ31+AK31)</f>
+        <v>469</v>
+      </c>
+      <c r="DL207" s="3">
+        <f>SUM(AQ31+AR31+AS31+AT31+AU31)</f>
+        <v>757</v>
+      </c>
+      <c r="DM207" s="3">
+        <f>SUM(BA31+BB31+BC31+BD31+BE31)</f>
+        <v>1172</v>
+      </c>
     </row>
-    <row r="208" spans="1:105">
+    <row r="208" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>60025</v>
       </c>
@@ -44653,6 +48615,7 @@
         <v>5439</v>
       </c>
       <c r="AO208" s="3"/>
+      <c r="BM208" s="3"/>
       <c r="BQ208" s="3">
         <v>927438</v>
       </c>
@@ -44678,11 +48641,11 @@
         <v>43952</v>
       </c>
       <c r="CA208" s="3">
-        <f t="shared" si="80"/>
+        <f>SUM(C32+D32+E32+F32+G32)</f>
         <v>2511</v>
       </c>
       <c r="CB208" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>26802</v>
       </c>
       <c r="CE208" s="1">
@@ -44722,26 +48685,53 @@
         <v>43952</v>
       </c>
       <c r="CU208" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>602</v>
       </c>
       <c r="CV208" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>6083</v>
       </c>
       <c r="CY208" s="1">
         <v>43952</v>
       </c>
       <c r="CZ208" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1315</v>
       </c>
       <c r="DA208" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>30063</v>
       </c>
+      <c r="DG208" s="1">
+        <v>43952</v>
+      </c>
+      <c r="DH208" s="3">
+        <f>SUM(C32+D32+E32+F32+G32)</f>
+        <v>2511</v>
+      </c>
+      <c r="DI208" s="3">
+        <f>SUM(M32+N32+O32+P32+Q32)</f>
+        <v>1330</v>
+      </c>
+      <c r="DJ208" s="3">
+        <f>SUM(W32+X32+Y32+Z32+AA32)</f>
+        <v>1565</v>
+      </c>
+      <c r="DK208" s="3">
+        <f>SUM(AG32+AH32+AI32+AJ32+AK32)</f>
+        <v>542</v>
+      </c>
+      <c r="DL208" s="3">
+        <f>SUM(AQ32+AR32+AS32+AT32+AU32)</f>
+        <v>602</v>
+      </c>
+      <c r="DM208" s="3">
+        <f>SUM(BA32+BB32+BC32+BD32+BE32)</f>
+        <v>1315</v>
+      </c>
     </row>
-    <row r="209" spans="1:105">
+    <row r="209" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>60236</v>
       </c>
@@ -44792,6 +48782,7 @@
         <v>5601</v>
       </c>
       <c r="AO209" s="3"/>
+      <c r="BM209" s="3"/>
       <c r="BQ209" s="3">
         <v>959017</v>
       </c>
@@ -44817,11 +48808,11 @@
         <v>43953</v>
       </c>
       <c r="CA209" s="3">
-        <f t="shared" si="80"/>
+        <f>SUM(C33+D33+E33+F33+G33)</f>
         <v>2985</v>
       </c>
       <c r="CB209" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>31579</v>
       </c>
       <c r="CE209" s="1">
@@ -44861,26 +48852,53 @@
         <v>43953</v>
       </c>
       <c r="CU209" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>744</v>
       </c>
       <c r="CV209" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>7928</v>
       </c>
       <c r="CY209" s="1">
         <v>43953</v>
       </c>
       <c r="CZ209" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1025</v>
       </c>
       <c r="DA209" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>30703</v>
       </c>
+      <c r="DG209" s="1">
+        <v>43953</v>
+      </c>
+      <c r="DH209" s="3">
+        <f>SUM(C33+D33+E33+F33+G33)</f>
+        <v>2985</v>
+      </c>
+      <c r="DI209" s="3">
+        <f>SUM(M33+N33+O33+P33+Q33)</f>
+        <v>1136</v>
+      </c>
+      <c r="DJ209" s="3">
+        <f>SUM(W33+X33+Y33+Z33+AA33)</f>
+        <v>1550</v>
+      </c>
+      <c r="DK209" s="3">
+        <f>SUM(AG33+AH33+AI33+AJ33+AK33)</f>
+        <v>261</v>
+      </c>
+      <c r="DL209" s="3">
+        <f>SUM(AQ33+AR33+AS33+AT33+AU33)</f>
+        <v>744</v>
+      </c>
+      <c r="DM209" s="3">
+        <f>SUM(BA33+BB33+BC33+BD33+BE33)</f>
+        <v>1025</v>
+      </c>
     </row>
-    <row r="210" spans="1:105">
+    <row r="210" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>60422</v>
       </c>
@@ -44916,6 +48934,7 @@
         <v>3845</v>
       </c>
       <c r="AO210" s="3"/>
+      <c r="BM210" s="3"/>
       <c r="BQ210" s="3">
         <v>985911</v>
       </c>
@@ -44941,11 +48960,11 @@
         <v>43954</v>
       </c>
       <c r="CA210" s="3">
-        <f t="shared" si="80"/>
+        <f>SUM(C34+D34+E34+F34+G34)</f>
         <v>2269</v>
       </c>
       <c r="CB210" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>26894</v>
       </c>
       <c r="CE210" s="1">
@@ -44985,26 +49004,53 @@
         <v>43954</v>
       </c>
       <c r="CU210" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>514</v>
       </c>
       <c r="CV210" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>5265</v>
       </c>
       <c r="CY210" s="1">
         <v>43954</v>
       </c>
       <c r="CZ210" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>992</v>
       </c>
       <c r="DA210" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>32123</v>
       </c>
+      <c r="DG210" s="1">
+        <v>43954</v>
+      </c>
+      <c r="DH210" s="3">
+        <f>SUM(C34+D34+E34+F34+G34)</f>
+        <v>2269</v>
+      </c>
+      <c r="DI210" s="3">
+        <f>SUM(M34+N34+O34+P34+Q34)</f>
+        <v>1363</v>
+      </c>
+      <c r="DJ210" s="3">
+        <f>SUM(W34+X34+Y34+Z34+AA34)</f>
+        <v>925</v>
+      </c>
+      <c r="DK210" s="3">
+        <f>SUM(AG34+AH34+AI34+AJ34+AK34)</f>
+        <v>351</v>
+      </c>
+      <c r="DL210" s="3">
+        <f>SUM(AQ34+AR34+AS34+AT34+AU34)</f>
+        <v>514</v>
+      </c>
+      <c r="DM210" s="3">
+        <f>SUM(BA34+BB34+BC34+BD34+BE34)</f>
+        <v>992</v>
+      </c>
     </row>
-    <row r="211" spans="1:105">
+    <row r="211" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>60636</v>
       </c>
@@ -45040,6 +49086,7 @@
         <v>3885</v>
       </c>
       <c r="AO211" s="3"/>
+      <c r="BM211" s="3"/>
       <c r="BQ211" s="3">
         <v>1007310</v>
       </c>
@@ -45065,11 +49112,11 @@
         <v>43955</v>
       </c>
       <c r="CA211" s="3">
-        <f t="shared" si="80"/>
+        <f>SUM(C35+D35+E35+F35+G35)</f>
         <v>1508</v>
       </c>
       <c r="CB211" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>21399</v>
       </c>
       <c r="CE211" s="1">
@@ -45087,11 +49134,11 @@
         <v>43955</v>
       </c>
       <c r="CK211" s="3">
-        <f t="shared" ref="CK211:CK237" si="86">SUM(W35+X35+Y35+Z35+AA35)</f>
+        <f t="shared" ref="CK211:CK237" si="84">SUM(W35+X35+Y35+Z35+AA35)</f>
         <v>1067</v>
       </c>
       <c r="CL211" s="3">
-        <f t="shared" ref="CL211:CL237" si="87">SUM(BS211-BS210)</f>
+        <f t="shared" ref="CL211:CL237" si="85">SUM(BS211-BS210)</f>
         <v>9622</v>
       </c>
       <c r="CO211" s="1">
@@ -45108,15 +49155,39 @@
         <v>43955</v>
       </c>
       <c r="CZ211" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>890</v>
       </c>
       <c r="DA211" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>32028</v>
       </c>
+      <c r="DG211" s="1">
+        <v>43955</v>
+      </c>
+      <c r="DH211" s="3">
+        <f>SUM(C35+D35+E35+F35+G35)</f>
+        <v>1508</v>
+      </c>
+      <c r="DI211" s="3">
+        <f>SUM(M35+N35+O35+P35+Q35)</f>
+        <v>573</v>
+      </c>
+      <c r="DJ211" s="3">
+        <f>SUM(W35+X35+Y35+Z35+AA35)</f>
+        <v>1067</v>
+      </c>
+      <c r="DK211" s="3"/>
+      <c r="DL211" s="3">
+        <f>SUM(AQ35+AR35+AS35+AT35+AU35)</f>
+        <v>337</v>
+      </c>
+      <c r="DM211" s="3">
+        <f>SUM(BA35+BB35+BC35+BD35+BE35)</f>
+        <v>890</v>
+      </c>
     </row>
-    <row r="212" spans="1:105">
+    <row r="212" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>60828</v>
       </c>
@@ -45152,6 +49223,7 @@
         <v>3903</v>
       </c>
       <c r="AO212" s="3"/>
+      <c r="BM212" s="3"/>
       <c r="BQ212" s="3">
         <v>1028899</v>
       </c>
@@ -45178,11 +49250,11 @@
         <v>43956</v>
       </c>
       <c r="CA212" s="3">
-        <f t="shared" si="80"/>
+        <f>SUM(C36+D36+E36+F36+G36)</f>
         <v>1392</v>
       </c>
       <c r="CB212" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>21589</v>
       </c>
       <c r="CE212" s="1">
@@ -45200,11 +49272,11 @@
         <v>43956</v>
       </c>
       <c r="CK212" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>871</v>
       </c>
       <c r="CL212" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>9081</v>
       </c>
       <c r="CO212" s="1">
@@ -45221,15 +49293,40 @@
         <v>43956</v>
       </c>
       <c r="CZ212" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1783</v>
       </c>
       <c r="DA212" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>29134</v>
       </c>
+      <c r="DG212" s="1">
+        <v>43956</v>
+      </c>
+      <c r="DH212" s="3">
+        <f>SUM(C36+D36+E36+F36+G36)</f>
+        <v>1392</v>
+      </c>
+      <c r="DI212" s="3">
+        <f>SUM(M36+N36+O36+P36+Q36)</f>
+        <v>1062</v>
+      </c>
+      <c r="DJ212" s="3">
+        <f>SUM(W36+X36+Y36+Z36+AA36)</f>
+        <v>871</v>
+      </c>
+      <c r="DK212" s="3"/>
+      <c r="DL212" s="3">
+        <f>SUM(AQ36+AR36+AS36+AT36+AU36)</f>
+        <v>204</v>
+      </c>
+      <c r="DM212" s="3">
+        <f>SUM(BA36+BB36+BC36+BD36+BE36)</f>
+        <v>1783</v>
+      </c>
     </row>
-    <row r="213" spans="1:105">
+    <row r="213" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="BM213" s="3"/>
       <c r="BQ213" s="3">
         <f>SUM(323978+731943)</f>
         <v>1055921</v>
@@ -45273,22 +49370,22 @@
         <v>43957</v>
       </c>
       <c r="CK213" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>1554</v>
       </c>
       <c r="CL213" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>6290</v>
       </c>
       <c r="CO213" s="1">
         <v>43957</v>
       </c>
       <c r="CP213" s="3">
-        <f t="shared" ref="CP213:CP237" si="88">SUM(AG37+AH37+AI37+AJ37+AK37)</f>
+        <f t="shared" ref="CP213:CP237" si="86">SUM(AG37+AH37+AI37+AJ37+AK37)</f>
         <v>322</v>
       </c>
       <c r="CQ213" s="3">
-        <f t="shared" ref="CQ213:CQ229" si="89">SUM(BT213-BT212)</f>
+        <f t="shared" ref="CQ213:CQ229" si="87">SUM(BT213-BT212)</f>
         <v>10395</v>
       </c>
       <c r="CT213" s="1">
@@ -45300,15 +49397,40 @@
         <v>43957</v>
       </c>
       <c r="CZ213" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1531</v>
       </c>
       <c r="DA213" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>33838</v>
       </c>
+      <c r="DG213" s="1">
+        <v>43957</v>
+      </c>
+      <c r="DH213" s="3"/>
+      <c r="DI213" s="3">
+        <f>SUM(M37+N37+O37+P37+Q37)</f>
+        <v>544</v>
+      </c>
+      <c r="DJ213" s="3">
+        <f>SUM(W37+X37+Y37+Z37+AA37)</f>
+        <v>1554</v>
+      </c>
+      <c r="DK213" s="3">
+        <f>SUM(AG37+AH37+AI37+AJ37+AK37)</f>
+        <v>322</v>
+      </c>
+      <c r="DL213" s="3">
+        <f>SUM(AQ37+AR37+AS37+AT37+AU37)</f>
+        <v>352</v>
+      </c>
+      <c r="DM213" s="3">
+        <f>SUM(BA37+BB37+BC37+BD37+BE37)</f>
+        <v>1531</v>
+      </c>
     </row>
-    <row r="214" spans="1:105">
+    <row r="214" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="BM214" s="3"/>
       <c r="BQ214" s="3">
         <v>1089916</v>
       </c>
@@ -45350,22 +49472,22 @@
         <v>43958</v>
       </c>
       <c r="CK214" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>1195</v>
       </c>
       <c r="CL214" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>11993</v>
       </c>
       <c r="CO214" s="1">
         <v>43958</v>
       </c>
       <c r="CP214" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>223</v>
       </c>
       <c r="CQ214" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>13831</v>
       </c>
       <c r="CT214" s="1">
@@ -45377,15 +49499,40 @@
         <v>43958</v>
       </c>
       <c r="CZ214" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1178</v>
       </c>
       <c r="DA214" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>32398</v>
       </c>
+      <c r="DG214" s="1">
+        <v>43958</v>
+      </c>
+      <c r="DH214" s="3"/>
+      <c r="DI214" s="3">
+        <f>SUM(M38+N38+O38+P38+Q38)</f>
+        <v>729</v>
+      </c>
+      <c r="DJ214" s="3">
+        <f>SUM(W38+X38+Y38+Z38+AA38)</f>
+        <v>1195</v>
+      </c>
+      <c r="DK214" s="3">
+        <f>SUM(AG38+AH38+AI38+AJ38+AK38)</f>
+        <v>223</v>
+      </c>
+      <c r="DL214" s="3">
+        <f>SUM(AQ38+AR38+AS38+AT38+AU38)</f>
+        <v>241</v>
+      </c>
+      <c r="DM214" s="3">
+        <f>SUM(BA38+BB38+BC38+BD38+BE38)</f>
+        <v>1178</v>
+      </c>
     </row>
-    <row r="215" spans="1:105">
+    <row r="215" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="BM215" s="3"/>
       <c r="BQ215" s="3">
         <v>1121543</v>
       </c>
@@ -45433,48 +49580,76 @@
         <v>43959</v>
       </c>
       <c r="CK215" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>1220</v>
       </c>
       <c r="CL215" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>14400</v>
       </c>
       <c r="CO215" s="1">
         <v>43959</v>
       </c>
       <c r="CP215" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>312</v>
       </c>
       <c r="CQ215" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>13191</v>
       </c>
       <c r="CT215" s="1">
         <v>43959</v>
       </c>
       <c r="CU215" s="3">
-        <f t="shared" ref="CU215:CU237" si="90">SUM(AQ39+AR39+AS39+AT39+AU39)</f>
+        <f t="shared" ref="CU215:CU237" si="88">SUM(AQ39+AR39+AS39+AT39+AU39)</f>
         <v>816</v>
       </c>
       <c r="CV215" s="3">
-        <f t="shared" ref="CV215:CV237" si="91">SUM(BU215-BU214)</f>
+        <f t="shared" ref="CV215:CV237" si="89">SUM(BU215-BU214)</f>
         <v>7771</v>
       </c>
       <c r="CY215" s="1">
         <v>43959</v>
       </c>
       <c r="CZ215" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1226</v>
       </c>
       <c r="DA215" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>37298</v>
       </c>
+      <c r="DG215" s="1">
+        <v>43959</v>
+      </c>
+      <c r="DH215" s="3">
+        <f>SUM(C39+D39+E39+F39+G39)</f>
+        <v>1844</v>
+      </c>
+      <c r="DI215" s="3">
+        <f>SUM(M39+N39+O39+P39+Q39)</f>
+        <v>710</v>
+      </c>
+      <c r="DJ215" s="3">
+        <f>SUM(W39+X39+Y39+Z39+AA39)</f>
+        <v>1220</v>
+      </c>
+      <c r="DK215" s="3">
+        <f>SUM(AG39+AH39+AI39+AJ39+AK39)</f>
+        <v>312</v>
+      </c>
+      <c r="DL215" s="3">
+        <f>SUM(AQ39+AR39+AS39+AT39+AU39)</f>
+        <v>816</v>
+      </c>
+      <c r="DM215" s="3">
+        <f>SUM(BA39+BB39+BC39+BD39+BE39)</f>
+        <v>1226</v>
+      </c>
     </row>
-    <row r="216" spans="1:105">
+    <row r="216" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="BM216" s="3"/>
       <c r="BQ216" s="3">
         <v>1153768</v>
       </c>
@@ -45516,48 +49691,73 @@
         <v>43960</v>
       </c>
       <c r="CK216" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>971</v>
       </c>
       <c r="CL216" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>10505</v>
       </c>
       <c r="CO216" s="1">
         <v>43960</v>
       </c>
       <c r="CP216" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>247</v>
       </c>
       <c r="CQ216" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>13233</v>
       </c>
       <c r="CT216" s="1">
         <v>43960</v>
       </c>
       <c r="CU216" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>584</v>
       </c>
       <c r="CV216" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>6548</v>
       </c>
       <c r="CY216" s="1">
         <v>43960</v>
       </c>
       <c r="CZ216" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1367</v>
       </c>
       <c r="DA216" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>43094</v>
       </c>
+      <c r="DG216" s="1">
+        <v>43960</v>
+      </c>
+      <c r="DH216" s="3">
+        <f>SUM(C40+D40+E40+F40+G40)</f>
+        <v>1737</v>
+      </c>
+      <c r="DI216" s="3"/>
+      <c r="DJ216" s="3">
+        <f>SUM(W40+X40+Y40+Z40+AA40)</f>
+        <v>971</v>
+      </c>
+      <c r="DK216" s="3">
+        <f>SUM(AG40+AH40+AI40+AJ40+AK40)</f>
+        <v>247</v>
+      </c>
+      <c r="DL216" s="3">
+        <f>SUM(AQ40+AR40+AS40+AT40+AU40)</f>
+        <v>584</v>
+      </c>
+      <c r="DM216" s="3">
+        <f>SUM(BA40+BB40+BC40+BD40+BE40)</f>
+        <v>1367</v>
+      </c>
     </row>
-    <row r="217" spans="1:105">
+    <row r="217" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="BM217" s="3"/>
       <c r="BQ217" s="3">
         <v>1182998</v>
       </c>
@@ -45599,48 +49799,73 @@
         <v>43961</v>
       </c>
       <c r="CK217" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>781</v>
       </c>
       <c r="CL217" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>11852</v>
       </c>
       <c r="CO217" s="1">
         <v>43961</v>
       </c>
       <c r="CP217" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>196</v>
       </c>
       <c r="CQ217" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>12192</v>
       </c>
       <c r="CT217" s="1">
         <v>43961</v>
       </c>
       <c r="CU217" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>716</v>
       </c>
       <c r="CV217" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>7276</v>
       </c>
       <c r="CY217" s="1">
         <v>43961</v>
       </c>
       <c r="CZ217" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>808</v>
       </c>
       <c r="DA217" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>36233</v>
       </c>
+      <c r="DG217" s="1">
+        <v>43961</v>
+      </c>
+      <c r="DH217" s="3">
+        <f>SUM(C41+D41+E41+F41+G41)</f>
+        <v>1410</v>
+      </c>
+      <c r="DI217" s="3"/>
+      <c r="DJ217" s="3">
+        <f>SUM(W41+X41+Y41+Z41+AA41)</f>
+        <v>781</v>
+      </c>
+      <c r="DK217" s="3">
+        <f>SUM(AG41+AH41+AI41+AJ41+AK41)</f>
+        <v>196</v>
+      </c>
+      <c r="DL217" s="3">
+        <f>SUM(AQ41+AR41+AS41+AT41+AU41)</f>
+        <v>716</v>
+      </c>
+      <c r="DM217" s="3">
+        <f>SUM(BA41+BB41+BC41+BD41+BE41)</f>
+        <v>808</v>
+      </c>
     </row>
-    <row r="218" spans="1:105">
+    <row r="218" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="BM218" s="3"/>
       <c r="BQ218" s="3">
         <v>1204650</v>
       </c>
@@ -45682,48 +49907,73 @@
         <v>43962</v>
       </c>
       <c r="CK218" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>468</v>
       </c>
       <c r="CL218" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>6339</v>
       </c>
       <c r="CO218" s="1">
         <v>43962</v>
       </c>
       <c r="CP218" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>174</v>
       </c>
       <c r="CQ218" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>13270</v>
       </c>
       <c r="CT218" s="1">
         <v>43962</v>
       </c>
       <c r="CU218" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>291</v>
       </c>
       <c r="CV218" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>4475</v>
       </c>
       <c r="CY218" s="1">
         <v>43962</v>
       </c>
       <c r="CZ218" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>919</v>
       </c>
       <c r="DA218" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>41473</v>
       </c>
+      <c r="DG218" s="1">
+        <v>43962</v>
+      </c>
+      <c r="DH218" s="3"/>
+      <c r="DI218" s="3">
+        <f>SUM(M42+N42+O42+P42+Q42)</f>
+        <v>500</v>
+      </c>
+      <c r="DJ218" s="3">
+        <f>SUM(W42+X42+Y42+Z42+AA42)</f>
+        <v>468</v>
+      </c>
+      <c r="DK218" s="3">
+        <f>SUM(AG42+AH42+AI42+AJ42+AK42)</f>
+        <v>174</v>
+      </c>
+      <c r="DL218" s="3">
+        <f>SUM(AQ42+AR42+AS42+AT42+AU42)</f>
+        <v>291</v>
+      </c>
+      <c r="DM218" s="3">
+        <f>SUM(BA42+BB42+BC42+BD42+BE42)</f>
+        <v>919</v>
+      </c>
     </row>
-    <row r="219" spans="1:105">
+    <row r="219" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="BM219" s="3"/>
       <c r="BQ219" s="3">
         <v>1225113</v>
       </c>
@@ -45765,48 +50015,70 @@
         <v>43963</v>
       </c>
       <c r="CK219" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>600</v>
       </c>
       <c r="CL219" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>6768</v>
       </c>
       <c r="CO219" s="1">
         <v>43963</v>
       </c>
       <c r="CP219" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>176</v>
       </c>
       <c r="CQ219" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>8942</v>
       </c>
       <c r="CT219" s="1">
         <v>43963</v>
       </c>
       <c r="CU219" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>461</v>
       </c>
       <c r="CV219" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>7122</v>
       </c>
       <c r="CY219" s="1">
         <v>43963</v>
       </c>
       <c r="CZ219" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1316</v>
       </c>
       <c r="DA219" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>32222</v>
       </c>
+      <c r="DG219" s="1">
+        <v>43963</v>
+      </c>
+      <c r="DH219" s="3"/>
+      <c r="DI219" s="3">
+        <f>SUM(M43+N43+O43+P43+Q43)</f>
+        <v>295</v>
+      </c>
+      <c r="DJ219" s="3">
+        <f>SUM(W43+X43+Y43+Z43+AA43)</f>
+        <v>600</v>
+      </c>
+      <c r="DK219" s="3">
+        <f>SUM(AG43+AH43+AI43+AJ43+AK43)</f>
+        <v>176</v>
+      </c>
+      <c r="DL219" s="3"/>
+      <c r="DM219" s="3">
+        <f>SUM(BA43+BB43+BC43+BD43+BE43)</f>
+        <v>1316</v>
+      </c>
     </row>
-    <row r="220" spans="1:105">
+    <row r="220" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="BM220" s="3"/>
       <c r="BQ220" s="3">
         <v>1258907</v>
       </c>
@@ -45832,11 +50104,11 @@
         <v>43964</v>
       </c>
       <c r="CA220" s="3">
-        <f t="shared" ref="CA220:CA237" si="92">SUM(C44+D44+E44+F44+G44)</f>
+        <f>SUM(C44+D44+E44+F44+G44)</f>
         <v>1325</v>
       </c>
       <c r="CB220" s="3">
-        <f t="shared" ref="CB220:CB237" si="93">SUM(BQ220-BQ219)</f>
+        <f t="shared" ref="CB220:CB237" si="90">SUM(BQ220-BQ219)</f>
         <v>33794</v>
       </c>
       <c r="CE220" s="1">
@@ -45854,48 +50126,76 @@
         <v>43964</v>
       </c>
       <c r="CK220" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>877</v>
       </c>
       <c r="CL220" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>8536</v>
       </c>
       <c r="CO220" s="1">
         <v>43964</v>
       </c>
       <c r="CP220" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>207</v>
       </c>
       <c r="CQ220" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>370</v>
       </c>
       <c r="CT220" s="1">
         <v>43964</v>
       </c>
       <c r="CU220" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>366</v>
       </c>
       <c r="CV220" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>6889</v>
       </c>
       <c r="CY220" s="1">
         <v>43964</v>
       </c>
       <c r="CZ220" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1670</v>
       </c>
       <c r="DA220" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>39059</v>
       </c>
+      <c r="DG220" s="1">
+        <v>43964</v>
+      </c>
+      <c r="DH220" s="3">
+        <f>SUM(C44+D44+E44+F44+G44)</f>
+        <v>1325</v>
+      </c>
+      <c r="DI220" s="3">
+        <f>SUM(M44+N44+O44+P44+Q44)</f>
+        <v>327</v>
+      </c>
+      <c r="DJ220" s="3">
+        <f>SUM(W44+X44+Y44+Z44+AA44)</f>
+        <v>877</v>
+      </c>
+      <c r="DK220" s="3">
+        <f>SUM(AG44+AH44+AI44+AJ44+AK44)</f>
+        <v>207</v>
+      </c>
+      <c r="DL220" s="3">
+        <f>SUM(AQ44+AR44+AS44+AT44+AU44)</f>
+        <v>366</v>
+      </c>
+      <c r="DM220" s="3">
+        <f>SUM(BA44+BB44+BC44+BD44+BE44)</f>
+        <v>1670</v>
+      </c>
     </row>
-    <row r="221" spans="1:105">
+    <row r="221" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="BM221" s="3"/>
       <c r="BQ221" s="3">
         <v>1298757</v>
       </c>
@@ -45921,11 +50221,11 @@
         <v>43965</v>
       </c>
       <c r="CA221" s="3">
-        <f t="shared" si="92"/>
+        <f>SUM(C45+D45+E45+F45+G45)</f>
         <v>1462</v>
       </c>
       <c r="CB221" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>39850</v>
       </c>
       <c r="CE221" s="1">
@@ -45937,48 +50237,70 @@
         <v>43965</v>
       </c>
       <c r="CK221" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>1164</v>
       </c>
       <c r="CL221" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>14329</v>
       </c>
       <c r="CO221" s="1">
         <v>43965</v>
       </c>
       <c r="CP221" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>648</v>
       </c>
       <c r="CQ221" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>27623</v>
       </c>
       <c r="CT221" s="1">
         <v>43965</v>
       </c>
       <c r="CU221" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>518</v>
       </c>
       <c r="CV221" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>8326</v>
       </c>
       <c r="CY221" s="1">
         <v>43965</v>
       </c>
       <c r="CZ221" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1249</v>
       </c>
       <c r="DA221" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>29255</v>
       </c>
+      <c r="DG221" s="1">
+        <v>43965</v>
+      </c>
+      <c r="DH221" s="3">
+        <f>SUM(C45+D45+E45+F45+G45)</f>
+        <v>1462</v>
+      </c>
+      <c r="DI221" s="3"/>
+      <c r="DJ221" s="3">
+        <f>SUM(W45+X45+Y45+Z45+AA45)</f>
+        <v>1164</v>
+      </c>
+      <c r="DK221" s="3">
+        <f>SUM(AG45+AH45+AI45+AJ45+AK45)</f>
+        <v>648</v>
+      </c>
+      <c r="DL221" s="3"/>
+      <c r="DM221" s="3">
+        <f>SUM(BA45+BB45+BC45+BD45+BE45)</f>
+        <v>1249</v>
+      </c>
     </row>
-    <row r="222" spans="1:105">
+    <row r="222" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="BM222" s="3"/>
       <c r="BQ222" s="3">
         <v>1338048</v>
       </c>
@@ -46004,11 +50326,11 @@
         <v>43966</v>
       </c>
       <c r="CA222" s="3">
-        <f t="shared" si="92"/>
+        <f>SUM(C46+D46+E46+F46+G46)</f>
         <v>1753</v>
       </c>
       <c r="CB222" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>39291</v>
       </c>
       <c r="CE222" s="1">
@@ -46020,48 +50342,70 @@
         <v>43966</v>
       </c>
       <c r="CK222" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>902</v>
       </c>
       <c r="CL222" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>11318</v>
       </c>
       <c r="CO222" s="1">
         <v>43966</v>
       </c>
       <c r="CP222" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>223</v>
       </c>
       <c r="CQ222" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>21613</v>
       </c>
       <c r="CT222" s="1">
         <v>43966</v>
       </c>
       <c r="CU222" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>563</v>
       </c>
       <c r="CV222" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>8637</v>
       </c>
       <c r="CY222" s="1">
         <v>43966</v>
       </c>
       <c r="CZ222" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1312</v>
       </c>
       <c r="DA222" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>45220</v>
       </c>
+      <c r="DG222" s="1">
+        <v>43966</v>
+      </c>
+      <c r="DH222" s="3">
+        <f>SUM(C46+D46+E46+F46+G46)</f>
+        <v>1753</v>
+      </c>
+      <c r="DI222" s="3"/>
+      <c r="DJ222" s="3">
+        <f>SUM(W46+X46+Y46+Z46+AA46)</f>
+        <v>902</v>
+      </c>
+      <c r="DK222" s="3">
+        <f>SUM(AG46+AH46+AI46+AJ46+AK46)</f>
+        <v>223</v>
+      </c>
+      <c r="DL222" s="3"/>
+      <c r="DM222" s="3">
+        <f>SUM(BA46+BB46+BC46+BD46+BE46)</f>
+        <v>1312</v>
+      </c>
     </row>
-    <row r="223" spans="1:105">
+    <row r="223" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="BM223" s="3"/>
       <c r="BQ223" s="3">
         <v>1378717</v>
       </c>
@@ -46087,11 +50431,11 @@
         <v>43967</v>
       </c>
       <c r="CA223" s="3">
-        <f t="shared" si="92"/>
+        <f>SUM(C47+D47+E47+F47+G47)</f>
         <v>1420</v>
       </c>
       <c r="CB223" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>40669</v>
       </c>
       <c r="CE223" s="1">
@@ -46109,48 +50453,76 @@
         <v>43967</v>
       </c>
       <c r="CK223" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>1095</v>
       </c>
       <c r="CL223" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>12410</v>
       </c>
       <c r="CO223" s="1">
         <v>43967</v>
       </c>
       <c r="CP223" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>208</v>
       </c>
       <c r="CQ223" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>425</v>
       </c>
       <c r="CT223" s="1">
         <v>43967</v>
       </c>
       <c r="CU223" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>537</v>
       </c>
       <c r="CV223" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>8004</v>
       </c>
       <c r="CY223" s="1">
         <v>43967</v>
       </c>
       <c r="CZ223" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1451</v>
       </c>
       <c r="DA223" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>56117</v>
       </c>
+      <c r="DG223" s="1">
+        <v>43967</v>
+      </c>
+      <c r="DH223" s="3">
+        <f>SUM(C47+D47+E47+F47+G47)</f>
+        <v>1420</v>
+      </c>
+      <c r="DI223" s="3">
+        <f>SUM(M47+N47+O47+P47+Q47)</f>
+        <v>397</v>
+      </c>
+      <c r="DJ223" s="3">
+        <f>SUM(W47+X47+Y47+Z47+AA47)</f>
+        <v>1095</v>
+      </c>
+      <c r="DK223" s="3">
+        <f>SUM(AG47+AH47+AI47+AJ47+AK47)</f>
+        <v>208</v>
+      </c>
+      <c r="DL223" s="3">
+        <f>SUM(AQ47+AR47+AS47+AT47+AU47)</f>
+        <v>537</v>
+      </c>
+      <c r="DM223" s="3">
+        <f>SUM(BA47+BB47+BC47+BD47+BE47)</f>
+        <v>1451</v>
+      </c>
     </row>
-    <row r="224" spans="1:105">
+    <row r="224" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="BM224" s="3"/>
       <c r="BQ224" s="3">
         <v>1413396</v>
       </c>
@@ -46175,11 +50547,11 @@
         <v>43968</v>
       </c>
       <c r="CA224" s="3">
-        <f t="shared" si="92"/>
+        <f>SUM(C48+D48+E48+F48+G48)</f>
         <v>1086</v>
       </c>
       <c r="CB224" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>34679</v>
       </c>
       <c r="CE224" s="1">
@@ -46197,48 +50569,76 @@
         <v>43968</v>
       </c>
       <c r="CK224" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>774</v>
       </c>
       <c r="CL224" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>12737</v>
       </c>
       <c r="CO224" s="1">
         <v>43968</v>
       </c>
       <c r="CP224" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>132</v>
       </c>
       <c r="CQ224" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>39037</v>
       </c>
       <c r="CT224" s="1">
         <v>43968</v>
       </c>
       <c r="CU224" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>311</v>
       </c>
       <c r="CV224" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>5068</v>
       </c>
       <c r="CY224" s="1">
         <v>43968</v>
       </c>
       <c r="CZ224" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1064</v>
       </c>
       <c r="DA224" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>57429</v>
       </c>
+      <c r="DG224" s="1">
+        <v>43968</v>
+      </c>
+      <c r="DH224" s="3">
+        <f>SUM(C48+D48+E48+F48+G48)</f>
+        <v>1086</v>
+      </c>
+      <c r="DI224" s="3">
+        <f>SUM(M48+N48+O48+P48+Q48)</f>
+        <v>651</v>
+      </c>
+      <c r="DJ224" s="3">
+        <f>SUM(W48+X48+Y48+Z48+AA48)</f>
+        <v>774</v>
+      </c>
+      <c r="DK224" s="3">
+        <f>SUM(AG48+AH48+AI48+AJ48+AK48)</f>
+        <v>132</v>
+      </c>
+      <c r="DL224" s="3">
+        <f>SUM(AQ48+AR48+AS48+AT48+AU48)</f>
+        <v>311</v>
+      </c>
+      <c r="DM224" s="3">
+        <f>SUM(BA48+BB48+BC48+BD48+BE48)</f>
+        <v>1064</v>
+      </c>
     </row>
-    <row r="225" spans="69:105">
+    <row r="225" spans="65:117" x14ac:dyDescent="0.2">
+      <c r="BM225" s="3"/>
       <c r="BQ225" s="3">
         <v>1439557</v>
       </c>
@@ -46264,11 +50664,11 @@
         <v>43969</v>
       </c>
       <c r="CA225" s="3">
-        <f t="shared" si="92"/>
+        <f>SUM(C49+D49+E49+F49+G49)</f>
         <v>711</v>
       </c>
       <c r="CB225" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>26161</v>
       </c>
       <c r="CE225" s="1">
@@ -46280,48 +50680,73 @@
         <v>43969</v>
       </c>
       <c r="CK225" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>773</v>
       </c>
       <c r="CL225" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>8373</v>
       </c>
       <c r="CO225" s="1">
         <v>43969</v>
       </c>
       <c r="CP225" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>88</v>
       </c>
       <c r="CQ225" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>13220</v>
       </c>
       <c r="CT225" s="1">
         <v>43969</v>
       </c>
       <c r="CU225" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>473</v>
       </c>
       <c r="CV225" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>7705</v>
       </c>
       <c r="CY225" s="1">
         <v>43969</v>
       </c>
       <c r="CZ225" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>795</v>
       </c>
       <c r="DA225" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>46644</v>
       </c>
+      <c r="DG225" s="1">
+        <v>43969</v>
+      </c>
+      <c r="DH225" s="3">
+        <f>SUM(C49+D49+E49+F49+G49)</f>
+        <v>711</v>
+      </c>
+      <c r="DI225" s="3"/>
+      <c r="DJ225" s="3">
+        <f>SUM(W49+X49+Y49+Z49+AA49)</f>
+        <v>773</v>
+      </c>
+      <c r="DK225" s="3">
+        <f>SUM(AG49+AH49+AI49+AJ49+AK49)</f>
+        <v>88</v>
+      </c>
+      <c r="DL225" s="3">
+        <f>SUM(AQ49+AR49+AS49+AT49+AU49)</f>
+        <v>473</v>
+      </c>
+      <c r="DM225" s="3">
+        <f>SUM(BA49+BB49+BC49+BD49+BE49)</f>
+        <v>795</v>
+      </c>
     </row>
-    <row r="226" spans="69:105">
+    <row r="226" spans="65:117" x14ac:dyDescent="0.2">
+      <c r="BM226" s="3"/>
       <c r="BQ226" s="3">
         <v>1467739</v>
       </c>
@@ -46347,11 +50772,11 @@
         <v>43970</v>
       </c>
       <c r="CA226" s="3">
-        <f t="shared" si="92"/>
+        <f>SUM(C50+D50+E50+F50+G50)</f>
         <v>665</v>
       </c>
       <c r="CB226" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>28182</v>
       </c>
       <c r="CE226" s="1">
@@ -46363,48 +50788,73 @@
         <v>43970</v>
       </c>
       <c r="CK226" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>655</v>
       </c>
       <c r="CL226" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>7741</v>
       </c>
       <c r="CO226" s="1">
         <v>43970</v>
       </c>
       <c r="CP226" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>230</v>
       </c>
       <c r="CQ226" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>12726</v>
       </c>
       <c r="CT226" s="1">
         <v>43970</v>
       </c>
       <c r="CU226" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>301</v>
       </c>
       <c r="CV226" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>9091</v>
       </c>
       <c r="CY226" s="1">
         <v>43970</v>
       </c>
       <c r="CZ226" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1584</v>
       </c>
       <c r="DA226" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>40804</v>
       </c>
+      <c r="DG226" s="1">
+        <v>43970</v>
+      </c>
+      <c r="DH226" s="3">
+        <f>SUM(C50+D50+E50+F50+G50)</f>
+        <v>665</v>
+      </c>
+      <c r="DI226" s="3"/>
+      <c r="DJ226" s="3">
+        <f>SUM(W50+X50+Y50+Z50+AA50)</f>
+        <v>655</v>
+      </c>
+      <c r="DK226" s="3">
+        <f>SUM(AG50+AH50+AI50+AJ50+AK50)</f>
+        <v>230</v>
+      </c>
+      <c r="DL226" s="3">
+        <f>SUM(AQ50+AR50+AS50+AT50+AU50)</f>
+        <v>301</v>
+      </c>
+      <c r="DM226" s="3">
+        <f>SUM(BA50+BB50+BC50+BD50+BE50)</f>
+        <v>1584</v>
+      </c>
     </row>
-    <row r="227" spans="69:105">
+    <row r="227" spans="65:117" x14ac:dyDescent="0.2">
+      <c r="BM227" s="3"/>
       <c r="BQ227" s="3">
         <v>1505836</v>
       </c>
@@ -46429,11 +50879,11 @@
         <v>43971</v>
       </c>
       <c r="CA227" s="3">
-        <f t="shared" si="92"/>
+        <f>SUM(C51+D51+E51+F51+G51)</f>
         <v>757</v>
       </c>
       <c r="CB227" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>38097</v>
       </c>
       <c r="CE227" s="1">
@@ -46445,48 +50895,73 @@
         <v>43971</v>
       </c>
       <c r="CK227" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>753</v>
       </c>
       <c r="CL227" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>13013</v>
       </c>
       <c r="CO227" s="1">
         <v>43971</v>
       </c>
       <c r="CP227" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>238</v>
       </c>
       <c r="CQ227" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>14168</v>
       </c>
       <c r="CT227" s="1">
         <v>43971</v>
       </c>
       <c r="CU227" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>404</v>
       </c>
       <c r="CV227" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>7956</v>
       </c>
       <c r="CY227" s="1">
         <v>43971</v>
       </c>
       <c r="CZ227" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1630</v>
       </c>
       <c r="DA227" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>41007</v>
       </c>
+      <c r="DG227" s="1">
+        <v>43971</v>
+      </c>
+      <c r="DH227" s="3">
+        <f>SUM(C51+D51+E51+F51+G51)</f>
+        <v>757</v>
+      </c>
+      <c r="DI227" s="3"/>
+      <c r="DJ227" s="3">
+        <f>SUM(W51+X51+Y51+Z51+AA51)</f>
+        <v>753</v>
+      </c>
+      <c r="DK227" s="3">
+        <f>SUM(AG51+AH51+AI51+AJ51+AK51)</f>
+        <v>238</v>
+      </c>
+      <c r="DL227" s="3">
+        <f>SUM(AQ51+AR51+AS51+AT51+AU51)</f>
+        <v>404</v>
+      </c>
+      <c r="DM227" s="3">
+        <f>SUM(BA51+BB51+BC51+BD51+BE51)</f>
+        <v>1630</v>
+      </c>
     </row>
-    <row r="228" spans="69:105">
+    <row r="228" spans="65:117" x14ac:dyDescent="0.2">
+      <c r="BM228" s="3"/>
       <c r="BQ228" s="3">
         <v>1555055</v>
       </c>
@@ -46511,11 +50986,11 @@
         <v>43972</v>
       </c>
       <c r="CA228" s="3">
-        <f t="shared" si="92"/>
+        <f>SUM(C52+D52+E52+F52+G52)</f>
         <v>1215</v>
       </c>
       <c r="CB228" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>49219</v>
       </c>
       <c r="CE228" s="1">
@@ -46527,48 +51002,73 @@
         <v>43972</v>
       </c>
       <c r="CK228" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>793</v>
       </c>
       <c r="CL228" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>11533</v>
       </c>
       <c r="CO228" s="1">
         <v>43972</v>
       </c>
       <c r="CP228" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>157</v>
       </c>
       <c r="CQ228" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>17668</v>
       </c>
       <c r="CT228" s="1">
         <v>43972</v>
       </c>
       <c r="CU228" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>491</v>
       </c>
       <c r="CV228" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>11250</v>
       </c>
       <c r="CY228" s="1">
         <v>43972</v>
       </c>
       <c r="CZ228" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1582</v>
       </c>
       <c r="DA228" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>45646</v>
       </c>
+      <c r="DG228" s="1">
+        <v>43972</v>
+      </c>
+      <c r="DH228" s="3">
+        <f>SUM(C52+D52+E52+F52+G52)</f>
+        <v>1215</v>
+      </c>
+      <c r="DI228" s="3"/>
+      <c r="DJ228" s="3">
+        <f>SUM(W52+X52+Y52+Z52+AA52)</f>
+        <v>793</v>
+      </c>
+      <c r="DK228" s="3">
+        <f>SUM(AG52+AH52+AI52+AJ52+AK52)</f>
+        <v>157</v>
+      </c>
+      <c r="DL228" s="3">
+        <f>SUM(AQ52+AR52+AS52+AT52+AU52)</f>
+        <v>491</v>
+      </c>
+      <c r="DM228" s="3">
+        <f>SUM(BA52+BB52+BC52+BD52+BE52)</f>
+        <v>1582</v>
+      </c>
     </row>
-    <row r="229" spans="69:105">
+    <row r="229" spans="65:117" x14ac:dyDescent="0.2">
+      <c r="BM229" s="3"/>
       <c r="BQ229" s="3">
         <v>1600793</v>
       </c>
@@ -46593,11 +51093,11 @@
         <v>43973</v>
       </c>
       <c r="CA229" s="3">
-        <f t="shared" si="92"/>
+        <f>SUM(C53+D53+E53+F53+G53)</f>
         <v>868</v>
       </c>
       <c r="CB229" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>45738</v>
       </c>
       <c r="CE229" s="1">
@@ -46615,48 +51115,76 @@
         <v>43973</v>
       </c>
       <c r="CK229" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>541</v>
       </c>
       <c r="CL229" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>10158</v>
       </c>
       <c r="CO229" s="1">
         <v>43973</v>
       </c>
       <c r="CP229" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>108</v>
       </c>
       <c r="CQ229" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>17044</v>
       </c>
       <c r="CT229" s="1">
         <v>43973</v>
       </c>
       <c r="CU229" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>487</v>
       </c>
       <c r="CV229" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>10095</v>
       </c>
       <c r="CY229" s="1">
         <v>43973</v>
       </c>
       <c r="CZ229" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1373</v>
       </c>
       <c r="DA229" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>48533</v>
       </c>
+      <c r="DG229" s="1">
+        <v>43973</v>
+      </c>
+      <c r="DH229" s="3">
+        <f>SUM(C53+D53+E53+F53+G53)</f>
+        <v>868</v>
+      </c>
+      <c r="DI229" s="3">
+        <f>SUM(M53+N53+O53+P53+Q53)</f>
+        <v>383</v>
+      </c>
+      <c r="DJ229" s="3">
+        <f>SUM(W53+X53+Y53+Z53+AA53)</f>
+        <v>541</v>
+      </c>
+      <c r="DK229" s="3">
+        <f>SUM(AG53+AH53+AI53+AJ53+AK53)</f>
+        <v>108</v>
+      </c>
+      <c r="DL229" s="3">
+        <f>SUM(AQ53+AR53+AS53+AT53+AU53)</f>
+        <v>487</v>
+      </c>
+      <c r="DM229" s="3">
+        <f>SUM(BA53+BB53+BC53+BD53+BE53)</f>
+        <v>1373</v>
+      </c>
     </row>
-    <row r="230" spans="69:105">
+    <row r="230" spans="65:117" x14ac:dyDescent="0.2">
+      <c r="BM230" s="3"/>
       <c r="BQ230" s="3">
         <v>1652061</v>
       </c>
@@ -46678,11 +51206,11 @@
         <v>43974</v>
       </c>
       <c r="CA230" s="3">
-        <f t="shared" si="92"/>
+        <f>SUM(C54+D54+E54+F54+G54)</f>
         <v>852</v>
       </c>
       <c r="CB230" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>51268</v>
       </c>
       <c r="CE230" s="1">
@@ -46694,18 +51222,18 @@
         <v>43974</v>
       </c>
       <c r="CK230" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>556</v>
       </c>
       <c r="CL230" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>9342</v>
       </c>
       <c r="CO230" s="1">
         <v>43974</v>
       </c>
       <c r="CP230" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>207</v>
       </c>
       <c r="CQ230" s="3"/>
@@ -46713,26 +51241,51 @@
         <v>43974</v>
       </c>
       <c r="CU230" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>325</v>
       </c>
       <c r="CV230" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>9451</v>
       </c>
       <c r="CY230" s="1">
         <v>43974</v>
       </c>
       <c r="CZ230" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1463</v>
       </c>
       <c r="DA230" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>67439</v>
       </c>
+      <c r="DG230" s="1">
+        <v>43974</v>
+      </c>
+      <c r="DH230" s="3">
+        <f>SUM(C54+D54+E54+F54+G54)</f>
+        <v>852</v>
+      </c>
+      <c r="DI230" s="3"/>
+      <c r="DJ230" s="3">
+        <f>SUM(W54+X54+Y54+Z54+AA54)</f>
+        <v>556</v>
+      </c>
+      <c r="DK230" s="3">
+        <f>SUM(AG54+AH54+AI54+AJ54+AK54)</f>
+        <v>207</v>
+      </c>
+      <c r="DL230" s="3">
+        <f>SUM(AQ54+AR54+AS54+AT54+AU54)</f>
+        <v>325</v>
+      </c>
+      <c r="DM230" s="3">
+        <f>SUM(BA54+BB54+BC54+BD54+BE54)</f>
+        <v>1463</v>
+      </c>
     </row>
-    <row r="231" spans="69:105">
+    <row r="231" spans="65:117" x14ac:dyDescent="0.2">
+      <c r="BM231" s="3"/>
       <c r="BQ231" s="3">
         <v>1699826</v>
       </c>
@@ -46754,11 +51307,11 @@
         <v>43975</v>
       </c>
       <c r="CA231" s="3">
-        <f t="shared" si="92"/>
+        <f>SUM(C55+D55+E55+F55+G55)</f>
         <v>976</v>
       </c>
       <c r="CB231" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>47765</v>
       </c>
       <c r="CE231" s="1">
@@ -46770,18 +51323,18 @@
         <v>43975</v>
       </c>
       <c r="CK231" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>687</v>
       </c>
       <c r="CL231" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>11387</v>
       </c>
       <c r="CO231" s="1">
         <v>43975</v>
       </c>
       <c r="CP231" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>138</v>
       </c>
       <c r="CQ231" s="3"/>
@@ -46789,26 +51342,51 @@
         <v>43975</v>
       </c>
       <c r="CU231" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>365</v>
       </c>
       <c r="CV231" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>7643</v>
       </c>
       <c r="CY231" s="1">
         <v>43975</v>
       </c>
       <c r="CZ231" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1334</v>
       </c>
       <c r="DA231" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>61357</v>
       </c>
+      <c r="DG231" s="1">
+        <v>43975</v>
+      </c>
+      <c r="DH231" s="3">
+        <f>SUM(C55+D55+E55+F55+G55)</f>
+        <v>976</v>
+      </c>
+      <c r="DI231" s="3"/>
+      <c r="DJ231" s="3">
+        <f>SUM(W55+X55+Y55+Z55+AA55)</f>
+        <v>687</v>
+      </c>
+      <c r="DK231" s="3">
+        <f>SUM(AG55+AH55+AI55+AJ55+AK55)</f>
+        <v>138</v>
+      </c>
+      <c r="DL231" s="3">
+        <f>SUM(AQ55+AR55+AS55+AT55+AU55)</f>
+        <v>365</v>
+      </c>
+      <c r="DM231" s="3">
+        <f>SUM(BA55+BB55+BC55+BD55+BE55)</f>
+        <v>1334</v>
+      </c>
     </row>
-    <row r="232" spans="69:105">
+    <row r="232" spans="65:117" x14ac:dyDescent="0.2">
+      <c r="BM232" s="3"/>
       <c r="BQ232" s="3">
         <v>1739449</v>
       </c>
@@ -46833,11 +51411,11 @@
         <v>43976</v>
       </c>
       <c r="CA232" s="3">
-        <f t="shared" si="92"/>
+        <f>SUM(C56+D56+E56+F56+G56)</f>
         <v>683</v>
       </c>
       <c r="CB232" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>39623</v>
       </c>
       <c r="CE232" s="1">
@@ -46848,25 +51426,25 @@
         <v>368</v>
       </c>
       <c r="CG232" s="3">
-        <f t="shared" ref="CG232:CG237" si="94">SUM(BR232-BR231)</f>
+        <f t="shared" ref="CG232:CG237" si="91">SUM(BR232-BR231)</f>
         <v>19990</v>
       </c>
       <c r="CJ232" s="1">
         <v>43976</v>
       </c>
       <c r="CK232" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>389</v>
       </c>
       <c r="CL232" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>8188</v>
       </c>
       <c r="CO232" s="1">
         <v>43976</v>
       </c>
       <c r="CP232" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>90</v>
       </c>
       <c r="CQ232" s="3"/>
@@ -46874,26 +51452,54 @@
         <v>43976</v>
       </c>
       <c r="CU232" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>227</v>
       </c>
       <c r="CV232" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>7019</v>
       </c>
       <c r="CY232" s="1">
         <v>43976</v>
       </c>
       <c r="CZ232" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1609</v>
       </c>
       <c r="DA232" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>52294</v>
       </c>
+      <c r="DG232" s="1">
+        <v>43976</v>
+      </c>
+      <c r="DH232" s="3">
+        <f>SUM(C56+D56+E56+F56+G56)</f>
+        <v>683</v>
+      </c>
+      <c r="DI232" s="3">
+        <f>SUM(M56+N56+O56+P56+Q56)</f>
+        <v>368</v>
+      </c>
+      <c r="DJ232" s="3">
+        <f>SUM(W56+X56+Y56+Z56+AA56)</f>
+        <v>389</v>
+      </c>
+      <c r="DK232" s="3">
+        <f>SUM(AG56+AH56+AI56+AJ56+AK56)</f>
+        <v>90</v>
+      </c>
+      <c r="DL232" s="3">
+        <f>SUM(AQ56+AR56+AS56+AT56+AU56)</f>
+        <v>227</v>
+      </c>
+      <c r="DM232" s="3">
+        <f>SUM(BA56+BB56+BC56+BD56+BE56)</f>
+        <v>1609</v>
+      </c>
     </row>
-    <row r="233" spans="69:105">
+    <row r="233" spans="65:117" x14ac:dyDescent="0.2">
+      <c r="BM233" s="3"/>
       <c r="BQ233" s="3">
         <v>1774128</v>
       </c>
@@ -46918,11 +51524,11 @@
         <v>43977</v>
       </c>
       <c r="CA233" s="3">
-        <f t="shared" si="92"/>
+        <f>SUM(C57+D57+E57+F57+G57)</f>
         <v>625</v>
       </c>
       <c r="CB233" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>34679</v>
       </c>
       <c r="CE233" s="1">
@@ -46933,25 +51539,25 @@
         <v>287</v>
       </c>
       <c r="CG233" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>12095</v>
       </c>
       <c r="CJ233" s="1">
         <v>43977</v>
       </c>
       <c r="CK233" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>281</v>
       </c>
       <c r="CL233" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>4920</v>
       </c>
       <c r="CO233" s="1">
         <v>43977</v>
       </c>
       <c r="CP233" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>142</v>
       </c>
       <c r="CQ233" s="3">
@@ -46962,26 +51568,54 @@
         <v>43977</v>
       </c>
       <c r="CU233" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>182</v>
       </c>
       <c r="CV233" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>5358</v>
       </c>
       <c r="CY233" s="1">
         <v>43977</v>
       </c>
       <c r="CZ233" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1972</v>
       </c>
       <c r="DA233" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>40498</v>
       </c>
+      <c r="DG233" s="1">
+        <v>43977</v>
+      </c>
+      <c r="DH233" s="3">
+        <f>SUM(C57+D57+E57+F57+G57)</f>
+        <v>625</v>
+      </c>
+      <c r="DI233" s="3">
+        <f>SUM(M57+N57+O57+P57+Q57)</f>
+        <v>287</v>
+      </c>
+      <c r="DJ233" s="3">
+        <f>SUM(W57+X57+Y57+Z57+AA57)</f>
+        <v>281</v>
+      </c>
+      <c r="DK233" s="3">
+        <f>SUM(AG57+AH57+AI57+AJ57+AK57)</f>
+        <v>142</v>
+      </c>
+      <c r="DL233" s="3">
+        <f>SUM(AQ57+AR57+AS57+AT57+AU57)</f>
+        <v>182</v>
+      </c>
+      <c r="DM233" s="3">
+        <f>SUM(BA57+BB57+BC57+BD57+BE57)</f>
+        <v>1972</v>
+      </c>
     </row>
-    <row r="234" spans="69:105">
+    <row r="234" spans="65:117" x14ac:dyDescent="0.2">
+      <c r="BM234" s="3"/>
       <c r="BQ234" s="3">
         <v>1811544</v>
       </c>
@@ -47006,11 +51640,11 @@
         <v>43978</v>
       </c>
       <c r="CA234" s="3">
-        <f t="shared" si="92"/>
+        <f>SUM(C58+D58+E58+F58+G58)</f>
         <v>642</v>
       </c>
       <c r="CB234" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>37416</v>
       </c>
       <c r="CE234" s="1">
@@ -47021,25 +51655,25 @@
         <v>257</v>
       </c>
       <c r="CG234" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>24433</v>
       </c>
       <c r="CJ234" s="1">
         <v>43978</v>
       </c>
       <c r="CK234" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>383</v>
       </c>
       <c r="CL234" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>6663</v>
       </c>
       <c r="CO234" s="1">
         <v>43978</v>
       </c>
       <c r="CP234" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>134</v>
       </c>
       <c r="CQ234" s="3">
@@ -47050,26 +51684,54 @@
         <v>43978</v>
       </c>
       <c r="CU234" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>484</v>
       </c>
       <c r="CV234" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>10935</v>
       </c>
       <c r="CY234" s="1">
         <v>43978</v>
       </c>
       <c r="CZ234" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1510</v>
       </c>
       <c r="DA234" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>53665</v>
       </c>
+      <c r="DG234" s="1">
+        <v>43978</v>
+      </c>
+      <c r="DH234" s="3">
+        <f>SUM(C58+D58+E58+F58+G58)</f>
+        <v>642</v>
+      </c>
+      <c r="DI234" s="3">
+        <f>SUM(M58+N58+O58+P58+Q58)</f>
+        <v>257</v>
+      </c>
+      <c r="DJ234" s="3">
+        <f>SUM(W58+X58+Y58+Z58+AA58)</f>
+        <v>383</v>
+      </c>
+      <c r="DK234" s="3">
+        <f>SUM(AG58+AH58+AI58+AJ58+AK58)</f>
+        <v>134</v>
+      </c>
+      <c r="DL234" s="3">
+        <f>SUM(AQ58+AR58+AS58+AT58+AU58)</f>
+        <v>484</v>
+      </c>
+      <c r="DM234" s="3">
+        <f>SUM(BA58+BB58+BC58+BD58+BE58)</f>
+        <v>1510</v>
+      </c>
     </row>
-    <row r="235" spans="69:105">
+    <row r="235" spans="65:117" x14ac:dyDescent="0.2">
+      <c r="BM235" s="3"/>
       <c r="BQ235" s="3">
         <v>1876789</v>
       </c>
@@ -47094,11 +51756,11 @@
         <v>43979</v>
       </c>
       <c r="CA235" s="3">
-        <f t="shared" si="92"/>
+        <f>SUM(C59+D59+E59+F59+G59)</f>
         <v>1100</v>
       </c>
       <c r="CB235" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>65245</v>
       </c>
       <c r="CE235" s="1">
@@ -47109,25 +51771,25 @@
         <v>578</v>
       </c>
       <c r="CG235" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>25532</v>
       </c>
       <c r="CJ235" s="1">
         <v>43979</v>
       </c>
       <c r="CK235" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>479</v>
       </c>
       <c r="CL235" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>10179</v>
       </c>
       <c r="CO235" s="1">
         <v>43979</v>
       </c>
       <c r="CP235" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>129</v>
       </c>
       <c r="CQ235" s="3">
@@ -47138,26 +51800,54 @@
         <v>43979</v>
       </c>
       <c r="CU235" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>295</v>
       </c>
       <c r="CV235" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>8439</v>
       </c>
       <c r="CY235" s="1">
         <v>43979</v>
       </c>
       <c r="CZ235" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>1565</v>
       </c>
       <c r="DA235" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>44919</v>
       </c>
+      <c r="DG235" s="1">
+        <v>43979</v>
+      </c>
+      <c r="DH235" s="3">
+        <f>SUM(C59+D59+E59+F59+G59)</f>
+        <v>1100</v>
+      </c>
+      <c r="DI235" s="3">
+        <f>SUM(M59+N59+O59+P59+Q59)</f>
+        <v>578</v>
+      </c>
+      <c r="DJ235" s="3">
+        <f>SUM(W59+X59+Y59+Z59+AA59)</f>
+        <v>479</v>
+      </c>
+      <c r="DK235" s="3">
+        <f>SUM(AG59+AH59+AI59+AJ59+AK59)</f>
+        <v>129</v>
+      </c>
+      <c r="DL235" s="3">
+        <f>SUM(AQ59+AR59+AS59+AT59+AU59)</f>
+        <v>295</v>
+      </c>
+      <c r="DM235" s="3">
+        <f>SUM(BA59+BB59+BC59+BD59+BE59)</f>
+        <v>1565</v>
+      </c>
     </row>
-    <row r="236" spans="69:105">
+    <row r="236" spans="65:117" x14ac:dyDescent="0.2">
+      <c r="BM236" s="3"/>
       <c r="BQ236" s="3">
         <v>1944130</v>
       </c>
@@ -47181,11 +51871,11 @@
         <v>43980</v>
       </c>
       <c r="CA236" s="3">
-        <f t="shared" si="92"/>
+        <f>SUM(C60+D60+E60+F60+G60)</f>
         <v>936</v>
       </c>
       <c r="CB236" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>67341</v>
       </c>
       <c r="CE236" s="1">
@@ -47196,25 +51886,25 @@
         <v>443</v>
       </c>
       <c r="CG236" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>30554</v>
       </c>
       <c r="CJ236" s="1">
         <v>43980</v>
       </c>
       <c r="CK236" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>441</v>
       </c>
       <c r="CL236" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>9422</v>
       </c>
       <c r="CO236" s="1">
         <v>43980</v>
       </c>
       <c r="CP236" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>248</v>
       </c>
       <c r="CQ236" s="3">
@@ -47225,26 +51915,54 @@
         <v>43980</v>
       </c>
       <c r="CU236" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>355</v>
       </c>
       <c r="CV236" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>9859</v>
       </c>
       <c r="CY236" s="1">
         <v>43980</v>
       </c>
       <c r="CZ236" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>2133</v>
       </c>
       <c r="DA236" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>53117</v>
       </c>
+      <c r="DG236" s="1">
+        <v>43980</v>
+      </c>
+      <c r="DH236" s="3">
+        <f>SUM(C60+D60+E60+F60+G60)</f>
+        <v>936</v>
+      </c>
+      <c r="DI236" s="3">
+        <f>SUM(M60+N60+O60+P60+Q60)</f>
+        <v>443</v>
+      </c>
+      <c r="DJ236" s="3">
+        <f>SUM(W60+X60+Y60+Z60+AA60)</f>
+        <v>441</v>
+      </c>
+      <c r="DK236" s="3">
+        <f>SUM(AG60+AH60+AI60+AJ60+AK60)</f>
+        <v>248</v>
+      </c>
+      <c r="DL236" s="3">
+        <f>SUM(AQ60+AR60+AS60+AT60+AU60)</f>
+        <v>355</v>
+      </c>
+      <c r="DM236" s="3">
+        <f>SUM(BA60+BB60+BC60+BD60+BE60)</f>
+        <v>2133</v>
+      </c>
     </row>
-    <row r="237" spans="69:105">
+    <row r="237" spans="65:117" x14ac:dyDescent="0.2">
+      <c r="BM237" s="3"/>
       <c r="BQ237" s="3">
         <v>2005381</v>
       </c>
@@ -47269,11 +51987,11 @@
         <v>43981</v>
       </c>
       <c r="CA237" s="3">
-        <f t="shared" si="92"/>
+        <f>SUM(C61+D61+E61+F61+G61)</f>
         <v>774</v>
       </c>
       <c r="CB237" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>61251</v>
       </c>
       <c r="CE237" s="1">
@@ -47281,25 +51999,25 @@
       </c>
       <c r="CF237" s="3"/>
       <c r="CG237" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>28897</v>
       </c>
       <c r="CJ237" s="1">
         <v>43981</v>
       </c>
       <c r="CK237" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>455</v>
       </c>
       <c r="CL237" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>10774</v>
       </c>
       <c r="CO237" s="1">
         <v>43981</v>
       </c>
       <c r="CP237" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>62</v>
       </c>
       <c r="CQ237" s="3">
@@ -47310,17 +52028,70 @@
         <v>43981</v>
       </c>
       <c r="CU237" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>355</v>
       </c>
       <c r="CV237" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>9441</v>
       </c>
       <c r="CY237" s="1">
         <v>43981</v>
       </c>
       <c r="DA237" s="3"/>
+      <c r="DG237" s="1">
+        <v>43981</v>
+      </c>
+      <c r="DH237" s="3">
+        <f>SUM(C61+D61+E61+F61+G61)</f>
+        <v>774</v>
+      </c>
+      <c r="DI237" s="3"/>
+      <c r="DJ237" s="3">
+        <f>SUM(W61+X61+Y61+Z61+AA61)</f>
+        <v>455</v>
+      </c>
+      <c r="DK237" s="3">
+        <f>SUM(AG61+AH61+AI61+AJ61+AK61)</f>
+        <v>62</v>
+      </c>
+      <c r="DL237" s="3">
+        <f>SUM(AQ61+AR61+AS61+AT61+AU61)</f>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="238" spans="65:117" x14ac:dyDescent="0.2">
+      <c r="BM238" s="3"/>
+    </row>
+    <row r="239" spans="65:117" x14ac:dyDescent="0.2">
+      <c r="BM239" s="3"/>
+    </row>
+    <row r="240" spans="65:117" x14ac:dyDescent="0.2">
+      <c r="BM240" s="3"/>
+    </row>
+    <row r="241" spans="65:65" x14ac:dyDescent="0.2">
+      <c r="BM241" s="3"/>
+    </row>
+    <row r="242" spans="65:65" x14ac:dyDescent="0.2">
+      <c r="BM242" s="3"/>
+    </row>
+    <row r="243" spans="65:65" x14ac:dyDescent="0.2">
+      <c r="BM243" s="3"/>
+    </row>
+    <row r="244" spans="65:65" x14ac:dyDescent="0.2">
+      <c r="BM244" s="3"/>
+    </row>
+    <row r="245" spans="65:65" x14ac:dyDescent="0.2">
+      <c r="BM245" s="3"/>
+    </row>
+    <row r="246" spans="65:65" x14ac:dyDescent="0.2">
+      <c r="BM246" s="3"/>
+    </row>
+    <row r="247" spans="65:65" x14ac:dyDescent="0.2">
+      <c r="BM247" s="3"/>
+    </row>
+    <row r="248" spans="65:65" x14ac:dyDescent="0.2">
+      <c r="BM248" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/other/graphs.xlsx
+++ b/other/graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0B8161-DDC5-074C-A62A-4EC6A817C418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE09E5E-C589-4747-89C1-4BDFBF0B3F25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="460" windowWidth="19380" windowHeight="16500" xr2:uid="{50568A54-C490-204A-AE24-4B69BA545E02}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="27000" windowHeight="16500" xr2:uid="{50568A54-C490-204A-AE24-4B69BA545E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>NEW YORK</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>CA</t>
+  </si>
+  <si>
+    <t>here</t>
   </si>
 </sst>
 </file>
@@ -346,9 +349,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$B$64</c:f>
+              <c:f>Sheet1!$A$2:$B$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -537,16 +540,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$64</c:f>
+              <c:f>Sheet1!$C$2:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>1602</c:v>
                 </c:pt>
@@ -720,6 +729,12 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -762,9 +777,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$B$64</c:f>
+              <c:f>Sheet1!$A$2:$B$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -953,16 +968,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$64</c:f>
+              <c:f>Sheet1!$D$2:$D$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>1016</c:v>
                 </c:pt>
@@ -1136,6 +1157,12 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1178,9 +1205,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$B$64</c:f>
+              <c:f>Sheet1!$A$2:$B$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -1369,16 +1396,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$64</c:f>
+              <c:f>Sheet1!$E$2:$E$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>1011</c:v>
                 </c:pt>
@@ -1558,6 +1591,12 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1600,9 +1639,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$B$64</c:f>
+              <c:f>Sheet1!$A$2:$B$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -1791,16 +1830,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$64</c:f>
+              <c:f>Sheet1!$F$2:$F$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>736</c:v>
                 </c:pt>
@@ -1980,6 +2025,12 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2022,9 +2073,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$B$64</c:f>
+              <c:f>Sheet1!$A$2:$B$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -2213,16 +2264,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$64</c:f>
+              <c:f>Sheet1!$G$2:$G$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>1141</c:v>
                 </c:pt>
@@ -2408,6 +2465,12 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2702,10 +2765,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$CT$178:$CT$237</c:f>
+              <c:f>Sheet1!$CT$178:$CT$243</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -2885,16 +2948,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CU$178:$CU$237</c:f>
+              <c:f>Sheet1!$CU$178:$CU$243</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>1211</c:v>
                 </c:pt>
@@ -3065,6 +3146,24 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3090,10 +3189,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$CT$178:$CT$237</c:f>
+              <c:f>Sheet1!$CT$178:$CT$243</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -3273,16 +3372,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CV$178:$CV$237</c:f>
+              <c:f>Sheet1!$CV$178:$CV$243</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>6482</c:v>
                 </c:pt>
@@ -3453,6 +3570,12 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>9441</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10542</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3761,10 +3884,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$CY$178:$CY$237</c:f>
+              <c:f>Sheet1!$CY$178:$CY$243</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -3944,16 +4067,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CZ$178:$CZ$237</c:f>
+              <c:f>Sheet1!$CZ$178:$CZ$243</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>1036</c:v>
                 </c:pt>
@@ -4130,6 +4271,24 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>2992</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3705</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2423</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2304</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2377</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4155,10 +4314,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$CY$178:$CY$237</c:f>
+              <c:f>Sheet1!$CY$178:$CY$243</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -4338,16 +4497,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$DA$178:$DA$237</c:f>
+              <c:f>Sheet1!$DA$178:$DA$243</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>3073</c:v>
                 </c:pt>
@@ -4524,6 +4701,21 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>56253</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67735</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>59008</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>59703</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>51377</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>55792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4832,10 +5024,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$CE$178:$CE$237</c:f>
+              <c:f>Sheet1!$CE$178:$CE$243</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -5015,16 +5207,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CF$178:$CF$237</c:f>
+              <c:f>Sheet1!$CF$178:$CF$243</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>3335</c:v>
                 </c:pt>
@@ -5201,6 +5411,24 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5226,10 +5454,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$CE$178:$CE$237</c:f>
+              <c:f>Sheet1!$CE$178:$CE$243</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -5409,16 +5637,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CG$178:$CG$237</c:f>
+              <c:f>Sheet1!$CG$178:$CG$243</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>6468</c:v>
                 </c:pt>
@@ -5595,6 +5841,24 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>28897</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>49455</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19743</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20309</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>61162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5915,10 +6179,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$DG$178:$DG$237</c:f>
+              <c:f>Sheet1!$DG$178:$DG$243</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -6098,16 +6362,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$DH$178:$DH$237</c:f>
+              <c:f>Sheet1!$DH$178:$DH$243</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>5506</c:v>
                 </c:pt>
@@ -6260,6 +6542,24 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6299,10 +6599,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$DG$178:$DG$237</c:f>
+              <c:f>Sheet1!$DG$178:$DG$243</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -6482,16 +6782,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$DI$178:$DI$237</c:f>
+              <c:f>Sheet1!$DI$178:$DI$243</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>1925</c:v>
                 </c:pt>
@@ -6635,6 +6953,21 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6674,10 +7007,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$DG$178:$DG$237</c:f>
+              <c:f>Sheet1!$DG$178:$DG$243</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -6857,16 +7190,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$DJ$178:$DJ$237</c:f>
+              <c:f>Sheet1!$DJ$178:$DJ$243</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>927</c:v>
                 </c:pt>
@@ -7043,6 +7394,24 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2919</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7082,10 +7451,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$DG$178:$DG$237</c:f>
+              <c:f>Sheet1!$DG$178:$DG$243</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -7265,16 +7634,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$DK$178:$DK$237</c:f>
+              <c:f>Sheet1!$DK$178:$DK$243</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>1807</c:v>
                 </c:pt>
@@ -7436,6 +7823,18 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7475,10 +7874,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$DG$178:$DG$237</c:f>
+              <c:f>Sheet1!$DG$178:$DG$243</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -7658,16 +8057,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$DL$178:$DL$237</c:f>
+              <c:f>Sheet1!$DL$178:$DL$243</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>662</c:v>
                 </c:pt>
@@ -7826,6 +8243,24 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7865,10 +8300,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$DG$178:$DG$237</c:f>
+              <c:f>Sheet1!$DG$178:$DG$243</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -8048,16 +8483,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$DM$178:$DM$237</c:f>
+              <c:f>Sheet1!$DM$178:$DM$243</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>900</c:v>
                 </c:pt>
@@ -8219,6 +8672,21 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>2133</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>1707</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>1429</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>2125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8539,9 +9007,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$2:$L$64</c:f>
+              <c:f>Sheet1!$K$2:$L$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -8730,16 +9198,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$64</c:f>
+              <c:f>Sheet1!$M$2:$M$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>605</c:v>
                 </c:pt>
@@ -8907,6 +9381,12 @@
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8946,9 +9426,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$2:$L$64</c:f>
+              <c:f>Sheet1!$K$2:$L$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -9137,16 +9617,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$64</c:f>
+              <c:f>Sheet1!$N$2:$N$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>360</c:v>
                 </c:pt>
@@ -9326,6 +9812,12 @@
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9365,9 +9857,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$2:$L$64</c:f>
+              <c:f>Sheet1!$K$2:$L$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -9556,16 +10048,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$64</c:f>
+              <c:f>Sheet1!$O$2:$O$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>355</c:v>
                 </c:pt>
@@ -9751,6 +10249,12 @@
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9790,9 +10294,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$2:$L$64</c:f>
+              <c:f>Sheet1!$K$2:$L$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -9981,16 +10485,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$64</c:f>
+              <c:f>Sheet1!$P$2:$P$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>349</c:v>
                 </c:pt>
@@ -10158,6 +10668,12 @@
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10197,9 +10713,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$2:$L$64</c:f>
+              <c:f>Sheet1!$K$2:$L$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -10388,16 +10904,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$64</c:f>
+              <c:f>Sheet1!$Q$2:$Q$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>256</c:v>
                 </c:pt>
@@ -10582,6 +11104,12 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
                   <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
@@ -10889,9 +11417,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$U$2:$V$64</c:f>
+              <c:f>Sheet1!$U$2:$V$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -11080,16 +11608,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$2:$W$64</c:f>
+              <c:f>Sheet1!$W$2:$W$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>272</c:v>
                 </c:pt>
@@ -11274,7 +11808,13 @@
                   <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>22</c:v>
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11314,9 +11854,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$U$2:$V$64</c:f>
+              <c:f>Sheet1!$U$2:$V$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -11505,16 +12045,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$X$2:$X$64</c:f>
+              <c:f>Sheet1!$X$2:$X$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>288</c:v>
                 </c:pt>
@@ -11699,7 +12245,13 @@
                   <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>5</c:v>
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11739,9 +12291,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$U$2:$V$64</c:f>
+              <c:f>Sheet1!$U$2:$V$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -11930,16 +12482,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Y$2:$Y$64</c:f>
+              <c:f>Sheet1!$Y$2:$Y$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>154</c:v>
                 </c:pt>
@@ -12124,7 +12682,13 @@
                   <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>13</c:v>
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12164,9 +12728,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$U$2:$V$64</c:f>
+              <c:f>Sheet1!$U$2:$V$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -12355,16 +12919,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$2:$Z$64</c:f>
+              <c:f>Sheet1!$Z$2:$Z$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>109</c:v>
                 </c:pt>
@@ -12549,7 +13119,13 @@
                   <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6</c:v>
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12589,9 +13165,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$U$2:$V$64</c:f>
+              <c:f>Sheet1!$U$2:$V$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -12780,16 +13356,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$2:$AA$64</c:f>
+              <c:f>Sheet1!$AA$2:$AA$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>104</c:v>
                 </c:pt>
@@ -12974,7 +13556,13 @@
                   <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>3</c:v>
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13281,9 +13869,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AE$2:$AF$64</c:f>
+              <c:f>Sheet1!$AE$2:$AF$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -13472,16 +14060,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AG$2:$AG$64</c:f>
+              <c:f>Sheet1!$AG$2:$AG$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>599</c:v>
                 </c:pt>
@@ -13666,7 +14260,13 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>186</c:v>
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13706,9 +14306,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AE$2:$AF$64</c:f>
+              <c:f>Sheet1!$AE$2:$AF$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -13897,16 +14497,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AH$2:$AH$64</c:f>
+              <c:f>Sheet1!$AH$2:$AH$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>592</c:v>
                 </c:pt>
@@ -14079,7 +14685,13 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>79</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14119,9 +14731,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AE$2:$AF$64</c:f>
+              <c:f>Sheet1!$AE$2:$AF$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -14310,16 +14922,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AI$2:$AI$64</c:f>
+              <c:f>Sheet1!$AI$2:$AI$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>479</c:v>
                 </c:pt>
@@ -14495,7 +15113,13 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14535,9 +15159,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AE$2:$AF$64</c:f>
+              <c:f>Sheet1!$AE$2:$AF$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -14726,16 +15350,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AJ$2:$AJ$64</c:f>
+              <c:f>Sheet1!$AJ$2:$AJ$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
@@ -14920,7 +15550,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14960,9 +15593,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AE$2:$AF$64</c:f>
+              <c:f>Sheet1!$AE$2:$AF$66</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -15151,16 +15784,22 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AK$2:$AK$64</c:f>
+              <c:f>Sheet1!$AK$2:$AK$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>37</c:v>
                 </c:pt>
@@ -15339,7 +15978,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>33</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15646,9 +16291,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AO$2:$AP$63</c:f>
+              <c:f>Sheet1!$AO$2:$AP$66</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -15834,16 +16479,25 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1-Jun</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AQ$2:$AQ$63</c:f>
+              <c:f>Sheet1!$AQ$2:$AQ$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>374</c:v>
                 </c:pt>
@@ -16005,6 +16659,15 @@
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
                   <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16044,9 +16707,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AO$2:$AP$63</c:f>
+              <c:f>Sheet1!$AO$2:$AP$66</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -16232,16 +16895,25 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1-Jun</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AR$2:$AR$63</c:f>
+              <c:f>Sheet1!$AR$2:$AR$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>86</c:v>
                 </c:pt>
@@ -16424,6 +17096,15 @@
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16463,9 +17144,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AO$2:$AP$63</c:f>
+              <c:f>Sheet1!$AO$2:$AP$66</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -16651,16 +17332,25 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1-Jun</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AS$2:$AS$63</c:f>
+              <c:f>Sheet1!$AS$2:$AS$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>80</c:v>
                 </c:pt>
@@ -16843,6 +17533,15 @@
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16882,9 +17581,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AO$2:$AP$63</c:f>
+              <c:f>Sheet1!$AO$2:$AP$66</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -17070,16 +17769,25 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1-Jun</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AT$2:$AT$63</c:f>
+              <c:f>Sheet1!$AT$2:$AT$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>105</c:v>
                 </c:pt>
@@ -17262,6 +17970,15 @@
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17301,9 +18018,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AO$2:$AP$63</c:f>
+              <c:f>Sheet1!$AO$2:$AP$66</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -17489,16 +18206,25 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1-Jun</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AU$2:$AU$63</c:f>
+              <c:f>Sheet1!$AU$2:$AU$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="1">
                   <c:v>17</c:v>
                 </c:pt>
@@ -17681,6 +18407,15 @@
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17987,9 +18722,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AY$2:$AZ$63</c:f>
+              <c:f>Sheet1!$AY$2:$AZ$65</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -18175,16 +18910,22 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1-Jun</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BA$2:$BA$63</c:f>
+              <c:f>Sheet1!$BA$2:$BA$65</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="1">
                   <c:v>538</c:v>
                 </c:pt>
@@ -18367,6 +19108,12 @@
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
                   <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>1022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18406,9 +19153,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AY$2:$AZ$63</c:f>
+              <c:f>Sheet1!$AY$2:$AZ$65</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -18594,16 +19341,22 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1-Jun</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BB$2:$BB$63</c:f>
+              <c:f>Sheet1!$BB$2:$BB$65</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="1">
                   <c:v>117</c:v>
                 </c:pt>
@@ -18786,6 +19539,12 @@
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
                   <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18825,9 +19584,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AY$2:$AZ$63</c:f>
+              <c:f>Sheet1!$AY$2:$AZ$65</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -19013,16 +19772,22 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1-Jun</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BC$2:$BC$63</c:f>
+              <c:f>Sheet1!$BC$2:$BC$65</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="1">
                   <c:v>132</c:v>
                 </c:pt>
@@ -19199,6 +19964,12 @@
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
                   <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19238,9 +20009,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AY$2:$AZ$63</c:f>
+              <c:f>Sheet1!$AY$2:$AZ$65</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -19426,16 +20197,22 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1-Jun</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BD$2:$BD$63</c:f>
+              <c:f>Sheet1!$BD$2:$BD$65</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="1">
                   <c:v>63</c:v>
                 </c:pt>
@@ -19612,6 +20389,12 @@
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19651,9 +20434,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AY$2:$AZ$63</c:f>
+              <c:f>Sheet1!$AY$2:$AZ$65</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -19839,16 +20622,22 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1-Jun</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BE$2:$BE$63</c:f>
+              <c:f>Sheet1!$BE$2:$BE$65</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
@@ -20031,6 +20820,12 @@
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
                   <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20336,9 +21131,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$BY$178:$BZ$237</c:f>
+              <c:f>Sheet1!$BY$178:$BZ$243</c:f>
               <c:strCache>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -20518,16 +21313,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>30-May</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31-May</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1-Jun</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CA$178:$CA$237</c:f>
+              <c:f>Sheet1!$CA$178:$CA$243</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>8669</c:v>
                 </c:pt>
@@ -20704,6 +21517,24 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>1376</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1329</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1048</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>1075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20740,9 +21571,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$BY$178:$BZ$237</c:f>
+              <c:f>Sheet1!$BY$178:$BZ$243</c:f>
               <c:strCache>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -20922,16 +21753,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>30-May</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31-May</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1-Jun</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CB$178:$CB$237</c:f>
+              <c:f>Sheet1!$CB$178:$CB$243</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>18085</c:v>
                 </c:pt>
@@ -21108,6 +21957,24 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>61251</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>58444</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>49952</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>54054</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>61642</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>63559</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21455,9 +22322,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$CI$178:$CJ$237</c:f>
+              <c:f>Sheet1!$CI$178:$CJ$243</c:f>
               <c:strCache>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -21637,16 +22504,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>30-May</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31-May</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1-Jun</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CK$178:$CK$237</c:f>
+              <c:f>Sheet1!$CK$178:$CK$243</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>1228</c:v>
                 </c:pt>
@@ -21823,6 +22708,24 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21859,9 +22762,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$CI$178:$CJ$237</c:f>
+              <c:f>Sheet1!$CI$178:$CJ$243</c:f>
               <c:strCache>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -22041,16 +22944,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>30-May</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31-May</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1-Jun</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CL$178:$CL$237</c:f>
+              <c:f>Sheet1!$CL$178:$CL$243</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>4870</c:v>
                 </c:pt>
@@ -22227,6 +23148,24 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>10774</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10334</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7066</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5852</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8362</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7115</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22546,9 +23485,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$CN$178:$CO$237</c:f>
+              <c:f>Sheet1!$CN$178:$CO$243</c:f>
               <c:strCache>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -22728,16 +23667,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>30-May</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31-May</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1-Jun</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CP$178:$CP$237</c:f>
+              <c:f>Sheet1!$CP$178:$CP$243</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>1229</c:v>
                 </c:pt>
@@ -22905,6 +23862,24 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22941,9 +23916,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$CN$178:$CO$237</c:f>
+              <c:f>Sheet1!$CN$178:$CO$243</c:f>
               <c:strCache>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>1-Apr</c:v>
                 </c:pt>
@@ -23123,16 +24098,34 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>30-May</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31-May</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1-Jun</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5-Jun</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CQ$178:$CQ$237</c:f>
+              <c:f>Sheet1!$CQ$178:$CQ$243</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="1">
                   <c:v>4360</c:v>
                 </c:pt>
@@ -23300,6 +24293,24 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>17205</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15818</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13393</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9245</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16281</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15434</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>18564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23307,6 +24318,248 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E0AD-A248-A0A7-67F90176F267}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$CR$177</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$CN$178:$CO$243</c:f>
+              <c:strCache>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>1-Apr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-Apr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3-Apr</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4-Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5-Apr</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6-Apr</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7-Apr</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8-Apr</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9-Apr</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10-Apr</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Apr</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Apr</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13-Apr</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14-Apr</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15-Apr</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16-Apr</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17-Apr</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18-Apr</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19-Apr</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20-Apr</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21-Apr</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22-Apr</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23-Apr</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24-Apr</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25-Apr</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26-Apr</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27-Apr</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28-Apr</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29-Apr</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30-Apr</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1-May</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2-May</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3-May</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4-May</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5-May</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6-May</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7-May</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8-May</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9-May</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10-May</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11-May</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12-May</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13-May</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14-May</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15-May</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16-May</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17-May</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18-May</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19-May</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20-May</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21-May</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>22-May</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>23-May</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>24-May</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25-May</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26-May</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>27-May</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28-May</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29-May</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30-May</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31-May</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1-Jun</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2-Jun</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3-Jun</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4-Jun</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5-Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$CR$178:$CR$243</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F009-224B-B9A2-A5F2F8B191E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -31452,8 +32705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA38D56-529F-6943-948B-8ED18F113542}">
   <dimension ref="A1:DM248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD188" zoomScale="25" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="DE279" sqref="DE279"/>
+    <sheetView tabSelected="1" topLeftCell="CK179" zoomScale="37" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="DO187" sqref="DO187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39832,38 +41085,386 @@
         <v>43984</v>
       </c>
       <c r="W64">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="X64">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="Y64">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="Z64" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AA64">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="AF64" s="1">
         <v>43984</v>
       </c>
       <c r="AG64">
+        <v>22</v>
+      </c>
+      <c r="AH64">
+        <v>5</v>
+      </c>
+      <c r="AI64">
+        <v>13</v>
+      </c>
+      <c r="AJ64">
+        <v>6</v>
+      </c>
+      <c r="AK64">
+        <v>3</v>
+      </c>
+      <c r="AP64" s="1">
+        <v>43984</v>
+      </c>
+      <c r="AQ64">
         <v>186</v>
       </c>
-      <c r="AH64">
+      <c r="AR64">
         <v>79</v>
       </c>
-      <c r="AI64">
+      <c r="AS64">
         <v>15</v>
       </c>
-      <c r="AJ64">
+      <c r="AT64">
         <v>10</v>
       </c>
-      <c r="AK64">
+      <c r="AU64">
         <v>33</v>
       </c>
+      <c r="AZ64" s="1">
+        <v>43984</v>
+      </c>
+      <c r="BA64">
+        <v>1245</v>
+      </c>
+      <c r="BB64">
+        <v>120</v>
+      </c>
+      <c r="BC64">
+        <v>170</v>
+      </c>
+      <c r="BD64">
+        <v>22</v>
+      </c>
+      <c r="BE64">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B65" s="1">
+        <v>43985</v>
+      </c>
+      <c r="C65" s="3">
+        <v>132</v>
+      </c>
+      <c r="D65" s="3">
+        <v>163</v>
+      </c>
+      <c r="E65" s="3">
+        <v>72</v>
+      </c>
+      <c r="F65" s="3">
+        <v>105</v>
+      </c>
+      <c r="G65" s="3">
+        <v>82</v>
+      </c>
+      <c r="L65" s="1">
+        <v>43985</v>
+      </c>
+      <c r="M65">
+        <v>43</v>
+      </c>
+      <c r="N65">
+        <v>5</v>
+      </c>
+      <c r="O65">
+        <v>59</v>
+      </c>
+      <c r="P65">
+        <v>43</v>
+      </c>
+      <c r="Q65">
+        <v>43</v>
+      </c>
+      <c r="V65" s="1">
+        <v>43985</v>
+      </c>
+      <c r="W65">
+        <v>97</v>
+      </c>
+      <c r="X65">
+        <v>107</v>
+      </c>
+      <c r="Y65">
+        <v>62</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>13</v>
+      </c>
+      <c r="AA65">
+        <v>27</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>43985</v>
+      </c>
+      <c r="AG65">
+        <v>73</v>
+      </c>
+      <c r="AH65">
+        <v>13</v>
+      </c>
+      <c r="AI65">
+        <v>49</v>
+      </c>
+      <c r="AJ65">
+        <v>28</v>
+      </c>
+      <c r="AK65">
+        <v>1</v>
+      </c>
+      <c r="AP65" s="1">
+        <v>43985</v>
+      </c>
+      <c r="AQ65">
+        <v>82</v>
+      </c>
+      <c r="AR65">
+        <v>70</v>
+      </c>
+      <c r="AS65">
+        <v>52</v>
+      </c>
+      <c r="AT65">
+        <v>22</v>
+      </c>
+      <c r="AU65">
+        <v>45</v>
+      </c>
+      <c r="AZ65" s="1">
+        <v>43985</v>
+      </c>
+      <c r="BA65">
+        <v>1022</v>
+      </c>
+      <c r="BB65">
+        <v>124</v>
+      </c>
+      <c r="BC65">
+        <v>117</v>
+      </c>
+      <c r="BD65">
+        <v>17</v>
+      </c>
+      <c r="BE65">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B66" s="1">
+        <v>43986</v>
+      </c>
+      <c r="C66" s="3">
+        <v>117</v>
+      </c>
+      <c r="D66" s="3">
+        <v>182</v>
+      </c>
+      <c r="E66" s="3">
+        <v>69</v>
+      </c>
+      <c r="F66" s="3">
+        <v>117</v>
+      </c>
+      <c r="G66" s="3">
+        <v>91</v>
+      </c>
+      <c r="L66" s="1">
+        <v>43986</v>
+      </c>
+      <c r="M66">
+        <v>32</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66">
+        <v>101</v>
+      </c>
+      <c r="P66">
+        <v>42</v>
+      </c>
+      <c r="Q66">
+        <v>34</v>
+      </c>
+      <c r="V66" s="1">
+        <v>43986</v>
+      </c>
+      <c r="W66">
+        <v>57</v>
+      </c>
+      <c r="X66">
+        <v>82</v>
+      </c>
+      <c r="Y66">
+        <v>112</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>12</v>
+      </c>
+      <c r="AA66">
+        <v>64</v>
+      </c>
+      <c r="AF66" s="1">
+        <v>43986</v>
+      </c>
+      <c r="AG66">
+        <v>49</v>
+      </c>
+      <c r="AH66">
+        <v>13</v>
+      </c>
+      <c r="AI66">
+        <v>21</v>
+      </c>
+      <c r="AK66">
+        <v>6</v>
+      </c>
+      <c r="AP66" s="1">
+        <v>43986</v>
+      </c>
+      <c r="AQ66">
+        <v>103</v>
+      </c>
+      <c r="AR66">
+        <v>109</v>
+      </c>
+      <c r="AS66">
+        <v>39</v>
+      </c>
+      <c r="AT66">
+        <v>15</v>
+      </c>
+      <c r="AU66">
+        <v>0</v>
+      </c>
+      <c r="AZ66" s="1">
+        <v>43986</v>
+      </c>
+      <c r="BA66">
+        <v>1430</v>
+      </c>
+      <c r="BB66">
+        <v>142</v>
+      </c>
+      <c r="BC66">
+        <v>265</v>
+      </c>
+      <c r="BD66">
+        <v>35</v>
+      </c>
+      <c r="BE66">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="B67" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C67" s="3">
+        <v>150</v>
+      </c>
+      <c r="D67" s="3">
+        <v>183</v>
+      </c>
+      <c r="E67" s="3">
+        <v>84</v>
+      </c>
+      <c r="F67" s="3">
+        <v>90</v>
+      </c>
+      <c r="G67" s="3">
+        <v>86</v>
+      </c>
+      <c r="L67" s="1">
+        <v>43987</v>
+      </c>
+      <c r="M67">
+        <v>55</v>
+      </c>
+      <c r="N67">
+        <v>53</v>
+      </c>
+      <c r="O67">
+        <v>107</v>
+      </c>
+      <c r="P67">
+        <v>85</v>
+      </c>
+      <c r="Q67">
+        <v>76</v>
+      </c>
+      <c r="V67" s="1">
+        <v>43987</v>
+      </c>
+      <c r="W67">
+        <v>68</v>
+      </c>
+      <c r="X67">
+        <v>98</v>
+      </c>
+      <c r="Y67">
+        <v>95</v>
+      </c>
+      <c r="Z67" s="3">
+        <v>21</v>
+      </c>
+      <c r="AA67">
+        <v>71</v>
+      </c>
+      <c r="AF67" s="1">
+        <v>43987</v>
+      </c>
+      <c r="AG67">
+        <v>73</v>
+      </c>
+      <c r="AH67">
+        <v>19</v>
+      </c>
+      <c r="AI67">
+        <v>25</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+      <c r="AP67" s="1">
+        <v>43987</v>
+      </c>
+      <c r="AQ67">
+        <v>89</v>
+      </c>
+      <c r="AR67">
+        <v>65</v>
+      </c>
+      <c r="AS67">
+        <v>21</v>
+      </c>
+      <c r="AT67">
+        <v>12</v>
+      </c>
+      <c r="AU67">
+        <v>15</v>
+      </c>
+      <c r="AZ67" s="1">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="71" spans="2:57" x14ac:dyDescent="0.2">
+      <c r="AO71" s="1"/>
     </row>
     <row r="120" spans="42:45" x14ac:dyDescent="0.2">
       <c r="AP120" s="3"/>
@@ -39974,7 +41575,6 @@
       <c r="J136" s="3">
         <v>3584</v>
       </c>
-      <c r="AP136" s="3"/>
       <c r="AQ136" s="3"/>
       <c r="AR136" s="3"/>
       <c r="AS136" s="3"/>
@@ -39991,7 +41591,6 @@
       <c r="M137" s="3">
         <v>1624</v>
       </c>
-      <c r="AP137" s="3"/>
       <c r="AQ137" s="3"/>
       <c r="AR137" s="3"/>
       <c r="AS137" s="3"/>
@@ -40011,7 +41610,6 @@
       <c r="M138" s="3">
         <v>1896</v>
       </c>
-      <c r="AP138" s="3"/>
       <c r="AQ138" s="3"/>
       <c r="AR138" s="3"/>
       <c r="AS138" s="3"/>
@@ -40037,7 +41635,6 @@
       <c r="M139" s="3">
         <v>2183</v>
       </c>
-      <c r="AP139" s="3"/>
       <c r="AQ139" s="3"/>
       <c r="AR139" s="3"/>
       <c r="AS139" s="3"/>
@@ -40068,9 +41665,6 @@
       </c>
       <c r="R140" s="3"/>
       <c r="S140" s="3"/>
-      <c r="AN140" s="3"/>
-      <c r="AO140" s="3"/>
-      <c r="AP140" s="3"/>
       <c r="AQ140" s="3"/>
       <c r="AR140" s="3"/>
       <c r="AS140" s="3"/>
@@ -40113,9 +41707,6 @@
       </c>
       <c r="R141" s="3"/>
       <c r="S141" s="3"/>
-      <c r="AN141" s="3"/>
-      <c r="AO141" s="3"/>
-      <c r="AP141" s="3"/>
       <c r="AQ141" s="3"/>
       <c r="AS141" s="3"/>
       <c r="AT141" s="3"/>
@@ -52511,7 +54102,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="225" spans="52:117" x14ac:dyDescent="0.2">
+    <row r="225" spans="49:117" x14ac:dyDescent="0.2">
       <c r="AZ225" s="5">
         <v>351371</v>
       </c>
@@ -52642,7 +54233,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="226" spans="52:117" x14ac:dyDescent="0.2">
+    <row r="226" spans="49:117" x14ac:dyDescent="0.2">
       <c r="AZ226" s="5">
         <v>352845</v>
       </c>
@@ -52773,7 +54364,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="227" spans="52:117" x14ac:dyDescent="0.2">
+    <row r="227" spans="49:117" x14ac:dyDescent="0.2">
       <c r="AZ227" s="5">
         <v>354370</v>
       </c>
@@ -52903,7 +54494,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="228" spans="52:117" x14ac:dyDescent="0.2">
+    <row r="228" spans="49:117" x14ac:dyDescent="0.2">
       <c r="AZ228" s="5">
         <v>356458</v>
       </c>
@@ -53033,7 +54624,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="229" spans="52:117" x14ac:dyDescent="0.2">
+    <row r="229" spans="49:117" x14ac:dyDescent="0.2">
       <c r="AZ229" s="5">
         <v>358154</v>
       </c>
@@ -53166,7 +54757,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="230" spans="52:117" x14ac:dyDescent="0.2">
+    <row r="230" spans="49:117" x14ac:dyDescent="0.2">
       <c r="AZ230" s="5">
         <v>359926</v>
       </c>
@@ -53286,7 +54877,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="231" spans="52:117" x14ac:dyDescent="0.2">
+    <row r="231" spans="49:117" x14ac:dyDescent="0.2">
       <c r="AZ231" s="5">
         <v>361515</v>
       </c>
@@ -53406,7 +54997,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="232" spans="52:117" x14ac:dyDescent="0.2">
+    <row r="232" spans="49:117" x14ac:dyDescent="0.2">
       <c r="AZ232" s="5">
         <v>362764</v>
       </c>
@@ -53532,7 +55123,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="233" spans="52:117" x14ac:dyDescent="0.2">
+    <row r="233" spans="49:117" x14ac:dyDescent="0.2">
       <c r="AZ233" s="5">
         <v>363836</v>
       </c>
@@ -53664,7 +55255,8 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="234" spans="52:117" x14ac:dyDescent="0.2">
+    <row r="234" spans="49:117" x14ac:dyDescent="0.2">
+      <c r="AW234" s="3"/>
       <c r="AZ234" s="5">
         <v>364965</v>
       </c>
@@ -53797,7 +55389,8 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="235" spans="52:117" x14ac:dyDescent="0.2">
+    <row r="235" spans="49:117" x14ac:dyDescent="0.2">
+      <c r="AW235" s="3"/>
       <c r="AZ235" s="5">
         <v>366733</v>
       </c>
@@ -53930,7 +55523,8 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="236" spans="52:117" x14ac:dyDescent="0.2">
+    <row r="236" spans="49:117" x14ac:dyDescent="0.2">
+      <c r="AW236" s="3"/>
       <c r="AZ236" s="5">
         <v>368284</v>
       </c>
@@ -54062,7 +55656,8 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="237" spans="52:117" x14ac:dyDescent="0.2">
+    <row r="237" spans="49:117" x14ac:dyDescent="0.2">
+      <c r="AW237" s="3"/>
       <c r="AZ237" s="5">
         <v>369660</v>
       </c>
@@ -54189,41 +55784,774 @@
         <v>355</v>
       </c>
     </row>
-    <row r="238" spans="52:117" x14ac:dyDescent="0.2">
+    <row r="238" spans="49:117" x14ac:dyDescent="0.2">
+      <c r="AW238" s="3"/>
+      <c r="AZ238" s="3">
+        <v>370770</v>
+      </c>
+      <c r="BA238" s="5">
+        <v>160445</v>
+      </c>
+      <c r="BB238" s="5">
+        <v>96965</v>
+      </c>
+      <c r="BC238" s="5">
+        <v>57397</v>
+      </c>
+      <c r="BD238" s="5">
+        <v>71926</v>
+      </c>
+      <c r="BF238" s="5">
+        <v>110583</v>
+      </c>
       <c r="BM238" s="3"/>
-      <c r="BP238" s="3"/>
+      <c r="BP238" t="s">
+        <v>47</v>
+      </c>
       <c r="BQ238" s="3">
+        <v>2063825</v>
+      </c>
+      <c r="BR238" s="3">
+        <v>746145</v>
+      </c>
+      <c r="BS238" s="3">
+        <v>592853</v>
+      </c>
+      <c r="BT238" s="3">
+        <v>554630</v>
+      </c>
+      <c r="BV238" s="3">
+        <v>2012583</v>
+      </c>
+      <c r="BZ238" s="1">
+        <v>43982</v>
+      </c>
+      <c r="CA238" s="3">
+        <f>SUM(AZ238-AZ237)</f>
+        <v>1110</v>
+      </c>
+      <c r="CB238" s="3">
+        <f>SUM(BQ238-BQ237)</f>
+        <v>58444</v>
+      </c>
+      <c r="CE238" s="1">
+        <v>43982</v>
+      </c>
+      <c r="CF238">
+        <f>SUM(BA238-BA237)</f>
+        <v>837</v>
+      </c>
+      <c r="CG238" s="3">
+        <f>SUM(BR238-BR237)</f>
+        <v>837</v>
+      </c>
+      <c r="CJ238" s="1">
+        <v>43982</v>
+      </c>
+      <c r="CK238">
+        <f>SUM(BB238-BB237)</f>
+        <v>664</v>
+      </c>
+      <c r="CL238" s="3">
+        <f>SUM(BS238-BS237)</f>
+        <v>10334</v>
+      </c>
+      <c r="CO238" s="1">
+        <v>43982</v>
+      </c>
+      <c r="CP238">
+        <f>SUM(BC238-BC237)</f>
+        <v>513</v>
+      </c>
+      <c r="CQ238" s="3">
+        <f>SUM(BT238-BT237)</f>
+        <v>15818</v>
+      </c>
+      <c r="CT238" s="1">
+        <v>43982</v>
+      </c>
+      <c r="CU238">
+        <f>SUM(BD238-BD237)</f>
+        <v>511</v>
+      </c>
+      <c r="CV238" s="3"/>
+      <c r="CY238" s="1">
+        <v>43982</v>
+      </c>
+      <c r="CZ238">
+        <f>SUM(BF238-BF237)</f>
+        <v>3705</v>
+      </c>
+      <c r="DA238" s="3">
+        <f>SUM(BV238-BV237)</f>
+        <v>67735</v>
+      </c>
+      <c r="DG238" s="1">
+        <v>43982</v>
+      </c>
+      <c r="DH238" s="3">
+        <f>SUM(C62+D62+E62+F62+G62)</f>
+        <v>694</v>
+      </c>
+      <c r="DJ238" s="3">
+        <f>SUM(W62+X62+Y62+Z62+AA62)</f>
+        <v>532</v>
+      </c>
+      <c r="DK238">
+        <f>SUM(AG62+AH62+AI62+AJ62+AK62)</f>
+        <v>323</v>
+      </c>
+      <c r="DL238">
+        <f>SUM(AQ62+AR62+AS62+AT62+AU62)</f>
+        <v>252</v>
+      </c>
+      <c r="DM238">
+        <f>SUM(BA62+BB62+BC62+BD62+BE62)</f>
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="239" spans="49:117" x14ac:dyDescent="0.2">
+      <c r="AZ239" s="3">
+        <v>371711</v>
+      </c>
+      <c r="BA239" s="5">
+        <v>160918</v>
+      </c>
+      <c r="BB239" s="5">
+        <v>100805</v>
+      </c>
+      <c r="BC239" s="5">
+        <v>57532</v>
+      </c>
+      <c r="BD239" s="5">
+        <v>72282</v>
+      </c>
+      <c r="BF239" s="5">
+        <v>113006</v>
+      </c>
+      <c r="BQ239" s="3">
+        <v>2113777</v>
+      </c>
+      <c r="BR239" s="3">
+        <v>795600</v>
+      </c>
+      <c r="BS239" s="3">
+        <v>599919</v>
+      </c>
+      <c r="BT239" s="3">
+        <v>568023</v>
+      </c>
+      <c r="BU239" s="3">
+        <v>461713</v>
+      </c>
+      <c r="BV239" s="3">
+        <v>2071591</v>
+      </c>
+      <c r="BZ239" s="1">
+        <v>43983</v>
+      </c>
+      <c r="CA239" s="3">
+        <f>SUM(AZ239-AZ238)</f>
+        <v>941</v>
+      </c>
+      <c r="CB239" s="3">
+        <f>SUM(BQ239-BQ238)</f>
+        <v>49952</v>
+      </c>
+      <c r="CE239" s="1">
+        <v>43983</v>
+      </c>
+      <c r="CF239">
+        <f>SUM(BA239-BA238)</f>
+        <v>473</v>
+      </c>
+      <c r="CG239" s="3">
+        <f>SUM(BR239-BR238)</f>
+        <v>49455</v>
+      </c>
+      <c r="CJ239" s="1">
+        <v>43983</v>
+      </c>
+      <c r="CK239">
+        <f>SUM(BB239-BB238)</f>
+        <v>3840</v>
+      </c>
+      <c r="CL239" s="3">
+        <f>SUM(BS239-BS238)</f>
+        <v>7066</v>
+      </c>
+      <c r="CO239" s="1">
+        <v>43983</v>
+      </c>
+      <c r="CP239">
+        <f>SUM(BC239-BC238)</f>
+        <v>135</v>
+      </c>
+      <c r="CQ239" s="3">
+        <f>SUM(BT239-BT238)</f>
+        <v>13393</v>
+      </c>
+      <c r="CT239" s="1">
+        <v>43983</v>
+      </c>
+      <c r="CU239">
+        <f>SUM(BD239-BD238)</f>
+        <v>356</v>
+      </c>
+      <c r="CV239" s="3"/>
+      <c r="CY239" s="1">
+        <v>43983</v>
+      </c>
+      <c r="CZ239">
+        <f>SUM(BF239-BF238)</f>
+        <v>2423</v>
+      </c>
+      <c r="DA239" s="3">
+        <f>SUM(BV239-BV238)</f>
+        <v>59008</v>
+      </c>
+      <c r="DG239" s="1">
+        <v>43983</v>
+      </c>
+      <c r="DH239" s="3">
+        <f>SUM(C63+D63+E63+F63+G63)</f>
+        <v>523</v>
+      </c>
+      <c r="DI239">
+        <f>SUM(Q63+P63+O63+N63+M63)</f>
+        <v>172</v>
+      </c>
+      <c r="DJ239" s="3">
+        <f>SUM(W63+X63+Y63+Z63+AA63)</f>
+        <v>2919</v>
+      </c>
+      <c r="DK239">
+        <f>SUM(AG63+AH63+AI63+AJ63+AK63)</f>
+        <v>57</v>
+      </c>
+      <c r="DL239">
+        <f>SUM(AQ63+AR63+AS63+AT63+AU63)</f>
+        <v>161</v>
+      </c>
+      <c r="DM239">
+        <f>SUM(BA63+BB63+BC63+BD63+BE63)</f>
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="240" spans="49:117" x14ac:dyDescent="0.2">
+      <c r="AZ240" s="5">
+        <v>373040</v>
+      </c>
+      <c r="BA240" s="5">
+        <v>161545</v>
+      </c>
+      <c r="BB240" s="5">
+        <v>101163</v>
+      </c>
+      <c r="BC240" s="5">
+        <v>57731</v>
+      </c>
+      <c r="BD240" s="5">
+        <v>72894</v>
+      </c>
+      <c r="BF240" s="5">
+        <v>115310</v>
+      </c>
+      <c r="BQ240" s="3">
         <v>2167831</v>
       </c>
+      <c r="BR240" s="3">
+        <v>817677</v>
+      </c>
+      <c r="BS240" s="3">
+        <v>605771</v>
+      </c>
+      <c r="BT240" s="3">
+        <v>577268</v>
+      </c>
+      <c r="BU240" s="3">
+        <v>472255</v>
+      </c>
+      <c r="BV240" s="3">
+        <v>2131294</v>
+      </c>
+      <c r="BZ240" s="1">
+        <v>43984</v>
+      </c>
+      <c r="CA240" s="3">
+        <f>SUM(AZ240-AZ239)</f>
+        <v>1329</v>
+      </c>
+      <c r="CB240" s="3">
+        <f>SUM(BQ240-BQ239)</f>
+        <v>54054</v>
+      </c>
+      <c r="CE240" s="1">
+        <v>43984</v>
+      </c>
+      <c r="CF240">
+        <f>SUM(BA240-BA239)</f>
+        <v>627</v>
+      </c>
+      <c r="CG240" s="3">
+        <f>SUM(BR240-BR239)</f>
+        <v>22077</v>
+      </c>
+      <c r="CJ240" s="1">
+        <v>43984</v>
+      </c>
+      <c r="CK240">
+        <f>SUM(BB240-BB239)</f>
+        <v>358</v>
+      </c>
+      <c r="CL240" s="3">
+        <f>SUM(BS240-BS239)</f>
+        <v>5852</v>
+      </c>
+      <c r="CO240" s="1">
+        <v>43984</v>
+      </c>
+      <c r="CP240">
+        <f>SUM(BC240-BC239)</f>
+        <v>199</v>
+      </c>
+      <c r="CQ240" s="3">
+        <f>SUM(BT240-BT239)</f>
+        <v>9245</v>
+      </c>
+      <c r="CT240" s="1">
+        <v>43984</v>
+      </c>
+      <c r="CU240">
+        <f>SUM(BD240-BD239)</f>
+        <v>612</v>
+      </c>
+      <c r="CV240" s="3">
+        <f>SUM(BU240-BU239)</f>
+        <v>10542</v>
+      </c>
+      <c r="CY240" s="1">
+        <v>43984</v>
+      </c>
+      <c r="CZ240">
+        <f>SUM(BF240-BF239)</f>
+        <v>2304</v>
+      </c>
+      <c r="DA240" s="3">
+        <f>SUM(BV240-BV239)</f>
+        <v>59703</v>
+      </c>
+      <c r="DG240" s="1">
+        <v>43984</v>
+      </c>
+      <c r="DH240" s="3">
+        <f>SUM(C64+D64+E64+F64+G64)</f>
+        <v>863</v>
+      </c>
+      <c r="DI240">
+        <f>SUM(Q64+P64+O64+N64+M64)</f>
+        <v>159</v>
+      </c>
+      <c r="DJ240" s="3">
+        <f>SUM(W64+X64+Y64+Z64+AA64)</f>
+        <v>301</v>
+      </c>
+      <c r="DK240">
+        <f>SUM(AG64+AH64+AI64+AJ64+AK64)</f>
+        <v>49</v>
+      </c>
+      <c r="DL240">
+        <f>SUM(AQ64+AR64+AS64+AT64+AU64)</f>
+        <v>323</v>
+      </c>
+      <c r="DM240">
+        <f>SUM(BA64+BB64+BC64+BD64+BE64)</f>
+        <v>1707</v>
+      </c>
     </row>
-    <row r="239" spans="52:117" x14ac:dyDescent="0.2">
-      <c r="BM239" s="3"/>
+    <row r="241" spans="51:117" x14ac:dyDescent="0.2">
+      <c r="AZ241" s="5">
+        <v>374085</v>
+      </c>
+      <c r="BA241" s="5">
+        <v>162068</v>
+      </c>
+      <c r="BB241" s="5">
+        <v>101592</v>
+      </c>
+      <c r="BC241" s="5">
+        <v>58035</v>
+      </c>
+      <c r="BD241" s="5">
+        <v>73405</v>
+      </c>
+      <c r="BF241" s="5">
+        <v>117687</v>
+      </c>
+      <c r="BQ241" s="3">
+        <v>2229473</v>
+      </c>
+      <c r="BR241" s="3">
+        <v>837420</v>
+      </c>
+      <c r="BS241" s="3">
+        <v>614133</v>
+      </c>
+      <c r="BT241" s="3">
+        <v>593549</v>
+      </c>
+      <c r="BU241" s="3">
+        <v>481674</v>
+      </c>
+      <c r="BV241" s="3">
+        <v>2182671</v>
+      </c>
+      <c r="BZ241" s="1">
+        <v>43985</v>
+      </c>
+      <c r="CA241" s="3">
+        <f>SUM(AZ241-AZ240)</f>
+        <v>1045</v>
+      </c>
+      <c r="CB241" s="3">
+        <f>SUM(BQ241-BQ240)</f>
+        <v>61642</v>
+      </c>
+      <c r="CE241" s="1">
+        <v>43985</v>
+      </c>
+      <c r="CF241">
+        <f>SUM(BA241-BA240)</f>
+        <v>523</v>
+      </c>
+      <c r="CG241" s="3">
+        <f>SUM(BR241-BR240)</f>
+        <v>19743</v>
+      </c>
+      <c r="CJ241" s="1">
+        <v>43985</v>
+      </c>
+      <c r="CK241">
+        <f>SUM(BB241-BB240)</f>
+        <v>429</v>
+      </c>
+      <c r="CL241" s="3">
+        <f>SUM(BS241-BS240)</f>
+        <v>8362</v>
+      </c>
+      <c r="CO241" s="1">
+        <v>43985</v>
+      </c>
+      <c r="CP241">
+        <f>SUM(BC241-BC240)</f>
+        <v>304</v>
+      </c>
+      <c r="CQ241" s="3">
+        <f>SUM(BT241-BT240)</f>
+        <v>16281</v>
+      </c>
+      <c r="CT241" s="1">
+        <v>43985</v>
+      </c>
+      <c r="CU241">
+        <f>SUM(BD241-BD240)</f>
+        <v>511</v>
+      </c>
+      <c r="CV241" s="3">
+        <f>SUM(BU241-BU240)</f>
+        <v>9419</v>
+      </c>
+      <c r="CY241" s="1">
+        <v>43985</v>
+      </c>
+      <c r="CZ241">
+        <f>SUM(BF241-BF240)</f>
+        <v>2377</v>
+      </c>
+      <c r="DA241" s="3">
+        <f>SUM(BV241-BV240)</f>
+        <v>51377</v>
+      </c>
+      <c r="DG241" s="1">
+        <v>43985</v>
+      </c>
+      <c r="DH241" s="3">
+        <f>SUM(C65+D65+E65+F65+G65)</f>
+        <v>554</v>
+      </c>
+      <c r="DI241">
+        <f>SUM(Q65+P65+O65+N65+M65)</f>
+        <v>193</v>
+      </c>
+      <c r="DJ241" s="3">
+        <f>SUM(W65+X65+Y65+Z65+AA65)</f>
+        <v>306</v>
+      </c>
+      <c r="DK241">
+        <f>SUM(AG65+AH65+AI65+AJ65+AK65)</f>
+        <v>164</v>
+      </c>
+      <c r="DL241">
+        <f>SUM(AQ65+AR65+AS65+AT65+AU65)</f>
+        <v>271</v>
+      </c>
+      <c r="DM241">
+        <f>SUM(BA65+BB65+BC65+BD65+BE65)</f>
+        <v>1429</v>
+      </c>
     </row>
-    <row r="240" spans="52:117" x14ac:dyDescent="0.2">
-      <c r="BM240" s="3"/>
+    <row r="242" spans="51:117" x14ac:dyDescent="0.2">
+      <c r="AZ242" s="3">
+        <v>375133</v>
+      </c>
+      <c r="BA242" s="3">
+        <v>162530</v>
+      </c>
+      <c r="BB242" s="3">
+        <v>102063</v>
+      </c>
+      <c r="BC242" s="3">
+        <v>58241</v>
+      </c>
+      <c r="BD242" s="3">
+        <v>73942</v>
+      </c>
+      <c r="BF242" s="3">
+        <v>119807</v>
+      </c>
+      <c r="BG242" s="5"/>
+      <c r="BQ242" s="3">
+        <v>2293032</v>
+      </c>
+      <c r="BR242" s="3">
+        <v>857729</v>
+      </c>
+      <c r="BS242" s="3">
+        <v>621248</v>
+      </c>
+      <c r="BT242" s="3">
+        <v>608983</v>
+      </c>
+      <c r="BV242" s="3">
+        <v>2238463</v>
+      </c>
+      <c r="BZ242" s="1">
+        <v>43986</v>
+      </c>
+      <c r="CA242" s="3">
+        <f>SUM(AZ242-AZ241)</f>
+        <v>1048</v>
+      </c>
+      <c r="CB242" s="3">
+        <f>SUM(BQ242-BQ241)</f>
+        <v>63559</v>
+      </c>
+      <c r="CE242" s="1">
+        <v>43986</v>
+      </c>
+      <c r="CF242">
+        <f>SUM(BA242-BA241)</f>
+        <v>462</v>
+      </c>
+      <c r="CG242" s="3">
+        <f>SUM(BR242-BR241)</f>
+        <v>20309</v>
+      </c>
+      <c r="CJ242" s="1">
+        <v>43986</v>
+      </c>
+      <c r="CK242">
+        <f>SUM(BB242-BB241)</f>
+        <v>471</v>
+      </c>
+      <c r="CL242" s="3">
+        <f>SUM(BS242-BS241)</f>
+        <v>7115</v>
+      </c>
+      <c r="CO242" s="1">
+        <v>43986</v>
+      </c>
+      <c r="CP242">
+        <f>SUM(BC242-BC241)</f>
+        <v>206</v>
+      </c>
+      <c r="CQ242" s="3">
+        <f>SUM(BT242-BT241)</f>
+        <v>15434</v>
+      </c>
+      <c r="CT242" s="1">
+        <v>43986</v>
+      </c>
+      <c r="CU242">
+        <f>SUM(BD242-BD241)</f>
+        <v>537</v>
+      </c>
+      <c r="CV242" s="3"/>
+      <c r="CY242" s="1">
+        <v>43986</v>
+      </c>
+      <c r="CZ242">
+        <f>SUM(BF242-BF241)</f>
+        <v>2120</v>
+      </c>
+      <c r="DA242" s="3">
+        <f>SUM(BV242-BV241)</f>
+        <v>55792</v>
+      </c>
+      <c r="DG242" s="1">
+        <v>43986</v>
+      </c>
+      <c r="DH242" s="3">
+        <f>SUM(C66+D66+E66+F66+G66)</f>
+        <v>576</v>
+      </c>
+      <c r="DI242">
+        <f>SUM(Q66+P66+O66+N66+M66)</f>
+        <v>214</v>
+      </c>
+      <c r="DJ242" s="3">
+        <f>SUM(W66+X66+Y66+Z66+AA66)</f>
+        <v>327</v>
+      </c>
+      <c r="DL242">
+        <f>SUM(AQ66+AR66+AS66+AT66+AU66)</f>
+        <v>266</v>
+      </c>
+      <c r="DM242">
+        <f>SUM(BA66+BB66+BC66+BD66+BE66)</f>
+        <v>2125</v>
+      </c>
     </row>
-    <row r="241" spans="65:65" x14ac:dyDescent="0.2">
-      <c r="BM241" s="3"/>
+    <row r="243" spans="51:117" x14ac:dyDescent="0.2">
+      <c r="AY243" s="3"/>
+      <c r="AZ243" s="3">
+        <v>376208</v>
+      </c>
+      <c r="BA243" s="5">
+        <v>163336</v>
+      </c>
+      <c r="BB243" s="5">
+        <v>102557</v>
+      </c>
+      <c r="BC243" s="5">
+        <v>58525</v>
+      </c>
+      <c r="BD243" s="5">
+        <v>74385</v>
+      </c>
+      <c r="BF243" s="5">
+        <v>122901</v>
+      </c>
+      <c r="BG243" s="5"/>
+      <c r="BQ243" s="3">
+        <v>2359512</v>
+      </c>
+      <c r="BR243" s="3">
+        <v>918891</v>
+      </c>
+      <c r="BS243" s="3">
+        <v>631008</v>
+      </c>
+      <c r="BT243" s="3">
+        <v>627547</v>
+      </c>
+      <c r="BU243" s="3">
+        <v>498586</v>
+      </c>
+      <c r="BZ243" s="1">
+        <v>43987</v>
+      </c>
+      <c r="CA243">
+        <v>1075</v>
+      </c>
+      <c r="CB243" s="3">
+        <f>SUM(BQ243-BQ242)</f>
+        <v>66480</v>
+      </c>
+      <c r="CE243" s="1">
+        <v>43987</v>
+      </c>
+      <c r="CF243">
+        <f>SUM(BA243-BA242)</f>
+        <v>806</v>
+      </c>
+      <c r="CG243" s="3">
+        <f>SUM(BR243-BR242)</f>
+        <v>61162</v>
+      </c>
+      <c r="CJ243" s="1">
+        <v>43987</v>
+      </c>
+      <c r="CK243">
+        <f>SUM(BB243-BB242)</f>
+        <v>494</v>
+      </c>
+      <c r="CL243" s="3">
+        <f>SUM(BS243-BS242)</f>
+        <v>9760</v>
+      </c>
+      <c r="CO243" s="1">
+        <v>43987</v>
+      </c>
+      <c r="CP243">
+        <f>SUM(BC243-BC242)</f>
+        <v>284</v>
+      </c>
+      <c r="CQ243" s="3">
+        <f>SUM(BT243-BT242)</f>
+        <v>18564</v>
+      </c>
+      <c r="CT243" s="1">
+        <v>43987</v>
+      </c>
+      <c r="CU243">
+        <f>SUM(BD243-BD242)</f>
+        <v>443</v>
+      </c>
+      <c r="CV243" s="3"/>
+      <c r="CY243" s="1">
+        <v>43987</v>
+      </c>
+      <c r="CZ243">
+        <f>SUM(BF243-BF242)</f>
+        <v>3094</v>
+      </c>
+      <c r="DA243" s="3"/>
+      <c r="DG243" s="1">
+        <v>43987</v>
+      </c>
+      <c r="DH243" s="3">
+        <f>SUM(C67+D67+E67+F67+G67)</f>
+        <v>593</v>
+      </c>
+      <c r="DI243">
+        <f>SUM(Q67+P67+O67+N67+M67)</f>
+        <v>376</v>
+      </c>
+      <c r="DJ243" s="3">
+        <f>SUM(W67+X67+Y67+Z67+AA67)</f>
+        <v>353</v>
+      </c>
+      <c r="DL243">
+        <f>SUM(AQ67+AR67+AS67+AT67+AU67)</f>
+        <v>202</v>
+      </c>
     </row>
-    <row r="242" spans="65:65" x14ac:dyDescent="0.2">
-      <c r="BM242" s="3"/>
+    <row r="244" spans="51:117" x14ac:dyDescent="0.2">
+      <c r="BG244" s="5"/>
     </row>
-    <row r="243" spans="65:65" x14ac:dyDescent="0.2">
-      <c r="BM243" s="3"/>
-    </row>
-    <row r="244" spans="65:65" x14ac:dyDescent="0.2">
-      <c r="BM244" s="3"/>
-    </row>
-    <row r="245" spans="65:65" x14ac:dyDescent="0.2">
+    <row r="245" spans="51:117" x14ac:dyDescent="0.2">
+      <c r="BG245" s="5"/>
       <c r="BM245" s="3"/>
     </row>
-    <row r="246" spans="65:65" x14ac:dyDescent="0.2">
+    <row r="246" spans="51:117" x14ac:dyDescent="0.2">
+      <c r="BG246" s="3"/>
       <c r="BM246" s="3"/>
     </row>
-    <row r="247" spans="65:65" x14ac:dyDescent="0.2">
+    <row r="247" spans="51:117" x14ac:dyDescent="0.2">
       <c r="BM247" s="3"/>
     </row>
-    <row r="248" spans="65:65" x14ac:dyDescent="0.2">
+    <row r="248" spans="51:117" x14ac:dyDescent="0.2">
       <c r="BM248" s="3"/>
     </row>
   </sheetData>
